--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/AVTOL/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D073BDB-FFB3-F147-B231-C03CE5536D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14ED2A-14C8-1D46-BBE0-ACE57E5DA35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="10000" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lift+cruise" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Total_drag</t>
   </si>
   <si>
-    <t>Conditions</t>
-  </si>
-  <si>
     <t>AoA</t>
   </si>
   <si>
@@ -317,12 +314,6 @@
     <t>W_motors</t>
   </si>
   <si>
-    <t>W_ESCs</t>
-  </si>
-  <si>
-    <t>W_frame</t>
-  </si>
-  <si>
     <t>W_wing</t>
   </si>
   <si>
@@ -342,6 +333,48 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>W_fuselage</t>
+  </si>
+  <si>
+    <t>W_landing_gear</t>
+  </si>
+  <si>
+    <t>W_htail</t>
+  </si>
+  <si>
+    <t>W_vtail</t>
+  </si>
+  <si>
+    <t>W_avionics</t>
+  </si>
+  <si>
+    <t>W_flight_control</t>
+  </si>
+  <si>
+    <t>W_anti_icing</t>
+  </si>
+  <si>
+    <t>W_furnishings</t>
+  </si>
+  <si>
+    <t>payload_weight</t>
+  </si>
+  <si>
+    <t>Bisection method for solving W_total</t>
+  </si>
+  <si>
+    <t>W_powerplant</t>
+  </si>
+  <si>
+    <t>W_structure</t>
+  </si>
+  <si>
+    <t>W_equipment</t>
+  </si>
+  <si>
+    <t>Constants</t>
   </si>
 </sst>
 </file>
@@ -383,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +447,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -427,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -446,7 +509,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -454,9 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,6 +610,1111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weight Percentages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CBBE-1C49-AF66-55E3903E2265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CBBE-1C49-AF66-55E3903E2265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CBBE-1C49-AF66-55E3903E2265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CBBE-1C49-AF66-55E3903E2265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CBBE-1C49-AF66-55E3903E2265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'lift+cruise'!$F$34:$F$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>W_payload</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W_battery</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W_powerplant</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W_structure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W_equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lift+cruise'!$G$34:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5945-D548-80A9-F0A77DB72269}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF547BA0-5BDD-EFD7-530F-6F79C8E174F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -853,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
-  <dimension ref="B1:Y38"/>
+  <dimension ref="B1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,10 +2045,11 @@
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="12" max="12" width="6.33203125" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
@@ -881,68 +2063,103 @@
     <col min="23" max="23" width="10" customWidth="1"/>
     <col min="24" max="24" width="9.5" customWidth="1"/>
     <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="J3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="P3" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="Q3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="P3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>67</v>
       </c>
@@ -953,8 +2170,8 @@
         <v>36</v>
       </c>
       <c r="G4">
-        <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$21*$C$34)^3 / (2 * $C$33 * PI() * $C$22^2* $C$5) )</f>
-        <v>291853.08376473968</v>
+        <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$21*$C$35)^3 / (2 * $C$34 * PI() * $C$22^2* $C$5) )</f>
+        <v>370704.43153783563</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -963,8 +2180,8 @@
         <v>48</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> $C$21 * $C$34</f>
-        <v>14715</v>
+        <f xml:space="preserve"> $C$21 * $C$35</f>
+        <v>17258.482001234643</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -976,38 +2193,59 @@
         <v>0</v>
       </c>
       <c r="R4" s="8">
-        <f xml:space="preserve"> $K$18 * TAN($K$15) + $K$19 / (2 * SQRT($K$18^2 + Q4^2)) - Q4</f>
-        <v>0.58425088338188247</v>
+        <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
+        <v>0.6534009566313479</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
-        <f xml:space="preserve"> $K$18 * TAN($K$15) + $K$19 / (2 * SQRT($K$18^2 + S4^2)) - S4</f>
-        <v>-0.6754927486334632</v>
+        <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
+        <v>-0.67357508815696088</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
         <v>0.5</v>
       </c>
       <c r="V4" s="8">
-        <f xml:space="preserve"> $K$18 * TAN($K$15) + $K$19 / (2 * SQRT($K$18^2 + U4^2)) - U4</f>
-        <v>-0.16810118167500365</v>
+        <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
+        <v>-0.16427027744759859</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-9.8213263891159197E-2</v>
+        <v>-0.10733435643035785</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.11355112925818138</v>
+        <v>0.11064836661333464</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
         <v>1</v>
       </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8">
+        <f>G29</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8">
+        <f>G29</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8">
+        <f>G29</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>65</v>
       </c>
@@ -1018,8 +2256,8 @@
         <v>38</v>
       </c>
       <c r="G5">
-        <f xml:space="preserve"> $C$21 * $C$34 / $C$5</f>
-        <v>2452.5</v>
+        <f xml:space="preserve"> $C$21 * $C$35 / $C$5</f>
+        <v>2876.4136668724404</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -1028,7 +2266,7 @@
         <v>49</v>
       </c>
       <c r="K5">
-        <f xml:space="preserve"> 0.5 * $C$33 * $C$24^2</f>
+        <f xml:space="preserve"> 0.5 * $C$34 * $C$24^2</f>
         <v>1852.8125000000002</v>
       </c>
       <c r="L5" t="s">
@@ -1042,39 +2280,76 @@
         <v>0</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $K$18 * TAN($K$15) + $K$19 / (2 * SQRT($K$18^2 + Q5^2)) - Q5</f>
-        <v>0.58425088338188247</v>
+        <f t="shared" si="0"/>
+        <v>0.6534009566313479</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
         <v>0.5</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $K$18 * TAN($K$15) + $K$19 / (2 * SQRT($K$18^2 + S5^2)) - S5</f>
-        <v>-0.16810118167500365</v>
+        <f t="shared" si="1"/>
+        <v>-0.16427027744759859</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
+        <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
         <v>0.25</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $K$18 * TAN($K$15) + $K$19 / (2 * SQRT($K$18^2 + U5^2)) - U5</f>
-        <v>9.6563677734210207E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.10419045512088293</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>5.6417414018815726E-2</v>
+        <v>6.807814304784042E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-1.6232468334004976E-2</v>
+        <v>-1.7115394970099007E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
         <v>0.5</v>
       </c>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>500</v>
+      </c>
+      <c r="AC5" s="8">
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C21" ca="1"/>
+        <v>-387.71074190676364</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>2500</v>
+      </c>
+      <c r="AE5" s="8">
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C21" ca="1"/>
+        <v>17.800327323294368</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>(AB5+AD5)/2</f>
+        <v>1500</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C21"/>
+        <v>-47.313913459105152</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>AC5*AG5</f>
+        <v>18344.112489742067</v>
+      </c>
+      <c r="AI5" s="8">
+        <f>AE5*AG5</f>
+        <v>-842.20314651809463</v>
+      </c>
+      <c r="AJ5" s="8">
+        <f>AD5-AB5</f>
+        <v>2000</v>
+      </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1086,7 +2361,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> 1.6 * ($C$21*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.32993868766973189</v>
+        <v>0.36693977839770386</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1100,7 +2375,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>9.6563677734210207E-2</v>
+        <v>0.10419045512088293</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -1108,47 +2383,83 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.16810118167500365</v>
+        <v>-0.16427027744759859</v>
       </c>
       <c r="U6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="V6" s="8">
         <f t="shared" si="2"/>
-        <v>0.375</v>
-      </c>
-      <c r="V6" s="8">
-        <f t="shared" si="3"/>
-        <v>-3.8191293625573275E-2</v>
+        <v>-3.3089506961332005E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-3.6878917699124541E-3</v>
+        <v>-3.4476107900268055E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>6.4200015881559023E-3</v>
+        <v>5.4356224891422529E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
+      <c r="AA6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="8">
+        <f>IF(AH5&gt;0,AF5,AB5)</f>
+        <v>1500</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>-47.313913459105152</v>
+      </c>
+      <c r="AD6" s="8">
+        <f>IF(AI5&gt;0,AF5,AD5)</f>
+        <v>2500</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>17.800327323294368</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
+        <v>2000</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>25.674914961811965</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
+        <v>-1214.7807045730553</v>
+      </c>
+      <c r="AI6" s="8">
+        <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
+        <v>457.02189031800089</v>
+      </c>
+      <c r="AJ6" s="8">
+        <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>0.13</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="J7" t="s">
         <v>70</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K6 / $C$25</f>
-        <v>5.1552919948395608E-2</v>
+        <v>5.7334340374641225E-2</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
@@ -1159,7 +2470,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>9.6563677734210207E-2</v>
+        <v>0.10419045512088293</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -1167,30 +2478,66 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-3.8191293625573275E-2</v>
+        <v>-3.3089506961332005E-2</v>
       </c>
       <c r="U7" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="V7" s="8">
         <f t="shared" si="2"/>
-        <v>0.3125</v>
-      </c>
-      <c r="V7" s="8">
-        <f t="shared" si="3"/>
-        <v>2.8222450418169509E-2</v>
+        <v>3.4337276181752696E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>2.7252636070498465E-3</v>
+        <v>3.5776164329882668E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0778518907534949E-3</v>
+        <v>-1.1362035392492855E-3</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
+      <c r="AA7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0,AF6,AB6)</f>
+        <v>1500</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>-47.313913459105152</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
+        <v>2000</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>25.674914961811965</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="9"/>
+        <v>1750</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AH7" s="8">
+        <f t="shared" si="10"/>
+        <v>63.798948567847766</v>
+      </c>
+      <c r="AI7" s="8">
+        <f t="shared" si="11"/>
+        <v>-34.620526170347503</v>
+      </c>
+      <c r="AJ7" s="8">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1201,8 +2548,8 @@
         <v>41</v>
       </c>
       <c r="G8">
-        <f xml:space="preserve"> K21 + K16 * (K26 * K23 + $C$24 * SIN(K15))</f>
-        <v>84922.171492537891</v>
+        <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$24 * SIN(K17))</f>
+        <v>108255.92346359526</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -1212,7 +2559,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K5 * $C$25 * K7</f>
-        <v>611.3145247480752</v>
+        <v>679.87060816249573</v>
       </c>
       <c r="L8" t="s">
         <v>39</v>
@@ -1226,7 +2573,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>2.8222450418169509E-2</v>
+        <v>3.4337276181752696E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -1234,30 +2581,66 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-3.8191293625573275E-2</v>
+        <v>-3.3089506961332005E-2</v>
       </c>
       <c r="U8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34375</v>
+      </c>
+      <c r="V8" s="8">
         <f t="shared" si="2"/>
-        <v>0.34375</v>
-      </c>
-      <c r="V8" s="8">
-        <f t="shared" si="3"/>
-        <v>-5.1605827437828378E-3</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>-1.456442906152723E-4</v>
+        <v>1.3807900155271931E-5</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>1.9708933084687692E-4</v>
+        <v>-1.3306140122787288E-5</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
+      <c r="AA8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="14"/>
+        <v>2000</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>25.674914961811965</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="9"/>
+        <v>1875</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>14.608622084738727</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" si="10"/>
+        <v>-19.698533917236411</v>
+      </c>
+      <c r="AI8" s="8">
+        <f t="shared" si="11"/>
+        <v>375.07512973491504</v>
+      </c>
+      <c r="AJ8" s="8">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +2652,7 @@
       </c>
       <c r="G9">
         <f xml:space="preserve"> $C$6 * G8</f>
-        <v>84922.171492537891</v>
+        <v>108255.92346359526</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -1286,148 +2669,256 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="7"/>
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>2.8222450418169509E-2</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-5.1605827437828378E-3</v>
+        <v>-3.3089506961332005E-2</v>
       </c>
       <c r="U9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.359375</v>
+      </c>
+      <c r="V9" s="8">
         <f t="shared" si="2"/>
-        <v>0.328125</v>
-      </c>
-      <c r="V9" s="8">
-        <f t="shared" si="3"/>
-        <v>1.1480688847282594E-2</v>
+        <v>-1.6391988222810072E-2</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>3.2401317175886468E-4</v>
+        <v>-6.5916392298826105E-6</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>-5.9247044752026633E-5</v>
+        <v>5.4240280840874607E-4</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
         <v>3.125E-2</v>
       </c>
+      <c r="AA9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="14"/>
+        <v>1875</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>14.608622084738727</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="9"/>
+        <v>1812.5</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>7.2315173400106687</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="10"/>
+        <v>-9.7511105954406023</v>
+      </c>
+      <c r="AI9" s="8">
+        <f t="shared" si="11"/>
+        <v>105.6425039194509</v>
+      </c>
+      <c r="AJ9" s="8">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>51</v>
       </c>
       <c r="K10">
         <f xml:space="preserve"> K4 / (K5 * $C$25)</f>
-        <v>1.2409343902850394</v>
+        <v>1.4554294148452218</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>0.328125</v>
+        <v>0.34375</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>1.1480688847282594E-2</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-5.1605827437828378E-3</v>
+        <v>-1.6391988222810072E-2</v>
       </c>
       <c r="U10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3515625</v>
+      </c>
+      <c r="V10" s="8">
         <f t="shared" si="2"/>
-        <v>0.3359375</v>
-      </c>
-      <c r="V10" s="8">
-        <f t="shared" si="3"/>
-        <v>3.148356050744705E-3</v>
+        <v>-8.0078008059947803E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>3.6145296199059407E-5</v>
+        <v>-3.2201422561071089E-6</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6247351906757409E-5</v>
+        <v>1.3126377650247544E-4</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
         <v>1.5625E-2</v>
       </c>
+      <c r="AA10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" si="14"/>
+        <v>1812.5</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>7.2315173400106687</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="9"/>
+        <v>1781.25</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>3.0906758263029133</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="10"/>
+        <v>-4.1675239621136013</v>
+      </c>
+      <c r="AI10" s="8">
+        <f t="shared" si="11"/>
+        <v>22.350275830261317</v>
+      </c>
+      <c r="AJ10" s="8">
+        <f t="shared" si="12"/>
+        <v>62.5</v>
+      </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="J11" t="s">
         <v>73</v>
       </c>
       <c r="K11">
         <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
-        <v>0.11633747841897502</v>
+        <v>0.14645043752924147</v>
       </c>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.3359375</v>
+        <v>0.34375</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>3.148356050744705E-3</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.34375</v>
+        <v>0.3515625</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-5.1605827437828378E-3</v>
+        <v>-8.0078008059947803E-3</v>
       </c>
       <c r="U11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34765625</v>
+      </c>
+      <c r="V11" s="8">
         <f t="shared" si="2"/>
-        <v>0.33984375</v>
-      </c>
-      <c r="V11" s="8">
-        <f t="shared" si="3"/>
-        <v>-1.0089381098975503E-3</v>
+        <v>-3.8061620383744721E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-3.1764964031228784E-6</v>
+        <v>-1.5305554558980865E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>5.2067085994821701E-6</v>
+        <v>3.0478987438641834E-5</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
         <v>7.8125E-3</v>
       </c>
+      <c r="AA11" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD11" s="8">
+        <f t="shared" si="14"/>
+        <v>1781.25</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>3.0906758263029133</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="9"/>
+        <v>1765.625</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.9082583887650344</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.2247122673803159</v>
+      </c>
+      <c r="AI11" s="8">
+        <f t="shared" si="11"/>
+        <v>2.8071322461929253</v>
+      </c>
+      <c r="AJ11" s="8">
+        <f t="shared" si="12"/>
+        <v>31.25</v>
+      </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1438,8 +2929,8 @@
         <v>44</v>
       </c>
       <c r="G12">
-        <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
-        <v>21601.37153109724</v>
+        <f xml:space="preserve"> (G4*$C$31 + G9*G13)/3600</f>
+        <v>106725.69199918545</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -1449,7 +2940,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> K5 * K11 * $C$25</f>
-        <v>1379.529819092206</v>
+        <v>1736.6092882217458</v>
       </c>
       <c r="L12" t="s">
         <v>39</v>
@@ -1459,48 +2950,84 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.3359375</v>
+        <v>0.34375</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>3.148356050744705E-3</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.33984375</v>
+        <v>0.34765625</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0089381098975503E-3</v>
+        <v>-3.8061620383744721E-3</v>
       </c>
       <c r="U12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.345703125</v>
+      </c>
+      <c r="V12" s="8">
         <f t="shared" si="2"/>
-        <v>0.337890625</v>
-      </c>
-      <c r="V12" s="8">
-        <f t="shared" si="3"/>
-        <v>1.0689906970746121E-3</v>
+        <v>-1.7028632090883011E-3</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>3.3655633293246553E-6</v>
+        <v>-6.8476500712285176E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0785454534045238E-6</v>
+        <v>6.4813733029764234E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
         <v>3.90625E-3</v>
       </c>
+      <c r="AA12" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" si="14"/>
+        <v>1765.625</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0.9082583887650344</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="9"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="10"/>
+        <v>0.28426820962335253</v>
+      </c>
+      <c r="AI12" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.19147543362811045</v>
+      </c>
+      <c r="AJ12" s="8">
+        <f t="shared" si="12"/>
+        <v>15.625</v>
+      </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>46</v>
       </c>
       <c r="G13">
-        <f xml:space="preserve"> $C$29 / $C$24</f>
-        <v>90.909090909090907</v>
+        <f xml:space="preserve"> $C$30 / $C$24</f>
+        <v>2727.2727272727275</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -1510,528 +3037,845 @@
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.337890625</v>
+        <v>0.34375</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>1.0689906970746121E-3</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.33984375</v>
+        <v>0.345703125</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0089381098975503E-3</v>
+        <v>-1.7028632090883011E-3</v>
       </c>
       <c r="U13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3447265625</v>
+      </c>
+      <c r="V13" s="8">
         <f t="shared" si="2"/>
-        <v>0.3388671875</v>
-      </c>
-      <c r="V13" s="8">
-        <f t="shared" si="3"/>
-        <v>2.9848256963116437E-5</v>
+        <v>-6.5058179843768826E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>3.1907509017463989E-8</v>
+        <v>-2.6161564091791965E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>-3.0115043964103091E-8</v>
+        <v>1.1078518090620401E-6</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
         <v>1.953125E-3</v>
       </c>
+      <c r="AA13" s="8">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="13"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="14"/>
+        <v>1765.625</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>0.9082583887650344</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="9"/>
+        <v>1761.71875</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0.35103858905245033</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="10"/>
+        <v>-7.400456399903016E-2</v>
+      </c>
+      <c r="AI13" s="8">
+        <f t="shared" si="11"/>
+        <v>0.3188337432871296</v>
+      </c>
+      <c r="AJ13" s="8">
+        <f t="shared" si="12"/>
+        <v>7.8125</v>
+      </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="J14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.3388671875</v>
+        <v>0.34375</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>2.9848256963116437E-5</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.33984375</v>
+        <v>0.3447265625</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0089381098975503E-3</v>
+        <v>-6.5058179843768826E-4</v>
       </c>
       <c r="U14" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34423828125</v>
+      </c>
+      <c r="V14" s="8">
         <f t="shared" si="2"/>
-        <v>0.33935546875</v>
-      </c>
-      <c r="V14" s="8">
-        <f t="shared" si="3"/>
-        <v>-4.8958924605574383E-4</v>
+        <v>-1.2428154552712734E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>-1.4613385622650283E-8</v>
+        <v>-4.9976799636000218E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>4.9396524854164887E-7</v>
+        <v>8.0855311401653939E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
         <v>9.765625E-4</v>
       </c>
+      <c r="AA14" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="13"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="14"/>
+        <v>1761.71875</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0.35103858905245033</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.765625</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>7.0689910544615486E-2</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.490256676083856E-2</v>
+      </c>
+      <c r="AI14" s="8">
+        <f t="shared" si="11"/>
+        <v>2.4814886457825751E-2</v>
+      </c>
+      <c r="AJ14" s="8">
+        <f t="shared" si="12"/>
+        <v>3.90625</v>
+      </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15">
-        <f xml:space="preserve"> (90 - $C$35) / 180 * PI()</f>
-        <v>1.48352986419518</v>
-      </c>
-      <c r="L15" t="s">
-        <v>54</v>
-      </c>
       <c r="P15" s="8">
         <v>11</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.3388671875</v>
+        <v>0.34375</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>2.9848256963116437E-5</v>
+        <v>4.0212566897224189E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.33935546875</v>
+        <v>0.34423828125</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-4.8958924605574383E-4</v>
+        <v>-1.2428154552712734E-4</v>
       </c>
       <c r="U15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.343994140625</v>
+      </c>
+      <c r="V15" s="8">
         <f t="shared" si="2"/>
-        <v>0.339111328125</v>
-      </c>
-      <c r="V15" s="8">
-        <f t="shared" si="3"/>
-        <v>-2.2988159805553687E-4</v>
+        <v>1.3890866342486374E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-6.8615650098535127E-9</v>
+        <v>5.5858739205763325E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>1.1254755827409984E-7</v>
+        <v>-1.7263783377549612E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
         <v>4.8828125E-4</v>
       </c>
+      <c r="AA15" s="8">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="13"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.765625</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>7.0689910544615486E-2</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="9"/>
+        <v>1758.7890625</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>-6.9918236420789981E-2</v>
+      </c>
+      <c r="AH15" s="8">
+        <f t="shared" si="10"/>
+        <v>1.4739885480591882E-2</v>
+      </c>
+      <c r="AI15" s="8">
+        <f t="shared" si="11"/>
+        <v>-4.9425138780229199E-3</v>
+      </c>
+      <c r="AJ15" s="8">
+        <f t="shared" si="12"/>
+        <v>1.953125</v>
+      </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>0.85</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <f xml:space="preserve"> K12 / $C$6</f>
-        <v>1379.529819092206</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
-      </c>
+      <c r="F16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="J16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.3388671875</v>
+        <v>0.343994140625</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>2.9848256963116437E-5</v>
+        <v>1.3890866342486374E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.339111328125</v>
+        <v>0.34423828125</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-2.2988159805553687E-4</v>
+        <v>-1.2428154552712734E-4</v>
       </c>
       <c r="U16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441162109375</v>
+      </c>
+      <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>0.3389892578125</v>
-      </c>
-      <c r="V16" s="8">
-        <f t="shared" si="3"/>
-        <v>-1.0001944938237139E-4</v>
+        <v>7.3102128929636301E-6</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-2.9854062264744391E-9</v>
+        <v>1.0154519023127844E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>2.2992630860654416E-8</v>
+        <v>-9.085245564698526E-10</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
         <v>2.44140625E-4</v>
       </c>
+      <c r="AA16" s="8">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="13"/>
+        <v>1758.7890625</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>-6.9918236420789981E-2</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.765625</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>7.0689910544615486E-2</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AH16" s="8">
+        <f t="shared" si="10"/>
+        <v>-2.952329775813371E-5</v>
+      </c>
+      <c r="AI16" s="8">
+        <f t="shared" si="11"/>
+        <v>2.9849140715510894E-5</v>
+      </c>
+      <c r="AJ16" s="8">
+        <f t="shared" si="12"/>
+        <v>0.9765625</v>
+      </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1">
         <v>0.8</v>
       </c>
-      <c r="F17" t="s">
-        <v>90</v>
+      <c r="F17" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
-        <v>113.45258157088887</v>
+        <v>627.79818823050266</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <f xml:space="preserve"> PI() * $C$24 / ($C$23 * $C$26)</f>
-        <v>191.98621771937624</v>
+        <f xml:space="preserve"> (90 - $C$36) / 180 * PI()</f>
+        <v>1.48352986419518</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P17" s="8">
         <v>13</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.3388671875</v>
+        <v>0.3441162109375</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>2.9848256963116437E-5</v>
+        <v>7.3102128929636301E-6</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.3389892578125</v>
+        <v>0.34423828125</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0001944938237139E-4</v>
+        <v>-1.2428154552712734E-4</v>
       </c>
       <c r="U17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34417724609375</v>
+      </c>
+      <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>0.33892822265625</v>
-      </c>
-      <c r="V17" s="8">
-        <f t="shared" si="3"/>
-        <v>-3.5086291288954907E-5</v>
+        <v>-5.8486502391763562E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-1.04726463827548E-9</v>
+        <v>-4.275487838486182E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>3.5093115355907638E-9</v>
+        <v>7.2687929097244045E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
         <v>1.220703125E-4</v>
       </c>
+      <c r="AA17" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="13"/>
+        <v>1758.7890625</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>-6.9918236420789981E-2</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.033203125</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>-3.4738475067570107E-2</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="10"/>
+        <v>2.4288529126720851E-3</v>
+      </c>
+      <c r="AI17" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.4668481294508436E-5</v>
+      </c>
+      <c r="AJ17" s="8">
+        <f t="shared" si="12"/>
+        <v>0.48828125</v>
+      </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>1.5</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>91</v>
+      <c r="F18" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$22*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$23*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
-        <v>107.04728746548329</v>
+        <v>129.12379999708568</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <f xml:space="preserve"> $C$24 * COS(K15) / (K17 * $C$23)</f>
-        <v>2.7742534554270872E-2</v>
+        <f xml:space="preserve"> K12 / $C$6</f>
+        <v>1736.6092882217458</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
       </c>
       <c r="P18" s="8">
         <v>14</v>
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.3388671875</v>
+        <v>0.3441162109375</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>2.9848256963116437E-5</v>
+        <v>7.3102128929636301E-6</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.33892822265625</v>
+        <v>0.34417724609375</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5086291288954907E-5</v>
+        <v>-5.8486502391763562E-5</v>
       </c>
       <c r="U18" s="8">
+        <f t="shared" si="3"/>
+        <v>0.344146728515625</v>
+      </c>
+      <c r="V18" s="8">
         <f t="shared" si="2"/>
-        <v>0.338897705078125</v>
-      </c>
-      <c r="V18" s="8">
-        <f t="shared" si="3"/>
-        <v>-2.6191909791029033E-6</v>
+        <v>-2.5588353822936227E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-7.8178285379739989E-11</v>
+        <v>-1.8705631402614359E-10</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>9.1897697634207475E-11</v>
+        <v>1.496573317066452E-9</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
         <v>6.103515625E-5</v>
       </c>
+      <c r="AA18" s="8">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.033203125</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>-3.4738475067570107E-2</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.1552734375</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>-1.7156761490696226E-2</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" si="10"/>
+        <v>5.9599973128479785E-4</v>
+      </c>
+      <c r="AI18" s="8">
+        <f t="shared" si="11"/>
+        <v>-7.2445216582221059E-6</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f t="shared" si="12"/>
+        <v>0.244140625</v>
+      </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>92</v>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F19" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
-        <v>82.505747988368185</v>
+        <v>101.71654674026901</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <f xml:space="preserve"> K16 / ( $C$33 * PI() * $C$23^2 * K17^2 * $C$23^2)</f>
-        <v>1.4822961742621928E-2</v>
+        <f xml:space="preserve"> PI() * $C$24 / ($C$23 * $C$26)</f>
+        <v>191.98621771937624</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
       </c>
       <c r="P19" s="8">
         <v>15</v>
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.3388671875</v>
+        <v>0.3441162109375</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>2.9848256963116437E-5</v>
+        <v>7.3102128929636301E-6</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.338897705078125</v>
+        <v>0.344146728515625</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6191909791029033E-6</v>
+        <v>-2.5588353822936227E-5</v>
       </c>
       <c r="U19" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441314697265625</v>
+      </c>
+      <c r="V19" s="8">
         <f t="shared" si="2"/>
-        <v>0.3388824462890625</v>
-      </c>
-      <c r="V19" s="8">
-        <f t="shared" si="3"/>
-        <v>1.361448953218769E-5</v>
+        <v>-9.1391227402537467E-6</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>4.0636878197839709E-10</v>
+        <v>-6.6808932886180036E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>-3.5658948167796905E-11</v>
+        <v>2.3385510630885535E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
         <v>3.0517578125E-5</v>
       </c>
+      <c r="AA19" s="8">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.1552734375</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>-1.7156761490696226E-2</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.21630859375</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>-8.3667102057916054E-3</v>
+      </c>
+      <c r="AH19" s="8">
+        <f t="shared" si="10"/>
+        <v>1.4354565146254051E-4</v>
+      </c>
+      <c r="AI19" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.5328819676600593E-6</v>
+      </c>
+      <c r="AJ19" s="8">
+        <f t="shared" si="12"/>
+        <v>0.1220703125</v>
+      </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="F20" t="s">
-        <v>93</v>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="F20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20">
+        <f xml:space="preserve"> 14.86 * ($C$21*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
+        <v>155.13153788682038</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.2E-2</v>
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <f xml:space="preserve"> $C$24 * COS(K17) / (K19 * $C$23)</f>
+        <v>2.7742534554270872E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.3388824462890625</v>
+        <v>0.3441162109375</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.361448953218769E-5</v>
+        <v>7.3102128929636301E-6</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.338897705078125</v>
+        <v>0.3441314697265625</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6191909791029033E-6</v>
+        <v>-9.1391227402537467E-6</v>
       </c>
       <c r="U20" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412384033203125</v>
+      </c>
+      <c r="V20" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889007568359375</v>
-      </c>
-      <c r="V20" s="8">
-        <f t="shared" si="3"/>
-        <v>5.4976384123439637E-6</v>
+        <v>-9.1446799327377093E-7</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>7.4847540616609852E-11</v>
+        <v>-6.684955714632498E-12</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>-1.4399364935980917E-11</v>
+        <v>8.3574352325625303E-12</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
         <v>1.52587890625E-5</v>
       </c>
+      <c r="AA20" s="8">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.21630859375</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>-8.3667102057916054E-3</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.246826171875</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>-3.9720919878618588E-3</v>
+      </c>
+      <c r="AH20" s="8">
+        <f t="shared" si="10"/>
+        <v>3.3233342573186878E-5</v>
+      </c>
+      <c r="AI20" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.6772341592625357E-6</v>
+      </c>
+      <c r="AJ20" s="8">
+        <f t="shared" si="12"/>
+        <v>6.103515625E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="3">
-        <v>1500</v>
+        <f>AF44</f>
+        <v>1759.2744139892602</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" t="s">
-        <v>94</v>
+      <c r="F21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$21*2.20462*5.7)^0.684 * 0.453592</f>
+        <v>34.803957488997163</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <f xml:space="preserve"> ($C$8 * $K$20 / 8) * (1 + 4.65 * K18^2) * ( PI() * $C$33 * K17^3 * C23^5)</f>
-        <v>3146.9858091218234</v>
-      </c>
-      <c r="L21" t="s">
-        <v>37</v>
+        <f xml:space="preserve"> K18 / ( $C$34 * PI() * $C$23^2 * K19^2 * $C$23^2)</f>
+        <v>1.8659758335729235E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889007568359375</v>
+        <v>0.3441162109375</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>5.4976384123439637E-6</v>
+        <v>7.3102128929636301E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.338897705078125</v>
+        <v>0.34412384033203125</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6191909791029033E-6</v>
+        <v>-9.1446799327377093E-7</v>
       </c>
       <c r="U21" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412002563476562</v>
+      </c>
+      <c r="V21" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889389038085938</v>
-      </c>
-      <c r="V21" s="8">
-        <f t="shared" si="3"/>
-        <v>1.4392210006541895E-6</v>
+        <v>3.1978691823475458E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>7.9123166570485882E-12</v>
+        <v>2.337710452680809E-11</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>-3.7695946618489064E-12</v>
+        <v>-2.9243490139333949E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
         <v>7.62939453125E-6</v>
       </c>
+      <c r="AA21" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.246826171875</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>-3.9720919878618588E-3</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2620849609375</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>-1.774884736050808E-3</v>
+      </c>
+      <c r="AH21" s="8">
+        <f t="shared" si="10"/>
+        <v>7.0500054394457242E-6</v>
+      </c>
+      <c r="AI21" s="8">
+        <f t="shared" si="11"/>
+        <v>-7.494532647166919E-7</v>
+      </c>
+      <c r="AJ21" s="8">
+        <f t="shared" si="12"/>
+        <v>3.0517578125E-2</v>
+      </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -2041,60 +3885,99 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" t="s">
-        <v>95</v>
+      <c r="F22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22">
+        <f xml:space="preserve"> 0.04674 * ($C$21*2.20462)^0.397 * ($C$25*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
+        <v>206.16084700286123</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="5">
-        <f>U34</f>
-        <v>0.338895243126899</v>
+        <v>7</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.2E-2</v>
       </c>
       <c r="P22" s="8">
         <v>18</v>
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889389038085938</v>
+        <v>0.34412002563476562</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>1.4392210006541895E-6</v>
+        <v>3.1978691823475458E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.338897705078125</v>
+        <v>0.34412384033203125</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6191909791029033E-6</v>
+        <v>-9.1446799327377093E-7</v>
       </c>
       <c r="U22" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412193298339844</v>
+      </c>
+      <c r="V22" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889579772949219</v>
-      </c>
-      <c r="V22" s="8">
-        <f t="shared" si="3"/>
-        <v>-5.8998566820900322E-7</v>
+        <v>1.1416997776625415E-6</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>-8.4911976377139224E-13</v>
+        <v>3.6510065344800862E-12</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>1.5452851399730198E-12</v>
+        <v>-1.0440479046001747E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
         <v>3.814697265625E-6</v>
       </c>
+      <c r="AA22" s="8">
+        <v>18</v>
+      </c>
+      <c r="AB22" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2620849609375</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>-1.774884736050808E-3</v>
+      </c>
+      <c r="AD22" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2697143554688</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>-6.7548221659308183E-4</v>
+      </c>
+      <c r="AH22" s="8">
+        <f t="shared" si="10"/>
+        <v>1.1989030757048268E-6</v>
+      </c>
+      <c r="AI22" s="8">
+        <f t="shared" si="11"/>
+        <v>-2.8522548095723832E-7</v>
+      </c>
+      <c r="AJ22" s="8">
+        <f t="shared" si="12"/>
+        <v>1.52587890625E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -2104,64 +3987,102 @@
       <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="F23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <f xml:space="preserve"> K17 * $C$23 * K22 - $C$24 * SIN(K15)</f>
-        <v>3.766185942873598</v>
+        <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$34 * K19^3 * C23^5)</f>
+        <v>3146.9858091218234</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889389038085938</v>
+        <v>0.34412193298339844</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.4392210006541895E-6</v>
+        <v>1.1416997776625415E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889579772949219</v>
+        <v>0.34412384033203125</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-5.8998566820900322E-7</v>
+        <v>-9.1446799327377093E-7</v>
       </c>
       <c r="U23" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412288665771484</v>
+      </c>
+      <c r="V23" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889484405517578</v>
-      </c>
-      <c r="V23" s="8">
-        <f t="shared" si="3"/>
-        <v>4.2461749649724823E-7</v>
+        <v>1.136156879688599E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>6.1111841820404638E-13</v>
+        <v>1.2971500569302404E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-2.5051823740416309E-13</v>
+        <v>-1.0389791018130224E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
         <v>1.9073486328125E-6</v>
       </c>
+      <c r="AA23" s="8">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2697143554688</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>-6.7548221659308183E-4</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="10"/>
+        <v>8.6080778448836608E-8</v>
+      </c>
+      <c r="AI23" s="8">
+        <f t="shared" si="11"/>
+        <v>-5.3810455361379228E-8</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f t="shared" si="12"/>
+        <v>7.62939453125E-3</v>
+      </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -2171,58 +4092,99 @@
       <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="15"/>
+      <c r="F24" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
       <c r="J24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24">
-        <f xml:space="preserve"> 1/$C$9 - K21 * SQRT( (2*$C$33*PI()*$C$23^2) / K16^3 )</f>
-        <v>1.1799780884059028</v>
+        <v>60</v>
+      </c>
+      <c r="K24" s="5">
+        <f>U34</f>
+        <v>0.34412299236282706</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889484405517578</v>
+        <v>0.34412288665771484</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>4.2461749649724823E-7</v>
+        <v>1.136156879688599E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889579772949219</v>
+        <v>0.34412384033203125</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-5.8998566820900322E-7</v>
+        <v>-9.1446799327377093E-7</v>
       </c>
       <c r="U24" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412336349487305</v>
+      </c>
+      <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889532089233398</v>
-      </c>
-      <c r="V24" s="8">
-        <f t="shared" si="3"/>
-        <v>-8.2684128266397039E-8</v>
+        <v>-4.0042620375047022E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-3.5109127544534869E-14</v>
+        <v>-4.5494698619868544E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>4.8782450665529188E-14</v>
+        <v>3.6617694699792661E-13</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
         <v>9.5367431640625E-7</v>
       </c>
+      <c r="AA24" s="8">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2754364013672</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>1.4740981623617699E-4</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.8785323167514503E-8</v>
+      </c>
+      <c r="AI24" s="8">
+        <f t="shared" si="11"/>
+        <v>6.2244474689272409E-8</v>
+      </c>
+      <c r="AJ24" s="8">
+        <f t="shared" si="12"/>
+        <v>3.814697265625E-3</v>
+      </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2232,582 +4194,1420 @@
       <c r="D25" t="s">
         <v>23</v>
       </c>
+      <c r="F25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25">
+        <f xml:space="preserve"> 0.0268 * $C$21</f>
+        <v>47.148554294912174</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
       <c r="J25" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1.1499999999999999</v>
+        <v>61</v>
+      </c>
+      <c r="K25">
+        <f xml:space="preserve"> K19 * $C$23 * K24 - $C$24 * SIN(K17)</f>
+        <v>4.6694761655656691</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889484405517578</v>
+        <v>0.34412288665771484</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>4.2461749649724823E-7</v>
+        <v>1.136156879688599E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889532089233398</v>
+        <v>0.34412336349487305</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-8.2684128266397039E-8</v>
+        <v>-4.0042620375047022E-7</v>
       </c>
       <c r="U25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412312507629395</v>
+      </c>
+      <c r="V25" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889508247375488</v>
-      </c>
-      <c r="V25" s="8">
-        <f t="shared" si="3"/>
-        <v>1.7096667348504013E-7</v>
+        <v>-1.4340527065836994E-7</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>7.2595440879680204E-14</v>
+        <v>-1.629308848421126E-14</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.413623035971628E-14</v>
+        <v>5.7423228127539771E-14</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
         <v>4.76837158203125E-7</v>
       </c>
+      <c r="AA25" s="8">
+        <v>21</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2754364013672</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>1.4740981623617699E-4</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.3777597071413283E-9</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" si="11"/>
+        <v>1.5937038377231026E-9</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="12"/>
+        <v>1.9073486328125E-3</v>
+      </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
+      <c r="F26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <f xml:space="preserve"> 11.5 * ($C$21*2.20462/1000)^0.4 * 0.453592</f>
+        <v>8.9707790153142888</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <f xml:space="preserve"> 1/$C$38 * LN( EXP($C$38 * K24) + EXP($C$38 * K25) )</f>
-        <v>1.1913562192675804</v>
+        <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$34*PI()*$C$23^2) / K18^3 )</f>
+        <v>1.2247552694509789</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889508247375488</v>
+        <v>0.34412288665771484</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.7096667348504013E-7</v>
+        <v>1.136156879688599E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889532089233398</v>
+        <v>0.34412312507629395</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-8.2684128266397039E-8</v>
+        <v>-1.4340527065836994E-7</v>
       </c>
       <c r="U26" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412300586700439</v>
+      </c>
+      <c r="V26" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889520168304443</v>
-      </c>
-      <c r="V26" s="8">
-        <f t="shared" si="3"/>
-        <v>4.4141269972541863E-8</v>
+        <v>-1.4894794508890641E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>7.5466860906105707E-15</v>
+        <v>-1.692282325282407E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>-3.6497824282513118E-15</v>
+        <v>2.1359920379482649E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
         <v>2.384185791015625E-7</v>
       </c>
+      <c r="AA26" s="8">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2740058898926</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>-5.7487935009703506E-5</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="10"/>
+        <v>7.3260347578217612E-9</v>
+      </c>
+      <c r="AI26" s="8">
+        <f t="shared" si="11"/>
+        <v>-6.2152402728018538E-10</v>
+      </c>
+      <c r="AJ26" s="8">
+        <f t="shared" si="12"/>
+        <v>9.5367431640625E-4</v>
+      </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="F27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <f xml:space="preserve"> 8 * ($C$21/1000)</f>
+        <v>14.074195311914082</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889520168304443</v>
+        <v>0.34412288665771484</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>4.4141269972541863E-8</v>
+        <v>1.136156879688599E-7</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889532089233398</v>
+        <v>0.34412300586700439</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-8.2684128266397039E-8</v>
+        <v>-1.4894794508890641E-8</v>
       </c>
       <c r="U27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412294626235962</v>
+      </c>
+      <c r="V27" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889526128768921</v>
-      </c>
-      <c r="V27" s="8">
-        <f t="shared" si="3"/>
-        <v>-1.9271429840816978E-8</v>
+        <v>4.9360445897317362E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-8.5066538736040171E-16</v>
+        <v>5.6081210190734E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>1.5934413768349824E-15</v>
+        <v>-7.3521369850775619E-16</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
         <v>1.1920928955078125E-7</v>
       </c>
+      <c r="AA27" s="8">
+        <v>23</v>
+      </c>
+      <c r="AB27" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2740058898926</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>-5.7487935009703506E-5</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2742443084717</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>-2.4162629188140272E-5</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="10"/>
+        <v>1.3890596564313729E-9</v>
+      </c>
+      <c r="AI27" s="8">
+        <f t="shared" si="11"/>
+        <v>-2.6123141490742079E-10</v>
+      </c>
+      <c r="AJ27" s="8">
+        <f t="shared" si="12"/>
+        <v>4.76837158203125E-4</v>
+      </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="F28" t="s">
-        <v>99</v>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="F28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28">
+        <f xml:space="preserve"> 13 * ($C$21*2.20462/1000)^1.3 * 0.453592</f>
+        <v>34.346008020428975</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <f xml:space="preserve"> 1/$C$39 * LN( EXP($C$39 * K26) + EXP($C$39 * K27) )</f>
+        <v>1.2281189006558431</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889520168304443</v>
+        <v>0.34412294626235962</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>4.4141269972541863E-8</v>
+        <v>4.9360445897317362E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889526128768921</v>
+        <v>0.34412300586700439</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-1.9271429840816978E-8</v>
+        <v>-1.4894794508890641E-8</v>
       </c>
       <c r="U28" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412297606468201</v>
+      </c>
+      <c r="V28" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889523148536682</v>
-      </c>
-      <c r="V28" s="8">
-        <f t="shared" si="3"/>
-        <v>1.2434919871573413E-8</v>
+        <v>1.7232825499924331E-8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>5.4889315513804766E-16</v>
+        <v>8.5061995074692596E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-2.396386858812079E-16</v>
+        <v>-2.5667939462894357E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
         <v>5.9604644775390625E-8</v>
       </c>
+      <c r="AA28" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB28" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2742443084717</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>-2.4162629188140272E-5</v>
+      </c>
+      <c r="AD28" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2743635177612</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>-7.49998253013473E-6</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="10"/>
+        <v>1.8121929679317556E-10</v>
+      </c>
+      <c r="AI28" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.1085176322189364E-11</v>
+      </c>
+      <c r="AJ28" s="8">
+        <f t="shared" si="12"/>
+        <v>2.384185791015625E-4</v>
+      </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="3">
+        <f>$C$21 - $C$29 - SUM(G17:G28)</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P29" s="8">
         <v>25</v>
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889523148536682</v>
+        <v>0.34412297606468201</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>1.2434919871573413E-8</v>
+        <v>1.7232825499924331E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889526128768921</v>
+        <v>0.34412300586700439</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.9271429840816978E-8</v>
+        <v>-1.4894794508890641E-8</v>
       </c>
       <c r="U29" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441229909658432</v>
+      </c>
+      <c r="V29" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889524638652802</v>
-      </c>
-      <c r="V29" s="8">
-        <f t="shared" si="3"/>
-        <v>-3.4182550123773581E-9</v>
+        <v>1.169015440005694E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>-4.2505727179516634E-17</v>
+        <v>2.0145439084335386E-17</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>6.5874661649051227E-17</v>
+        <v>-1.7412244756605188E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
         <v>2.9802322387695312E-8</v>
       </c>
+      <c r="AA29" s="8">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2743635177612</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>-7.49998253013473E-6</v>
+      </c>
+      <c r="AD29" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.2417723448178093E-11</v>
+      </c>
+      <c r="AI29" s="8">
+        <f t="shared" si="11"/>
+        <v>1.7900408641353803E-11</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" si="12"/>
+        <v>1.1920928955078125E-4</v>
+      </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>240</v>
+        <v>150000</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" t="s">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>IF(ABS(G29)&lt;0.00001, "TRUE", "FALSE")</f>
+        <v>TRUE</v>
       </c>
       <c r="P30" s="8">
         <v>26</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889523148536682</v>
+        <v>0.3441229909658432</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.2434919871573413E-8</v>
+        <v>1.169015440005694E-9</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889524638652802</v>
+        <v>0.34412300586700439</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-3.4182550123773581E-9</v>
+        <v>-1.4894794508890641E-8</v>
       </c>
       <c r="U30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441229984164238</v>
+      </c>
+      <c r="V30" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889523893594742</v>
-      </c>
-      <c r="V30" s="8">
-        <f t="shared" si="3"/>
-        <v>4.5083324295980276E-9</v>
+        <v>-6.8628895899536246E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>5.6060752516467353E-17</v>
+        <v>-8.0228238937101335E-18</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5410629924936851E-17</v>
+        <v>1.0222133017956399E-16</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
         <v>1.4901161193847656E-8</v>
       </c>
+      <c r="AA30" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB30" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2743635177612</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>-7.49998253013473E-6</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2743933200836</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>-2.0977797703380929E-6</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" si="10"/>
+        <v>1.5733311629605743E-11</v>
+      </c>
+      <c r="AI30" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.4732946294973615E-12</v>
+      </c>
+      <c r="AJ30" s="8">
+        <f t="shared" si="12"/>
+        <v>5.9604644775390625E-5</v>
+      </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" t="s">
-        <v>100</v>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>240</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
       </c>
       <c r="P31" s="8">
         <v>27</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889523893594742</v>
+        <v>0.3441229909658432</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>4.5083324295980276E-9</v>
+        <v>1.169015440005694E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889524638652802</v>
+        <v>0.3441229984164238</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-3.4182550123773581E-9</v>
+        <v>-6.8628895899536246E-9</v>
       </c>
       <c r="U31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441229946911335</v>
+      </c>
+      <c r="V31" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889524266123772</v>
-      </c>
-      <c r="V31" s="8">
-        <f t="shared" si="3"/>
-        <v>5.4503868085475915E-10</v>
+        <v>-2.8469370749739653E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>2.4572155602828403E-18</v>
+        <v>-3.3281133973692136E-18</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-1.8630812027713237E-18</v>
+        <v>1.9538214815091848E-17</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
         <v>7.4505805969238281E-9</v>
       </c>
+      <c r="AA31" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2743933200836</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>-2.0977797703380929E-6</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744082212448</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>-1.0454011771798832E-6</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="10"/>
+        <v>2.1930214413755874E-12</v>
+      </c>
+      <c r="AI31" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.7308710598271776E-12</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f t="shared" si="12"/>
+        <v>2.9802322387695312E-5</v>
+      </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" t="s">
-        <v>100</v>
-      </c>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P32" s="8">
         <v>28</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889524266123772</v>
+        <v>0.3441229909658432</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>5.4503868085475915E-10</v>
+        <v>1.169015440005694E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889524638652802</v>
+        <v>0.3441229946911335</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-3.4182550123773581E-9</v>
+        <v>-2.8469370749739653E-9</v>
       </c>
       <c r="U32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412299282848835</v>
+      </c>
+      <c r="V32" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889524452388287</v>
-      </c>
-      <c r="V32" s="8">
-        <f t="shared" si="3"/>
-        <v>-1.4366081657612995E-9</v>
+        <v>-8.3896084523971126E-10</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>-7.8300701957171383E-19</v>
+        <v>-9.8075818164545002E-19</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>4.9106930634358044E-18</v>
+        <v>2.3884687347644292E-18</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
         <v>3.7252902984619141E-9</v>
       </c>
+      <c r="AA32" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB32" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744082212448</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>-1.0454011771798832E-6</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.1900395698575395E-13</v>
+      </c>
+      <c r="AI32" s="8">
+        <f t="shared" si="11"/>
+        <v>5.0523661542133822E-13</v>
+      </c>
+      <c r="AJ32" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4901161193847656E-5</v>
+      </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" t="s">
-        <v>100</v>
-      </c>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B33" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="F33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="P33" s="8">
         <v>29</v>
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889524266123772</v>
+        <v>0.3441229909658432</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>5.4503868085475915E-10</v>
+        <v>1.169015440005694E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889524452388287</v>
+        <v>0.34412299282848835</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4366081657612995E-9</v>
+        <v>-8.3896084523971126E-10</v>
       </c>
       <c r="U33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412299189716578</v>
+      </c>
+      <c r="V33" s="8">
         <f t="shared" si="2"/>
-        <v>0.33889524359256029</v>
-      </c>
-      <c r="V33" s="8">
-        <f t="shared" si="3"/>
-        <v>-4.4578474245327016E-10</v>
+        <v>1.6502732513856699E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>-2.4296992797190891E-19</v>
+        <v>1.9291949110982462E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>6.4041800118016572E-19</v>
+        <v>-1.3845146418590082E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
         <v>1.862645149230957E-9</v>
       </c>
+      <c r="AA33" s="8">
+        <v>29</v>
+      </c>
+      <c r="AB33" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744082212448</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>-1.0454011771798832E-6</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744119465351</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>-3.7012591747043189E-7</v>
+      </c>
+      <c r="AH33" s="8">
+        <f t="shared" si="10"/>
+        <v>3.869300698283738E-13</v>
+      </c>
+      <c r="AI33" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.1294384857549636E-13</v>
+      </c>
+      <c r="AJ33" s="8">
+        <f t="shared" si="12"/>
+        <v>7.4505805969238281E-6</v>
+      </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>9.81</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="G34">
+        <f>ROUND($C$29/$C$21 * 100, 2)</f>
+        <v>22.74</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P34" s="8">
         <v>30</v>
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.33889524266123772</v>
+        <v>0.34412299189716578</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>5.4503868085475915E-10</v>
+        <v>1.6502732513856699E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.33889524359256029</v>
+        <v>0.34412299282848835</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-4.4578474245327016E-10</v>
+        <v>-8.3896084523971126E-10</v>
       </c>
       <c r="U34" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412299236282706</v>
+      </c>
+      <c r="V34" s="8">
         <f t="shared" si="2"/>
-        <v>0.338895243126899</v>
-      </c>
-      <c r="V34" s="8">
-        <f t="shared" si="3"/>
-        <v>4.9626969200744497E-11</v>
+        <v>-3.3696678780614775E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>2.7048617827993542E-20</v>
+        <v>-5.5608727652183656E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>-2.2122945683890256E-20</v>
+        <v>2.8270194111555615E-19</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
         <v>9.3132257461547852E-10</v>
       </c>
+      <c r="AA34" s="8">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744119465351</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>-3.7012591747043189E-7</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" si="10"/>
+        <v>1.20246731039163E-14</v>
+      </c>
+      <c r="AI34" s="8">
+        <f t="shared" si="11"/>
+        <v>-9.9137249873366592E-15</v>
+      </c>
+      <c r="AJ34" s="8">
+        <f t="shared" si="12"/>
+        <v>3.7252902984619141E-6</v>
+      </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35">
+        <f>ROUND(G17/$C$21 * 100, 2)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>31</v>
+      </c>
+      <c r="AB35" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC35">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AE35">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744147405028</v>
+      </c>
+      <c r="AG35">
+        <v>1.3633098205900751E-7</v>
+      </c>
+      <c r="AH35" s="8">
+        <f t="shared" si="10"/>
+        <v>-4.429129157988252E-15</v>
+      </c>
+      <c r="AI35" s="8">
+        <f t="shared" si="11"/>
+        <v>4.160137149825864E-14</v>
+      </c>
+      <c r="AJ35" s="8">
+        <f t="shared" si="12"/>
+        <v>1.862645149230957E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F36" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(SUM(G18:G19)/$C$21 * 100, 2)</f>
+        <v>13.12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>32</v>
+      </c>
+      <c r="AB36" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC36">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744147405028</v>
+      </c>
+      <c r="AE36">
+        <v>1.3633098205900751E-7</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744142748415</v>
+      </c>
+      <c r="AG36">
+        <v>5.1921006161137484E-8</v>
+      </c>
+      <c r="AH36" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.6868127759898853E-15</v>
+      </c>
+      <c r="AI36" s="8">
+        <f t="shared" si="11"/>
+        <v>7.0784417594396528E-15</v>
+      </c>
+      <c r="AJ36" s="8">
+        <f t="shared" si="12"/>
+        <v>9.3132257461547852E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F37" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37">
+        <f>ROUND(SUM(G20:G24)/$C$21 * 100, 2)</f>
+        <v>22.51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>33</v>
+      </c>
+      <c r="AB37" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC37">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD37" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744142748415</v>
+      </c>
+      <c r="AE37">
+        <v>5.1921006161137484E-8</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AG37">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AH37" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.1565827845553459E-16</v>
+      </c>
+      <c r="AI37" s="8">
+        <f t="shared" si="11"/>
+        <v>5.0447134419249027E-16</v>
+      </c>
+      <c r="AJ37" s="8">
+        <f t="shared" si="12"/>
+        <v>4.6566128730773926E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B38" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="F38" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38">
+        <f>ROUND(SUM(G25:G28)/$C$21*100, 2)</f>
+        <v>5.94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>34</v>
+      </c>
+      <c r="AB38" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC38">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AE38">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139255956</v>
+      </c>
+      <c r="AG38">
+        <v>-1.1385736797819845E-8</v>
+      </c>
+      <c r="AH38" s="8">
+        <f t="shared" si="10"/>
+        <v>3.6990050298747765E-16</v>
+      </c>
+      <c r="AI38" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.1062532049537313E-16</v>
+      </c>
+      <c r="AJ38" s="8">
+        <f t="shared" si="12"/>
+        <v>2.3283064365386963E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="3">
+        <f>SUM(G34:G38)</f>
         <v>100</v>
       </c>
+      <c r="H39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>35</v>
+      </c>
+      <c r="AB39" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139255956</v>
+      </c>
+      <c r="AC39">
+        <v>-1.1385736797819845E-8</v>
+      </c>
+      <c r="AD39" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AE39">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AG39">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AH39" s="8">
+        <f t="shared" si="10"/>
+        <v>9.5061353753395616E-18</v>
+      </c>
+      <c r="AI39" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.1121553042238671E-18</v>
+      </c>
+      <c r="AJ39" s="8">
+        <f t="shared" si="12"/>
+        <v>1.1641532182693481E-7</v>
+      </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA40" s="8">
+        <v>36</v>
+      </c>
+      <c r="AB40" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC40">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AE40">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744140129071</v>
+      </c>
+      <c r="AG40">
+        <v>4.4410626287572086E-9</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.7079148507465265E-18</v>
+      </c>
+      <c r="AI40" s="8">
+        <f t="shared" si="11"/>
+        <v>4.3149950272903206E-17</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f t="shared" si="12"/>
+        <v>5.8207660913467407E-8</v>
+      </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1">
-        <v>30</v>
-      </c>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA41" s="8">
+        <v>37</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC41">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140129071</v>
+      </c>
+      <c r="AE41">
+        <v>4.4410626287572086E-9</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139983552</v>
+      </c>
+      <c r="AG41">
+        <v>1.8030732462648302E-9</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.5054149481066944E-18</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" si="11"/>
+        <v>8.0075612108986807E-18</v>
+      </c>
+      <c r="AJ41" s="8">
+        <f t="shared" si="12"/>
+        <v>2.9103830456733704E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA42" s="8">
+        <v>38</v>
+      </c>
+      <c r="AB42" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC42">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD42" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744139983552</v>
+      </c>
+      <c r="AE42">
+        <v>1.8030732462648302E-9</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139910792</v>
+      </c>
+      <c r="AG42">
+        <v>4.8430592869408429E-10</v>
+      </c>
+      <c r="AH42" s="8">
+        <f t="shared" si="10"/>
+        <v>-4.0435483473735928E-19</v>
+      </c>
+      <c r="AI42" s="8">
+        <f t="shared" si="11"/>
+        <v>8.7323906303574595E-19</v>
+      </c>
+      <c r="AJ42" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4551915228366852E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA43" s="8">
+        <v>39</v>
+      </c>
+      <c r="AB43" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC43">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD43" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744139910792</v>
+      </c>
+      <c r="AE43">
+        <v>4.8430592869408429E-10</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139874412</v>
+      </c>
+      <c r="AG43">
+        <v>-1.7530510376673192E-10</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="10"/>
+        <v>1.4636505989788921E-19</v>
+      </c>
+      <c r="AI43" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.4901301084559915E-20</v>
+      </c>
+      <c r="AJ43" s="8">
+        <f t="shared" si="12"/>
+        <v>7.2759576141834259E-9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA44" s="8">
+        <v>40</v>
+      </c>
+      <c r="AB44" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139874412</v>
+      </c>
+      <c r="AC44">
+        <v>-1.7530510376673192E-10</v>
+      </c>
+      <c r="AD44" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744139910792</v>
+      </c>
+      <c r="AE44">
+        <v>4.8430592869408429E-10</v>
+      </c>
+      <c r="AF44" s="11">
+        <f t="shared" si="9"/>
+        <v>1759.2744139892602</v>
+      </c>
+      <c r="AG44">
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AH44" s="8">
+        <f t="shared" si="10"/>
+        <v>-2.7104640721831334E-20</v>
+      </c>
+      <c r="AI44" s="8">
+        <f t="shared" si="11"/>
+        <v>7.488052495136283E-20</v>
+      </c>
+      <c r="AJ44" s="8">
+        <f t="shared" si="12"/>
+        <v>3.637978807091713E-9</v>
+      </c>
+    </row>
+    <row r="55" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA55" s="8"/>
+    </row>
+    <row r="56" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA56" s="8"/>
+    </row>
+    <row r="57" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA57" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",G24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",G30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",G24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",G30)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
@@ -2816,12 +5616,13 @@
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G30)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"""YES"""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/AVTOL/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14ED2A-14C8-1D46-BBE0-ACE57E5DA35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27332A39-64DA-E942-9B75-D4B23F29DCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="lift+cruise" sheetId="1" r:id="rId1"/>
+    <sheet name="multirotor" sheetId="3" r:id="rId1"/>
+    <sheet name="lift+cruise" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="117">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
   <si>
-    <t>UAV general parameters</t>
-  </si>
-  <si>
     <t>lift+cruise</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>battery_max_discharge</t>
   </si>
   <si>
-    <t>power_overhead_factor</t>
-  </si>
-  <si>
     <t>Design parameters</t>
   </si>
   <si>
@@ -375,6 +370,24 @@
   </si>
   <si>
     <t>Constants</t>
+  </si>
+  <si>
+    <t>eVTOL general parameters</t>
+  </si>
+  <si>
+    <t>multirotor</t>
+  </si>
+  <si>
+    <t>Rotor|mu</t>
+  </si>
+  <si>
+    <t>Stability (trim)</t>
+  </si>
+  <si>
+    <t>Thrust_all</t>
+  </si>
+  <si>
+    <t>sin_beta</t>
   </si>
 </sst>
 </file>
@@ -490,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -525,20 +538,82 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -613,6 +688,516 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weight Percentages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0E65-E84A-B883-6FDC7CEE4187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0E65-E84A-B883-6FDC7CEE4187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0E65-E84A-B883-6FDC7CEE4187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0E65-E84A-B883-6FDC7CEE4187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0E65-E84A-B883-6FDC7CEE4187}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>multirotor!$F$34:$F$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>W_payload</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W_battery</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W_powerplant</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W_structure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W_equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multirotor!$G$34:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0E65-E84A-B883-6FDC7CEE4187}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1123,6 +1708,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1676,7 +2301,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D819D55D-791F-714A-8E56-8D10C7171E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2033,11 +3215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2068,123 +3250,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="J3" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="P3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="AA3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$21*$C$35)^3 / (2 * $C$34 * PI() * $C$22^2* $C$5) )</f>
-        <v>370704.43153783563</v>
+        <f xml:space="preserve"> 1/$C$7 * SQRT( ($C$15*$C$27)^3 / (2 * $C$26 * PI() * $C$16^2* $C$5) )</f>
+        <v>270203.45112999814</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> 0.5 * $C$26 * $C$17^2</f>
+        <v>551.25</v>
+      </c>
+      <c r="L4" t="s">
         <v>48</v>
-      </c>
-      <c r="K4">
-        <f xml:space="preserve"> $C$21 * $C$35</f>
-        <v>17258.482001234643</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
       </c>
       <c r="P4" s="8">
         <v>0</v>
@@ -2193,31 +3375,31 @@
         <v>0</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
-        <v>0.6534009566313479</v>
+        <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q4^2)) - Q4</f>
+        <v>0.11191653902306264</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
-        <v>-0.67357508815696088</v>
+        <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S4^2)) - S4</f>
+        <v>-0.93476532814706514</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
         <v>0.5</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
-        <v>-0.16427027744759859</v>
+        <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U4^2)) - U4</f>
+        <v>-0.41988613748155523</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-0.10733435643035785</v>
+        <v>-4.6992203290697525E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.11064836661333464</v>
+        <v>0.39249500308734969</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -2227,50 +3409,41 @@
         <v>0</v>
       </c>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="8">
-        <f>G29</f>
-        <v>1.546140993013978E-10</v>
-      </c>
+      <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="8">
-        <f>G29</f>
-        <v>1.546140993013978E-10</v>
-      </c>
+      <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="8">
-        <f>G29</f>
-        <v>1.546140993013978E-10</v>
-      </c>
+      <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <f xml:space="preserve"> $C$21 * $C$35 / $C$5</f>
-        <v>2876.4136668724404</v>
+        <f xml:space="preserve"> $C$15 * $C$27 / $C$5</f>
+        <v>2102.1428571428573</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <f xml:space="preserve"> 0.5 * $C$34 * $C$24^2</f>
-        <v>1852.8125000000002</v>
+        <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
+        <v>4.1297309384395309</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P5" s="8">
         <v>1</v>
@@ -2280,32 +3453,32 @@
         <v>0</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6534009566313479</v>
+        <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q5^2)) - Q5</f>
+        <v>0.11191653902306264</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
         <v>0.5</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.16427027744759859</v>
+        <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S5^2)) - S5</f>
+        <v>-0.41988613748155523</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
+        <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
         <v>0.25</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" si="2"/>
-        <v>0.10419045512088293</v>
+        <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U5^2)) - U5</f>
+        <v>-0.15326599284565431</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>6.807814304784042E-2</v>
+        <v>-1.715299946921911E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-1.7115394970099007E-2</v>
+        <v>6.4354265743237465E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -2314,92 +3487,64 @@
       <c r="AA5" s="8">
         <v>1</v>
       </c>
-      <c r="AB5" s="9">
-        <v>500</v>
-      </c>
-      <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C21" ca="1"/>
-        <v>-387.71074190676364</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>2500</v>
-      </c>
-      <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C21" ca="1"/>
-        <v>17.800327323294368</v>
-      </c>
-      <c r="AF5" s="8">
-        <f>(AB5+AD5)/2</f>
-        <v>1500</v>
-      </c>
-      <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C21"/>
-        <v>-47.313913459105152</v>
-      </c>
-      <c r="AH5" s="8">
-        <f>AC5*AG5</f>
-        <v>18344.112489742067</v>
-      </c>
-      <c r="AI5" s="8">
-        <f>AE5*AG5</f>
-        <v>-842.20314651809463</v>
-      </c>
-      <c r="AJ5" s="8">
-        <f>AD5-AB5</f>
-        <v>2000</v>
-      </c>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <f xml:space="preserve"> 1.6 * ($C$21*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.36693977839770386</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
+        <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
+        <v>0.13041013739924268</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" ref="Q6:Q34" si="7">IF(W5&gt;0, U5, Q5)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.10419045512088293</v>
+        <v>0.11191653902306264</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.16427027744759859</v>
+        <v>-0.15326599284565431</v>
       </c>
       <c r="U6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="V6" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>-1.8122262920427429E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-3.4476107900268055E-3</v>
+        <v>-2.0281809453202176E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>5.4356224891422529E-3</v>
+        <v>2.7775266191092966E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -2408,93 +3553,72 @@
       <c r="AA6" s="8">
         <v>2</v>
       </c>
-      <c r="AB6" s="8">
-        <f>IF(AH5&gt;0,AF5,AB5)</f>
-        <v>1500</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>-47.313913459105152</v>
-      </c>
-      <c r="AD6" s="8">
-        <f>IF(AI5&gt;0,AF5,AD5)</f>
-        <v>2500</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>17.800327323294368</v>
-      </c>
-      <c r="AF6" s="8">
-        <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
-        <v>2000</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>25.674914961811965</v>
-      </c>
-      <c r="AH6" s="8">
-        <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>-1214.7807045730553</v>
-      </c>
-      <c r="AI6" s="8">
-        <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>457.02189031800089</v>
-      </c>
-      <c r="AJ6" s="8">
-        <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
-        <v>1000</v>
-      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <f xml:space="preserve"> K6 / $C$25</f>
-        <v>5.7334340374641225E-2</v>
+        <f xml:space="preserve"> K4 * K5</f>
+        <v>2276.5141798147915</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.10419045512088293</v>
+        <v>0.11191653902306264</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>-1.8122262920427429E-2</v>
       </c>
       <c r="U7" s="8">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>0.3125</v>
-      </c>
-      <c r="V7" s="8">
-        <f t="shared" si="2"/>
-        <v>3.4337276181752696E-2</v>
+        <v>4.8039663498655127E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>3.5776164329882668E-3</v>
+        <v>5.3764328746020345E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1362035392492855E-3</v>
+        <v>-8.7058741253148882E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -2503,101 +3627,71 @@
       <c r="AA7" s="8">
         <v>3</v>
       </c>
-      <c r="AB7" s="8">
-        <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0,AF6,AB6)</f>
-        <v>1500</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>-47.313913459105152</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
-        <v>2000</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>25.674914961811965</v>
-      </c>
-      <c r="AF7" s="8">
-        <f t="shared" si="9"/>
-        <v>1750</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>-1.3484183383602613</v>
-      </c>
-      <c r="AH7" s="8">
-        <f t="shared" si="10"/>
-        <v>63.798948567847766</v>
-      </c>
-      <c r="AI7" s="8">
-        <f t="shared" si="11"/>
-        <v>-34.620526170347503</v>
-      </c>
-      <c r="AJ7" s="8">
-        <f t="shared" si="12"/>
-        <v>500</v>
-      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.13</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$24 * SIN(K17))</f>
-        <v>108255.92346359526</v>
+        <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
+        <v>27867.298973721139</v>
       </c>
       <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> K7</f>
+        <v>2276.5141798147915</v>
+      </c>
+      <c r="L8" t="s">
         <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8">
-        <f xml:space="preserve"> K5 * $C$25 * K7</f>
-        <v>679.87060816249573</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
       </c>
       <c r="P8" s="8">
         <v>4</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="7"/>
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>3.4337276181752696E-2</v>
+        <v>4.8039663498655127E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>-1.8122262920427429E-2</v>
       </c>
       <c r="U8" s="8">
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="V8" s="8">
         <f t="shared" si="3"/>
-        <v>0.34375</v>
-      </c>
-      <c r="V8" s="8">
-        <f t="shared" si="2"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.5184776146180218E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>1.3807900155271931E-5</v>
+        <v>7.2947153636490289E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-1.3306140122787288E-5</v>
+        <v>-2.7518250570891269E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -2606,98 +3700,66 @@
       <c r="AA8" s="8">
         <v>4</v>
       </c>
-      <c r="AB8" s="8">
-        <f t="shared" si="13"/>
-        <v>1750</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>-1.3484183383602613</v>
-      </c>
-      <c r="AD8" s="8">
-        <f t="shared" si="14"/>
-        <v>2000</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>25.674914961811965</v>
-      </c>
-      <c r="AF8" s="8">
-        <f t="shared" si="9"/>
-        <v>1875</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>14.608622084738727</v>
-      </c>
-      <c r="AH8" s="8">
-        <f t="shared" si="10"/>
-        <v>-19.698533917236411</v>
-      </c>
-      <c r="AI8" s="8">
-        <f t="shared" si="11"/>
-        <v>375.07512973491504</v>
-      </c>
-      <c r="AJ8" s="8">
-        <f t="shared" si="12"/>
-        <v>250</v>
-      </c>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="B9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <f xml:space="preserve"> $C$6 * G8</f>
-        <v>108255.92346359526</v>
+        <f>$C$5 * G8</f>
+        <v>195071.09281604798</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9">
-        <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$12^0.68) - 0.64</f>
-        <v>0.75661729604956662</v>
+        <v>35</v>
       </c>
       <c r="P9" s="8">
         <v>5</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.5184776146180218E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>-1.8122262920427429E-2</v>
       </c>
       <c r="U9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.109375</v>
+      </c>
+      <c r="V9" s="8">
         <f t="shared" si="3"/>
-        <v>0.359375</v>
-      </c>
-      <c r="V9" s="8">
-        <f t="shared" si="2"/>
-        <v>-1.6391988222810072E-2</v>
+        <v>-1.4209968066048739E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-6.5916392298826105E-6</v>
+        <v>-2.1577518412731952E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>5.4240280840874607E-4</v>
+        <v>2.5751677738381293E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -2706,82 +3768,60 @@
       <c r="AA9" s="8">
         <v>5</v>
       </c>
-      <c r="AB9" s="8">
-        <f t="shared" si="13"/>
-        <v>1750</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>-1.3484183383602613</v>
-      </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="14"/>
-        <v>1875</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>14.608622084738727</v>
-      </c>
-      <c r="AF9" s="8">
-        <f t="shared" si="9"/>
-        <v>1812.5</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>7.2315173400106687</v>
-      </c>
-      <c r="AH9" s="8">
-        <f t="shared" si="10"/>
-        <v>-9.7511105954406023</v>
-      </c>
-      <c r="AI9" s="8">
-        <f t="shared" si="11"/>
-        <v>105.6425039194509</v>
-      </c>
-      <c r="AJ9" s="8">
-        <f t="shared" si="12"/>
-        <v>125</v>
-      </c>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10">
-        <f xml:space="preserve"> K4 / (K5 * $C$25)</f>
-        <v>1.4554294148452218</v>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.5184776146180218E-2</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.109375</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6391988222810072E-2</v>
+        <v>-1.4209968066048739E-3</v>
       </c>
       <c r="U10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1015625</v>
+      </c>
+      <c r="V10" s="8">
         <f t="shared" si="3"/>
-        <v>0.3515625</v>
-      </c>
-      <c r="V10" s="8">
-        <f t="shared" si="2"/>
-        <v>-8.0078008059947803E-3</v>
+        <v>6.8949415474898468E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-3.2201422561071089E-6</v>
+        <v>1.0469814393963074E-4</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>1.3126377650247544E-4</v>
+        <v>-9.7976899207103406E-6</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -2790,92 +3830,67 @@
       <c r="AA10" s="8">
         <v>6</v>
       </c>
-      <c r="AB10" s="8">
-        <f t="shared" si="13"/>
-        <v>1750</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>-1.3484183383602613</v>
-      </c>
-      <c r="AD10" s="8">
-        <f t="shared" si="14"/>
-        <v>1812.5</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>7.2315173400106687</v>
-      </c>
-      <c r="AF10" s="8">
-        <f t="shared" si="9"/>
-        <v>1781.25</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>3.0906758263029133</v>
-      </c>
-      <c r="AH10" s="8">
-        <f t="shared" si="10"/>
-        <v>-4.1675239621136013</v>
-      </c>
-      <c r="AI10" s="8">
-        <f t="shared" si="11"/>
-        <v>22.350275830261317</v>
-      </c>
-      <c r="AJ10" s="8">
-        <f t="shared" si="12"/>
-        <v>62.5</v>
-      </c>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11">
-        <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
-        <v>0.14645043752924147</v>
-      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="J11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.1015625</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>6.8949415474898468E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.3515625</v>
+        <v>0.109375</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-8.0078008059947803E-3</v>
+        <v>-1.4209968066048739E-3</v>
       </c>
       <c r="U11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10546875</v>
+      </c>
+      <c r="V11" s="8">
         <f t="shared" si="3"/>
-        <v>0.34765625</v>
-      </c>
-      <c r="V11" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.8061620383744721E-3</v>
+        <v>2.740096100800643E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5305554558980865E-6</v>
+        <v>1.889280244952528E-5</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>3.0478987438641834E-5</v>
+        <v>-3.8936678090281809E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -2884,101 +3899,77 @@
       <c r="AA11" s="8">
         <v>7</v>
       </c>
-      <c r="AB11" s="8">
-        <f t="shared" si="13"/>
-        <v>1750</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>-1.3484183383602613</v>
-      </c>
-      <c r="AD11" s="8">
-        <f t="shared" si="14"/>
-        <v>1781.25</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>3.0906758263029133</v>
-      </c>
-      <c r="AF11" s="8">
-        <f t="shared" si="9"/>
-        <v>1765.625</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0.9082583887650344</v>
-      </c>
-      <c r="AH11" s="8">
-        <f t="shared" si="10"/>
-        <v>-1.2247122673803159</v>
-      </c>
-      <c r="AI11" s="8">
-        <f t="shared" si="11"/>
-        <v>2.8071322461929253</v>
-      </c>
-      <c r="AJ11" s="8">
-        <f t="shared" si="12"/>
-        <v>31.25</v>
-      </c>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12">
-        <f xml:space="preserve"> (G4*$C$31 + G9*G13)/3600</f>
-        <v>106725.69199918545</v>
+        <f xml:space="preserve"> (G4*$C$23 + G9*G13)/3600</f>
+        <v>27044.632520520616</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="K12">
-        <f xml:space="preserve"> K5 * K11 * $C$25</f>
-        <v>1736.6092882217458</v>
+        <f xml:space="preserve"> SQRT( ($C$15*$C$27)^2 + K8^2)</f>
+        <v>14890.055131224257</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P12" s="8">
         <v>8</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.10546875</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>2.740096100800643E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.34765625</v>
+        <v>0.109375</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-3.8061620383744721E-3</v>
+        <v>-1.4209968066048739E-3</v>
       </c>
       <c r="U12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.107421875</v>
+      </c>
+      <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>0.345703125</v>
-      </c>
-      <c r="V12" s="8">
-        <f t="shared" si="2"/>
-        <v>-1.7028632090883011E-3</v>
+        <v>6.6031312689410204E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-6.8476500712285176E-7</v>
+        <v>1.8093214243100092E-6</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>6.4813733029764234E-6</v>
+        <v>-9.3830284467579785E-7</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -2987,85 +3978,68 @@
       <c r="AA12" s="8">
         <v>8</v>
       </c>
-      <c r="AB12" s="8">
-        <f t="shared" si="13"/>
-        <v>1750</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>-1.3484183383602613</v>
-      </c>
-      <c r="AD12" s="8">
-        <f t="shared" si="14"/>
-        <v>1765.625</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>0.9082583887650344</v>
-      </c>
-      <c r="AF12" s="8">
-        <f t="shared" si="9"/>
-        <v>1757.8125</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>-0.21081603648985947</v>
-      </c>
-      <c r="AH12" s="8">
-        <f t="shared" si="10"/>
-        <v>0.28426820962335253</v>
-      </c>
-      <c r="AI12" s="8">
-        <f t="shared" si="11"/>
-        <v>-0.19147543362811045</v>
-      </c>
-      <c r="AJ12" s="8">
-        <f t="shared" si="12"/>
-        <v>15.625</v>
-      </c>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13">
-        <f xml:space="preserve"> $C$30 / $C$24</f>
-        <v>2727.2727272727275</v>
+        <f xml:space="preserve"> $C$22 / $C$17</f>
+        <v>166.66666666666666</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13">
+        <f>$C$15*$C$27/K12</f>
+        <v>0.98824348669756312</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.107421875</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>6.6031312689410204E-4</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.345703125</v>
+        <v>0.109375</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7028632090883011E-3</v>
+        <v>-1.4209968066048739E-3</v>
       </c>
       <c r="U13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1083984375</v>
+      </c>
+      <c r="V13" s="8">
         <f t="shared" si="3"/>
-        <v>0.3447265625</v>
-      </c>
-      <c r="V13" s="8">
-        <f t="shared" si="2"/>
-        <v>-6.5058179843768826E-4</v>
+        <v>-3.801531527020674E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>-2.6161564091791965E-7</v>
+        <v>-2.510201169593532E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>1.1078518090620401E-6</v>
+        <v>5.4019641601041274E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -3074,80 +4048,56 @@
       <c r="AA13" s="8">
         <v>9</v>
       </c>
-      <c r="AB13" s="8">
-        <f t="shared" si="13"/>
-        <v>1757.8125</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>-0.21081603648985947</v>
-      </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="14"/>
-        <v>1765.625</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>0.9082583887650344</v>
-      </c>
-      <c r="AF13" s="8">
-        <f t="shared" si="9"/>
-        <v>1761.71875</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>0.35103858905245033</v>
-      </c>
-      <c r="AH13" s="8">
-        <f t="shared" si="10"/>
-        <v>-7.400456399903016E-2</v>
-      </c>
-      <c r="AI13" s="8">
-        <f t="shared" si="11"/>
-        <v>0.3188337432871296</v>
-      </c>
-      <c r="AJ13" s="8">
-        <f t="shared" si="12"/>
-        <v>7.8125</v>
-      </c>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.107421875</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>6.6031312689410204E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.3447265625</v>
+        <v>0.1083984375</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-6.5058179843768826E-4</v>
+        <v>-3.801531527020674E-4</v>
       </c>
       <c r="U14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10791015625</v>
+      </c>
+      <c r="V14" s="8">
         <f t="shared" si="3"/>
-        <v>0.34423828125</v>
-      </c>
-      <c r="V14" s="8">
-        <f t="shared" si="2"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>1.4012743175331743E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>-4.9976799636000218E-8</v>
+        <v>9.2527982624672922E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>8.0855311401653939E-8</v>
+        <v>-5.3269884961067407E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -3156,84 +4106,60 @@
       <c r="AA14" s="8">
         <v>10</v>
       </c>
-      <c r="AB14" s="8">
-        <f t="shared" si="13"/>
-        <v>1757.8125</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>-0.21081603648985947</v>
-      </c>
-      <c r="AD14" s="8">
-        <f t="shared" si="14"/>
-        <v>1761.71875</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>0.35103858905245033</v>
-      </c>
-      <c r="AF14" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.765625</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>7.0689910544615486E-2</v>
-      </c>
-      <c r="AH14" s="8">
-        <f t="shared" si="10"/>
-        <v>-1.490256676083856E-2</v>
-      </c>
-      <c r="AI14" s="8">
-        <f t="shared" si="11"/>
-        <v>2.4814886457825751E-2</v>
-      </c>
-      <c r="AJ14" s="8">
-        <f t="shared" si="12"/>
-        <v>3.90625</v>
-      </c>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>250</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="P15" s="8">
         <v>11</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.10791015625</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.4012743175331743E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.34423828125</v>
+        <v>0.1083984375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>-3.801531527020674E-4</v>
       </c>
       <c r="U15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.108154296875</v>
+      </c>
+      <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>0.343994140625</v>
-      </c>
-      <c r="V15" s="8">
-        <f t="shared" si="2"/>
-        <v>1.3890866342486374E-4</v>
+        <v>-1.2000103341833213E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>5.5858739205763325E-8</v>
+        <v>-1.6815436620654901E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7263783377549612E-8</v>
+        <v>4.5618771181485103E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -3242,91 +4168,70 @@
       <c r="AA15" s="8">
         <v>11</v>
       </c>
-      <c r="AB15" s="8">
-        <f t="shared" si="13"/>
-        <v>1757.8125</v>
-      </c>
-      <c r="AC15" s="8">
-        <v>-0.21081603648985947</v>
-      </c>
-      <c r="AD15" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.765625</v>
-      </c>
-      <c r="AE15" s="8">
-        <v>7.0689910544615486E-2</v>
-      </c>
-      <c r="AF15" s="8">
-        <f t="shared" si="9"/>
-        <v>1758.7890625</v>
-      </c>
-      <c r="AG15" s="8">
-        <v>-6.9918236420789981E-2</v>
-      </c>
-      <c r="AH15" s="8">
-        <f t="shared" si="10"/>
-        <v>1.4739885480591882E-2</v>
-      </c>
-      <c r="AI15" s="8">
-        <f t="shared" si="11"/>
-        <v>-4.9425138780229199E-3</v>
-      </c>
-      <c r="AJ15" s="8">
-        <f t="shared" si="12"/>
-        <v>1.953125</v>
-      </c>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="J16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+        <v>1.2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="J16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.343994140625</v>
+        <v>0.10791015625</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>1.3890866342486374E-4</v>
+        <v>1.4012743175331743E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.34423828125</v>
+        <v>0.108154296875</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>-1.2000103341833213E-4</v>
       </c>
       <c r="U16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1080322265625</v>
+      </c>
+      <c r="V16" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441162109375</v>
-      </c>
-      <c r="V16" s="8">
-        <f t="shared" si="2"/>
-        <v>7.3102128929636301E-6</v>
+        <v>1.0066160195082441E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>1.0154519023127844E-9</v>
+        <v>1.4105451757543752E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>-9.085245564698526E-10</v>
+        <v>-1.2079496259643727E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -3335,101 +4240,80 @@
       <c r="AA16" s="8">
         <v>12</v>
       </c>
-      <c r="AB16" s="8">
-        <f t="shared" si="13"/>
-        <v>1758.7890625</v>
-      </c>
-      <c r="AC16" s="8">
-        <v>-6.9918236420789981E-2</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.765625</v>
-      </c>
-      <c r="AE16" s="8">
-        <v>7.0689910544615486E-2</v>
-      </c>
-      <c r="AF16" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AG16" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AH16" s="8">
-        <f t="shared" si="10"/>
-        <v>-2.952329775813371E-5</v>
-      </c>
-      <c r="AI16" s="8">
-        <f t="shared" si="11"/>
-        <v>2.9849140715510894E-5</v>
-      </c>
-      <c r="AJ16" s="8">
-        <f t="shared" si="12"/>
-        <v>0.9765625</v>
-      </c>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>0.8</v>
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17">
-        <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
-        <v>627.79818823050266</v>
+        <f xml:space="preserve"> G12 / ($C$10 * $C$11 * $C$12)</f>
+        <v>159.08607365012128</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <f xml:space="preserve"> (90 - $C$36) / 180 * PI()</f>
-        <v>1.48352986419518</v>
+        <f xml:space="preserve"> ACOS(K13)</f>
+        <v>0.15349020639723854</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P17" s="8">
         <v>13</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.1080322265625</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>1.0066160195082441E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.34423828125</v>
+        <v>0.108154296875</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>-1.2000103341833213E-4</v>
       </c>
       <c r="U17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10809326171875</v>
+      </c>
+      <c r="V17" s="8">
         <f t="shared" si="3"/>
-        <v>0.34417724609375</v>
-      </c>
-      <c r="V17" s="8">
-        <f t="shared" si="2"/>
-        <v>-5.8486502391763562E-5</v>
+        <v>-5.4966696887676081E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-4.275487838486182E-10</v>
+        <v>-5.5330357626588686E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>7.2687929097244045E-9</v>
+        <v>6.5960604301133499E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -3438,101 +4322,77 @@
       <c r="AA17" s="8">
         <v>13</v>
       </c>
-      <c r="AB17" s="8">
-        <f t="shared" si="13"/>
-        <v>1758.7890625</v>
-      </c>
-      <c r="AC17" s="8">
-        <v>-6.9918236420789981E-2</v>
-      </c>
-      <c r="AD17" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE17" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF17" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.033203125</v>
-      </c>
-      <c r="AG17" s="8">
-        <v>-3.4738475067570107E-2</v>
-      </c>
-      <c r="AH17" s="8">
-        <f t="shared" si="10"/>
-        <v>2.4288529126720851E-3</v>
-      </c>
-      <c r="AI17" s="8">
-        <f t="shared" si="11"/>
-        <v>-1.4668481294508436E-5</v>
-      </c>
-      <c r="AJ17" s="8">
-        <f t="shared" si="12"/>
-        <v>0.48828125</v>
-      </c>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="e">
+        <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 +#REF! *#REF! * 0.144 * (2*#REF!*3.28084 * (G9*0.00134102/#REF!) * 4^0.5)^0.782 * 0.453592</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18">
-        <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$22*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$23*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
-        <v>129.12379999708568</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <f xml:space="preserve"> K12 / $C$6</f>
-        <v>1736.6092882217458</v>
+        <f xml:space="preserve"> K12 / $C$5</f>
+        <v>2127.1507330320369</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P18" s="8">
         <v>14</v>
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.1080322265625</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>1.0066160195082441E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.34417724609375</v>
+        <v>0.10809326171875</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-5.8486502391763562E-5</v>
+        <v>-5.4966696887676081E-5</v>
       </c>
       <c r="U18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.108062744140625</v>
+      </c>
+      <c r="V18" s="8">
         <f t="shared" si="3"/>
-        <v>0.344146728515625</v>
-      </c>
-      <c r="V18" s="8">
-        <f t="shared" si="2"/>
-        <v>-2.5588353822936227E-5</v>
+        <v>-2.2450083348696248E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-1.8705631402614359E-10</v>
+        <v>-2.2598613538092927E-10</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>1.496573317066452E-9</v>
+        <v>1.2340069265308508E-9</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -3541,95 +4401,71 @@
       <c r="AA18" s="8">
         <v>14</v>
       </c>
-      <c r="AB18" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.033203125</v>
-      </c>
-      <c r="AC18" s="8">
-        <v>-3.4738475067570107E-2</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE18" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF18" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.1552734375</v>
-      </c>
-      <c r="AG18" s="8">
-        <v>-1.7156761490696226E-2</v>
-      </c>
-      <c r="AH18" s="8">
-        <f t="shared" si="10"/>
-        <v>5.9599973128479785E-4</v>
-      </c>
-      <c r="AI18" s="8">
-        <f t="shared" si="11"/>
-        <v>-7.2445216582221059E-6</v>
-      </c>
-      <c r="AJ18" s="8">
-        <f t="shared" si="12"/>
-        <v>0.244140625</v>
-      </c>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F19" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
-        <v>101.71654674026901</v>
+        <v>99.143614261856669</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <f xml:space="preserve"> PI() * $C$24 / ($C$23 * $C$26)</f>
-        <v>191.98621771937624</v>
+        <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
+        <v>82.353623891463599</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P19" s="8">
         <v>15</v>
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.1080322265625</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>1.0066160195082441E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.344146728515625</v>
+        <v>0.108062744140625</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.5588353822936227E-5</v>
+        <v>-2.2450083348696248E-5</v>
       </c>
       <c r="U19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1080474853515625</v>
+      </c>
+      <c r="V19" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441314697265625</v>
-      </c>
-      <c r="V19" s="8">
-        <f t="shared" si="2"/>
-        <v>-9.1391227402537467E-6</v>
+        <v>-6.1919153190731491E-6</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-6.6808932886180036E-11</v>
+        <v>-6.2328811516175318E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>2.3385510630885535E-10</v>
+        <v>1.3900901500126132E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -3638,97 +4474,73 @@
       <c r="AA19" s="8">
         <v>15</v>
       </c>
-      <c r="AB19" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.1552734375</v>
-      </c>
-      <c r="AC19" s="8">
-        <v>-1.7156761490696226E-2</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE19" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF19" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.21630859375</v>
-      </c>
-      <c r="AG19" s="8">
-        <v>-8.3667102057916054E-3</v>
-      </c>
-      <c r="AH19" s="8">
-        <f t="shared" si="10"/>
-        <v>1.4354565146254051E-4</v>
-      </c>
-      <c r="AI19" s="8">
-        <f t="shared" si="11"/>
-        <v>-3.5328819676600593E-6</v>
-      </c>
-      <c r="AJ19" s="8">
-        <f t="shared" si="12"/>
-        <v>0.1220703125</v>
-      </c>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="F20" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20">
-        <f xml:space="preserve"> 14.86 * ($C$21*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>155.13153788682038</v>
+        <f xml:space="preserve"> 14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
+        <v>151.61047300917875</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <f xml:space="preserve"> $C$24 * COS(K17) / (K19 * $C$23)</f>
-        <v>2.7742534554270872E-2</v>
+        <f xml:space="preserve"> K18 / ($C$26 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
+        <v>3.9302655159222433E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.1080322265625</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>1.0066160195082441E-5</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.3441314697265625</v>
+        <v>0.1080474853515625</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1391227402537467E-6</v>
+        <v>-6.1919153190731491E-6</v>
       </c>
       <c r="U20" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10803985595703125</v>
+      </c>
+      <c r="V20" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412384033203125</v>
-      </c>
-      <c r="V20" s="8">
-        <f t="shared" si="2"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>1.9371340034685103E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>-6.684955714632498E-12</v>
+        <v>1.9499501198255408E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>8.3574352325625303E-12</v>
+        <v>-1.1994569711174168E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -3737,102 +4549,76 @@
       <c r="AA20" s="8">
         <v>16</v>
       </c>
-      <c r="AB20" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.21630859375</v>
-      </c>
-      <c r="AC20" s="8">
-        <v>-8.3667102057916054E-3</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE20" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF20" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.246826171875</v>
-      </c>
-      <c r="AG20" s="8">
-        <v>-3.9720919878618588E-3</v>
-      </c>
-      <c r="AH20" s="8">
-        <f t="shared" si="10"/>
-        <v>3.3233342573186878E-5</v>
-      </c>
-      <c r="AI20" s="8">
-        <f t="shared" si="11"/>
-        <v>-1.6772341592625357E-6</v>
-      </c>
-      <c r="AJ20" s="8">
-        <f t="shared" si="12"/>
-        <v>6.103515625E-2</v>
-      </c>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3">
-        <f>AF44</f>
-        <v>1759.2744139892602</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1">
+        <v>400</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21">
-        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$21*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>34.803957488997163</v>
+        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592</f>
+        <v>31.208067561213252</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21">
-        <f xml:space="preserve"> K18 / ( $C$34 * PI() * $C$23^2 * K19^2 * $C$23^2)</f>
-        <v>1.8659758335729235E-2</v>
+        <v>6</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.2E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.10803985595703125</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>1.9371340034685103E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.1080474853515625</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-6.1919153190731491E-6</v>
       </c>
       <c r="U21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804367065429688</v>
+      </c>
+      <c r="V21" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412002563476562</v>
-      </c>
-      <c r="V21" s="8">
-        <f t="shared" si="2"/>
-        <v>3.1978691823475458E-6</v>
+        <v>-2.1273877665595187E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>2.337710452680809E-11</v>
+        <v>-4.1210351811653729E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>-2.9243490139333949E-12</v>
+        <v>1.3172604901368696E-11</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -3841,100 +4627,80 @@
       <c r="AA21" s="8">
         <v>17</v>
       </c>
-      <c r="AB21" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.246826171875</v>
-      </c>
-      <c r="AC21" s="8">
-        <v>-3.9720919878618588E-3</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE21" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF21" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2620849609375</v>
-      </c>
-      <c r="AG21" s="8">
-        <v>-1.774884736050808E-3</v>
-      </c>
-      <c r="AH21" s="8">
-        <f t="shared" si="10"/>
-        <v>7.0500054394457242E-6</v>
-      </c>
-      <c r="AI21" s="8">
-        <f t="shared" si="11"/>
-        <v>-7.494532647166919E-7</v>
-      </c>
-      <c r="AJ21" s="8">
-        <f t="shared" si="12"/>
-        <v>3.0517578125E-2</v>
-      </c>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>1.2</v>
+        <v>5000</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22">
-        <f xml:space="preserve"> 0.04674 * ($C$21*2.20462)^0.397 * ($C$25*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
-        <v>206.16084700286123</v>
+        <v>90</v>
+      </c>
+      <c r="G22" t="e">
+        <f xml:space="preserve"> 0.04674 * ($C$15*2.20462)^0.397 * (#REF!*3.28084^2)^0.36 * 3^0.397 *#REF!^ 1.712 * 0.453592</f>
+        <v>#REF!</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.2E-2</v>
+        <v>57</v>
+      </c>
+      <c r="K22">
+        <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$26 * K19^3 *$C$16^ 5)</f>
+        <v>1479.463608760032</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
       </c>
       <c r="P22" s="8">
         <v>18</v>
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412002563476562</v>
+        <v>0.10803985595703125</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>3.1978691823475458E-6</v>
+        <v>1.9371340034685103E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.10804367065429688</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-2.1273877665595187E-6</v>
       </c>
       <c r="U22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804176330566406</v>
+      </c>
+      <c r="V22" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412193298339844</v>
-      </c>
-      <c r="V22" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1416997776625415E-6</v>
+        <v>-9.512615871398733E-8</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>3.6510065344800862E-12</v>
+        <v>-1.8427211666420718E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0440479046001747E-12</v>
+        <v>2.0237022632793581E-13</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -3943,103 +4709,76 @@
       <c r="AA22" s="8">
         <v>18</v>
       </c>
-      <c r="AB22" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2620849609375</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>-1.774884736050808E-3</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE22" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF22" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2697143554688</v>
-      </c>
-      <c r="AG22" s="8">
-        <v>-6.7548221659308183E-4</v>
-      </c>
-      <c r="AH22" s="8">
-        <f t="shared" si="10"/>
-        <v>1.1989030757048268E-6</v>
-      </c>
-      <c r="AI22" s="8">
-        <f t="shared" si="11"/>
-        <v>-2.8522548095723832E-7</v>
-      </c>
-      <c r="AJ22" s="8">
-        <f t="shared" si="12"/>
-        <v>1.52587890625E-2</v>
-      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
-        <v>0.9</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23">
-        <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$34 * K19^3 * C23^5)</f>
-        <v>3146.9858091218234</v>
-      </c>
-      <c r="L23" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="K23" s="5">
+        <f>U34</f>
+        <v>0.10804167436435819</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412193298339844</v>
+        <v>0.10803985595703125</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.1416997776625415E-6</v>
+        <v>1.9371340034685103E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.10804176330566406</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-9.512615871398733E-8</v>
       </c>
       <c r="U23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804080963134766</v>
+      </c>
+      <c r="V23" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412288665771484</v>
-      </c>
-      <c r="V23" s="8">
-        <f t="shared" si="2"/>
-        <v>1.136156879688599E-7</v>
+        <v>9.2100410309381431E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>1.2971500569302404E-13</v>
+        <v>1.7841083654370451E-12</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0389791018130224E-13</v>
+        <v>-8.761158248713573E-14</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -4048,100 +4787,70 @@
       <c r="AA23" s="8">
         <v>19</v>
       </c>
-      <c r="AB23" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2697143554688</v>
-      </c>
-      <c r="AC23" s="8">
-        <v>-6.7548221659308183E-4</v>
-      </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE23" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF23" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2735290527344</v>
-      </c>
-      <c r="AG23" s="8">
-        <v>-1.2743603952003468E-4</v>
-      </c>
-      <c r="AH23" s="8">
-        <f t="shared" si="10"/>
-        <v>8.6080778448836608E-8</v>
-      </c>
-      <c r="AI23" s="8">
-        <f t="shared" si="11"/>
-        <v>-5.3810455361379228E-8</v>
-      </c>
-      <c r="AJ23" s="8">
-        <f t="shared" si="12"/>
-        <v>7.62939453125E-3</v>
-      </c>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="5">
-        <f>U34</f>
-        <v>0.34412299236282706</v>
+        <v>59</v>
+      </c>
+      <c r="K24">
+        <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
+        <v>6.0905011857570672</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.10804080963134766</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>9.2100410309381431E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.10804176330566406</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-9.512615871398733E-8</v>
       </c>
       <c r="U24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804128646850586</v>
+      </c>
+      <c r="V24" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412336349487305</v>
-      </c>
-      <c r="V24" s="8">
-        <f t="shared" si="2"/>
-        <v>-4.0042620375047022E-7</v>
+        <v>4.129390173690517E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-4.5494698619868544E-14</v>
+        <v>3.8031852932442446E-13</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>3.6617694699792661E-13</v>
+        <v>-3.9281302505446384E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -4150,104 +4859,73 @@
       <c r="AA24" s="8">
         <v>20</v>
       </c>
-      <c r="AB24" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2735290527344</v>
-      </c>
-      <c r="AC24" s="8">
-        <v>-1.2743603952003468E-4</v>
-      </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.27734375</v>
-      </c>
-      <c r="AE24" s="8">
-        <v>4.222546115215664E-4</v>
-      </c>
-      <c r="AF24" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2754364013672</v>
-      </c>
-      <c r="AG24" s="8">
-        <v>1.4740981623617699E-4</v>
-      </c>
-      <c r="AH24" s="8">
-        <f t="shared" si="10"/>
-        <v>-1.8785323167514503E-8</v>
-      </c>
-      <c r="AI24" s="8">
-        <f t="shared" si="11"/>
-        <v>6.2244474689272409E-8</v>
-      </c>
-      <c r="AJ24" s="8">
-        <f t="shared" si="12"/>
-        <v>3.814697265625E-3</v>
-      </c>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
+      <c r="B25" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="F25" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25">
-        <f xml:space="preserve"> 0.0268 * $C$21</f>
-        <v>47.148554294912174</v>
+        <f xml:space="preserve"> 0.0268 * $C$15</f>
+        <v>40.200000000000003</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <f xml:space="preserve"> K19 * $C$23 * K24 - $C$24 * SIN(K17)</f>
-        <v>4.6694761655656691</v>
-      </c>
-      <c r="L25" t="s">
-        <v>21</v>
+        <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$26*PI()*$C$16^2) / K18^3 )</f>
+        <v>1.2831284325671568</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.10804128646850586</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>4.129390173690517E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412336349487305</v>
+        <v>0.10804176330566406</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-4.0042620375047022E-7</v>
+        <v>-9.512615871398733E-8</v>
       </c>
       <c r="U25" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804152488708496</v>
+      </c>
+      <c r="V25" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412312507629395</v>
-      </c>
-      <c r="V25" s="8">
-        <f t="shared" si="2"/>
-        <v>-1.4340527065836994E-7</v>
+        <v>1.5890644061711257E-7</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>-1.629308848421126E-14</v>
+        <v>6.5618669442044022E-14</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>5.7423228127539771E-14</v>
+        <v>-1.5116159290818252E-14</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -4256,98 +4934,76 @@
       <c r="AA25" s="8">
         <v>21</v>
       </c>
-      <c r="AB25" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2735290527344</v>
-      </c>
-      <c r="AC25" s="8">
-        <v>-1.2743603952003468E-4</v>
-      </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2754364013672</v>
-      </c>
-      <c r="AE25" s="8">
-        <v>1.4740981623617699E-4</v>
-      </c>
-      <c r="AF25" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744827270508</v>
-      </c>
-      <c r="AG25" s="8">
-        <v>1.0811382026076899E-5</v>
-      </c>
-      <c r="AH25" s="8">
-        <f t="shared" si="10"/>
-        <v>-1.3777597071413283E-9</v>
-      </c>
-      <c r="AI25" s="8">
-        <f t="shared" si="11"/>
-        <v>1.5937038377231026E-9</v>
-      </c>
-      <c r="AJ25" s="8">
-        <f t="shared" si="12"/>
-        <v>1.9073486328125E-3</v>
-      </c>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G26">
-        <f xml:space="preserve"> 11.5 * ($C$21*2.20462/1000)^0.4 * 0.453592</f>
-        <v>8.9707790153142888</v>
+        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
+        <v>8.416532939767734</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26">
-        <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$34*PI()*$C$23^2) / K18^3 )</f>
-        <v>1.2247552694509789</v>
+        <v>61</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.10804152488708496</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>1.5890644061711257E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412312507629395</v>
+        <v>0.10804176330566406</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4340527065836994E-7</v>
+        <v>-9.512615871398733E-8</v>
       </c>
       <c r="U26" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804164409637451</v>
+      </c>
+      <c r="V26" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412300586700439</v>
-      </c>
-      <c r="V26" s="8">
-        <f t="shared" si="2"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>3.1890143775692437E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>-1.692282325282407E-15</v>
+        <v>5.067549238163252E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>2.1359920379482649E-15</v>
+        <v>-3.0335868782183938E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -4356,91 +5012,77 @@
       <c r="AA26" s="8">
         <v>22</v>
       </c>
-      <c r="AB26" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2735290527344</v>
-      </c>
-      <c r="AC26" s="8">
-        <v>-1.2743603952003468E-4</v>
-      </c>
-      <c r="AD26" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
-      </c>
-      <c r="AE26" s="8">
-        <v>1.0811382026076899E-5</v>
-      </c>
-      <c r="AF26" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2740058898926</v>
-      </c>
-      <c r="AG26" s="8">
-        <v>-5.7487935009703506E-5</v>
-      </c>
-      <c r="AH26" s="8">
-        <f t="shared" si="10"/>
-        <v>7.3260347578217612E-9</v>
-      </c>
-      <c r="AI26" s="8">
-        <f t="shared" si="11"/>
-        <v>-6.2152402728018538E-10</v>
-      </c>
-      <c r="AJ26" s="8">
-        <f t="shared" si="12"/>
-        <v>9.5367431640625E-4</v>
-      </c>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27">
-        <f xml:space="preserve"> 8 * ($C$21/1000)</f>
-        <v>14.074195311914082</v>
+        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1.1499999999999999</v>
+        <v>62</v>
+      </c>
+      <c r="K27">
+        <f xml:space="preserve"> 1/$C$30 * LN( EXP($C$30 * K25) + EXP($C$30 * K26) )</f>
+        <v>1.283737126697974</v>
       </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.10804164409637451</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>3.1890143775692437E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.10804176330566406</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-9.512615871398733E-8</v>
       </c>
       <c r="U27" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804170370101929</v>
+      </c>
+      <c r="V27" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412294626235962</v>
-      </c>
-      <c r="V27" s="8">
-        <f t="shared" si="2"/>
-        <v>4.9360445897317362E-8</v>
+        <v>-3.1618006768319162E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>5.6081210190734E-15</v>
+        <v>-1.0083027817425146E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>-7.3521369850775619E-16</v>
+        <v>3.0076995300630541E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -4449,97 +5091,61 @@
       <c r="AA27" s="8">
         <v>23</v>
       </c>
-      <c r="AB27" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2740058898926</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>-5.7487935009703506E-5</v>
-      </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
-      </c>
-      <c r="AE27" s="8">
-        <v>1.0811382026076899E-5</v>
-      </c>
-      <c r="AF27" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2742443084717</v>
-      </c>
-      <c r="AG27" s="8">
-        <v>-2.4162629188140272E-5</v>
-      </c>
-      <c r="AH27" s="8">
-        <f t="shared" si="10"/>
-        <v>1.3890596564313729E-9</v>
-      </c>
-      <c r="AI27" s="8">
-        <f t="shared" si="11"/>
-        <v>-2.6123141490742079E-10</v>
-      </c>
-      <c r="AJ27" s="8">
-        <f t="shared" si="12"/>
-        <v>4.76837158203125E-4</v>
-      </c>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
       <c r="F28" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G28">
-        <f xml:space="preserve"> 13 * ($C$21*2.20462/1000)^1.3 * 0.453592</f>
-        <v>34.346008020428975</v>
+        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
+        <v>27.916517551222817</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28">
-        <f xml:space="preserve"> 1/$C$39 * LN( EXP($C$39 * K26) + EXP($C$39 * K27) )</f>
-        <v>1.2281189006558431</v>
+        <v>14</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412294626235962</v>
+        <v>0.10804164409637451</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>4.9360445897317362E-8</v>
+        <v>3.1890143775692437E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.10804170370101929</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-3.1618006768319162E-8</v>
       </c>
       <c r="U28" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1080416738986969</v>
+      </c>
+      <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412297606468201</v>
-      </c>
-      <c r="V28" s="8">
-        <f t="shared" si="2"/>
-        <v>1.7232825499924331E-8</v>
+        <v>1.3606868409787864E-10</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>8.5061995074692596E-16</v>
+        <v>4.3392498992506251E-18</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-2.5667939462894357E-16</v>
+        <v>-4.302220574763009E-18</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -4548,94 +5154,66 @@
       <c r="AA28" s="8">
         <v>24</v>
       </c>
-      <c r="AB28" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2742443084717</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>-2.4162629188140272E-5</v>
-      </c>
-      <c r="AD28" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
-      </c>
-      <c r="AE28" s="8">
-        <v>1.0811382026076899E-5</v>
-      </c>
-      <c r="AF28" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2743635177612</v>
-      </c>
-      <c r="AG28" s="8">
-        <v>-7.49998253013473E-6</v>
-      </c>
-      <c r="AH28" s="8">
-        <f t="shared" si="10"/>
-        <v>1.8121929679317556E-10</v>
-      </c>
-      <c r="AI28" s="8">
-        <f t="shared" si="11"/>
-        <v>-8.1085176322189364E-11</v>
-      </c>
-      <c r="AJ28" s="8">
-        <f t="shared" si="12"/>
-        <v>2.384185791015625E-4</v>
-      </c>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="1">
-        <v>400</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
+      <c r="B29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="F29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="3">
-        <f>$C$21 - $C$29 - SUM(G17:G28)</f>
-        <v>1.546140993013978E-10</v>
+        <v>91</v>
+      </c>
+      <c r="G29" s="3" t="e">
+        <f>$C$15 - $C$21 - SUM(G17:G28)</f>
+        <v>#REF!</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P29" s="8">
         <v>25</v>
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412297606468201</v>
+        <v>0.1080416738986969</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>1.7232825499924331E-8</v>
+        <v>1.3606868409787864E-10</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.10804170370101929</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-3.1618006768319162E-8</v>
       </c>
       <c r="U29" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804168879985809</v>
+      </c>
+      <c r="V29" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441229909658432</v>
-      </c>
-      <c r="V29" s="8">
-        <f t="shared" si="2"/>
-        <v>1.169015440005694E-9</v>
+        <v>-1.5740969000477278E-8</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>2.0145439084335386E-17</v>
+        <v>-2.1418529383204434E-18</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7412244756605188E-17</v>
+        <v>4.9769806439699269E-16</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -4644,91 +5222,64 @@
       <c r="AA29" s="8">
         <v>25</v>
       </c>
-      <c r="AB29" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2743635177612</v>
-      </c>
-      <c r="AC29" s="8">
-        <v>-7.49998253013473E-6</v>
-      </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
-      </c>
-      <c r="AE29" s="8">
-        <v>1.0811382026076899E-5</v>
-      </c>
-      <c r="AF29" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.274423122406</v>
-      </c>
-      <c r="AG29" s="8">
-        <v>1.655700316405273E-6</v>
-      </c>
-      <c r="AH29" s="8">
-        <f t="shared" si="10"/>
-        <v>-1.2417723448178093E-11</v>
-      </c>
-      <c r="AI29" s="8">
-        <f t="shared" si="11"/>
-        <v>1.7900408641353803E-11</v>
-      </c>
-      <c r="AJ29" s="8">
-        <f t="shared" si="12"/>
-        <v>1.1920928955078125E-4</v>
-      </c>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
-        <v>150000</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="10" t="str">
+        <v>92</v>
+      </c>
+      <c r="G30" s="10" t="e">
         <f>IF(ABS(G29)&lt;0.00001, "TRUE", "FALSE")</f>
-        <v>TRUE</v>
+        <v>#REF!</v>
       </c>
       <c r="P30" s="8">
         <v>26</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.1080416738986969</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>1.3606868409787864E-10</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.10804168879985809</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-1.5740969000477278E-8</v>
       </c>
       <c r="U30" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1080416813492775</v>
+      </c>
+      <c r="V30" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441229984164238</v>
-      </c>
-      <c r="V30" s="8">
-        <f t="shared" si="2"/>
-        <v>-6.8628895899536246E-9</v>
+        <v>-7.8024501443119121E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>-8.0228238937101335E-18</v>
+        <v>-1.0616691238758252E-18</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>1.0222133017956399E-16</v>
+        <v>1.2281812584938328E-16</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -4737,84 +5288,51 @@
       <c r="AA30" s="8">
         <v>26</v>
       </c>
-      <c r="AB30" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2743635177612</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>-7.49998253013473E-6</v>
-      </c>
-      <c r="AD30" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.274423122406</v>
-      </c>
-      <c r="AE30" s="8">
-        <v>1.655700316405273E-6</v>
-      </c>
-      <c r="AF30" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2743933200836</v>
-      </c>
-      <c r="AG30" s="8">
-        <v>-2.0977797703380929E-6</v>
-      </c>
-      <c r="AH30" s="8">
-        <f t="shared" si="10"/>
-        <v>1.5733311629605743E-11</v>
-      </c>
-      <c r="AI30" s="8">
-        <f t="shared" si="11"/>
-        <v>-3.4732946294973615E-12</v>
-      </c>
-      <c r="AJ30" s="8">
-        <f t="shared" si="12"/>
-        <v>5.9604644775390625E-5</v>
-      </c>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1">
-        <v>240</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
       <c r="P31" s="8">
         <v>27</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.1080416738986969</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>1.3606868409787864E-10</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.3441229984164238</v>
+        <v>0.1080416813492775</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-6.8628895899536246E-9</v>
+        <v>-7.8024501443119121E-9</v>
       </c>
       <c r="U31" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1080416776239872</v>
+      </c>
+      <c r="V31" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441229946911335</v>
-      </c>
-      <c r="V31" s="8">
-        <f t="shared" si="2"/>
-        <v>-2.8469370749739653E-9</v>
+        <v>-3.8331907370459106E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>-3.3281133973692136E-18</v>
+        <v>-5.2157721948601462E-19</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>1.9538214815091848E-17</v>
+        <v>2.9908279619438952E-17</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -4823,39 +5341,15 @@
       <c r="AA31" s="8">
         <v>27</v>
       </c>
-      <c r="AB31" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2743933200836</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>-2.0977797703380929E-6</v>
-      </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.274423122406</v>
-      </c>
-      <c r="AE31" s="8">
-        <v>1.655700316405273E-6</v>
-      </c>
-      <c r="AF31" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744082212448</v>
-      </c>
-      <c r="AG31" s="8">
-        <v>-1.0454011771798832E-6</v>
-      </c>
-      <c r="AH31" s="8">
-        <f t="shared" si="10"/>
-        <v>2.1930214413755874E-12</v>
-      </c>
-      <c r="AI31" s="8">
-        <f t="shared" si="11"/>
-        <v>-1.7308710598271776E-12</v>
-      </c>
-      <c r="AJ31" s="8">
-        <f t="shared" si="12"/>
-        <v>2.9802322387695312E-5</v>
-      </c>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P32" s="8">
@@ -4863,35 +5357,35 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.1080416738986969</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>1.3606868409787864E-10</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.3441229946911335</v>
+        <v>0.1080416776239872</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-2.8469370749739653E-9</v>
+        <v>-3.8331907370459106E-9</v>
       </c>
       <c r="U32" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804167576134205</v>
+      </c>
+      <c r="V32" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412299282848835</v>
-      </c>
-      <c r="V32" s="8">
-        <f t="shared" si="2"/>
-        <v>-8.3896084523971126E-10</v>
+        <v>-1.848561026474016E-9</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>-9.8075818164545002E-19</v>
+        <v>-2.5153126634694316E-19</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>2.3884687347644292E-18</v>
+        <v>7.0858870035442784E-18</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -4900,48 +5394,19 @@
       <c r="AA32" s="8">
         <v>28</v>
       </c>
-      <c r="AB32" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744082212448</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>-1.0454011771798832E-6</v>
-      </c>
-      <c r="AD32" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.274423122406</v>
-      </c>
-      <c r="AE32" s="8">
-        <v>1.655700316405273E-6</v>
-      </c>
-      <c r="AF32" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744156718254</v>
-      </c>
-      <c r="AG32" s="8">
-        <v>3.0514979698637035E-7</v>
-      </c>
-      <c r="AH32" s="8">
-        <f t="shared" si="10"/>
-        <v>-3.1900395698575395E-13</v>
-      </c>
-      <c r="AI32" s="8">
-        <f t="shared" si="11"/>
-        <v>5.0523661542133822E-13</v>
-      </c>
-      <c r="AJ32" s="8">
-        <f t="shared" si="12"/>
-        <v>1.4901161193847656E-5</v>
-      </c>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+    <row r="33" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -4950,35 +5415,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.1080416738986969</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>1.3606868409787864E-10</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412299282848835</v>
+        <v>0.10804167576134205</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3896084523971126E-10</v>
+        <v>-1.848561026474016E-9</v>
       </c>
       <c r="U33" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804167483001947</v>
+      </c>
+      <c r="V33" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412299189716578</v>
-      </c>
-      <c r="V33" s="8">
-        <f t="shared" si="2"/>
-        <v>1.6502732513856699E-10</v>
+        <v>-8.5624617118806867E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>1.9291949110982462E-19</v>
+        <v>-1.1650828977740744E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>-1.3845146418590082E-19</v>
+        <v>1.5828233011258622E-18</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -4987,94 +5452,61 @@
       <c r="AA33" s="8">
         <v>29</v>
       </c>
-      <c r="AB33" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744082212448</v>
-      </c>
-      <c r="AC33" s="8">
-        <v>-1.0454011771798832E-6</v>
-      </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744156718254</v>
-      </c>
-      <c r="AE33" s="8">
-        <v>3.0514979698637035E-7</v>
-      </c>
-      <c r="AF33" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744119465351</v>
-      </c>
-      <c r="AG33" s="8">
-        <v>-3.7012591747043189E-7</v>
-      </c>
-      <c r="AH33" s="8">
-        <f t="shared" si="10"/>
-        <v>3.869300698283738E-13</v>
-      </c>
-      <c r="AI33" s="8">
-        <f t="shared" si="11"/>
-        <v>-1.1294384857549636E-13</v>
-      </c>
-      <c r="AJ33" s="8">
-        <f t="shared" si="12"/>
-        <v>7.4505805969238281E-6</v>
-      </c>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
+    <row r="34" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G34">
-        <f>ROUND($C$29/$C$21 * 100, 2)</f>
-        <v>22.74</v>
+        <f>ROUND($C$21/$C$15 * 100, 2)</f>
+        <v>26.67</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P34" s="8">
         <v>30</v>
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412299189716578</v>
+        <v>0.1080416738986969</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>1.6502732513856699E-10</v>
+        <v>1.3606868409787864E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412299282848835</v>
+        <v>0.10804167483001947</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3896084523971126E-10</v>
+        <v>-8.5624617118806867E-10</v>
       </c>
       <c r="U34" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10804167436435819</v>
+      </c>
+      <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412299236282706</v>
-      </c>
-      <c r="V34" s="8">
-        <f t="shared" si="2"/>
-        <v>-3.3696678780614775E-10</v>
+        <v>-3.6008873660620111E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-5.5608727652183656E-20</v>
+        <v>-4.8996800548473409E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>2.8270194111555615E-19</v>
+        <v>3.0832460200700865E-19</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -5083,498 +5515,175 @@
       <c r="AA34" s="8">
         <v>30</v>
       </c>
-      <c r="AB34" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744119465351</v>
-      </c>
-      <c r="AC34" s="8">
-        <v>-3.7012591747043189E-7</v>
-      </c>
-      <c r="AD34" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744156718254</v>
-      </c>
-      <c r="AE34" s="8">
-        <v>3.0514979698637035E-7</v>
-      </c>
-      <c r="AF34" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744138091803</v>
-      </c>
-      <c r="AG34" s="8">
-        <v>-3.248806024203077E-8</v>
-      </c>
-      <c r="AH34" s="8">
-        <f t="shared" si="10"/>
-        <v>1.20246731039163E-14</v>
-      </c>
-      <c r="AI34" s="8">
-        <f t="shared" si="11"/>
-        <v>-9.9137249873366592E-15</v>
-      </c>
-      <c r="AJ34" s="8">
-        <f t="shared" si="12"/>
-        <v>3.7252902984619141E-6</v>
-      </c>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1">
-        <v>9.81</v>
-      </c>
-      <c r="D35" t="s">
-        <v>32</v>
-      </c>
+    <row r="35" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F35" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G35">
-        <f>ROUND(G17/$C$21 * 100, 2)</f>
-        <v>35.69</v>
+        <f>ROUND(G17/$C$15 * 100, 2)</f>
+        <v>10.61</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA35" s="8">
         <v>31</v>
       </c>
-      <c r="AB35" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
-      </c>
-      <c r="AC35">
-        <v>-3.248806024203077E-8</v>
-      </c>
-      <c r="AD35" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744156718254</v>
-      </c>
-      <c r="AE35">
-        <v>3.0514979698637035E-7</v>
-      </c>
-      <c r="AF35" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744147405028</v>
-      </c>
-      <c r="AG35">
-        <v>1.3633098205900751E-7</v>
-      </c>
-      <c r="AH35" s="8">
-        <f t="shared" si="10"/>
-        <v>-4.429129157988252E-15</v>
-      </c>
-      <c r="AI35" s="8">
-        <f t="shared" si="11"/>
-        <v>4.160137149825864E-14</v>
-      </c>
-      <c r="AJ35" s="8">
-        <f t="shared" si="12"/>
-        <v>1.862645149230957E-6</v>
-      </c>
+      <c r="AB35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
+    <row r="36" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F36" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36">
-        <f>ROUND(SUM(G18:G19)/$C$21 * 100, 2)</f>
-        <v>13.12</v>
+        <v>107</v>
+      </c>
+      <c r="G36" t="e">
+        <f>ROUND(SUM(G18:G19)/$C$15 * 100, 2)</f>
+        <v>#REF!</v>
       </c>
       <c r="H36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA36" s="8">
         <v>32</v>
       </c>
-      <c r="AB36" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
-      </c>
-      <c r="AC36">
-        <v>-3.248806024203077E-8</v>
-      </c>
-      <c r="AD36" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744147405028</v>
-      </c>
-      <c r="AE36">
-        <v>1.3633098205900751E-7</v>
-      </c>
-      <c r="AF36" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744142748415</v>
-      </c>
-      <c r="AG36">
-        <v>5.1921006161137484E-8</v>
-      </c>
-      <c r="AH36" s="8">
-        <f t="shared" si="10"/>
-        <v>-1.6868127759898853E-15</v>
-      </c>
-      <c r="AI36" s="8">
-        <f t="shared" si="11"/>
-        <v>7.0784417594396528E-15</v>
-      </c>
-      <c r="AJ36" s="8">
-        <f t="shared" si="12"/>
-        <v>9.3132257461547852E-7</v>
-      </c>
+      <c r="AB36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F37" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37">
-        <f>ROUND(SUM(G20:G24)/$C$21 * 100, 2)</f>
-        <v>22.51</v>
+        <v>108</v>
+      </c>
+      <c r="G37" t="e">
+        <f>ROUND(SUM(G20:G24)/$C$15 * 100, 2)</f>
+        <v>#REF!</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA37" s="8">
         <v>33</v>
       </c>
-      <c r="AB37" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
-      </c>
-      <c r="AC37">
-        <v>-3.248806024203077E-8</v>
-      </c>
-      <c r="AD37" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744142748415</v>
-      </c>
-      <c r="AE37">
-        <v>5.1921006161137484E-8</v>
-      </c>
-      <c r="AF37" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744140420109</v>
-      </c>
-      <c r="AG37">
-        <v>9.7161318990401924E-9</v>
-      </c>
-      <c r="AH37" s="8">
-        <f t="shared" si="10"/>
-        <v>-3.1565827845553459E-16</v>
-      </c>
-      <c r="AI37" s="8">
-        <f t="shared" si="11"/>
-        <v>5.0447134419249027E-16</v>
-      </c>
-      <c r="AJ37" s="8">
-        <f t="shared" si="12"/>
-        <v>4.6566128730773926E-7</v>
-      </c>
+      <c r="AB37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+    <row r="38" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F38" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G38">
-        <f>ROUND(SUM(G25:G28)/$C$21*100, 2)</f>
-        <v>5.94</v>
+        <f>ROUND(SUM(G25:G28)/$C$15*100, 2)</f>
+        <v>5.9</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA38" s="8">
         <v>34</v>
       </c>
-      <c r="AB38" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
-      </c>
-      <c r="AC38">
-        <v>-3.248806024203077E-8</v>
-      </c>
-      <c r="AD38" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744140420109</v>
-      </c>
-      <c r="AE38">
-        <v>9.7161318990401924E-9</v>
-      </c>
-      <c r="AF38" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744139255956</v>
-      </c>
-      <c r="AG38">
-        <v>-1.1385736797819845E-8</v>
-      </c>
-      <c r="AH38" s="8">
-        <f t="shared" si="10"/>
-        <v>3.6990050298747765E-16</v>
-      </c>
-      <c r="AI38" s="8">
-        <f t="shared" si="11"/>
-        <v>-1.1062532049537313E-16</v>
-      </c>
-      <c r="AJ38" s="8">
-        <f t="shared" si="12"/>
-        <v>2.3283064365386963E-7</v>
-      </c>
+      <c r="AB38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="1">
-        <v>30</v>
-      </c>
+    <row r="39" spans="6:36" x14ac:dyDescent="0.2">
       <c r="F39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="3">
+        <v>96</v>
+      </c>
+      <c r="G39" s="3" t="e">
         <f>SUM(G34:G38)</f>
-        <v>100</v>
+        <v>#REF!</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA39" s="8">
         <v>35</v>
       </c>
-      <c r="AB39" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744139255956</v>
-      </c>
-      <c r="AC39">
-        <v>-1.1385736797819845E-8</v>
-      </c>
-      <c r="AD39" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744140420109</v>
-      </c>
-      <c r="AE39">
-        <v>9.7161318990401924E-9</v>
-      </c>
-      <c r="AF39" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744139838032</v>
-      </c>
-      <c r="AG39">
-        <v>-8.3491613622754812E-10</v>
-      </c>
-      <c r="AH39" s="8">
-        <f t="shared" si="10"/>
-        <v>9.5061353753395616E-18</v>
-      </c>
-      <c r="AI39" s="8">
-        <f t="shared" si="11"/>
-        <v>-8.1121553042238671E-18</v>
-      </c>
-      <c r="AJ39" s="8">
-        <f t="shared" si="12"/>
-        <v>1.1641532182693481E-7</v>
-      </c>
+      <c r="AB39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA40" s="8">
         <v>36</v>
       </c>
-      <c r="AB40" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
-      </c>
-      <c r="AC40">
-        <v>-8.3491613622754812E-10</v>
-      </c>
-      <c r="AD40" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744140420109</v>
-      </c>
-      <c r="AE40">
-        <v>9.7161318990401924E-9</v>
-      </c>
-      <c r="AF40" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744140129071</v>
-      </c>
-      <c r="AG40">
-        <v>4.4410626287572086E-9</v>
-      </c>
-      <c r="AH40" s="8">
-        <f t="shared" si="10"/>
-        <v>-3.7079148507465265E-18</v>
-      </c>
-      <c r="AI40" s="8">
-        <f t="shared" si="11"/>
-        <v>4.3149950272903206E-17</v>
-      </c>
-      <c r="AJ40" s="8">
-        <f t="shared" si="12"/>
-        <v>5.8207660913467407E-8</v>
-      </c>
+      <c r="AB40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA41" s="8">
         <v>37</v>
       </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
-      </c>
-      <c r="AC41">
-        <v>-8.3491613622754812E-10</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744140129071</v>
-      </c>
-      <c r="AE41">
-        <v>4.4410626287572086E-9</v>
-      </c>
-      <c r="AF41" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744139983552</v>
-      </c>
-      <c r="AG41">
-        <v>1.8030732462648302E-9</v>
-      </c>
-      <c r="AH41" s="8">
-        <f t="shared" si="10"/>
-        <v>-1.5054149481066944E-18</v>
-      </c>
-      <c r="AI41" s="8">
-        <f t="shared" si="11"/>
-        <v>8.0075612108986807E-18</v>
-      </c>
-      <c r="AJ41" s="8">
-        <f t="shared" si="12"/>
-        <v>2.9103830456733704E-8</v>
-      </c>
+      <c r="AB41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA42" s="8">
         <v>38</v>
       </c>
-      <c r="AB42" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
-      </c>
-      <c r="AC42">
-        <v>-8.3491613622754812E-10</v>
-      </c>
-      <c r="AD42" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744139983552</v>
-      </c>
-      <c r="AE42">
-        <v>1.8030732462648302E-9</v>
-      </c>
-      <c r="AF42" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744139910792</v>
-      </c>
-      <c r="AG42">
-        <v>4.8430592869408429E-10</v>
-      </c>
-      <c r="AH42" s="8">
-        <f t="shared" si="10"/>
-        <v>-4.0435483473735928E-19</v>
-      </c>
-      <c r="AI42" s="8">
-        <f t="shared" si="11"/>
-        <v>8.7323906303574595E-19</v>
-      </c>
-      <c r="AJ42" s="8">
-        <f t="shared" si="12"/>
-        <v>1.4551915228366852E-8</v>
-      </c>
+      <c r="AB42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA43" s="8">
         <v>39</v>
       </c>
-      <c r="AB43" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
-      </c>
-      <c r="AC43">
-        <v>-8.3491613622754812E-10</v>
-      </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744139910792</v>
-      </c>
-      <c r="AE43">
-        <v>4.8430592869408429E-10</v>
-      </c>
-      <c r="AF43" s="8">
-        <f t="shared" si="9"/>
-        <v>1759.2744139874412</v>
-      </c>
-      <c r="AG43">
-        <v>-1.7530510376673192E-10</v>
-      </c>
-      <c r="AH43" s="8">
-        <f t="shared" si="10"/>
-        <v>1.4636505989788921E-19</v>
-      </c>
-      <c r="AI43" s="8">
-        <f t="shared" si="11"/>
-        <v>-8.4901301084559915E-20</v>
-      </c>
-      <c r="AJ43" s="8">
-        <f t="shared" si="12"/>
-        <v>7.2759576141834259E-9</v>
-      </c>
+      <c r="AB43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA44" s="8">
         <v>40</v>
       </c>
-      <c r="AB44" s="8">
-        <f t="shared" si="13"/>
-        <v>1759.2744139874412</v>
-      </c>
-      <c r="AC44">
-        <v>-1.7530510376673192E-10</v>
-      </c>
-      <c r="AD44" s="8">
-        <f t="shared" si="14"/>
-        <v>1759.2744139910792</v>
-      </c>
-      <c r="AE44">
-        <v>4.8430592869408429E-10</v>
-      </c>
-      <c r="AF44" s="11">
-        <f t="shared" si="9"/>
-        <v>1759.2744139892602</v>
-      </c>
-      <c r="AG44">
-        <v>1.546140993013978E-10</v>
-      </c>
-      <c r="AH44" s="8">
-        <f t="shared" si="10"/>
-        <v>-2.7104640721831334E-20</v>
-      </c>
-      <c r="AI44" s="8">
-        <f t="shared" si="11"/>
-        <v>7.488052495136283E-20</v>
-      </c>
-      <c r="AJ44" s="8">
-        <f t="shared" si="12"/>
-        <v>3.637978807091713E-9</v>
-      </c>
+      <c r="AB44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AF44" s="11"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
     </row>
     <row r="55" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA55" s="8"/>
@@ -5587,20 +5696,3609 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",G30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",G30)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",G30)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"""YES"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
+  <dimension ref="B1:AJ57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="15" width="3.83203125" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="18" width="6.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="7.83203125" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="9.5" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="P2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="P3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$20*$C$34)^3 / (2 * $C$33 * PI() * $C$21^2* $C$5) )</f>
+        <v>370704.43153783563</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> $C$20 * $C$34</f>
+        <v>17258.482001234643</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
+        <v>0.6534009566313479</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
+        <v>-0.67357508815696088</v>
+      </c>
+      <c r="U4" s="8">
+        <f xml:space="preserve"> (Q4 + S4)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
+        <v>-0.16427027744759859</v>
+      </c>
+      <c r="W4" s="8">
+        <f>R4*V4</f>
+        <v>-0.10733435643035785</v>
+      </c>
+      <c r="X4" s="8">
+        <f>T4*V4</f>
+        <v>0.11064836661333464</v>
+      </c>
+      <c r="Y4" s="8">
+        <f>S4-Q4</f>
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8">
+        <f>G29</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8">
+        <f>G29</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8">
+        <f>G29</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <f xml:space="preserve"> $C$20 * $C$34 / $C$5</f>
+        <v>2876.4136668724404</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> 0.5 * $C$33 * $C$23^2</f>
+        <v>1852.8125000000002</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>IF(W4&gt;0, U4, Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.6534009566313479</v>
+      </c>
+      <c r="S5" s="8">
+        <f>IF(X4&gt;0, U4, S4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.16427027744759859</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10419045512088293</v>
+      </c>
+      <c r="W5" s="8">
+        <f t="shared" ref="W5:W34" si="4">R5*V5</f>
+        <v>6.807814304784042E-2</v>
+      </c>
+      <c r="X5" s="8">
+        <f t="shared" ref="X5:X34" si="5">T5*V5</f>
+        <v>-1.7115394970099007E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>500</v>
+      </c>
+      <c r="AC5" s="8">
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
+        <v>-387.71074190676364</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>2500</v>
+      </c>
+      <c r="AE5" s="8">
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <v>17.800327323294368</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>(AB5+AD5)/2</f>
+        <v>1500</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <v>-47.313913459105152</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>AC5*AG5</f>
+        <v>18344.112489742067</v>
+      </c>
+      <c r="AI5" s="8">
+        <f>AE5*AG5</f>
+        <v>-842.20314651809463</v>
+      </c>
+      <c r="AJ5" s="8">
+        <f>AD5-AB5</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> 1.6 * ($C$20*2.20462/1000)^(2/3) * 0.3048^2</f>
+        <v>0.36693977839770386</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" ref="Q6:Q34" si="7">IF(W5&gt;0, U5, Q5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10419045512088293</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.16427027744759859</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="2"/>
+        <v>-3.3089506961332005E-2</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="4"/>
+        <v>-3.4476107900268055E-3</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" si="5"/>
+        <v>5.4356224891422529E-3</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="8">
+        <f>IF(AH5&gt;0,AF5,AB5)</f>
+        <v>1500</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>-47.313913459105152</v>
+      </c>
+      <c r="AD6" s="8">
+        <f>IF(AI5&gt;0,AF5,AD5)</f>
+        <v>2500</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>17.800327323294368</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
+        <v>2000</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>25.674914961811965</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
+        <v>-1214.7807045730553</v>
+      </c>
+      <c r="AI6" s="8">
+        <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
+        <v>457.02189031800089</v>
+      </c>
+      <c r="AJ6" s="8">
+        <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> K6 / $C$24</f>
+        <v>5.7334340374641225E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10419045512088293</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.3089506961332005E-2</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="2"/>
+        <v>3.4337276181752696E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="4"/>
+        <v>3.5776164329882668E-3</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.1362035392492855E-3</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0,AF6,AB6)</f>
+        <v>1500</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>-47.313913459105152</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
+        <v>2000</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>25.674914961811965</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="9"/>
+        <v>1750</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AH7" s="8">
+        <f t="shared" si="10"/>
+        <v>63.798948567847766</v>
+      </c>
+      <c r="AI7" s="8">
+        <f t="shared" si="11"/>
+        <v>-34.620526170347503</v>
+      </c>
+      <c r="AJ7" s="8">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$23 * SIN(K17))</f>
+        <v>108255.92346359526</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> K5 * $C$24 * K7</f>
+        <v>679.87060816249573</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3125</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.4337276181752696E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.3089506961332005E-2</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34375</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="W8" s="8">
+        <f t="shared" si="4"/>
+        <v>1.3807900155271931E-5</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.3306140122787288E-5</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="14"/>
+        <v>2000</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>25.674914961811965</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="9"/>
+        <v>1875</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>14.608622084738727</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" si="10"/>
+        <v>-19.698533917236411</v>
+      </c>
+      <c r="AI8" s="8">
+        <f t="shared" si="11"/>
+        <v>375.07512973491504</v>
+      </c>
+      <c r="AJ8" s="8">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <f xml:space="preserve"> $C$6 * G8</f>
+        <v>108255.92346359526</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$12^0.68) - 0.64</f>
+        <v>0.75661729604956662</v>
+      </c>
+      <c r="P9" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.3089506961332005E-2</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.359375</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.6391988222810072E-2</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.5916392298826105E-6</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" si="5"/>
+        <v>5.4240280840874607E-4</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="14"/>
+        <v>1875</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>14.608622084738727</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="9"/>
+        <v>1812.5</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>7.2315173400106687</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="10"/>
+        <v>-9.7511105954406023</v>
+      </c>
+      <c r="AI9" s="8">
+        <f t="shared" si="11"/>
+        <v>105.6425039194509</v>
+      </c>
+      <c r="AJ9" s="8">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> K4 / (K5 * $C$24)</f>
+        <v>1.4554294148452218</v>
+      </c>
+      <c r="P10" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="8"/>
+        <v>0.359375</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.6391988222810072E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3515625</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.0078008059947803E-3</v>
+      </c>
+      <c r="W10" s="8">
+        <f t="shared" si="4"/>
+        <v>-3.2201422561071089E-6</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3126377650247544E-4</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" si="14"/>
+        <v>1812.5</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>7.2315173400106687</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="9"/>
+        <v>1781.25</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>3.0906758263029133</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="10"/>
+        <v>-4.1675239621136013</v>
+      </c>
+      <c r="AI10" s="8">
+        <f t="shared" si="11"/>
+        <v>22.350275830261317</v>
+      </c>
+      <c r="AJ10" s="8">
+        <f t="shared" si="12"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11">
+        <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
+        <v>0.14645043752924147</v>
+      </c>
+      <c r="P11" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="8"/>
+        <v>0.3515625</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="1"/>
+        <v>-8.0078008059947803E-3</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34765625</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="2"/>
+        <v>-3.8061620383744721E-3</v>
+      </c>
+      <c r="W11" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.5305554558980865E-6</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0478987438641834E-5</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" si="6"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD11" s="8">
+        <f t="shared" si="14"/>
+        <v>1781.25</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>3.0906758263029133</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="9"/>
+        <v>1765.625</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.9082583887650344</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.2247122673803159</v>
+      </c>
+      <c r="AI11" s="8">
+        <f t="shared" si="11"/>
+        <v>2.8071322461929253</v>
+      </c>
+      <c r="AJ11" s="8">
+        <f t="shared" si="12"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
+        <v>106725.69199918545</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12">
+        <f xml:space="preserve"> K5 * K11 * $C$24</f>
+        <v>1736.6092882217458</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="S12" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34765625</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.8061620383744721E-3</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.345703125</v>
+      </c>
+      <c r="V12" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.7028632090883011E-3</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.8476500712285176E-7</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" si="5"/>
+        <v>6.4813733029764234E-6</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" si="6"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="13"/>
+        <v>1750</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>-1.3484183383602613</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" si="14"/>
+        <v>1765.625</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0.9082583887650344</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="9"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="10"/>
+        <v>0.28426820962335253</v>
+      </c>
+      <c r="AI12" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.19147543362811045</v>
+      </c>
+      <c r="AJ12" s="8">
+        <f t="shared" si="12"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <f xml:space="preserve"> $C$29 / $C$23</f>
+        <v>2727.2727272727275</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="8"/>
+        <v>0.345703125</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.7028632090883011E-3</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3447265625</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="2"/>
+        <v>-6.5058179843768826E-4</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.6161564091791965E-7</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1078518090620401E-6</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="6"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="13"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="14"/>
+        <v>1765.625</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>0.9082583887650344</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="9"/>
+        <v>1761.71875</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0.35103858905245033</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="10"/>
+        <v>-7.400456399903016E-2</v>
+      </c>
+      <c r="AI13" s="8">
+        <f t="shared" si="11"/>
+        <v>0.3188337432871296</v>
+      </c>
+      <c r="AJ13" s="8">
+        <f t="shared" si="12"/>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="P14" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="S14" s="8">
+        <f t="shared" si="8"/>
+        <v>0.3447265625</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="1"/>
+        <v>-6.5058179843768826E-4</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34423828125</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.2428154552712734E-4</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" si="4"/>
+        <v>-4.9976799636000218E-8</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" si="5"/>
+        <v>8.0855311401653939E-8</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" si="6"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="13"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="14"/>
+        <v>1761.71875</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0.35103858905245033</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.765625</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>7.0689910544615486E-2</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.490256676083856E-2</v>
+      </c>
+      <c r="AI14" s="8">
+        <f t="shared" si="11"/>
+        <v>2.4814886457825751E-2</v>
+      </c>
+      <c r="AJ14" s="8">
+        <f t="shared" si="12"/>
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>250</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0212566897224189E-4</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34423828125</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.2428154552712734E-4</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.343994140625</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3890866342486374E-4</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="4"/>
+        <v>5.5858739205763325E-8</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.7263783377549612E-8</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="6"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="13"/>
+        <v>1757.8125</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>-0.21081603648985947</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.765625</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>7.0689910544615486E-2</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="9"/>
+        <v>1758.7890625</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>-6.9918236420789981E-2</v>
+      </c>
+      <c r="AH15" s="8">
+        <f t="shared" si="10"/>
+        <v>1.4739885480591882E-2</v>
+      </c>
+      <c r="AI15" s="8">
+        <f t="shared" si="11"/>
+        <v>-4.9425138780229199E-3</v>
+      </c>
+      <c r="AJ15" s="8">
+        <f t="shared" si="12"/>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="P16" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="7"/>
+        <v>0.343994140625</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3890866342486374E-4</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34423828125</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.2428154552712734E-4</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441162109375</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" si="2"/>
+        <v>7.3102128929636301E-6</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0154519023127844E-9</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="5"/>
+        <v>-9.085245564698526E-10</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="6"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="13"/>
+        <v>1758.7890625</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>-6.9918236420789981E-2</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.765625</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>7.0689910544615486E-2</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AH16" s="8">
+        <f t="shared" si="10"/>
+        <v>-2.952329775813371E-5</v>
+      </c>
+      <c r="AI16" s="8">
+        <f t="shared" si="11"/>
+        <v>2.9849140715510894E-5</v>
+      </c>
+      <c r="AJ16" s="8">
+        <f t="shared" si="12"/>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17">
+        <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
+        <v>627.79818823050266</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <f xml:space="preserve"> (90 - $C$35) / 180 * PI()</f>
+        <v>1.48352986419518</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441162109375</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="0"/>
+        <v>7.3102128929636301E-6</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34423828125</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.2428154552712734E-4</v>
+      </c>
+      <c r="U17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34417724609375</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="2"/>
+        <v>-5.8486502391763562E-5</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" si="4"/>
+        <v>-4.275487838486182E-10</v>
+      </c>
+      <c r="X17" s="8">
+        <f t="shared" si="5"/>
+        <v>7.2687929097244045E-9</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" si="6"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="13"/>
+        <v>1758.7890625</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>-6.9918236420789981E-2</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.033203125</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>-3.4738475067570107E-2</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="10"/>
+        <v>2.4288529126720851E-3</v>
+      </c>
+      <c r="AI17" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.4668481294508436E-5</v>
+      </c>
+      <c r="AJ17" s="8">
+        <f t="shared" si="12"/>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18">
+        <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
+        <v>129.12379999708568</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <f xml:space="preserve"> K12 / $C$6</f>
+        <v>1736.6092882217458</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441162109375</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="0"/>
+        <v>7.3102128929636301E-6</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34417724609375</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="1"/>
+        <v>-5.8486502391763562E-5</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="3"/>
+        <v>0.344146728515625</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.5588353822936227E-5</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.8705631402614359E-10</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" si="5"/>
+        <v>1.496573317066452E-9</v>
+      </c>
+      <c r="Y18" s="8">
+        <f t="shared" si="6"/>
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.033203125</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>-3.4738475067570107E-2</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.1552734375</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>-1.7156761490696226E-2</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" si="10"/>
+        <v>5.9599973128479785E-4</v>
+      </c>
+      <c r="AI18" s="8">
+        <f t="shared" si="11"/>
+        <v>-7.2445216582221059E-6</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f t="shared" si="12"/>
+        <v>0.244140625</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="F19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19">
+        <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
+        <v>101.71654674026901</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19">
+        <f xml:space="preserve"> PI() * $C$23 / ($C$22 * $C$25)</f>
+        <v>191.98621771937624</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441162109375</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="0"/>
+        <v>7.3102128929636301E-6</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="8"/>
+        <v>0.344146728515625</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.5588353822936227E-5</v>
+      </c>
+      <c r="U19" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441314697265625</v>
+      </c>
+      <c r="V19" s="8">
+        <f t="shared" si="2"/>
+        <v>-9.1391227402537467E-6</v>
+      </c>
+      <c r="W19" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.6808932886180036E-11</v>
+      </c>
+      <c r="X19" s="8">
+        <f t="shared" si="5"/>
+        <v>2.3385510630885535E-10</v>
+      </c>
+      <c r="Y19" s="8">
+        <f t="shared" si="6"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.1552734375</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>-1.7156761490696226E-2</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.21630859375</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>-8.3667102057916054E-3</v>
+      </c>
+      <c r="AH19" s="8">
+        <f t="shared" si="10"/>
+        <v>1.4354565146254051E-4</v>
+      </c>
+      <c r="AI19" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.5328819676600593E-6</v>
+      </c>
+      <c r="AJ19" s="8">
+        <f t="shared" si="12"/>
+        <v>0.1220703125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3">
+        <f>AF44</f>
+        <v>1759.2744139892602</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20">
+        <f xml:space="preserve"> 14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
+        <v>155.13153788682038</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <f xml:space="preserve"> $C$23 * COS(K17) / (K19 * $C$22)</f>
+        <v>2.7742534554270872E-2</v>
+      </c>
+      <c r="P20" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441162109375</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="0"/>
+        <v>7.3102128929636301E-6</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="8"/>
+        <v>0.3441314697265625</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.1391227402537467E-6</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412384033203125</v>
+      </c>
+      <c r="V20" s="8">
+        <f t="shared" si="2"/>
+        <v>-9.1446799327377093E-7</v>
+      </c>
+      <c r="W20" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.684955714632498E-12</v>
+      </c>
+      <c r="X20" s="8">
+        <f t="shared" si="5"/>
+        <v>8.3574352325625303E-12</v>
+      </c>
+      <c r="Y20" s="8">
+        <f t="shared" si="6"/>
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.21630859375</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>-8.3667102057916054E-3</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.246826171875</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>-3.9720919878618588E-3</v>
+      </c>
+      <c r="AH20" s="8">
+        <f t="shared" si="10"/>
+        <v>3.3233342573186878E-5</v>
+      </c>
+      <c r="AI20" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.6772341592625357E-6</v>
+      </c>
+      <c r="AJ20" s="8">
+        <f t="shared" si="12"/>
+        <v>6.103515625E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21">
+        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592</f>
+        <v>34.803957488997163</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <f xml:space="preserve"> K18 / ( $C$33 * PI() * $C$22^2 * K19^2 * $C$22^2)</f>
+        <v>1.8659758335729235E-2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441162109375</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="0"/>
+        <v>7.3102128929636301E-6</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412384033203125</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.1446799327377093E-7</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412002563476562</v>
+      </c>
+      <c r="V21" s="8">
+        <f t="shared" si="2"/>
+        <v>3.1978691823475458E-6</v>
+      </c>
+      <c r="W21" s="8">
+        <f t="shared" si="4"/>
+        <v>2.337710452680809E-11</v>
+      </c>
+      <c r="X21" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.9243490139333949E-12</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="6"/>
+        <v>7.62939453125E-6</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.246826171875</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>-3.9720919878618588E-3</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2620849609375</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>-1.774884736050808E-3</v>
+      </c>
+      <c r="AH21" s="8">
+        <f t="shared" si="10"/>
+        <v>7.0500054394457242E-6</v>
+      </c>
+      <c r="AI21" s="8">
+        <f t="shared" si="11"/>
+        <v>-7.494532647166919E-7</v>
+      </c>
+      <c r="AJ21" s="8">
+        <f t="shared" si="12"/>
+        <v>3.0517578125E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <f xml:space="preserve"> 0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
+        <v>206.16084700286123</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P22" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412002563476562</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1978691823475458E-6</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412384033203125</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.1446799327377093E-7</v>
+      </c>
+      <c r="U22" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412193298339844</v>
+      </c>
+      <c r="V22" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1416997776625415E-6</v>
+      </c>
+      <c r="W22" s="8">
+        <f t="shared" si="4"/>
+        <v>3.6510065344800862E-12</v>
+      </c>
+      <c r="X22" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.0440479046001747E-12</v>
+      </c>
+      <c r="Y22" s="8">
+        <f t="shared" si="6"/>
+        <v>3.814697265625E-6</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>18</v>
+      </c>
+      <c r="AB22" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2620849609375</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>-1.774884736050808E-3</v>
+      </c>
+      <c r="AD22" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2697143554688</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>-6.7548221659308183E-4</v>
+      </c>
+      <c r="AH22" s="8">
+        <f t="shared" si="10"/>
+        <v>1.1989030757048268E-6</v>
+      </c>
+      <c r="AI22" s="8">
+        <f t="shared" si="11"/>
+        <v>-2.8522548095723832E-7</v>
+      </c>
+      <c r="AJ22" s="8">
+        <f t="shared" si="12"/>
+        <v>1.52587890625E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23">
+        <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$33 * K19^3 * C22^5)</f>
+        <v>3146.9858091218234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="8">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412193298339844</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1416997776625415E-6</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412384033203125</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.1446799327377093E-7</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412288665771484</v>
+      </c>
+      <c r="V23" s="8">
+        <f t="shared" si="2"/>
+        <v>1.136156879688599E-7</v>
+      </c>
+      <c r="W23" s="8">
+        <f t="shared" si="4"/>
+        <v>1.2971500569302404E-13</v>
+      </c>
+      <c r="X23" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.0389791018130224E-13</v>
+      </c>
+      <c r="Y23" s="8">
+        <f t="shared" si="6"/>
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2697143554688</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>-6.7548221659308183E-4</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="10"/>
+        <v>8.6080778448836608E-8</v>
+      </c>
+      <c r="AI23" s="8">
+        <f t="shared" si="11"/>
+        <v>-5.3810455361379228E-8</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f t="shared" si="12"/>
+        <v>7.62939453125E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="5">
+        <f>U34</f>
+        <v>0.34412299236282706</v>
+      </c>
+      <c r="P24" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412288665771484</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" si="0"/>
+        <v>1.136156879688599E-7</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412384033203125</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.1446799327377093E-7</v>
+      </c>
+      <c r="U24" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412336349487305</v>
+      </c>
+      <c r="V24" s="8">
+        <f t="shared" si="2"/>
+        <v>-4.0042620375047022E-7</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" si="4"/>
+        <v>-4.5494698619868544E-14</v>
+      </c>
+      <c r="X24" s="8">
+        <f t="shared" si="5"/>
+        <v>3.6617694699792661E-13</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" si="6"/>
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.27734375</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>4.222546115215664E-4</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2754364013672</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>1.4740981623617699E-4</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.8785323167514503E-8</v>
+      </c>
+      <c r="AI24" s="8">
+        <f t="shared" si="11"/>
+        <v>6.2244474689272409E-8</v>
+      </c>
+      <c r="AJ24" s="8">
+        <f t="shared" si="12"/>
+        <v>3.814697265625E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25">
+        <f xml:space="preserve"> 0.0268 * $C$20</f>
+        <v>47.148554294912174</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25">
+        <f xml:space="preserve"> K19 * $C$22 * K24 - $C$23 * SIN(K17)</f>
+        <v>4.6694761655656691</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="8">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412288665771484</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="0"/>
+        <v>1.136156879688599E-7</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412336349487305</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" si="1"/>
+        <v>-4.0042620375047022E-7</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412312507629395</v>
+      </c>
+      <c r="V25" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.4340527065836994E-7</v>
+      </c>
+      <c r="W25" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.629308848421126E-14</v>
+      </c>
+      <c r="X25" s="8">
+        <f t="shared" si="5"/>
+        <v>5.7423228127539771E-14</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="6"/>
+        <v>4.76837158203125E-7</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>21</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2754364013672</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>1.4740981623617699E-4</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.3777597071413283E-9</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" si="11"/>
+        <v>1.5937038377231026E-9</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="12"/>
+        <v>1.9073486328125E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F26" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26">
+        <f xml:space="preserve"> 11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592</f>
+        <v>8.9707790153142888</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$33*PI()*$C$22^2) / K18^3 )</f>
+        <v>1.2247552694509789</v>
+      </c>
+      <c r="P26" s="8">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412288665771484</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="0"/>
+        <v>1.136156879688599E-7</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412312507629395</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.4340527065836994E-7</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412300586700439</v>
+      </c>
+      <c r="V26" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.4894794508890641E-8</v>
+      </c>
+      <c r="W26" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.692282325282407E-15</v>
+      </c>
+      <c r="X26" s="8">
+        <f t="shared" si="5"/>
+        <v>2.1359920379482649E-15</v>
+      </c>
+      <c r="Y26" s="8">
+        <f t="shared" si="6"/>
+        <v>2.384185791015625E-7</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2735290527344</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>-1.2743603952003468E-4</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2740058898926</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>-5.7487935009703506E-5</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="10"/>
+        <v>7.3260347578217612E-9</v>
+      </c>
+      <c r="AI26" s="8">
+        <f t="shared" si="11"/>
+        <v>-6.2152402728018538E-10</v>
+      </c>
+      <c r="AJ26" s="8">
+        <f t="shared" si="12"/>
+        <v>9.5367431640625E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="F27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27">
+        <f xml:space="preserve"> 8 * ($C$20/1000)</f>
+        <v>14.074195311914082</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P27" s="8">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412288665771484</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="0"/>
+        <v>1.136156879688599E-7</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412300586700439</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.4894794508890641E-8</v>
+      </c>
+      <c r="U27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412294626235962</v>
+      </c>
+      <c r="V27" s="8">
+        <f t="shared" si="2"/>
+        <v>4.9360445897317362E-8</v>
+      </c>
+      <c r="W27" s="8">
+        <f t="shared" si="4"/>
+        <v>5.6081210190734E-15</v>
+      </c>
+      <c r="X27" s="8">
+        <f t="shared" si="5"/>
+        <v>-7.3521369850775619E-16</v>
+      </c>
+      <c r="Y27" s="8">
+        <f t="shared" si="6"/>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>23</v>
+      </c>
+      <c r="AB27" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2740058898926</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>-5.7487935009703506E-5</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2742443084717</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>-2.4162629188140272E-5</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="10"/>
+        <v>1.3890596564313729E-9</v>
+      </c>
+      <c r="AI27" s="8">
+        <f t="shared" si="11"/>
+        <v>-2.6123141490742079E-10</v>
+      </c>
+      <c r="AJ27" s="8">
+        <f t="shared" si="12"/>
+        <v>4.76837158203125E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1">
+        <v>400</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28">
+        <f xml:space="preserve"> 13 * ($C$20*2.20462/1000)^1.3 * 0.453592</f>
+        <v>34.346008020428975</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28">
+        <f xml:space="preserve"> 1/$C$38 * LN( EXP($C$38 * K26) + EXP($C$38 * K27) )</f>
+        <v>1.2281189006558431</v>
+      </c>
+      <c r="P28" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412294626235962</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9360445897317362E-8</v>
+      </c>
+      <c r="S28" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412300586700439</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.4894794508890641E-8</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412297606468201</v>
+      </c>
+      <c r="V28" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7232825499924331E-8</v>
+      </c>
+      <c r="W28" s="8">
+        <f t="shared" si="4"/>
+        <v>8.5061995074692596E-16</v>
+      </c>
+      <c r="X28" s="8">
+        <f t="shared" si="5"/>
+        <v>-2.5667939462894357E-16</v>
+      </c>
+      <c r="Y28" s="8">
+        <f t="shared" si="6"/>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB28" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2742443084717</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>-2.4162629188140272E-5</v>
+      </c>
+      <c r="AD28" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2743635177612</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>-7.49998253013473E-6</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="10"/>
+        <v>1.8121929679317556E-10</v>
+      </c>
+      <c r="AI28" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.1085176322189364E-11</v>
+      </c>
+      <c r="AJ28" s="8">
+        <f t="shared" si="12"/>
+        <v>2.384185791015625E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="3">
+        <f>$C$20 - $C$28 - SUM(G17:G28)</f>
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412297606468201</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7232825499924331E-8</v>
+      </c>
+      <c r="S29" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412300586700439</v>
+      </c>
+      <c r="T29" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.4894794508890641E-8</v>
+      </c>
+      <c r="U29" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441229909658432</v>
+      </c>
+      <c r="V29" s="8">
+        <f t="shared" si="2"/>
+        <v>1.169015440005694E-9</v>
+      </c>
+      <c r="W29" s="8">
+        <f t="shared" si="4"/>
+        <v>2.0145439084335386E-17</v>
+      </c>
+      <c r="X29" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.7412244756605188E-17</v>
+      </c>
+      <c r="Y29" s="8">
+        <f t="shared" si="6"/>
+        <v>2.9802322387695312E-8</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2743635177612</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>-7.49998253013473E-6</v>
+      </c>
+      <c r="AD29" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744827270508</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>1.0811382026076899E-5</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.2417723448178093E-11</v>
+      </c>
+      <c r="AI29" s="8">
+        <f t="shared" si="11"/>
+        <v>1.7900408641353803E-11</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" si="12"/>
+        <v>1.1920928955078125E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>IF(ABS(G29)&lt;0.00001, "TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="P30" s="8">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441229909658432</v>
+      </c>
+      <c r="R30" s="8">
+        <f t="shared" si="0"/>
+        <v>1.169015440005694E-9</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412300586700439</v>
+      </c>
+      <c r="T30" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.4894794508890641E-8</v>
+      </c>
+      <c r="U30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441229984164238</v>
+      </c>
+      <c r="V30" s="8">
+        <f t="shared" si="2"/>
+        <v>-6.8628895899536246E-9</v>
+      </c>
+      <c r="W30" s="8">
+        <f t="shared" si="4"/>
+        <v>-8.0228238937101335E-18</v>
+      </c>
+      <c r="X30" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0222133017956399E-16</v>
+      </c>
+      <c r="Y30" s="8">
+        <f t="shared" si="6"/>
+        <v>1.4901161193847656E-8</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB30" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2743635177612</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>-7.49998253013473E-6</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2743933200836</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>-2.0977797703380929E-6</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" si="10"/>
+        <v>1.5733311629605743E-11</v>
+      </c>
+      <c r="AI30" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.4732946294973615E-12</v>
+      </c>
+      <c r="AJ30" s="8">
+        <f t="shared" si="12"/>
+        <v>5.9604644775390625E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="P31" s="8">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441229909658432</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" si="0"/>
+        <v>1.169015440005694E-9</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" si="8"/>
+        <v>0.3441229984164238</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="1"/>
+        <v>-6.8628895899536246E-9</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3441229946911335</v>
+      </c>
+      <c r="V31" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.8469370749739653E-9</v>
+      </c>
+      <c r="W31" s="8">
+        <f t="shared" si="4"/>
+        <v>-3.3281133973692136E-18</v>
+      </c>
+      <c r="X31" s="8">
+        <f t="shared" si="5"/>
+        <v>1.9538214815091848E-17</v>
+      </c>
+      <c r="Y31" s="8">
+        <f t="shared" si="6"/>
+        <v>7.4505805969238281E-9</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2743933200836</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>-2.0977797703380929E-6</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744082212448</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>-1.0454011771798832E-6</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="10"/>
+        <v>2.1930214413755874E-12</v>
+      </c>
+      <c r="AI31" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.7308710598271776E-12</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f t="shared" si="12"/>
+        <v>2.9802322387695312E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B32" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="P32" s="8">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441229909658432</v>
+      </c>
+      <c r="R32" s="8">
+        <f t="shared" si="0"/>
+        <v>1.169015440005694E-9</v>
+      </c>
+      <c r="S32" s="8">
+        <f t="shared" si="8"/>
+        <v>0.3441229946911335</v>
+      </c>
+      <c r="T32" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.8469370749739653E-9</v>
+      </c>
+      <c r="U32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412299282848835</v>
+      </c>
+      <c r="V32" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.3896084523971126E-10</v>
+      </c>
+      <c r="W32" s="8">
+        <f t="shared" si="4"/>
+        <v>-9.8075818164545002E-19</v>
+      </c>
+      <c r="X32" s="8">
+        <f t="shared" si="5"/>
+        <v>2.3884687347644292E-18</v>
+      </c>
+      <c r="Y32" s="8">
+        <f t="shared" si="6"/>
+        <v>3.7252902984619141E-9</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB32" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744082212448</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>-1.0454011771798832E-6</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.274423122406</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>1.655700316405273E-6</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.1900395698575395E-13</v>
+      </c>
+      <c r="AI32" s="8">
+        <f t="shared" si="11"/>
+        <v>5.0523661542133822E-13</v>
+      </c>
+      <c r="AJ32" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4901161193847656E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="P33" s="8">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3441229909658432</v>
+      </c>
+      <c r="R33" s="8">
+        <f t="shared" si="0"/>
+        <v>1.169015440005694E-9</v>
+      </c>
+      <c r="S33" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412299282848835</v>
+      </c>
+      <c r="T33" s="8">
+        <f t="shared" si="1"/>
+        <v>-8.3896084523971126E-10</v>
+      </c>
+      <c r="U33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412299189716578</v>
+      </c>
+      <c r="V33" s="8">
+        <f t="shared" si="2"/>
+        <v>1.6502732513856699E-10</v>
+      </c>
+      <c r="W33" s="8">
+        <f t="shared" si="4"/>
+        <v>1.9291949110982462E-19</v>
+      </c>
+      <c r="X33" s="8">
+        <f t="shared" si="5"/>
+        <v>-1.3845146418590082E-19</v>
+      </c>
+      <c r="Y33" s="8">
+        <f t="shared" si="6"/>
+        <v>1.862645149230957E-9</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>29</v>
+      </c>
+      <c r="AB33" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744082212448</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>-1.0454011771798832E-6</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744119465351</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>-3.7012591747043189E-7</v>
+      </c>
+      <c r="AH33" s="8">
+        <f t="shared" si="10"/>
+        <v>3.869300698283738E-13</v>
+      </c>
+      <c r="AI33" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.1294384857549636E-13</v>
+      </c>
+      <c r="AJ33" s="8">
+        <f t="shared" si="12"/>
+        <v>7.4505805969238281E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34">
+        <f>ROUND($C$28/$C$20 * 100, 2)</f>
+        <v>22.74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34412299189716578</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6502732513856699E-10</v>
+      </c>
+      <c r="S34" s="8">
+        <f t="shared" si="8"/>
+        <v>0.34412299282848835</v>
+      </c>
+      <c r="T34" s="8">
+        <f t="shared" si="1"/>
+        <v>-8.3896084523971126E-10</v>
+      </c>
+      <c r="U34" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34412299236282706</v>
+      </c>
+      <c r="V34" s="8">
+        <f t="shared" si="2"/>
+        <v>-3.3696678780614775E-10</v>
+      </c>
+      <c r="W34" s="8">
+        <f t="shared" si="4"/>
+        <v>-5.5608727652183656E-20</v>
+      </c>
+      <c r="X34" s="8">
+        <f t="shared" si="5"/>
+        <v>2.8270194111555615E-19</v>
+      </c>
+      <c r="Y34" s="8">
+        <f t="shared" si="6"/>
+        <v>9.3132257461547852E-10</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744119465351</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>-3.7012591747043189E-7</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" si="10"/>
+        <v>1.20246731039163E-14</v>
+      </c>
+      <c r="AI34" s="8">
+        <f t="shared" si="11"/>
+        <v>-9.9137249873366592E-15</v>
+      </c>
+      <c r="AJ34" s="8">
+        <f t="shared" si="12"/>
+        <v>3.7252902984619141E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35">
+        <f>ROUND(G17/$C$20 * 100, 2)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>31</v>
+      </c>
+      <c r="AB35" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC35">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744156718254</v>
+      </c>
+      <c r="AE35">
+        <v>3.0514979698637035E-7</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744147405028</v>
+      </c>
+      <c r="AG35">
+        <v>1.3633098205900751E-7</v>
+      </c>
+      <c r="AH35" s="8">
+        <f t="shared" si="10"/>
+        <v>-4.429129157988252E-15</v>
+      </c>
+      <c r="AI35" s="8">
+        <f t="shared" si="11"/>
+        <v>4.160137149825864E-14</v>
+      </c>
+      <c r="AJ35" s="8">
+        <f t="shared" si="12"/>
+        <v>1.862645149230957E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F36" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(SUM(G18:G19)/$C$20 * 100, 2)</f>
+        <v>13.12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>32</v>
+      </c>
+      <c r="AB36" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC36">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744147405028</v>
+      </c>
+      <c r="AE36">
+        <v>1.3633098205900751E-7</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744142748415</v>
+      </c>
+      <c r="AG36">
+        <v>5.1921006161137484E-8</v>
+      </c>
+      <c r="AH36" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.6868127759898853E-15</v>
+      </c>
+      <c r="AI36" s="8">
+        <f t="shared" si="11"/>
+        <v>7.0784417594396528E-15</v>
+      </c>
+      <c r="AJ36" s="8">
+        <f t="shared" si="12"/>
+        <v>9.3132257461547852E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B37" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="F37" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37">
+        <f>ROUND(SUM(G20:G24)/$C$20 * 100, 2)</f>
+        <v>22.51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>33</v>
+      </c>
+      <c r="AB37" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC37">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD37" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744142748415</v>
+      </c>
+      <c r="AE37">
+        <v>5.1921006161137484E-8</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AG37">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AH37" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.1565827845553459E-16</v>
+      </c>
+      <c r="AI37" s="8">
+        <f t="shared" si="11"/>
+        <v>5.0447134419249027E-16</v>
+      </c>
+      <c r="AJ37" s="8">
+        <f t="shared" si="12"/>
+        <v>4.6566128730773926E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38">
+        <f>ROUND(SUM(G25:G28)/$C$20*100, 2)</f>
+        <v>5.94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>34</v>
+      </c>
+      <c r="AB38" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744138091803</v>
+      </c>
+      <c r="AC38">
+        <v>-3.248806024203077E-8</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AE38">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139255956</v>
+      </c>
+      <c r="AG38">
+        <v>-1.1385736797819845E-8</v>
+      </c>
+      <c r="AH38" s="8">
+        <f t="shared" si="10"/>
+        <v>3.6990050298747765E-16</v>
+      </c>
+      <c r="AI38" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.1062532049537313E-16</v>
+      </c>
+      <c r="AJ38" s="8">
+        <f t="shared" si="12"/>
+        <v>2.3283064365386963E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="3">
+        <f>SUM(G34:G38)</f>
+        <v>100</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>35</v>
+      </c>
+      <c r="AB39" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139255956</v>
+      </c>
+      <c r="AC39">
+        <v>-1.1385736797819845E-8</v>
+      </c>
+      <c r="AD39" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AE39">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AG39">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AH39" s="8">
+        <f t="shared" si="10"/>
+        <v>9.5061353753395616E-18</v>
+      </c>
+      <c r="AI39" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.1121553042238671E-18</v>
+      </c>
+      <c r="AJ39" s="8">
+        <f t="shared" si="12"/>
+        <v>1.1641532182693481E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA40" s="8">
+        <v>36</v>
+      </c>
+      <c r="AB40" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC40">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140420109</v>
+      </c>
+      <c r="AE40">
+        <v>9.7161318990401924E-9</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744140129071</v>
+      </c>
+      <c r="AG40">
+        <v>4.4410626287572086E-9</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.7079148507465265E-18</v>
+      </c>
+      <c r="AI40" s="8">
+        <f t="shared" si="11"/>
+        <v>4.3149950272903206E-17</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f t="shared" si="12"/>
+        <v>5.8207660913467407E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA41" s="8">
+        <v>37</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC41">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744140129071</v>
+      </c>
+      <c r="AE41">
+        <v>4.4410626287572086E-9</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139983552</v>
+      </c>
+      <c r="AG41">
+        <v>1.8030732462648302E-9</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.5054149481066944E-18</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" si="11"/>
+        <v>8.0075612108986807E-18</v>
+      </c>
+      <c r="AJ41" s="8">
+        <f t="shared" si="12"/>
+        <v>2.9103830456733704E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA42" s="8">
+        <v>38</v>
+      </c>
+      <c r="AB42" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC42">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD42" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744139983552</v>
+      </c>
+      <c r="AE42">
+        <v>1.8030732462648302E-9</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139910792</v>
+      </c>
+      <c r="AG42">
+        <v>4.8430592869408429E-10</v>
+      </c>
+      <c r="AH42" s="8">
+        <f t="shared" si="10"/>
+        <v>-4.0435483473735928E-19</v>
+      </c>
+      <c r="AI42" s="8">
+        <f t="shared" si="11"/>
+        <v>8.7323906303574595E-19</v>
+      </c>
+      <c r="AJ42" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4551915228366852E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA43" s="8">
+        <v>39</v>
+      </c>
+      <c r="AB43" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139838032</v>
+      </c>
+      <c r="AC43">
+        <v>-8.3491613622754812E-10</v>
+      </c>
+      <c r="AD43" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744139910792</v>
+      </c>
+      <c r="AE43">
+        <v>4.8430592869408429E-10</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="9"/>
+        <v>1759.2744139874412</v>
+      </c>
+      <c r="AG43">
+        <v>-1.7530510376673192E-10</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="10"/>
+        <v>1.4636505989788921E-19</v>
+      </c>
+      <c r="AI43" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.4901301084559915E-20</v>
+      </c>
+      <c r="AJ43" s="8">
+        <f t="shared" si="12"/>
+        <v>7.2759576141834259E-9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AA44" s="8">
+        <v>40</v>
+      </c>
+      <c r="AB44" s="8">
+        <f t="shared" si="13"/>
+        <v>1759.2744139874412</v>
+      </c>
+      <c r="AC44">
+        <v>-1.7530510376673192E-10</v>
+      </c>
+      <c r="AD44" s="8">
+        <f t="shared" si="14"/>
+        <v>1759.2744139910792</v>
+      </c>
+      <c r="AE44">
+        <v>4.8430592869408429E-10</v>
+      </c>
+      <c r="AF44" s="11">
+        <f t="shared" si="9"/>
+        <v>1759.2744139892602</v>
+      </c>
+      <c r="AG44">
+        <v>1.546140993013978E-10</v>
+      </c>
+      <c r="AH44" s="8">
+        <f t="shared" si="10"/>
+        <v>-2.7104640721831334E-20</v>
+      </c>
+      <c r="AI44" s="8">
+        <f t="shared" si="11"/>
+        <v>7.488052495136283E-20</v>
+      </c>
+      <c r="AJ44" s="8">
+        <f t="shared" si="12"/>
+        <v>3.637978807091713E-9</v>
+      </c>
+    </row>
+    <row r="55" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA55" s="8"/>
+    </row>
+    <row r="56" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA56" s="8"/>
+    </row>
+    <row r="57" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA57" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">

--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27332A39-64DA-E942-9B75-D4B23F29DCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D712EEA-0D35-164F-9722-96E0209E3159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="118">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>sin_beta</t>
+  </si>
+  <si>
+    <t>Bisection method for solving W_total_takeoff</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>multirotor!$F$34:$F$38</c:f>
+              <c:f>multirotor!$F$31:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1074,24 +1077,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirotor!$G$34:$G$38</c:f>
+              <c:f>multirotor!$G$31:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.67</c:v>
+                  <c:v>32.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.61</c:v>
+                  <c:v>38.909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9</c:v>
+                  <c:v>5.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,16 +2822,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3218,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3261,7 +3264,7 @@
         <v>75</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
@@ -3353,7 +3356,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$7 * SQRT( ($C$15*$C$27)^3 / (2 * $C$26 * PI() * $C$16^2* $C$5) )</f>
-        <v>270203.45112999814</v>
+        <v>205115.18178619703</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -3376,14 +3379,14 @@
       </c>
       <c r="R4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q4^2)) - Q4</f>
-        <v>0.11191653902306264</v>
+        <v>0.10194559945418491</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S4^2)) - S4</f>
-        <v>-0.93476532814706514</v>
+        <v>-0.93695702544108994</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -3391,15 +3394,15 @@
       </c>
       <c r="V4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U4^2)) - U4</f>
-        <v>-0.41988613748155523</v>
+        <v>-0.42455735918318133</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.6992203290697525E-2</v>
+        <v>-4.3281754484615118E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.39249500308734969</v>
+        <v>0.39779200038939799</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -3409,11 +3412,20 @@
         <v>0</v>
       </c>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
+      <c r="AC4" s="8">
+        <f>G26</f>
+        <v>1.4108536561252549E-10</v>
+      </c>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
+      <c r="AE4" s="8">
+        <f>G26</f>
+        <v>1.4108536561252549E-10</v>
+      </c>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
+      <c r="AG4" s="8">
+        <f>G26</f>
+        <v>1.4108536561252549E-10</v>
+      </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
@@ -3430,7 +3442,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$15 * $C$27 / $C$5</f>
-        <v>2102.1428571428573</v>
+        <v>1749.3102309301814</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -3440,7 +3452,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
-        <v>4.1297309384395309</v>
+        <v>3.506549074876264</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -3454,7 +3466,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q5^2)) - Q5</f>
-        <v>0.11191653902306264</v>
+        <v>0.10194559945418491</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -3462,7 +3474,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S5^2)) - S5</f>
-        <v>-0.41988613748155523</v>
+        <v>-0.42455735918318133</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -3470,15 +3482,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U5^2)) - U5</f>
-        <v>-0.15326599284565431</v>
+        <v>-0.16070685808562851</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>-1.715299946921911E-2</v>
+        <v>-1.6383356983938023E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>6.4354265743237465E-2</v>
+        <v>6.8229279271460733E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -3487,15 +3499,40 @@
       <c r="AA5" s="8">
         <v>1</v>
       </c>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
+      <c r="AB5" s="9">
+        <v>500</v>
+      </c>
+      <c r="AC5" s="8">
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <v>-264.34947063042887</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>2500</v>
+      </c>
+      <c r="AE5" s="8">
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <v>59.019351225829723</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>(AB5+AD5)/2</f>
+        <v>1500</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15"/>
+        <v>48.370255085541658</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>AC5*AG5</f>
+        <v>-12786.651326121748</v>
+      </c>
+      <c r="AI5" s="8">
+        <f>AE5*AG5</f>
+        <v>2854.7810737765594</v>
+      </c>
+      <c r="AJ5" s="8">
+        <f>AD5-AB5</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -3509,7 +3546,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
-        <v>0.13041013739924268</v>
+        <v>0.11073107509144248</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -3520,7 +3557,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.11191653902306264</v>
+        <v>0.10194559945418491</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -3528,7 +3565,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.15326599284565431</v>
+        <v>-0.16070685808562851</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="2"/>
@@ -3536,15 +3573,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>-1.8122262920427429E-2</v>
+        <v>-2.7253517543744693E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-2.0281809453202176E-3</v>
+        <v>-2.778376183232198E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>2.7775266191092966E-3</v>
+        <v>4.379827176236765E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -3553,15 +3590,39 @@
       <c r="AA6" s="8">
         <v>2</v>
       </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
+      <c r="AB6" s="8">
+        <f>IF(AH5&gt;0, AF5, AB5)</f>
+        <v>500</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>-264.34947063042887</v>
+      </c>
+      <c r="AD6" s="8">
+        <f>IF(AI5&gt;0, AF5, AD5)</f>
+        <v>1500</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>48.370255085541658</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
+        <v>1000</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>-67.094962559569922</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
+        <v>17736.517834590755</v>
+      </c>
+      <c r="AI6" s="8">
+        <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
+        <v>-3245.4004539612642</v>
+      </c>
+      <c r="AJ6" s="8">
+        <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -3580,7 +3641,7 @@
       </c>
       <c r="K7">
         <f xml:space="preserve"> K4 * K5</f>
-        <v>2276.5141798147915</v>
+        <v>1932.9851775255406</v>
       </c>
       <c r="L7" t="s">
         <v>37</v>
@@ -3594,7 +3655,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.11191653902306264</v>
+        <v>0.10194559945418491</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -3602,7 +3663,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8122262920427429E-2</v>
+        <v>-2.7253517543744693E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="2"/>
@@ -3610,15 +3671,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>4.8039663498655127E-2</v>
+        <v>3.8298171656185737E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>5.3764328746020345E-3</v>
+        <v>3.9043300674891286E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-8.7058741253148882E-4</v>
+        <v>-1.0437598931252038E-3</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -3627,15 +3688,39 @@
       <c r="AA7" s="8">
         <v>3</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
+      <c r="AB7" s="8">
+        <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0, AF6, AB6)</f>
+        <v>1000</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>-67.094962559569922</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0, AF6, AD6)</f>
+        <v>1500</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>48.370255085541658</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="9"/>
+        <v>1250</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AH7" s="8">
+        <f t="shared" si="10"/>
+        <v>-27.346158888162201</v>
+      </c>
+      <c r="AI7" s="8">
+        <f t="shared" si="11"/>
+        <v>19.714455908009029</v>
+      </c>
+      <c r="AJ7" s="8">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
@@ -3643,7 +3728,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
-        <v>27867.298973721139</v>
+        <v>21260.758915039496</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -3653,7 +3738,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K7</f>
-        <v>2276.5141798147915</v>
+        <v>1932.9851775255406</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -3667,7 +3752,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>4.8039663498655127E-2</v>
+        <v>3.8298171656185737E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -3675,7 +3760,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8122262920427429E-2</v>
+        <v>-2.7253517543744693E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="2"/>
@@ -3683,15 +3768,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="3"/>
-        <v>1.5184776146180218E-2</v>
+        <v>5.7107287804548518E-3</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>7.2947153636490289E-4</v>
+        <v>2.1871047111578015E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7518250570891269E-4</v>
+        <v>-1.5563744700569404E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -3700,15 +3785,39 @@
       <c r="AA8" s="8">
         <v>4</v>
       </c>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
+      <c r="AB8" s="8">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>-67.094962559569922</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="9"/>
+        <v>1125</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>-30.85714489922043</v>
+      </c>
+      <c r="AH8" s="8">
+        <f t="shared" si="10"/>
+        <v>2070.3589817084189</v>
+      </c>
+      <c r="AI8" s="8">
+        <f t="shared" si="11"/>
+        <v>-12.576568419722127</v>
+      </c>
+      <c r="AJ8" s="8">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
@@ -3721,7 +3830,7 @@
       </c>
       <c r="G9">
         <f>$C$5 * G8</f>
-        <v>195071.09281604798</v>
+        <v>148825.31240527646</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -3735,7 +3844,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>1.5184776146180218E-2</v>
+        <v>5.7107287804548518E-3</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -3743,7 +3852,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8122262920427429E-2</v>
+        <v>-2.7253517543744693E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="2"/>
@@ -3751,15 +3860,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="3"/>
-        <v>-1.4209968066048739E-3</v>
+        <v>-1.073160447124602E-2</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-2.1577518412731952E-5</v>
+        <v>-6.1285282514402612E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>2.5751677738381293E-5</v>
+        <v>2.9247397072963238E-4</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -3768,15 +3877,39 @@
       <c r="AA9" s="8">
         <v>5</v>
       </c>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
+      <c r="AB9" s="8">
+        <f t="shared" si="13"/>
+        <v>1125</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>-30.85714489922043</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="9"/>
+        <v>1187.5</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>-14.608656807266243</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="10"/>
+        <v>450.78143988479735</v>
+      </c>
+      <c r="AI9" s="8">
+        <f t="shared" si="11"/>
+        <v>-5.9541079531782914</v>
+      </c>
+      <c r="AJ9" s="8">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -3797,7 +3930,7 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>1.5184776146180218E-2</v>
+        <v>5.7107287804548518E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
@@ -3805,7 +3938,7 @@
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4209968066048739E-3</v>
+        <v>-1.073160447124602E-2</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="2"/>
@@ -3813,15 +3946,15 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" si="3"/>
-        <v>6.8949415474898468E-3</v>
+        <v>-2.499560981782209E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>1.0469814393963074E-4</v>
+        <v>-1.4274314837165647E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>-9.7976899207103406E-6</v>
+        <v>2.6824299808246045E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -3830,15 +3963,39 @@
       <c r="AA10" s="8">
         <v>6</v>
       </c>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
+      <c r="AB10" s="8">
+        <f t="shared" si="13"/>
+        <v>1187.5</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>-14.608656807266243</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="9"/>
+        <v>1218.75</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>-6.9471938893836978</v>
+      </c>
+      <c r="AH10" s="8">
+        <f t="shared" si="10"/>
+        <v>101.4891713035436</v>
+      </c>
+      <c r="AI10" s="8">
+        <f t="shared" si="11"/>
+        <v>-2.8314952520807233</v>
+      </c>
+      <c r="AJ10" s="8">
+        <f t="shared" si="12"/>
+        <v>62.5</v>
+      </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -3862,35 +4019,35 @@
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.1015625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>6.8949415474898468E-3</v>
+        <v>5.7107287804548518E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.109375</v>
+        <v>0.1015625</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4209968066048739E-3</v>
+        <v>-2.499560981782209E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="2"/>
-        <v>0.10546875</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="3"/>
-        <v>2.740096100800643E-3</v>
+        <v>1.6084188940824196E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>1.889280244952528E-5</v>
+        <v>9.1852440694638372E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>-3.8936678090281809E-6</v>
+        <v>-4.0203411100097075E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -3899,15 +4056,39 @@
       <c r="AA11" s="8">
         <v>7</v>
       </c>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
+      <c r="AB11" s="8">
+        <f t="shared" si="13"/>
+        <v>1218.75</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>-6.9471938893836978</v>
+      </c>
+      <c r="AD11" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="9"/>
+        <v>1234.375</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>-3.2315603835213551</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="10"/>
+        <v>22.450276549573996</v>
+      </c>
+      <c r="AI11" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.3170998288583262</v>
+      </c>
+      <c r="AJ11" s="8">
+        <f t="shared" si="12"/>
+        <v>31.25</v>
+      </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -3921,7 +4102,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$23 + G9*G13)/3600</f>
-        <v>27044.632520520616</v>
+        <v>82574.953047448536</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -3931,7 +4112,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> SQRT( ($C$15*$C$27)^2 + K8^2)</f>
-        <v>14890.055131224257</v>
+        <v>12396.800378095417</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -3941,35 +4122,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.10546875</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>2.740096100800643E-3</v>
+        <v>1.6084188940824196E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.109375</v>
+        <v>0.1015625</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4209968066048739E-3</v>
+        <v>-2.499560981782209E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="2"/>
-        <v>0.107421875</v>
+        <v>9.9609375E-2</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>6.6031312689410204E-4</v>
+        <v>-4.4487672031645609E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>1.8093214243100092E-6</v>
+        <v>-7.155481224944082E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>-9.3830284467579785E-7</v>
+        <v>1.1119964918062502E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -3978,15 +4159,39 @@
       <c r="AA12" s="8">
         <v>8</v>
       </c>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
+      <c r="AB12" s="8">
+        <f t="shared" si="13"/>
+        <v>1234.375</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>-3.2315603835213551</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="9"/>
+        <v>1242.1875</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>-1.402440095083648</v>
+      </c>
+      <c r="AH12" s="8">
+        <f t="shared" si="10"/>
+        <v>4.5320698515342395</v>
+      </c>
+      <c r="AI12" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.57159804862006869</v>
+      </c>
+      <c r="AJ12" s="8">
+        <f t="shared" si="12"/>
+        <v>15.625</v>
+      </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
@@ -3994,7 +4199,7 @@
       </c>
       <c r="G13">
         <f xml:space="preserve"> $C$22 / $C$17</f>
-        <v>166.66666666666666</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -4004,42 +4209,42 @@
       </c>
       <c r="K13">
         <f>$C$15*$C$27/K12</f>
-        <v>0.98824348669756312</v>
+        <v>0.98776871797886912</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.107421875</v>
+        <v>9.765625E-2</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>6.6031312689410204E-4</v>
+        <v>1.6084188940824196E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.109375</v>
+        <v>9.9609375E-2</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4209968066048739E-3</v>
+        <v>-4.4487672031645609E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="2"/>
-        <v>0.1083984375</v>
+        <v>9.86328125E-2</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="3"/>
-        <v>-3.801531527020674E-4</v>
+        <v>5.8194647467829652E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>-2.510201169593532E-7</v>
+        <v>9.3601370521722845E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>5.4019641601041274E-7</v>
+        <v>-2.588944390546041E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -4048,15 +4253,39 @@
       <c r="AA13" s="8">
         <v>9</v>
       </c>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
+      <c r="AB13" s="8">
+        <f t="shared" si="13"/>
+        <v>1242.1875</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>-1.402440095083648</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="9"/>
+        <v>1246.09375</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>-0.4950497100415987</v>
+      </c>
+      <c r="AH13" s="8">
+        <f t="shared" si="10"/>
+        <v>0.694277562421872</v>
+      </c>
+      <c r="AI13" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.20176936556625691</v>
+      </c>
+      <c r="AJ13" s="8">
+        <f t="shared" si="12"/>
+        <v>7.8125</v>
+      </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
@@ -4069,35 +4298,35 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.107421875</v>
+        <v>9.86328125E-2</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>6.6031312689410204E-4</v>
+        <v>5.8194647467829652E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.1083984375</v>
+        <v>9.9609375E-2</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-3.801531527020674E-4</v>
+        <v>-4.4487672031645609E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="2"/>
-        <v>0.10791015625</v>
+        <v>9.912109375E-2</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="3"/>
-        <v>1.4012743175331743E-4</v>
+        <v>6.8578498475302396E-5</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>9.2527982624672922E-8</v>
+        <v>3.9909015426433164E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-5.3269884961067407E-8</v>
+        <v>-3.0508977485919616E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -4106,22 +4335,47 @@
       <c r="AA14" s="8">
         <v>10</v>
       </c>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
+      <c r="AB14" s="8">
+        <f t="shared" si="13"/>
+        <v>1246.09375</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>-0.4950497100415987</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.046875</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>-4.3142598953409106E-2</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="10"/>
+        <v>2.1357731102326156E-2</v>
+      </c>
+      <c r="AI14" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.7583799451124517E-2</v>
+      </c>
+      <c r="AJ14" s="8">
+        <f t="shared" si="12"/>
+        <v>3.90625</v>
+      </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>1500</v>
+        <f>AF44</f>
+        <v>1248.2336000521173</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -4131,35 +4385,35 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.10791015625</v>
+        <v>9.912109375E-2</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>1.4012743175331743E-4</v>
+        <v>6.8578498475302396E-5</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.1083984375</v>
+        <v>9.9609375E-2</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-3.801531527020674E-4</v>
+        <v>-4.4487672031645609E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="2"/>
-        <v>0.108154296875</v>
+        <v>9.9365234375E-2</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>-1.2000103341833213E-4</v>
+        <v>-1.8813823382304862E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.6815436620654901E-8</v>
+        <v>-1.2902237581380025E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>4.5618771181485103E-8</v>
+        <v>8.3698320429328412E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -4168,15 +4422,39 @@
       <c r="AA15" s="8">
         <v>11</v>
       </c>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
+      <c r="AB15" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.046875</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>-4.3142598953409106E-2</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>0.40757394959246085</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="9"/>
+        <v>1249.0234375</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.18236448695699892</v>
+      </c>
+      <c r="AH15" s="8">
+        <f t="shared" si="10"/>
+        <v>-7.8676779241300104E-3</v>
+      </c>
+      <c r="AI15" s="8">
+        <f t="shared" si="11"/>
+        <v>7.4327014214466858E-2</v>
+      </c>
+      <c r="AJ15" s="8">
+        <f t="shared" si="12"/>
+        <v>1.953125</v>
+      </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -4203,35 +4481,35 @@
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.10791015625</v>
+        <v>9.912109375E-2</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>1.4012743175331743E-4</v>
+        <v>6.8578498475302396E-5</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.108154296875</v>
+        <v>9.9365234375E-2</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2000103341833213E-4</v>
+        <v>-1.8813823382304862E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="2"/>
-        <v>0.1080322265625</v>
+        <v>9.92431640625E-2</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="3"/>
-        <v>1.0066160195082441E-5</v>
+        <v>-5.9777144870404308E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>1.4105451757543752E-9</v>
+        <v>-4.0994268383529525E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>-1.2079496259643727E-9</v>
+        <v>1.1246366458902376E-8</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -4240,15 +4518,39 @@
       <c r="AA16" s="8">
         <v>12</v>
       </c>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
+      <c r="AB16" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.046875</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>-4.3142598953409106E-2</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" si="14"/>
+        <v>1249.0234375</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>0.18236448695699892</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.53515625</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>6.9650118018557805E-2</v>
+      </c>
+      <c r="AH16" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.0048871087322527E-3</v>
+      </c>
+      <c r="AI16" s="8">
+        <f t="shared" si="11"/>
+        <v>1.270170803894872E-2</v>
+      </c>
+      <c r="AJ16" s="8">
+        <f t="shared" si="12"/>
+        <v>0.9765625</v>
+      </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -4265,7 +4567,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$10 * $C$11 * $C$12)</f>
-        <v>159.08607365012128</v>
+        <v>485.73501792616787</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -4275,7 +4577,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> ACOS(K13)</f>
-        <v>0.15349020639723854</v>
+        <v>0.15656498786335904</v>
       </c>
       <c r="L17" t="s">
         <v>52</v>
@@ -4285,35 +4587,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080322265625</v>
+        <v>9.912109375E-2</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>1.0066160195082441E-5</v>
+        <v>6.8578498475302396E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.108154296875</v>
+        <v>9.92431640625E-2</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2000103341833213E-4</v>
+        <v>-5.9777144870404308E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
-        <v>0.10809326171875</v>
+        <v>9.918212890625E-2</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="3"/>
-        <v>-5.4966696887676081E-5</v>
+        <v>4.401357944383566E-6</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-5.5330357626588686E-10</v>
+        <v>3.0183851907816846E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>6.5960604301133499E-9</v>
+        <v>-2.6310061146792131E-10</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -4322,15 +4624,39 @@
       <c r="AA17" s="8">
         <v>13</v>
       </c>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
+      <c r="AB17" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.046875</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>-4.3142598953409106E-2</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.53515625</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>6.9650118018557805E-2</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.291015625</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>1.3263060459507869E-2</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="10"/>
+        <v>-5.7220289829936594E-4</v>
+      </c>
+      <c r="AI17" s="8">
+        <f t="shared" si="11"/>
+        <v>9.2377372629199065E-4</v>
+      </c>
+      <c r="AJ17" s="8">
+        <f t="shared" si="12"/>
+        <v>0.48828125</v>
+      </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -4342,9 +4668,9 @@
       <c r="F18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G18" t="e">
-        <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 +#REF! *#REF! * 0.144 * (2*#REF!*3.28084 * (G9*0.00134102/#REF!) * 4^0.5)^0.782 * 0.453592</f>
-        <v>#REF!</v>
+      <c r="G18">
+        <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592</f>
+        <v>69.683003690574409</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -4354,7 +4680,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$5</f>
-        <v>2127.1507330320369</v>
+        <v>1770.9714825850594</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -4364,35 +4690,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080322265625</v>
+        <v>9.918212890625E-2</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>1.0066160195082441E-5</v>
+        <v>4.401357944383566E-6</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.10809326171875</v>
+        <v>9.92431640625E-2</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-5.4966696887676081E-5</v>
+        <v>-5.9777144870404308E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="2"/>
-        <v>0.108062744140625</v>
+        <v>9.9212646484375E-2</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="3"/>
-        <v>-2.2450083348696248E-5</v>
+        <v>-2.7687723232652783E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-2.2598613538092927E-10</v>
+        <v>-1.2186358061192977E-10</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>1.2340069265308508E-9</v>
+        <v>1.6550930428099446E-9</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -4401,23 +4727,47 @@
       <c r="AA18" s="8">
         <v>14</v>
       </c>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
+      <c r="AB18" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.046875</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>-4.3142598953409106E-2</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.291015625</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>1.3263060459507869E-2</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.1689453125</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>-1.4935474596654785E-2</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" si="10"/>
+        <v>6.4435519070230702E-4</v>
+      </c>
+      <c r="AI18" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.9809010256687632E-4</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f t="shared" si="12"/>
+        <v>0.244140625</v>
+      </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G19">
-        <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
-        <v>99.143614261856669</v>
+        <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836</f>
+        <v>44.397654175805044</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -4427,7 +4777,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
-        <v>82.353623891463599</v>
+        <v>82.314059831572436</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -4437,35 +4787,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080322265625</v>
+        <v>9.918212890625E-2</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>1.0066160195082441E-5</v>
+        <v>4.401357944383566E-6</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.108062744140625</v>
+        <v>9.9212646484375E-2</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.2450083348696248E-5</v>
+        <v>-2.7687723232652783E-5</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="2"/>
-        <v>0.1080474853515625</v>
+        <v>9.91973876953125E-2</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="3"/>
-        <v>-6.1919153190731491E-6</v>
+        <v>-1.1643140079647951E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-6.2328811516175318E-11</v>
+        <v>-5.1245627087129215E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>1.3900901500126132E-10</v>
+        <v>3.2237204008429935E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -4474,15 +4824,39 @@
       <c r="AA19" s="8">
         <v>15</v>
       </c>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
+      <c r="AB19" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.1689453125</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>-1.4935474596654785E-2</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.291015625</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>1.3263060459507869E-2</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.22998046875</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>-8.3562570671347203E-4</v>
+      </c>
+      <c r="AH19" s="8">
+        <f t="shared" si="10"/>
+        <v>1.2480466514930763E-5</v>
+      </c>
+      <c r="AI19" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.1082954269659771E-5</v>
+      </c>
+      <c r="AJ19" s="8">
+        <f t="shared" si="12"/>
+        <v>0.1220703125</v>
+      </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
@@ -4495,7 +4869,7 @@
       </c>
       <c r="G20">
         <f xml:space="preserve"> 14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>151.61047300917875</v>
+        <v>147.65177305694664</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -4505,42 +4879,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> K18 / ($C$26 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
-        <v>3.9302655159222433E-2</v>
+        <v>3.2753112583850968E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080322265625</v>
+        <v>9.918212890625E-2</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.0066160195082441E-5</v>
+        <v>4.401357944383566E-6</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.1080474853515625</v>
+        <v>9.91973876953125E-2</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-6.1919153190731491E-6</v>
+        <v>-1.1643140079647951E-5</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="2"/>
-        <v>0.10803985595703125</v>
+        <v>9.918975830078125E-2</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="3"/>
-        <v>1.9371340034685103E-6</v>
+        <v>-3.620880425658779E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>1.9499501198255408E-11</v>
+        <v>-1.5936790827136213E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1994569711174168E-11</v>
+        <v>4.2158418007600463E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -4549,15 +4923,39 @@
       <c r="AA20" s="8">
         <v>16</v>
       </c>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
+      <c r="AB20" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.22998046875</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>-8.3562570671347203E-4</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.291015625</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>1.3263060459507869E-2</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.260498046875</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>6.21386271677693E-3</v>
+      </c>
+      <c r="AH20" s="8">
+        <f t="shared" si="10"/>
+        <v>-5.1924634241272177E-6</v>
+      </c>
+      <c r="AI20" s="8">
+        <f t="shared" si="11"/>
+        <v>8.2414836899694254E-5</v>
+      </c>
+      <c r="AJ20" s="8">
+        <f t="shared" si="12"/>
+        <v>6.103515625E-2</v>
+      </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -4574,7 +4972,7 @@
       </c>
       <c r="G21">
         <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>31.208067561213252</v>
+        <v>27.522433467817535</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -4590,35 +4988,35 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.10803985595703125</v>
+        <v>9.918212890625E-2</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>1.9371340034685103E-6</v>
+        <v>4.401357944383566E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.1080474853515625</v>
+        <v>9.918975830078125E-2</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-6.1919153190731491E-6</v>
+        <v>-3.620880425658779E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804367065429688</v>
+        <v>9.9185943603515625E-2</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="3"/>
-        <v>-2.1273877665595187E-6</v>
+        <v>3.9024141997023865E-7</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>-4.1210351811653729E-12</v>
+        <v>1.7175921740135334E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>1.3172604901368696E-11</v>
+        <v>-1.4130175188515241E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -4627,32 +5025,56 @@
       <c r="AA21" s="8">
         <v>17</v>
       </c>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
+      <c r="AB21" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.22998046875</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>-8.3562570671347203E-4</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.260498046875</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>6.21386271677693E-3</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2452392578125</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>2.6891548400271859E-3</v>
+      </c>
+      <c r="AH21" s="8">
+        <f t="shared" si="10"/>
+        <v>-2.2471269136596711E-6</v>
+      </c>
+      <c r="AI21" s="8">
+        <f t="shared" si="11"/>
+        <v>1.6710039000085158E-5</v>
+      </c>
+      <c r="AJ21" s="8">
+        <f t="shared" si="12"/>
+        <v>3.0517578125E-2</v>
+      </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" t="e">
-        <f xml:space="preserve"> 0.04674 * ($C$15*2.20462)^0.397 * (#REF!*3.28084^2)^0.36 * 3^0.397 *#REF!^ 1.712 * 0.453592</f>
-        <v>#REF!</v>
+      <c r="F22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22">
+        <f xml:space="preserve"> 0.0268 * $C$15</f>
+        <v>33.452660481396741</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -4662,7 +5084,7 @@
       </c>
       <c r="K22">
         <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$26 * K19^3 *$C$16^ 5)</f>
-        <v>1479.463608760032</v>
+        <v>1477.3323557059282</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -4672,35 +5094,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.10803985595703125</v>
+        <v>9.9185943603515625E-2</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>1.9371340034685103E-6</v>
+        <v>3.9024141997023865E-7</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804367065429688</v>
+        <v>9.918975830078125E-2</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-2.1273877665595187E-6</v>
+        <v>-3.620880425658779E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804176330566406</v>
+        <v>9.9187850952148438E-2</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="3"/>
-        <v>-9.512615871398733E-8</v>
+        <v>-1.6153188377027172E-6</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>-1.8427211666420718E-13</v>
+        <v>-6.3036431692978383E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>2.0237022632793581E-13</v>
+        <v>5.8488763606356592E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -4709,15 +5131,39 @@
       <c r="AA22" s="8">
         <v>18</v>
       </c>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
+      <c r="AB22" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.22998046875</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>-8.3562570671347203E-4</v>
+      </c>
+      <c r="AD22" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2452392578125</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>2.6891548400271859E-3</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2376098632812</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>9.2480413229623082E-4</v>
+      </c>
+      <c r="AH22" s="8">
+        <f t="shared" si="10"/>
+        <v>-7.7279010662157717E-7</v>
+      </c>
+      <c r="AI22" s="8">
+        <f t="shared" si="11"/>
+        <v>2.4869415084415512E-6</v>
+      </c>
+      <c r="AJ22" s="8">
+        <f t="shared" si="12"/>
+        <v>1.52587890625E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -4729,11 +5175,12 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>99</v>
+      <c r="F23" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
+        <v>7.8201497823223827</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -4743,42 +5190,42 @@
       </c>
       <c r="K23" s="5">
         <f>U34</f>
-        <v>0.10804167436435819</v>
+        <v>9.9186314735561609E-2</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.10803985595703125</v>
+        <v>9.9185943603515625E-2</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.9371340034685103E-6</v>
+        <v>3.9024141997023865E-7</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804176330566406</v>
+        <v>9.9187850952148438E-2</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-9.512615871398733E-8</v>
+        <v>-1.6153188377027172E-6</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804080963134766</v>
+        <v>9.9186897277832031E-2</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="3"/>
-        <v>9.2100410309381431E-7</v>
+        <v>-6.1253854258258578E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>1.7841083654370451E-12</v>
+        <v>-2.3903791064392875E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-8.761158248713573E-14</v>
+        <v>9.8944504665261873E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -4787,22 +5234,47 @@
       <c r="AA23" s="8">
         <v>19</v>
       </c>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
+      <c r="AB23" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.22998046875</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>-8.3562570671347203E-4</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2376098632812</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>9.2480413229623082E-4</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2337951660156</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>4.6560998725908576E-5</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.8907567465622426E-8</v>
+      </c>
+      <c r="AI23" s="8">
+        <f t="shared" si="11"/>
+        <v>4.3059804025559788E-8</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f t="shared" si="12"/>
+        <v>7.62939453125E-3</v>
+      </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F24" s="14" t="s">
-        <v>100</v>
+      <c r="F24" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
+        <v>9.985868800416938</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -4812,7 +5284,7 @@
       </c>
       <c r="K24">
         <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
-        <v>6.0905011857570672</v>
+        <v>5.1195298248893515</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -4822,35 +5294,35 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.10804080963134766</v>
+        <v>9.9185943603515625E-2</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>9.2100410309381431E-7</v>
+        <v>3.9024141997023865E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804176330566406</v>
+        <v>9.9186897277832031E-2</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-9.512615871398733E-8</v>
+        <v>-6.1253854258258578E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804128646850586</v>
+        <v>9.9186420440673828E-2</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="3"/>
-        <v>4.129390173690517E-7</v>
+        <v>-1.1114851973526019E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>3.8031852932442446E-13</v>
+        <v>-4.3374756169078026E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>-3.9281302505446384E-14</v>
+        <v>6.8082752288848042E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -4859,15 +5331,39 @@
       <c r="AA24" s="8">
         <v>20</v>
       </c>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
+      <c r="AB24" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.22998046875</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>-8.3562570671347203E-4</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2337951660156</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>4.6560998725908576E-5</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2318878173828</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>-3.9453178715120885E-4</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="10"/>
+        <v>3.29680903459158E-7</v>
+      </c>
+      <c r="AI24" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.8369794038877868E-8</v>
+      </c>
+      <c r="AJ24" s="8">
+        <f t="shared" si="12"/>
+        <v>3.814697265625E-3</v>
+      </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
@@ -4876,11 +5372,11 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="F25" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G25">
-        <f xml:space="preserve"> 0.0268 * $C$15</f>
-        <v>40.200000000000003</v>
+        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
+        <v>21.985038670528521</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -4890,42 +5386,42 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$26*PI()*$C$16^2) / K18^3 )</f>
-        <v>1.2831284325671568</v>
+        <v>1.2673399974039654</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.10804128646850586</v>
+        <v>9.9185943603515625E-2</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>4.129390173690517E-7</v>
+        <v>3.9024141997023865E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804176330566406</v>
+        <v>9.9186420440673828E-2</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-9.512615871398733E-8</v>
+        <v>-1.1114851973526019E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804152488708496</v>
+        <v>9.9186182022094727E-2</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="3"/>
-        <v>1.5890644061711257E-7</v>
+        <v>1.3954646049807451E-7</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>6.5618669442044022E-14</v>
+        <v>5.4456808896589413E-14</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5116159290818252E-14</v>
+        <v>-1.5510382518655941E-14</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -4934,15 +5430,39 @@
       <c r="AA25" s="8">
         <v>21</v>
       </c>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
+      <c r="AB25" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2318878173828</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>-3.9453178715120885E-4</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2337951660156</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>4.6560998725908576E-5</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2328414916992</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>-1.739852524451635E-4</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="10"/>
+        <v>6.8642712585144576E-8</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.1009271174261387E-9</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="12"/>
+        <v>1.9073486328125E-3</v>
+      </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -4954,14 +5474,14 @@
       <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26">
-        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
-        <v>8.416532939767734</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="3">
+        <f>$C$15 - $C$21 - SUM(G17:G25)</f>
+        <v>1.4108536561252549E-10</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J26" t="s">
@@ -4975,35 +5495,35 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.10804152488708496</v>
+        <v>9.9186182022094727E-2</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.5890644061711257E-7</v>
+        <v>1.3954646049807451E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804176330566406</v>
+        <v>9.9186420440673828E-2</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-9.512615871398733E-8</v>
+        <v>-1.1114851973526019E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804164409637451</v>
+        <v>9.9186301231384277E-2</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="3"/>
-        <v>3.1890143775692437E-8</v>
+        <v>1.4198972969614587E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>5.067549238163252E-15</v>
+        <v>1.9814164206175495E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>-3.0335868782183938E-15</v>
+        <v>-1.5781948273336328E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -5012,15 +5532,39 @@
       <c r="AA26" s="8">
         <v>22</v>
       </c>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
+      <c r="AB26" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2328414916992</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>-1.739852524451635E-4</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2337951660156</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>4.6560998725908576E-5</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2333183288574</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>-6.371209144617751E-5</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="10"/>
+        <v>1.1084964314072536E-8</v>
+      </c>
+      <c r="AI26" s="8">
+        <f t="shared" si="11"/>
+        <v>-2.9664986086504419E-9</v>
+      </c>
+      <c r="AJ26" s="8">
+        <f t="shared" si="12"/>
+        <v>9.5367431640625E-4</v>
+      </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -5032,57 +5576,54 @@
       <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27">
-        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f>IF(ABS(G26)&lt;0.00001, "TRUE", "FALSE")</f>
+        <v>TRUE</v>
       </c>
       <c r="J27" t="s">
         <v>62</v>
       </c>
       <c r="K27">
         <f xml:space="preserve"> 1/$C$30 * LN( EXP($C$30 * K25) + EXP($C$30 * K26) )</f>
-        <v>1.283737126697974</v>
+        <v>1.2683121334640868</v>
       </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.10804164409637451</v>
+        <v>9.9186301231384277E-2</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>3.1890143775692437E-8</v>
+        <v>1.4198972969614587E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804176330566406</v>
+        <v>9.9186420440673828E-2</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-9.512615871398733E-8</v>
+        <v>-1.1114851973526019E-7</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804170370101929</v>
+        <v>9.9186360836029053E-2</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="3"/>
-        <v>-3.1618006768319162E-8</v>
+        <v>-4.8474772723627879E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0083027817425146E-15</v>
+        <v>-6.8829198761100271E-16</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>3.0076995300630541E-15</v>
+        <v>5.3878992327344057E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -5091,61 +5632,75 @@
       <c r="AA27" s="8">
         <v>23</v>
       </c>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
+      <c r="AB27" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2333183288574</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>-6.371209144617751E-5</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2337951660156</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>4.6560998725908576E-5</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2335567474365</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>-8.5755377767782193E-6</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="10"/>
+        <v>5.4636544703424363E-10</v>
+      </c>
+      <c r="AI27" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.9928560349855153E-10</v>
+      </c>
+      <c r="AJ27" s="8">
+        <f t="shared" si="12"/>
+        <v>4.76837158203125E-4</v>
+      </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F28" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28">
-        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
-        <v>27.916517551222817</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.10804164409637451</v>
+        <v>9.9186301231384277E-2</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>3.1890143775692437E-8</v>
+        <v>1.4198972969614587E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804170370101929</v>
+        <v>9.9186360836029053E-2</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1618006768319162E-8</v>
+        <v>-4.8474772723627879E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="2"/>
-        <v>0.1080416738986969</v>
+        <v>9.9186331033706665E-2</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>1.3606868409787864E-10</v>
+        <v>-1.7137899710473192E-8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>4.3392498992506251E-18</v>
+        <v>-2.433405747449745E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-4.302220574763009E-18</v>
+        <v>8.3075579342551605E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -5154,15 +5709,39 @@
       <c r="AA28" s="8">
         <v>24</v>
       </c>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
+      <c r="AB28" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335567474365</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>-8.5755377767782193E-6</v>
+      </c>
+      <c r="AD28" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2337951660156</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>4.6560998725908576E-5</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336759567261</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>1.702322128949163E-5</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.4598327725049071E-10</v>
+      </c>
+      <c r="AI28" s="8">
+        <f t="shared" si="11"/>
+        <v>7.9261818477087953E-10</v>
+      </c>
+      <c r="AJ28" s="8">
+        <f t="shared" si="12"/>
+        <v>2.384185791015625E-4</v>
+      </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
@@ -5170,50 +5749,40 @@
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
-      <c r="F29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="3" t="e">
-        <f>$C$15 - $C$21 - SUM(G17:G28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="P29" s="8">
         <v>25</v>
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080416738986969</v>
+        <v>9.9186301231384277E-2</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>1.3606868409787864E-10</v>
+        <v>1.4198972969614587E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804170370101929</v>
+        <v>9.9186331033706665E-2</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1618006768319162E-8</v>
+        <v>-1.7137899710473192E-8</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804168879985809</v>
+        <v>9.9186316132545471E-2</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="3"/>
-        <v>-1.5740969000477278E-8</v>
+        <v>-1.4694633287959391E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>-2.1418529383204434E-18</v>
+        <v>-2.0864870085413412E-17</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>4.9769806439699269E-16</v>
+        <v>2.5183515157122898E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -5222,15 +5791,39 @@
       <c r="AA29" s="8">
         <v>25</v>
       </c>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
+      <c r="AB29" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335567474365</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>-8.5755377767782193E-6</v>
+      </c>
+      <c r="AD29" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336759567261</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>1.702322128949163E-5</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336163520813</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>2.2543313207279425E-6</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.9332103402276807E-11</v>
+      </c>
+      <c r="AI29" s="8">
+        <f t="shared" si="11"/>
+        <v>3.8375980932583695E-11</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" si="12"/>
+        <v>1.1920928955078125E-4</v>
+      </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -5239,47 +5832,45 @@
       <c r="C30" s="1">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="10" t="e">
-        <f>IF(ABS(G29)&lt;0.00001, "TRUE", "FALSE")</f>
-        <v>#REF!</v>
-      </c>
+      <c r="F30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="P30" s="8">
         <v>26</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080416738986969</v>
+        <v>9.9186301231384277E-2</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.3606868409787864E-10</v>
+        <v>1.4198972969614587E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804168879985809</v>
+        <v>9.9186316132545471E-2</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5740969000477278E-8</v>
+        <v>-1.4694633287959391E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="2"/>
-        <v>0.1080416813492775</v>
+        <v>9.9186308681964874E-2</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="3"/>
-        <v>-7.8024501443119121E-9</v>
+        <v>6.3647548342871119E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0616691238758252E-18</v>
+        <v>9.037298185026647E-17</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>1.2281812584938328E-16</v>
+        <v>-9.3527738257615852E-18</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -5288,51 +5879,85 @@
       <c r="AA30" s="8">
         <v>26</v>
       </c>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
+      <c r="AB30" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335567474365</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>-8.5755377767782193E-6</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336163520813</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>2.2543313207279425E-6</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2335865497589</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>-1.1910918829016737E-6</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" si="10"/>
+        <v>1.0214253437437202E-11</v>
+      </c>
+      <c r="AI30" s="8">
+        <f t="shared" si="11"/>
+        <v>-2.6851157374900619E-12</v>
+      </c>
+      <c r="AJ30" s="8">
+        <f t="shared" si="12"/>
+        <v>5.9604644775390625E-5</v>
+      </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31">
+        <f>ROUND($C$21/$C$15 * 100, 2)</f>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
       <c r="P31" s="8">
         <v>27</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080416738986969</v>
+        <v>9.9186308681964874E-2</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>1.3606868409787864E-10</v>
+        <v>6.3647548342871119E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.1080416813492775</v>
+        <v>9.9186316132545471E-2</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8024501443119121E-9</v>
+        <v>-1.4694633287959391E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="2"/>
-        <v>0.1080416776239872</v>
+        <v>9.9186312407255173E-2</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="3"/>
-        <v>-3.8331907370459106E-9</v>
+        <v>2.4476457527455864E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>-5.2157721948601462E-19</v>
+        <v>1.5578665137409788E-17</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>2.9908279619438952E-17</v>
+        <v>-3.5967256755427715E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -5341,51 +5966,85 @@
       <c r="AA31" s="8">
         <v>27</v>
       </c>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
+      <c r="AB31" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335865497589</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>-1.1910918829016737E-6</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336163520813</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>2.2543313207279425E-6</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336014509201</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>5.3161966206971556E-7</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="10"/>
+        <v>-6.3320786428216897E-13</v>
+      </c>
+      <c r="AI31" s="8">
+        <f t="shared" si="11"/>
+        <v>1.1984468549185644E-12</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f t="shared" si="12"/>
+        <v>2.9802322387695312E-5</v>
+      </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32">
+        <f>ROUND(G17/$C$15 * 100, 2)</f>
+        <v>38.909999999999997</v>
+      </c>
+      <c r="H32" t="s">
+        <v>95</v>
+      </c>
       <c r="P32" s="8">
         <v>28</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080416738986969</v>
+        <v>9.9186312407255173E-2</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>1.3606868409787864E-10</v>
+        <v>2.4476457527455864E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.1080416776239872</v>
+        <v>9.9186316132545471E-2</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-3.8331907370459106E-9</v>
+        <v>-1.4694633287959391E-9</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804167576134205</v>
+        <v>9.9186314269900322E-2</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="3"/>
-        <v>-1.848561026474016E-9</v>
+        <v>4.8909122585261144E-10</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5153126634694316E-19</v>
+        <v>1.1971220616632767E-18</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>7.0858870035442784E-18</v>
+        <v>-7.1870162082626488E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -5394,56 +6053,85 @@
       <c r="AA32" s="8">
         <v>28</v>
       </c>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
+      <c r="AB32" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335865497589</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>-1.1910918829016737E-6</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336014509201</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>5.3161966206971556E-7</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2335940003395</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>-2.2992475123828626E-6</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="10"/>
+        <v>2.7386150487810931E-12</v>
+      </c>
+      <c r="AI32" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.2223251855476116E-12</v>
+      </c>
+      <c r="AJ32" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4901161193847656E-5</v>
+      </c>
     </row>
     <row r="33" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="F33" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33">
+        <f>ROUND(SUM(G18:G19)/$C$15 * 100, 2)</f>
+        <v>9.14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
       <c r="P33" s="8">
         <v>29</v>
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080416738986969</v>
+        <v>9.9186314269900322E-2</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.3606868409787864E-10</v>
+        <v>4.8909122585261144E-10</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804167576134205</v>
+        <v>9.9186316132545471E-2</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.848561026474016E-9</v>
+        <v>-1.4694633287959391E-9</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804167483001947</v>
+        <v>9.9186315201222897E-2</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="3"/>
-        <v>-8.5624617118806867E-10</v>
+        <v>-4.9018605841055773E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>-1.1650828977740744E-19</v>
+        <v>-2.3974570020387948E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>1.5828233011258622E-18</v>
+        <v>7.2031043712133881E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -5452,23 +6140,47 @@
       <c r="AA33" s="8">
         <v>29</v>
       </c>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
+      <c r="AB33" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335940003395</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>-2.2992475123828626E-6</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336014509201</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>5.3161966206971556E-7</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2335977256298</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>-8.8381364093947923E-7</v>
+      </c>
+      <c r="AH33" s="8">
+        <f t="shared" si="10"/>
+        <v>2.0321063153401382E-12</v>
+      </c>
+      <c r="AI33" s="8">
+        <f t="shared" si="11"/>
+        <v>-4.6985270912885087E-13</v>
+      </c>
+      <c r="AJ33" s="8">
+        <f t="shared" si="12"/>
+        <v>7.4505805969238281E-6</v>
+      </c>
     </row>
     <row r="34" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>94</v>
+      <c r="F34" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="G34">
-        <f>ROUND($C$21/$C$15 * 100, 2)</f>
-        <v>26.67</v>
+        <f>ROUND(SUM(G20:G21)/$C$15 * 100, 2)</f>
+        <v>14.03</v>
       </c>
       <c r="H34" t="s">
         <v>95</v>
@@ -5478,35 +6190,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.1080416738986969</v>
+        <v>9.9186314269900322E-2</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>1.3606868409787864E-10</v>
+        <v>4.8909122585261144E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.10804167483001947</v>
+        <v>9.9186315201222897E-2</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-8.5624617118806867E-10</v>
+        <v>-4.9018605841055773E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="2"/>
-        <v>0.10804167436435819</v>
+        <v>9.9186314735561609E-2</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>-3.6008873660620111E-10</v>
+        <v>-5.4742321786704906E-13</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-4.8996800548473409E-20</v>
+        <v>-2.6773989268677621E-22</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>3.0832460200700865E-19</v>
+        <v>2.6833922944867278E-22</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -5515,23 +6227,47 @@
       <c r="AA34" s="8">
         <v>30</v>
       </c>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
+      <c r="AB34" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335977256298</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>-8.8381364093947923E-7</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336014509201</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>5.3161966206971556E-7</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.233599588275</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>-1.7609693259146297E-7</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" si="10"/>
+        <v>1.5563687115193493E-13</v>
+      </c>
+      <c r="AI34" s="8">
+        <f t="shared" si="11"/>
+        <v>-9.3616591795787026E-14</v>
+      </c>
+      <c r="AJ34" s="8">
+        <f t="shared" si="12"/>
+        <v>3.7252902984619141E-6</v>
+      </c>
     </row>
     <row r="35" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F35" s="16" t="s">
-        <v>87</v>
+      <c r="F35" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="G35">
-        <f>ROUND(G17/$C$15 * 100, 2)</f>
-        <v>10.61</v>
+        <f>ROUND(SUM(G22:G25)/$C$15*100, 2)</f>
+        <v>5.87</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -5539,151 +6275,391 @@
       <c r="AA35" s="8">
         <v>31</v>
       </c>
-      <c r="AB35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
+      <c r="AB35" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.233599588275</v>
+      </c>
+      <c r="AC35">
+        <v>-1.7609693259146297E-7</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336014509201</v>
+      </c>
+      <c r="AE35">
+        <v>5.3161966206971556E-7</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336005195975</v>
+      </c>
+      <c r="AG35">
+        <v>1.7776142158254515E-7</v>
+      </c>
+      <c r="AH35" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.1303241073784085E-14</v>
+      </c>
+      <c r="AI35" s="8">
+        <f t="shared" si="11"/>
+        <v>9.4501466870744897E-14</v>
+      </c>
+      <c r="AJ35" s="8">
+        <f t="shared" si="12"/>
+        <v>1.862645149230957E-6</v>
+      </c>
     </row>
     <row r="36" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F36" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" t="e">
-        <f>ROUND(SUM(G18:G19)/$C$15 * 100, 2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="3">
+        <f>SUM(G31:G35)</f>
+        <v>100</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>95</v>
       </c>
       <c r="AA36" s="8">
         <v>32</v>
       </c>
-      <c r="AB36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
+      <c r="AB36" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.233599588275</v>
+      </c>
+      <c r="AC36">
+        <v>-1.7609693259146297E-7</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336005195975</v>
+      </c>
+      <c r="AE36">
+        <v>1.7776142158254515E-7</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AG36">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AH36" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.4658573268601366E-16</v>
+      </c>
+      <c r="AI36" s="8">
+        <f t="shared" si="11"/>
+        <v>1.4797127833246527E-16</v>
+      </c>
+      <c r="AJ36" s="8">
+        <f t="shared" si="12"/>
+        <v>9.3132257461547852E-7</v>
+      </c>
     </row>
     <row r="37" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F37" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" t="e">
-        <f>ROUND(SUM(G20:G24)/$C$15 * 100, 2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" t="s">
-        <v>95</v>
-      </c>
       <c r="AA37" s="8">
         <v>33</v>
       </c>
-      <c r="AB37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="8"/>
+      <c r="AB37" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.233599588275</v>
+      </c>
+      <c r="AC37">
+        <v>-1.7609693259146297E-7</v>
+      </c>
+      <c r="AD37" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE37">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2335998211056</v>
+      </c>
+      <c r="AG37">
+        <v>-8.7632315626251511E-8</v>
+      </c>
+      <c r="AH37" s="8">
+        <f t="shared" si="10"/>
+        <v>1.543178197766982E-14</v>
+      </c>
+      <c r="AI37" s="8">
+        <f t="shared" si="11"/>
+        <v>-7.2946456272735937E-17</v>
+      </c>
+      <c r="AJ37" s="8">
+        <f t="shared" si="12"/>
+        <v>4.6566128730773926E-7</v>
+      </c>
     </row>
     <row r="38" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F38" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38">
-        <f>ROUND(SUM(G25:G28)/$C$15*100, 2)</f>
-        <v>5.9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>95</v>
-      </c>
       <c r="AA38" s="8">
         <v>34</v>
       </c>
-      <c r="AB38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
+      <c r="AB38" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335998211056</v>
+      </c>
+      <c r="AC38">
+        <v>-8.7632315626251511E-8</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE38">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2335999375209</v>
+      </c>
+      <c r="AG38">
+        <v>-4.3400291360740084E-8</v>
+      </c>
+      <c r="AH38" s="8">
+        <f t="shared" si="10"/>
+        <v>3.8032680307956517E-15</v>
+      </c>
+      <c r="AI38" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.6127054652676963E-17</v>
+      </c>
+      <c r="AJ38" s="8">
+        <f t="shared" si="12"/>
+        <v>2.3283064365386963E-7</v>
+      </c>
     </row>
     <row r="39" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="3" t="e">
-        <f>SUM(G34:G38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="AA39" s="8">
         <v>35</v>
       </c>
-      <c r="AB39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
+      <c r="AB39" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335999375209</v>
+      </c>
+      <c r="AC39">
+        <v>-4.3400291360740084E-8</v>
+      </c>
+      <c r="AD39" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE39">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2335999957286</v>
+      </c>
+      <c r="AG39">
+        <v>-2.1283881324052345E-8</v>
+      </c>
+      <c r="AH39" s="8">
+        <f t="shared" si="10"/>
+        <v>9.2372665075128621E-16</v>
+      </c>
+      <c r="AI39" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.7717022621435634E-17</v>
+      </c>
+      <c r="AJ39" s="8">
+        <f t="shared" si="12"/>
+        <v>1.1641532182693481E-7</v>
+      </c>
     </row>
     <row r="40" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA40" s="8">
         <v>36</v>
       </c>
-      <c r="AB40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
+      <c r="AB40" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2335999957286</v>
+      </c>
+      <c r="AC40">
+        <v>-2.1283881324052345E-8</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE40">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336000248324</v>
+      </c>
+      <c r="AG40">
+        <v>-1.022601736622164E-8</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" si="10"/>
+        <v>2.1764934004035972E-16</v>
+      </c>
+      <c r="AI40" s="8">
+        <f t="shared" si="11"/>
+        <v>-8.5122905097108344E-18</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f t="shared" si="12"/>
+        <v>5.8207660913467407E-8</v>
+      </c>
     </row>
     <row r="41" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA41" s="8">
         <v>37</v>
       </c>
-      <c r="AB41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
+      <c r="AB41" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2336000248324</v>
+      </c>
+      <c r="AC41">
+        <v>-1.022601736622164E-8</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE41">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336000393843</v>
+      </c>
+      <c r="AG41">
+        <v>-4.6968580136308447E-9</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="10"/>
+        <v>4.8030151614066295E-17</v>
+      </c>
+      <c r="AI41" s="8">
+        <f t="shared" si="11"/>
+        <v>-3.9097351845845247E-18</v>
+      </c>
+      <c r="AJ41" s="8">
+        <f t="shared" si="12"/>
+        <v>2.9103830456733704E-8</v>
+      </c>
     </row>
     <row r="42" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA42" s="8">
         <v>38</v>
       </c>
-      <c r="AB42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AH42" s="8"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
+      <c r="AB42" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2336000393843</v>
+      </c>
+      <c r="AC42">
+        <v>-4.6968580136308447E-9</v>
+      </c>
+      <c r="AD42" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE42">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336000466603</v>
+      </c>
+      <c r="AG42">
+        <v>-1.9324488675920293E-9</v>
+      </c>
+      <c r="AH42" s="8">
+        <f t="shared" si="10"/>
+        <v>9.0764379496814737E-18</v>
+      </c>
+      <c r="AI42" s="8">
+        <f t="shared" si="11"/>
+        <v>-1.6085994739693022E-18</v>
+      </c>
+      <c r="AJ42" s="8">
+        <f t="shared" si="12"/>
+        <v>1.4551915228366852E-8</v>
+      </c>
     </row>
     <row r="43" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA43" s="8">
         <v>39</v>
       </c>
-      <c r="AB43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
+      <c r="AB43" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2336000466603</v>
+      </c>
+      <c r="AC43">
+        <v>-1.9324488675920293E-9</v>
+      </c>
+      <c r="AD43" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE43">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="9"/>
+        <v>1248.2336000502983</v>
+      </c>
+      <c r="AG43">
+        <v>-5.5024429457262158E-10</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="10"/>
+        <v>1.0633189639458376E-18</v>
+      </c>
+      <c r="AI43" s="8">
+        <f t="shared" si="11"/>
+        <v>-4.5803161866169094E-19</v>
+      </c>
+      <c r="AJ43" s="8">
+        <f t="shared" si="12"/>
+        <v>7.2759576141834259E-9</v>
+      </c>
     </row>
     <row r="44" spans="6:36" x14ac:dyDescent="0.2">
       <c r="AA44" s="8">
         <v>40</v>
       </c>
-      <c r="AB44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AF44" s="11"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
+      <c r="AB44" s="8">
+        <f t="shared" si="13"/>
+        <v>1248.2336000502983</v>
+      </c>
+      <c r="AC44">
+        <v>-5.5024429457262158E-10</v>
+      </c>
+      <c r="AD44" s="8">
+        <f t="shared" si="14"/>
+        <v>1248.2336000539362</v>
+      </c>
+      <c r="AE44">
+        <v>8.3241502579767257E-10</v>
+      </c>
+      <c r="AF44" s="11">
+        <f t="shared" si="9"/>
+        <v>1248.2336000521173</v>
+      </c>
+      <c r="AG44">
+        <v>1.4108536561252549E-10</v>
+      </c>
+      <c r="AH44" s="8">
+        <f t="shared" si="10"/>
+        <v>-7.7631417475984493E-20</v>
+      </c>
+      <c r="AI44" s="8">
+        <f t="shared" si="11"/>
+        <v>1.1744157825602447E-19</v>
+      </c>
+      <c r="AJ44" s="8">
+        <f t="shared" si="12"/>
+        <v>3.637978807091713E-9</v>
+      </c>
     </row>
     <row r="55" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA55" s="8"/>
@@ -5711,12 +6687,12 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F11:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G27">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",G27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",G27)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>1</formula>
@@ -5725,7 +6701,7 @@
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G27)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"""YES"""</formula>
@@ -5740,8 +6716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6022,7 +6998,7 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20" ca="1"/>
         <v>-387.71074190676364</v>
       </c>
       <c r="AD5" s="9">
@@ -6037,7 +7013,7 @@
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20"/>
         <v>-47.313913459105152</v>
       </c>
       <c r="AH5" s="8">

--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D712EEA-0D35-164F-9722-96E0209E3159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE184964-3C7B-1047-B4B4-56EAE7A28A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
     <sheet name="lift+cruise" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="141">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -391,6 +392,75 @@
   </si>
   <si>
     <t>Bisection method for solving W_total_takeoff</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
+    <t>n_rotor</t>
+  </si>
+  <si>
+    <t>P_motor</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>W_rotor+hubs</t>
+  </si>
+  <si>
+    <t>W_motor</t>
+  </si>
+  <si>
+    <t>W_motor_controller</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>technology_factor</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>tiltrotor</t>
+  </si>
+  <si>
+    <t>tiltwing</t>
+  </si>
+  <si>
+    <t>Gross weight</t>
+  </si>
+  <si>
+    <t>ft2</t>
+  </si>
+  <si>
+    <t>Eqv flat plat area (f)</t>
+  </si>
+  <si>
+    <t>K_eqv</t>
+  </si>
+  <si>
+    <t>Eqv_flat_plat_calc</t>
+  </si>
+  <si>
+    <t>L/D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
 </sst>
 </file>
@@ -506,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -538,20 +608,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,19 +1660,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.74</c:v>
+                  <c:v>33.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.69</c:v>
+                  <c:v>17.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.12</c:v>
+                  <c:v>11.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.51</c:v>
+                  <c:v>32.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.94</c:v>
+                  <c:v>5.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3253,11 +3321,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -3271,18 +3339,18 @@
       <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -3503,7 +3571,7 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15"/>
         <v>-264.34947063042887</v>
       </c>
       <c r="AD5" s="9">
@@ -3518,7 +3586,7 @@
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15"/>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15" ca="1"/>
         <v>48.370255085541658</v>
       </c>
       <c r="AH5" s="8">
@@ -3634,8 +3702,8 @@
       <c r="F7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>69</v>
       </c>
@@ -3823,8 +3891,8 @@
       <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
@@ -4007,13 +4075,13 @@
       <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="J11" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
       <c r="P11" s="8">
         <v>7</v>
       </c>
@@ -4288,11 +4356,11 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
@@ -4471,11 +4539,11 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
@@ -4859,11 +4927,11 @@
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="F20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5366,11 +5434,11 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="F25" s="15" t="s">
         <v>104</v>
       </c>
@@ -5744,11 +5812,11 @@
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="P29" s="8">
         <v>25</v>
       </c>
@@ -6680,12 +6748,12 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="G27">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -6716,8 +6784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6748,11 +6816,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -6766,18 +6834,18 @@
       <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -6851,7 +6919,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$20*$C$34)^3 / (2 * $C$33 * PI() * $C$21^2* $C$5) )</f>
-        <v>370704.43153783563</v>
+        <v>166764.64204991527</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -6861,7 +6929,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> $C$20 * $C$34</f>
-        <v>17258.482001234643</v>
+        <v>11757.8180294921</v>
       </c>
       <c r="L4" t="s">
         <v>37</v>
@@ -6874,14 +6942,14 @@
       </c>
       <c r="R4" s="8">
         <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
-        <v>0.6534009566313479</v>
+        <v>0.63509455714344953</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
-        <v>-0.67357508815696088</v>
+        <v>-0.57973927437983719</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -6889,15 +6957,15 @@
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
-        <v>-0.16427027744759859</v>
+        <v>-7.1737967926194857E-2</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-0.10733435643035785</v>
+        <v>-4.5560392970457712E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.11064836661333464</v>
+        <v>4.1589317471016241E-2</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -6909,17 +6977,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G29</f>
-        <v>1.546140993013978E-10</v>
+        <v>-1.0618350643198937E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G29</f>
-        <v>1.546140993013978E-10</v>
+        <v>-1.0618350643198937E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G29</f>
-        <v>1.546140993013978E-10</v>
+        <v>-1.0618350643198937E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -6937,7 +7005,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$20 * $C$34 / $C$5</f>
-        <v>2876.4136668724404</v>
+        <v>1959.6363382486834</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -6947,7 +7015,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.5 * $C$33 * $C$23^2</f>
-        <v>1852.8125000000002</v>
+        <v>1852.8124999999461</v>
       </c>
       <c r="L5" t="s">
         <v>48</v>
@@ -6961,7 +7029,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>0.6534009566313479</v>
+        <v>0.63509455714344953</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -6969,7 +7037,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="1"/>
-        <v>-0.16427027744759859</v>
+        <v>-7.1737967926194857E-2</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -6977,15 +7045,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" si="2"/>
-        <v>0.10419045512088293</v>
+        <v>0.19404975122575574</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>6.807814304784042E-2</v>
+        <v>0.1232399408185179</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-1.7115394970099007E-2</v>
+        <v>-1.3920734829519357E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -6998,31 +7066,31 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>-387.71074190676364</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
+        <v>-357.0306442450181</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>17.800327323294368</v>
+        <v>536.38035314613489</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20"/>
-        <v>-47.313913459105152</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <v>142.55710353272457</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>18344.112489742067</v>
+        <v>-50897.254515992398</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>-842.20314651809463</v>
+        <v>76464.829536372912</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -7041,7 +7109,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> 1.6 * ($C$20*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.36693977839770386</v>
+        <v>0.28410413500282999</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
@@ -7055,7 +7123,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.10419045512088293</v>
+        <v>0.19404975122575574</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -7063,7 +7131,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.16427027744759859</v>
+        <v>-7.1737967926194857E-2</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
@@ -7071,15 +7139,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="2"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>5.8563738317039926E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-3.4476107900268055E-3</v>
+        <v>1.1364278851271857E-2</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>5.4356224891422529E-3</v>
+        <v>-4.2012435810258788E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -7090,32 +7158,32 @@
       </c>
       <c r="AB6" s="8">
         <f>IF(AH5&gt;0,AF5,AB5)</f>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-47.313913459105152</v>
+        <v>-357.0306442450181</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0,AF5,AD5)</f>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>17.800327323294368</v>
+        <v>142.55710353272457</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>25.674914961811965</v>
+        <v>-98.697740238587812</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>-1214.7807045730553</v>
+        <v>35238.117782910449</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>457.02189031800089</v>
+        <v>-14070.063973638318</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -7132,49 +7200,49 @@
       <c r="F7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>68</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K6 / $C$24</f>
-        <v>5.7334340374641225E-2</v>
+        <v>2.6861702975669303E-2</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.10419045512088293</v>
+        <v>5.8563738317039926E-2</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>-7.1737967926194857E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="2"/>
-        <v>3.4337276181752696E-2</v>
+        <v>-6.9619213839557936E-3</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>3.5776164329882668E-3</v>
+        <v>-4.0771614211379152E-4</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1362035392492855E-3</v>
+        <v>4.9943409294691079E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -7185,32 +7253,32 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0,AF6,AB6)</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="AC7" s="8">
-        <v>-47.313913459105152</v>
+        <v>-98.697740238587812</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AE7" s="8">
-        <v>25.674914961811965</v>
+        <v>142.55710353272457</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
-        <v>1750</v>
+        <v>1250</v>
       </c>
       <c r="AG7" s="8">
-        <v>-1.3484183383602613</v>
+        <v>24.988074606286091</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>63.798948567847766</v>
+        <v>-2466.2664965536769</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>-34.620526170347503</v>
+        <v>3562.2275387317718</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -7229,7 +7297,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$23 * SIN(K17))</f>
-        <v>108255.92346359526</v>
+        <v>48888.096169850709</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -7239,7 +7307,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K5 * $C$24 * K7</f>
-        <v>679.87060816249573</v>
+        <v>526.39169263491567</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -7249,35 +7317,35 @@
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="7"/>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>3.4337276181752696E-2</v>
+        <v>5.8563738317039926E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>-6.9619213839557936E-3</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="V8" s="8">
         <f t="shared" si="2"/>
-        <v>4.0212566897224189E-4</v>
+        <v>2.5685907249851925E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>1.3807900155271931E-5</v>
+        <v>1.5042627506160868E-3</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-1.3306140122787288E-5</v>
+        <v>-1.7882326694904926E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -7288,32 +7356,32 @@
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="13"/>
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="AC8" s="8">
-        <v>-1.3484183383602613</v>
+        <v>-98.697740238587812</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
-        <v>2000</v>
+        <v>1250</v>
       </c>
       <c r="AE8" s="8">
-        <v>25.674914961811965</v>
+        <v>24.988074606286091</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
-        <v>1875</v>
+        <v>1125</v>
       </c>
       <c r="AG8" s="8">
-        <v>14.608622084738727</v>
+        <v>-36.160048462268151</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>-19.698533917236411</v>
+        <v>3568.9150701436888</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>375.07512973491504</v>
+        <v>-903.56998874207716</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -7332,7 +7400,7 @@
       </c>
       <c r="G9">
         <f xml:space="preserve"> $C$6 * G8</f>
-        <v>108255.92346359526</v>
+        <v>48888.096169850709</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -7349,35 +7417,35 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>2.5685907249851925E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-3.3089506961332005E-2</v>
+        <v>-6.9619213839557936E-3</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>0.359375</v>
+        <v>0.421875</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" si="2"/>
-        <v>-1.6391988222810072E-2</v>
+        <v>9.3363891812671684E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-6.5916392298826105E-6</v>
+        <v>2.3981362655854944E-4</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>5.4240280840874607E-4</v>
+        <v>-6.4999207489997425E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -7388,32 +7456,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>1750</v>
+        <v>1125</v>
       </c>
       <c r="AC9" s="8">
-        <v>-1.3484183383602613</v>
+        <v>-36.160048462268151</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="AE9" s="8">
-        <v>14.608622084738727</v>
+        <v>24.988074606286091</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>1812.5</v>
+        <v>1187.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>7.2315173400106687</v>
+        <v>-5.4023833145230356</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>-9.7511105954406023</v>
+        <v>195.35044246490182</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>105.6425039194509</v>
+        <v>-134.99515731505676</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -7426,42 +7494,42 @@
       </c>
       <c r="K10">
         <f xml:space="preserve"> K4 / (K5 * $C$24)</f>
-        <v>1.4554294148452218</v>
+        <v>0.59999999994155828</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.421875</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>9.3363891812671684E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.4375</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6391988222810072E-2</v>
+        <v>-6.9619213839557936E-3</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>0.3515625</v>
+        <v>0.4296875</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="2"/>
-        <v>-8.0078008059947803E-3</v>
+        <v>1.181177137633882E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-3.2201422561071089E-6</v>
+        <v>1.1027929448965097E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>1.3126377650247544E-4</v>
+        <v>-8.2232623727330189E-6</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -7472,32 +7540,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>1750</v>
+        <v>1187.5</v>
       </c>
       <c r="AC10" s="8">
-        <v>-1.3484183383602613</v>
+        <v>-5.4023833145230356</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>1812.5</v>
+        <v>1250</v>
       </c>
       <c r="AE10" s="8">
-        <v>7.2315173400106687</v>
+        <v>24.988074606286091</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>1781.25</v>
+        <v>1218.75</v>
       </c>
       <c r="AG10" s="8">
-        <v>3.0906758263029133</v>
+        <v>9.8398576323439784</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>-4.1675239621136013</v>
+        <v>-53.158682690257251</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>22.350275830261317</v>
+        <v>245.87909663224494</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -7508,54 +7576,54 @@
       <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="J11" t="s">
         <v>71</v>
       </c>
       <c r="K11">
         <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
-        <v>0.14645043752924147</v>
+        <v>4.2006950064540312E-2</v>
       </c>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.4296875</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.181177137633882E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.3515625</v>
+        <v>0.4375</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-8.0078008059947803E-3</v>
+        <v>-6.9619213839557936E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
-        <v>0.34765625</v>
+        <v>0.43359375</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="2"/>
-        <v>-3.8061620383744721E-3</v>
+        <v>-2.8918459566564803E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5305554558980865E-6</v>
+        <v>-3.4157823295616164E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>3.0478987438641834E-5</v>
+        <v>2.013280420475285E-5</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -7566,32 +7634,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>1750</v>
+        <v>1187.5</v>
       </c>
       <c r="AC11" s="8">
-        <v>-1.3484183383602613</v>
+        <v>-5.4023833145230356</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>1781.25</v>
+        <v>1218.75</v>
       </c>
       <c r="AE11" s="8">
-        <v>3.0906758263029133</v>
+        <v>9.8398576323439784</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>1765.625</v>
+        <v>1203.125</v>
       </c>
       <c r="AG11" s="8">
-        <v>0.9082583887650344</v>
+        <v>2.2303559250751732</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>-1.2247122673803159</v>
+        <v>-12.049237635073705</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>2.8071322461929253</v>
+        <v>21.946384772194559</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -7610,7 +7678,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
-        <v>106725.69199918545</v>
+        <v>35808.600464868803</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -7620,7 +7688,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> K5 * K11 * $C$24</f>
-        <v>1736.6092882217458</v>
+        <v>823.18345813489111</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -7630,35 +7698,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.4296875</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.181177137633882E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.34765625</v>
+        <v>0.43359375</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-3.8061620383744721E-3</v>
+        <v>-2.8918459566564803E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>0.345703125</v>
+        <v>0.431640625</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="2"/>
-        <v>-1.7028632090883011E-3</v>
+        <v>-8.5570780034160965E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-6.8476500712285176E-7</v>
+        <v>-1.0107424902584879E-6</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>6.4813733029764234E-6</v>
+        <v>2.4745751424972946E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -7669,32 +7737,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>1750</v>
+        <v>1187.5</v>
       </c>
       <c r="AC12" s="8">
-        <v>-1.3484183383602613</v>
+        <v>-5.4023833145230356</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>1765.625</v>
+        <v>1203.125</v>
       </c>
       <c r="AE12" s="8">
-        <v>0.9082583887650344</v>
+        <v>2.2303559250751732</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>1757.8125</v>
+        <v>1195.3125</v>
       </c>
       <c r="AG12" s="8">
-        <v>-0.21081603648985947</v>
+        <v>-1.5831262617477933</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>0.28426820962335253</v>
+        <v>8.5526549012495057</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>-0.19147543362811045</v>
+        <v>-3.5309350380313003</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -7707,45 +7775,52 @@
       </c>
       <c r="G13">
         <f xml:space="preserve"> $C$29 / $C$23</f>
-        <v>2727.2727272727275</v>
+        <v>1818.1818181818446</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13">
+        <f>K10/K11</f>
+        <v>14.28335070791158</v>
+      </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.4296875</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.181177137633882E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.345703125</v>
+        <v>0.431640625</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7028632090883011E-3</v>
+        <v>-8.5570780034160965E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>0.3447265625</v>
+        <v>0.4306640625</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="2"/>
-        <v>-6.5058179843768826E-4</v>
+        <v>1.6264069476540355E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>-2.6161564091791965E-7</v>
+        <v>1.9210747030578525E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>1.1078518090620401E-6</v>
+        <v>-1.3917291116373461E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -7756,32 +7831,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>1757.8125</v>
+        <v>1195.3125</v>
       </c>
       <c r="AC13" s="8">
-        <v>-0.21081603648985947</v>
+        <v>-1.5831262617477933</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>1765.625</v>
+        <v>1203.125</v>
       </c>
       <c r="AE13" s="8">
-        <v>0.9082583887650344</v>
+        <v>2.2303559250751732</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>1761.71875</v>
+        <v>1199.21875</v>
       </c>
       <c r="AG13" s="8">
-        <v>0.35103858905245033</v>
+        <v>0.32433894758037241</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>-7.400456399903016E-2</v>
+        <v>-0.51346950562212845</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>0.3188337432871296</v>
+        <v>0.72339129346852959</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -7792,42 +7867,42 @@
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.4306640625</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.6264069476540355E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.3447265625</v>
+        <v>0.431640625</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-6.5058179843768826E-4</v>
+        <v>-8.5570780034160965E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
-        <v>0.34423828125</v>
+        <v>0.43115234375</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="2"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>-3.4655696755120369E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>-4.9976799636000218E-8</v>
+        <v>-5.6364265978319179E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>8.0855311401653939E-8</v>
+        <v>2.9655150039629911E-7</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -7838,32 +7913,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>1757.8125</v>
+        <v>1195.3125</v>
       </c>
       <c r="AC14" s="8">
-        <v>-0.21081603648985947</v>
+        <v>-1.5831262617477933</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>1761.71875</v>
+        <v>1199.21875</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.35103858905245033</v>
+        <v>0.32433894758037241</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>1759.765625</v>
+        <v>1197.265625</v>
       </c>
       <c r="AG14" s="8">
-        <v>7.0689910544615486E-2</v>
+        <v>-0.62921274287998585</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>-1.490256676083856E-2</v>
+        <v>0.99612321747966737</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>2.4814886457825751E-2</v>
+        <v>-0.20407819882985406</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -7885,35 +7960,35 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.4306640625</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>4.0212566897224189E-4</v>
+        <v>1.6264069476540355E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.34423828125</v>
+        <v>0.43115234375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>-3.4655696755120369E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
-        <v>0.343994140625</v>
+        <v>0.430908203125</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="2"/>
-        <v>1.3890866342486374E-4</v>
+        <v>-9.196399989463977E-5</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>5.5858739205763325E-8</v>
+        <v>-1.4957088836269711E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7263783377549612E-8</v>
+        <v>3.1870764927365571E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -7924,32 +7999,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>1757.8125</v>
+        <v>1197.265625</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.21081603648985947</v>
+        <v>-0.62921274287998585</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>1759.765625</v>
+        <v>1199.21875</v>
       </c>
       <c r="AE15" s="8">
-        <v>7.0689910544615486E-2</v>
+        <v>0.32433894758037241</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>1758.7890625</v>
+        <v>1198.2421875</v>
       </c>
       <c r="AG15" s="8">
-        <v>-6.9918236420789981E-2</v>
+        <v>-0.1523916866287891</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>1.4739885480591882E-2</v>
+        <v>9.5886791135807656E-2</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>-4.9425138780229199E-3</v>
+        <v>-4.9426559261179365E-2</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -7971,42 +8046,42 @@
       <c r="J16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.343994140625</v>
+        <v>0.4306640625</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>1.3890866342486374E-4</v>
+        <v>1.6264069476540355E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.34423828125</v>
+        <v>0.430908203125</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>-9.196399989463977E-5</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441162109375</v>
+        <v>0.4307861328125</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>7.3102128929636301E-6</v>
+        <v>3.5336880331138243E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>1.0154519023127844E-9</v>
+        <v>5.747214767898247E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>-9.085245564698526E-10</v>
+        <v>-3.2497208590496955E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -8017,32 +8092,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1758.7890625</v>
+        <v>1198.2421875</v>
       </c>
       <c r="AC16" s="8">
-        <v>-6.9918236420789981E-2</v>
+        <v>-0.1523916866287891</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1759.765625</v>
+        <v>1199.21875</v>
       </c>
       <c r="AE16" s="8">
-        <v>7.0689910544615486E-2</v>
+        <v>0.32433894758037241</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1759.27734375</v>
+        <v>1198.73046875</v>
       </c>
       <c r="AG16" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>8.5984834820919787E-2</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>-2.952329775813371E-5</v>
+        <v>-1.3103374002857802E-2</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>2.9849140715510894E-5</v>
+        <v>2.7888230833689284E-2</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -8061,7 +8136,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
-        <v>627.79818823050266</v>
+        <v>210.63882626393413</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -8081,35 +8156,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.4307861328125</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>3.5336880331138243E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.34423828125</v>
+        <v>0.430908203125</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2428154552712734E-4</v>
+        <v>-9.196399989463977E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>0.34417724609375</v>
+        <v>0.43084716796875</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>-5.8486502391763562E-5</v>
+        <v>-2.8313926404122114E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-4.275487838486182E-10</v>
+        <v>-1.0005258290471184E-9</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>7.2687929097244045E-9</v>
+        <v>2.6038619248455244E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -8120,32 +8195,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1758.7890625</v>
+        <v>1198.2421875</v>
       </c>
       <c r="AC17" s="8">
-        <v>-6.9918236420789981E-2</v>
+        <v>-0.1523916866287891</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.73046875</v>
       </c>
       <c r="AE17" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>8.5984834820919787E-2</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1759.033203125</v>
+        <v>1198.486328125</v>
       </c>
       <c r="AG17" s="8">
-        <v>-3.4738475067570107E-2</v>
+        <v>-3.32006766085442E-2</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>2.4288529126720851E-3</v>
+        <v>5.0595071055930365E-3</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>-1.4668481294508436E-5</v>
+        <v>-2.8547546941284484E-3</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -8158,7 +8233,7 @@
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
-        <v>129.12379999708568</v>
+        <v>79.76666441523615</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -8168,7 +8243,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$6</f>
-        <v>1736.6092882217458</v>
+        <v>823.18345813489111</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -8178,35 +8253,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.4307861328125</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>3.5336880331138243E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.34417724609375</v>
+        <v>0.43084716796875</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-5.8486502391763562E-5</v>
+        <v>-2.8313926404122114E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="3"/>
-        <v>0.344146728515625</v>
+        <v>0.430816650390625</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="2"/>
-        <v>-2.5588353822936227E-5</v>
+        <v>3.5113852887569408E-6</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-1.8705631402614359E-10</v>
+        <v>1.2408140174532331E-10</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>1.496573317066452E-9</v>
+        <v>-9.9421104642381105E-11</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -8217,32 +8292,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1759.033203125</v>
+        <v>1198.486328125</v>
       </c>
       <c r="AC18" s="8">
-        <v>-3.4738475067570107E-2</v>
+        <v>-3.32006766085442E-2</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.73046875</v>
       </c>
       <c r="AE18" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>8.5984834820919787E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1759.1552734375</v>
+        <v>1198.6083984375</v>
       </c>
       <c r="AG18" s="8">
-        <v>-1.7156761490696226E-2</v>
+        <v>2.6392766487902009E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>5.9599973128479785E-4</v>
+        <v>-8.7625770496965749E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>-7.2445216582221059E-6</v>
+        <v>2.2693776669293615E-3</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -8250,17 +8325,17 @@
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="F19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
-        <v>101.71654674026901</v>
+        <v>52.214714785316005</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -8270,7 +8345,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> PI() * $C$23 / ($C$22 * $C$25)</f>
-        <v>191.98621771937624</v>
+        <v>153.14932077647677</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -8280,35 +8355,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.430816650390625</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>3.5113852887569408E-6</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.344146728515625</v>
+        <v>0.43084716796875</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.5588353822936227E-5</v>
+        <v>-2.8313926404122114E-5</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441314697265625</v>
+        <v>0.4308319091796875</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="2"/>
-        <v>-9.1391227402537467E-6</v>
+        <v>-1.2401293473962571E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-6.6808932886180036E-11</v>
+        <v>-4.3545719466029626E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>2.3385510630885535E-10</v>
+        <v>3.5112931073769609E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -8319,32 +8394,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1759.1552734375</v>
+        <v>1198.486328125</v>
       </c>
       <c r="AC19" s="8">
-        <v>-1.7156761490696226E-2</v>
+        <v>-3.32006766085442E-2</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.6083984375</v>
       </c>
       <c r="AE19" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>2.6392766487902009E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1759.21630859375</v>
+        <v>1198.54736328125</v>
       </c>
       <c r="AG19" s="8">
-        <v>-8.3667102057916054E-3</v>
+        <v>-3.4035780588510534E-3</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>1.4354565146254051E-4</v>
+        <v>1.1300109444385044E-4</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>-3.5328819676600593E-6</v>
+        <v>-8.9829840930602656E-5</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -8357,7 +8432,7 @@
       </c>
       <c r="C20" s="3">
         <f>AF44</f>
-        <v>1759.2744139892602</v>
+        <v>1198.5543353202956</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -8367,7 +8442,7 @@
       </c>
       <c r="G20">
         <f xml:space="preserve"> 14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>155.13153788682038</v>
+        <v>146.79077861950864</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -8377,42 +8452,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> $C$23 * COS(K17) / (K19 * $C$22)</f>
-        <v>2.7742534554270872E-2</v>
+        <v>3.6065294920551015E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.430816650390625</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>3.5113852887569408E-6</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.3441314697265625</v>
+        <v>0.4308319091796875</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1391227402537467E-6</v>
+        <v>-1.2401293473962571E-5</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412384033203125</v>
+        <v>0.43082427978515625</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="2"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-4.4449598219920006E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>-6.684955714632498E-12</v>
+        <v>-1.5607966528058381E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>8.3574352325625303E-12</v>
+        <v>5.512325123249523E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -8423,32 +8498,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1759.21630859375</v>
+        <v>1198.54736328125</v>
       </c>
       <c r="AC20" s="8">
-        <v>-8.3667102057916054E-3</v>
+        <v>-3.4035780588510534E-3</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.6083984375</v>
       </c>
       <c r="AE20" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>2.6392766487902009E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1759.246826171875</v>
+        <v>1198.577880859375</v>
       </c>
       <c r="AG20" s="8">
-        <v>-3.9720919878618588E-3</v>
+        <v>1.1494842348497514E-2</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>3.3233342573186878E-5</v>
+        <v>-3.9123593207298053E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>-1.6772341592625357E-6</v>
+        <v>3.0338068991914201E-4</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -8460,7 +8535,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>1.2</v>
+        <v>1.49999999999999</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -8470,7 +8545,7 @@
       </c>
       <c r="G21">
         <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>34.803957488997163</v>
+        <v>26.768395583058929</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -8480,42 +8555,42 @@
       </c>
       <c r="K21">
         <f xml:space="preserve"> K18 / ( $C$33 * PI() * $C$22^2 * K19^2 * $C$22^2)</f>
-        <v>1.8659758335729235E-2</v>
+        <v>1.6075481273085567E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441162109375</v>
+        <v>0.430816650390625</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>7.3102128929636301E-6</v>
+        <v>3.5113852887569408E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.43082427978515625</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-4.4449598219920006E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412002563476562</v>
+        <v>0.43082046508789062</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="2"/>
-        <v>3.1978691823475458E-6</v>
+        <v>-4.6678869902727627E-7</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>2.337710452680809E-11</v>
+        <v>-1.6390749707223692E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>-2.9243490139333949E-12</v>
+        <v>2.0748570125361595E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -8526,32 +8601,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1759.246826171875</v>
+        <v>1198.54736328125</v>
       </c>
       <c r="AC21" s="8">
-        <v>-3.9720919878618588E-3</v>
+        <v>-3.4035780588510534E-3</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.577880859375</v>
       </c>
       <c r="AE21" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>1.1494842348497514E-2</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2620849609375</v>
+        <v>1198.5626220703125</v>
       </c>
       <c r="AG21" s="8">
-        <v>-1.774884736050808E-3</v>
+        <v>4.0454377171954548E-3</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>7.0500054394457242E-6</v>
+        <v>-1.3768963052694943E-5</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>-7.494532647166919E-7</v>
+        <v>4.650166878982742E-5</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -8563,7 +8638,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>0.9</v>
+        <v>0.86786891819242595</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -8573,7 +8648,7 @@
       </c>
       <c r="G22">
         <f xml:space="preserve"> 0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
-        <v>206.16084700286123</v>
+        <v>212.1167319418031</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -8589,35 +8664,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412002563476562</v>
+        <v>0.430816650390625</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>3.1978691823475458E-6</v>
+        <v>3.5113852887569408E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.43082046508789062</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-4.6678869902727627E-7</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412193298339844</v>
+        <v>0.43081855773925781</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="2"/>
-        <v>1.1416997776625415E-6</v>
+        <v>1.5222979367623957E-6</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>3.6510065344800862E-12</v>
+        <v>5.3453745802525202E-12</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0440479046001747E-12</v>
+        <v>-7.1059147343322556E-13</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -8628,32 +8703,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2620849609375</v>
+        <v>1198.54736328125</v>
       </c>
       <c r="AC22" s="8">
-        <v>-1.774884736050808E-3</v>
+        <v>-3.4035780588510534E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.5626220703125</v>
       </c>
       <c r="AE22" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>4.0454377171954548E-3</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2697143554688</v>
+        <v>1198.5549926757812</v>
       </c>
       <c r="AG22" s="8">
-        <v>-6.7548221659308183E-4</v>
+        <v>3.2093251491005503E-4</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>1.1989030757048268E-6</v>
+        <v>-1.0923188661197518E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>-2.8522548095723832E-7</v>
+        <v>1.2983125004915294E-6</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -8665,7 +8740,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>55</v>
+        <v>54.999999999999197</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -8684,7 +8759,7 @@
       </c>
       <c r="K23">
         <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$33 * K19^3 * C22^5)</f>
-        <v>3146.9858091218234</v>
+        <v>1335.2275825919908</v>
       </c>
       <c r="L23" t="s">
         <v>35</v>
@@ -8694,35 +8769,35 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412193298339844</v>
+        <v>0.43081855773925781</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.1416997776625415E-6</v>
+        <v>1.5222979367623957E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.43082046508789062</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-4.6678869902727627E-7</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412288665771484</v>
+        <v>0.43081951141357422</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="2"/>
-        <v>1.136156879688599E-7</v>
+        <v>5.2775452935582834E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>1.2971500569302404E-13</v>
+        <v>8.0339963115538665E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0389791018130224E-13</v>
+        <v>-2.4634985016375957E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -8733,32 +8808,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2697143554688</v>
+        <v>1198.54736328125</v>
       </c>
       <c r="AC23" s="8">
-        <v>-6.7548221659308183E-4</v>
+        <v>-3.4035780588510534E-3</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.5549926757812</v>
       </c>
       <c r="AE23" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>3.2093251491005503E-4</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2735290527344</v>
+        <v>1198.5511779785156</v>
       </c>
       <c r="AG23" s="8">
-        <v>-1.2743603952003468E-4</v>
+        <v>-1.5413221004791922E-3</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>8.6080778448836608E-8</v>
+        <v>5.2460100828131967E-6</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>-5.3810455361379228E-8</v>
+        <v>-4.9466037799323565E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -8770,7 +8845,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>6.4</v>
+        <v>10.576549642446899</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -8789,42 +8864,42 @@
       </c>
       <c r="K24" s="5">
         <f>U34</f>
-        <v>0.34412299236282706</v>
+        <v>0.43082001758739352</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.43081951141357422</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>5.2775452935582834E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412384033203125</v>
+        <v>0.43082046508789062</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-9.1446799327377093E-7</v>
+        <v>-4.6678869902727627E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412336349487305</v>
+        <v>0.43081998825073242</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>-4.0042620375047022E-7</v>
+        <v>3.0482892765526515E-8</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-4.5494698619868544E-14</v>
+        <v>1.6087484724874629E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>3.6617694699792661E-13</v>
+        <v>-1.4229069856608094E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -8835,32 +8910,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2735290527344</v>
+        <v>1198.5511779785156</v>
       </c>
       <c r="AC24" s="8">
-        <v>-1.2743603952003468E-4</v>
+        <v>-1.5413221004791922E-3</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1759.27734375</v>
+        <v>1198.5549926757812</v>
       </c>
       <c r="AE24" s="8">
-        <v>4.222546115215664E-4</v>
+        <v>3.2093251491005503E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2754364013672</v>
+        <v>1198.5530853271484</v>
       </c>
       <c r="AG24" s="8">
-        <v>1.4740981623617699E-4</v>
+        <v>-6.1019462509648292E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>-1.8785323167514503E-8</v>
+        <v>9.4050646125482422E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>6.2244474689272409E-8</v>
+        <v>-1.9583129561681245E-7</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -8872,14 +8947,14 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>1.2999999999999601</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G25">
         <f xml:space="preserve"> 0.0268 * $C$20</f>
-        <v>47.148554294912174</v>
+        <v>32.121256186583928</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -8889,7 +8964,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> K19 * $C$22 * K24 - $C$23 * SIN(K17)</f>
-        <v>4.6694761655656691</v>
+        <v>2.4711032395395378</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -8899,35 +8974,35 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.43081998825073242</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>3.0482892765526515E-8</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412336349487305</v>
+        <v>0.43082046508789062</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-4.0042620375047022E-7</v>
+        <v>-4.6678869902727627E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412312507629395</v>
+        <v>0.43082022666931152</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="2"/>
-        <v>-1.4340527065836994E-7</v>
+        <v>-2.1815290873750115E-7</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>-1.629308848421126E-14</v>
+        <v>-6.6499317235329396E-15</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>5.7423228127539771E-14</v>
+        <v>1.0183131245859429E-13</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -8938,32 +9013,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2735290527344</v>
+        <v>1198.5530853271484</v>
       </c>
       <c r="AC25" s="8">
-        <v>-1.2743603952003468E-4</v>
+        <v>-6.1019462509648292E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2754364013672</v>
+        <v>1198.5549926757812</v>
       </c>
       <c r="AE25" s="8">
-        <v>1.4740981623617699E-4</v>
+        <v>3.2093251491005503E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744827270508</v>
+        <v>1198.5540390014648</v>
       </c>
       <c r="AG25" s="8">
-        <v>1.0811382026076899E-5</v>
+        <v>-1.4442584836160677E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>-1.3777597071413283E-9</v>
+        <v>8.8127876395252129E-8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>1.5937038377231026E-9</v>
+        <v>-4.6350950732708712E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -8976,7 +9051,7 @@
       </c>
       <c r="G26">
         <f xml:space="preserve"> 11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592</f>
-        <v>8.9707790153142888</v>
+        <v>7.6941352232120019</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -8986,42 +9061,42 @@
       </c>
       <c r="K26">
         <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$33*PI()*$C$22^2) / K18^3 )</f>
-        <v>1.2247552694509789</v>
+        <v>1.1972131715570866</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.43081998825073242</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>3.0482892765526515E-8</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412312507629395</v>
+        <v>0.43082022666931152</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4340527065836994E-7</v>
+        <v>-2.1815290873750115E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412300586700439</v>
+        <v>0.43082010746002197</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="2"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-9.3835009373766098E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>-1.692282325282407E-15</v>
+        <v>-2.8603625283926874E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>2.1359920379482649E-15</v>
+        <v>2.047038023629776E-14</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -9032,32 +9107,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2735290527344</v>
+        <v>1198.5540390014648</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.2743603952003468E-4</v>
+        <v>-1.4442584836160677E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
+        <v>1198.5549926757812</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.0811382026076899E-5</v>
+        <v>3.2093251491005503E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2740058898926</v>
+        <v>1198.554515838623</v>
       </c>
       <c r="AG26" s="8">
-        <v>-5.7487935009703506E-5</v>
+        <v>8.8253343619726365E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>7.3260347578217612E-9</v>
+        <v>-1.2746064023027376E-8</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>-6.2152402728018538E-10</v>
+        <v>2.8323367517100041E-8</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -9065,17 +9140,17 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="F27" s="15" t="s">
         <v>103</v>
       </c>
       <c r="G27">
         <f xml:space="preserve"> 8 * ($C$20/1000)</f>
-        <v>14.074195311914082</v>
+        <v>9.5884346825623652</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -9091,35 +9166,35 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412288665771484</v>
+        <v>0.43081998825073242</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.136156879688599E-7</v>
+        <v>3.0482892765526515E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.43082010746002197</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-9.3835009373766098E-8</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412294626235962</v>
+        <v>0.4308200478553772</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="2"/>
-        <v>4.9360445897317362E-8</v>
+        <v>-3.1676058664942275E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>5.6081210190734E-15</v>
+        <v>-9.6557789951796239E-16</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>-7.3521369850775619E-16</v>
+        <v>2.9723232617488233E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -9130,32 +9205,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2740058898926</v>
+        <v>1198.5540390014648</v>
       </c>
       <c r="AC27" s="8">
-        <v>-5.7487935009703506E-5</v>
+        <v>-1.4442584836160677E-4</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
+        <v>1198.554515838623</v>
       </c>
       <c r="AE27" s="8">
-        <v>1.0811382026076899E-5</v>
+        <v>8.8253343619726365E-5</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2742443084717</v>
+        <v>1198.5542774200439</v>
       </c>
       <c r="AG27" s="8">
-        <v>-2.4162629188140272E-5</v>
+        <v>-2.8291414537306991E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>1.3890596564313729E-9</v>
+        <v>4.086011545900457E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>-2.6123141490742079E-10</v>
+        <v>-2.4968119286490758E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -9177,7 +9252,7 @@
       </c>
       <c r="G28">
         <f xml:space="preserve"> 13 * ($C$20*2.20462/1000)^1.3 * 0.453592</f>
-        <v>34.346008020428975</v>
+        <v>20.854397619186699</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -9187,42 +9262,42 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> 1/$C$38 * LN( EXP($C$38 * K26) + EXP($C$38 * K27) )</f>
-        <v>1.2281189006558431</v>
+        <v>1.2044530196453378</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412294626235962</v>
+        <v>0.43081998825073242</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>4.9360445897317362E-8</v>
+        <v>3.0482892765526515E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.4308200478553772</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-3.1676058664942275E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412297606468201</v>
+        <v>0.43082001805305481</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="2"/>
-        <v>1.7232825499924331E-8</v>
+        <v>-5.9658300521903129E-10</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>8.5061995074692596E-16</v>
+        <v>-1.8185575773827276E-17</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-2.5667939462894357E-16</v>
+        <v>1.8897398271825599E-17</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -9233,32 +9308,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2742443084717</v>
+        <v>1198.5542774200439</v>
       </c>
       <c r="AC28" s="8">
-        <v>-2.4162629188140272E-5</v>
+        <v>-2.8291414537306991E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
+        <v>1198.554515838623</v>
       </c>
       <c r="AE28" s="8">
-        <v>1.0811382026076899E-5</v>
+        <v>8.8253343619726365E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2743635177612</v>
+        <v>1198.5543966293335</v>
       </c>
       <c r="AG28" s="8">
-        <v>-7.49998253013473E-6</v>
+        <v>2.9980965337017551E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>1.8121929679317556E-10</v>
+        <v>-8.4820391857819535E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>-8.1085176322189364E-11</v>
+        <v>2.6459204359389152E-9</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -9270,7 +9345,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -9280,7 +9355,7 @@
       </c>
       <c r="G29" s="3">
         <f>$C$20 - $C$28 - SUM(G17:G28)</f>
-        <v>1.546140993013978E-10</v>
+        <v>-1.0618350643198937E-10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>14</v>
@@ -9290,35 +9365,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412297606468201</v>
+        <v>0.43081998825073242</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>1.7232825499924331E-8</v>
+        <v>3.0482892765526515E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.43082001805305481</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-5.9658300521903129E-10</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441229909658432</v>
+        <v>0.43082000315189362</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="2"/>
-        <v>1.169015440005694E-9</v>
+        <v>1.4943154880153742E-8</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>2.0145439084335386E-17</v>
+        <v>4.5551058779038076E-16</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7412244756605188E-17</v>
+        <v>-8.9148322458555526E-18</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -9329,32 +9404,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2743635177612</v>
+        <v>1198.5542774200439</v>
       </c>
       <c r="AC29" s="8">
-        <v>-7.49998253013473E-6</v>
+        <v>-2.8291414537306991E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744827270508</v>
+        <v>1198.5543966293335</v>
       </c>
       <c r="AE29" s="8">
-        <v>1.0811382026076899E-5</v>
+        <v>2.9980965337017551E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1759.274423122406</v>
+        <v>1198.5543370246887</v>
       </c>
       <c r="AG29" s="8">
-        <v>1.655700316405273E-6</v>
+        <v>8.4477562722895527E-7</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-1.2417723448178093E-11</v>
+        <v>-2.3899897460947897E-11</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>1.7900408641353803E-11</v>
+        <v>2.5327188797508568E-11</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -9383,35 +9458,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.43082000315189362</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>1.4943154880153742E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412300586700439</v>
+        <v>0.43082001805305481</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4894794508890641E-8</v>
+        <v>-5.9658300521903129E-10</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441229984164238</v>
+        <v>0.43082001060247421</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="2"/>
-        <v>-6.8628895899536246E-9</v>
+        <v>7.1732859097117796E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>-8.0228238937101335E-18</v>
+        <v>1.0719152234844765E-16</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>1.0222133017956399E-16</v>
+        <v>-4.2794604653111862E-18</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -9422,32 +9497,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2743635177612</v>
+        <v>1198.5542774200439</v>
       </c>
       <c r="AC30" s="8">
-        <v>-7.49998253013473E-6</v>
+        <v>-2.8291414537306991E-5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1759.274423122406</v>
+        <v>1198.5543370246887</v>
       </c>
       <c r="AE30" s="8">
-        <v>1.655700316405273E-6</v>
+        <v>8.4477562722895527E-7</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2743933200836</v>
+        <v>1198.5543072223663</v>
       </c>
       <c r="AG30" s="8">
-        <v>-2.0977797703380929E-6</v>
+        <v>-1.3518154560188123E-5</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>1.5733311629605743E-11</v>
+        <v>3.8244771444166902E-10</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-3.4732946294973615E-12</v>
+        <v>-1.1419807497560883E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -9460,35 +9535,35 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.43082001060247421</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>7.1732859097117796E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.3441229984164238</v>
+        <v>0.43082001805305481</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-6.8628895899536246E-9</v>
+        <v>-5.9658300521903129E-10</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="3"/>
-        <v>0.3441229946911335</v>
+        <v>0.43082001432776451</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="2"/>
-        <v>-2.8469370749739653E-9</v>
+        <v>3.2883514800019498E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>-3.3281133973692136E-18</v>
+        <v>2.3588285337677863E-17</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>1.9538214815091848E-17</v>
+        <v>-1.9617746081560125E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -9499,32 +9574,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2743933200836</v>
+        <v>1198.5543072223663</v>
       </c>
       <c r="AC31" s="8">
-        <v>-2.0977797703380929E-6</v>
+        <v>-1.3518154560188123E-5</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1759.274423122406</v>
+        <v>1198.5543370246887</v>
       </c>
       <c r="AE31" s="8">
-        <v>1.655700316405273E-6</v>
+        <v>8.4477562722895527E-7</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744082212448</v>
+        <v>1198.5543221235275</v>
       </c>
       <c r="AG31" s="8">
-        <v>-1.0454011771798832E-6</v>
+        <v>-6.5418543044870603E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>2.1930214413755874E-12</v>
+        <v>8.8433797598288053E-11</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>-1.7308710598271776E-12</v>
+        <v>-5.5263990733134973E-12</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -9532,45 +9607,45 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="P32" s="8">
         <v>28</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.43082001432776451</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>3.2883514800019498E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.3441229946911335</v>
+        <v>0.43082001805305481</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-2.8469370749739653E-9</v>
+        <v>-5.9658300521903129E-10</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412299282848835</v>
+        <v>0.43082001619040966</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="2"/>
-        <v>-8.3896084523971126E-10</v>
+        <v>1.3458842373914592E-9</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>-9.8075818164545002E-19</v>
+        <v>4.4257404239375005E-18</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>2.3884687347644292E-18</v>
+        <v>-8.0293166301992088E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -9581,32 +9656,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744082212448</v>
+        <v>1198.5543221235275</v>
       </c>
       <c r="AC32" s="8">
-        <v>-1.0454011771798832E-6</v>
+        <v>-6.5418543044870603E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1759.274423122406</v>
+        <v>1198.5543370246887</v>
       </c>
       <c r="AE32" s="8">
-        <v>1.655700316405273E-6</v>
+        <v>8.4477562722895527E-7</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744156718254</v>
+        <v>1198.5543295741081</v>
       </c>
       <c r="AG32" s="8">
-        <v>3.0514979698637035E-7</v>
+        <v>-2.848539566002728E-6</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>-3.1900395698575395E-13</v>
+        <v>1.8634730821356648E-11</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>5.0523661542133822E-13</v>
+        <v>-2.4063767985564505E-12</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -9633,35 +9708,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.3441229909658432</v>
+        <v>0.43082001619040966</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.169015440005694E-9</v>
+        <v>1.3458842373914592E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412299282848835</v>
+        <v>0.43082001805305481</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3896084523971126E-10</v>
+        <v>-5.9658300521903129E-10</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412299189716578</v>
+        <v>0.43082001712173223</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="2"/>
-        <v>1.6502732513856699E-10</v>
+        <v>3.7465058833063836E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>1.9291949110982462E-19</v>
+        <v>5.0423632136364274E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>-1.3845146418590082E-19</v>
+        <v>-2.2351017389337037E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -9672,32 +9747,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744082212448</v>
+        <v>1198.5543295741081</v>
       </c>
       <c r="AC33" s="8">
-        <v>-1.0454011771798832E-6</v>
+        <v>-2.848539566002728E-6</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744156718254</v>
+        <v>1198.5543370246887</v>
       </c>
       <c r="AE33" s="8">
-        <v>3.0514979698637035E-7</v>
+        <v>8.4477562722895527E-7</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744119465351</v>
+        <v>1198.5543332993984</v>
       </c>
       <c r="AG33" s="8">
-        <v>-3.7012591747043189E-7</v>
+        <v>-1.0018820830737241E-6</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>3.869300698283738E-13</v>
+        <v>2.853900754104735E-12</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1294384857549636E-13</v>
+        <v>-8.4636556513805752E-13</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -9719,7 +9794,7 @@
       </c>
       <c r="G34">
         <f>ROUND($C$28/$C$20 * 100, 2)</f>
-        <v>22.74</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="H34" t="s">
         <v>95</v>
@@ -9729,35 +9804,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.34412299189716578</v>
+        <v>0.43082001712173223</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>1.6502732513856699E-10</v>
+        <v>3.7465058833063836E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.34412299282848835</v>
+        <v>0.43082001805305481</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-8.3896084523971126E-10</v>
+        <v>-5.9658300521903129E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>0.34412299236282706</v>
+        <v>0.43082001758739352</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="2"/>
-        <v>-3.3696678780614775E-10</v>
+        <v>-1.1096623619977208E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-5.5608727652183656E-20</v>
+        <v>-4.1573565677081191E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>2.8270194111555615E-19</v>
+        <v>6.6200570669904888E-20</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -9768,32 +9843,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744119465351</v>
+        <v>1198.5543332993984</v>
       </c>
       <c r="AC34" s="8">
-        <v>-3.7012591747043189E-7</v>
+        <v>-1.0018820830737241E-6</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744156718254</v>
+        <v>1198.5543370246887</v>
       </c>
       <c r="AE34" s="8">
-        <v>3.0514979698637035E-7</v>
+        <v>8.4477562722895527E-7</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744138091803</v>
+        <v>1198.5543351620436</v>
       </c>
       <c r="AG34" s="8">
-        <v>-3.248806024203077E-8</v>
+        <v>-7.8553057392127812E-8</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>1.20246731039163E-14</v>
+        <v>7.870090077183481E-14</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>-9.9137249873366592E-15</v>
+        <v>-6.6359708329186894E-14</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -9815,7 +9890,7 @@
       </c>
       <c r="G35">
         <f>ROUND(G17/$C$20 * 100, 2)</f>
-        <v>35.69</v>
+        <v>17.57</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -9825,32 +9900,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
+        <v>1198.5543351620436</v>
       </c>
       <c r="AC35">
-        <v>-3.248806024203077E-8</v>
+        <v>-7.8553057392127812E-8</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744156718254</v>
+        <v>1198.5543370246887</v>
       </c>
       <c r="AE35">
-        <v>3.0514979698637035E-7</v>
+        <v>8.4477562722895527E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744147405028</v>
+        <v>1198.5543360933661</v>
       </c>
       <c r="AG35">
-        <v>1.3633098205900751E-7</v>
+        <v>3.8311111438815715E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>-4.429129157988252E-15</v>
+        <v>-3.0094549356094952E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>4.160137149825864E-14</v>
+        <v>3.2364293195563949E-13</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -9863,7 +9938,7 @@
       </c>
       <c r="G36">
         <f>ROUND(SUM(G18:G19)/$C$20 * 100, 2)</f>
-        <v>13.12</v>
+        <v>11.01</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -9873,32 +9948,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
+        <v>1198.5543351620436</v>
       </c>
       <c r="AC36">
-        <v>-3.248806024203077E-8</v>
+        <v>-7.8553057392127812E-8</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744147405028</v>
+        <v>1198.5543360933661</v>
       </c>
       <c r="AE36">
-        <v>1.3633098205900751E-7</v>
+        <v>3.8311111438815715E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744142748415</v>
+        <v>1198.5543356277049</v>
       </c>
       <c r="AG36">
-        <v>5.1921006161137484E-8</v>
+        <v>1.5227908534143353E-7</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>-1.6868127759898853E-15</v>
+        <v>-1.1961987730446357E-14</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>7.0784417594396528E-15</v>
+        <v>5.8339810083165885E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -9906,17 +9981,17 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="F37" s="17" t="s">
         <v>108</v>
       </c>
       <c r="G37">
         <f>ROUND(SUM(G20:G24)/$C$20 * 100, 2)</f>
-        <v>22.51</v>
+        <v>32.18</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
@@ -9926,32 +10001,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
+        <v>1198.5543351620436</v>
       </c>
       <c r="AC37">
-        <v>-3.248806024203077E-8</v>
+        <v>-7.8553057392127812E-8</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744142748415</v>
+        <v>1198.5543356277049</v>
       </c>
       <c r="AE37">
-        <v>5.1921006161137484E-8</v>
+        <v>1.5227908534143353E-7</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744140420109</v>
+        <v>1198.5543353948742</v>
       </c>
       <c r="AG37">
-        <v>9.7161318990401924E-9</v>
+        <v>3.6862957131233998E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>-3.1565827845553459E-16</v>
+        <v>-2.8956979871733714E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>5.0447134419249027E-16</v>
+        <v>5.6134573949247876E-15</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -9970,7 +10045,7 @@
       </c>
       <c r="G38">
         <f>ROUND(SUM(G25:G28)/$C$20*100, 2)</f>
-        <v>5.94</v>
+        <v>5.86</v>
       </c>
       <c r="H38" t="s">
         <v>95</v>
@@ -9980,32 +10055,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744138091803</v>
+        <v>1198.5543351620436</v>
       </c>
       <c r="AC38">
-        <v>-3.248806024203077E-8</v>
+        <v>-7.8553057392127812E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744140420109</v>
+        <v>1198.5543353948742</v>
       </c>
       <c r="AE38">
-        <v>9.7161318990401924E-9</v>
+        <v>3.6862957131233998E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744139255956</v>
+        <v>1198.5543352784589</v>
       </c>
       <c r="AG38">
-        <v>-1.1385736797819845E-8</v>
+        <v>-2.0844936443609186E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>3.6990050298747765E-16</v>
+        <v>1.637433488790089E-15</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1062532049537313E-16</v>
+        <v>-7.6840599852406267E-16</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -10018,7 +10093,7 @@
       </c>
       <c r="G39" s="3">
         <f>SUM(G34:G38)</f>
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>95</v>
@@ -10028,32 +10103,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744139255956</v>
+        <v>1198.5543352784589</v>
       </c>
       <c r="AC39">
-        <v>-1.1385736797819845E-8</v>
+        <v>-2.0844936443609186E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744140420109</v>
+        <v>1198.5543353948742</v>
       </c>
       <c r="AE39">
-        <v>9.7161318990401924E-9</v>
+        <v>3.6862957131233998E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744139838032</v>
+        <v>1198.5543353366666</v>
       </c>
       <c r="AG39">
-        <v>-8.3491613622754812E-10</v>
+        <v>8.0087829701369628E-9</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>9.5061353753395616E-18</v>
+        <v>-1.6694257200316459E-16</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>-8.1121553042238671E-18</v>
+        <v>2.9522742330151575E-16</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -10066,32 +10141,32 @@
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
+        <v>1198.5543352784589</v>
       </c>
       <c r="AC40">
-        <v>-8.3491613622754812E-10</v>
+        <v>-2.0844936443609186E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744140420109</v>
+        <v>1198.5543353366666</v>
       </c>
       <c r="AE40">
-        <v>9.7161318990401924E-9</v>
+        <v>8.0087829701369628E-9</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744140129071</v>
+        <v>1198.5543353075627</v>
       </c>
       <c r="AG40">
-        <v>4.4410626287572086E-9</v>
+        <v>-6.418190423573833E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>-3.7079148507465265E-18</v>
+        <v>1.3378677146237767E-16</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>4.3149950272903206E-17</v>
+        <v>-5.1401894163414253E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -10099,37 +10174,40 @@
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>1.2</v>
+      </c>
       <c r="AA41" s="8">
         <v>37</v>
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
+        <v>1198.5543353075627</v>
       </c>
       <c r="AC41">
-        <v>-8.3491613622754812E-10</v>
+        <v>-6.418190423573833E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744140129071</v>
+        <v>1198.5543353366666</v>
       </c>
       <c r="AE41">
-        <v>4.4410626287572086E-9</v>
+        <v>8.0087829701369628E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744139983552</v>
+        <v>1198.5543353221146</v>
       </c>
       <c r="AG41">
-        <v>1.8030732462648302E-9</v>
+        <v>7.9535311670042574E-10</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5054149481066944E-18</v>
+        <v>-5.1047277569662737E-18</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>8.0075612108986807E-18</v>
+        <v>6.3698104962757261E-18</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -10137,37 +10215,40 @@
       </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>0.9</v>
+      </c>
       <c r="AA42" s="8">
         <v>38</v>
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
+        <v>1198.5543353075627</v>
       </c>
       <c r="AC42">
-        <v>-8.3491613622754812E-10</v>
+        <v>-6.418190423573833E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744139983552</v>
+        <v>1198.5543353221146</v>
       </c>
       <c r="AE42">
-        <v>1.8030732462648302E-9</v>
+        <v>7.9535311670042574E-10</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744139910792</v>
+        <v>1198.5543353148387</v>
       </c>
       <c r="AG42">
-        <v>4.8430592869408429E-10</v>
+        <v>-2.8113618100178428E-9</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>-4.0435483473735928E-19</v>
+        <v>1.8043855446257716E-17</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>8.7323906303574595E-19</v>
+        <v>-2.2360253777702415E-18</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -10175,37 +10256,40 @@
       </c>
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>55</v>
+      </c>
       <c r="AA43" s="8">
         <v>39</v>
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744139838032</v>
+        <v>1198.5543353148387</v>
       </c>
       <c r="AC43">
-        <v>-8.3491613622754812E-10</v>
+        <v>-2.8113618100178428E-9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744139910792</v>
+        <v>1198.5543353221146</v>
       </c>
       <c r="AE43">
-        <v>4.8430592869408429E-10</v>
+        <v>7.9535311670042574E-10</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1759.2744139874412</v>
+        <v>1198.5543353184767</v>
       </c>
       <c r="AG43">
-        <v>-1.7530510376673192E-10</v>
+        <v>-1.0079475032398477E-9</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>1.4636505989788921E-19</v>
+        <v>2.8337051171113438E-18</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>-8.4901301084559915E-20</v>
+        <v>-8.0167418817222536E-19</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -10213,41 +10297,99 @@
       </c>
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>6.4</v>
+      </c>
       <c r="AA44" s="8">
         <v>40</v>
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1759.2744139874412</v>
+        <v>1198.5543353184767</v>
       </c>
       <c r="AC44">
-        <v>-1.7530510376673192E-10</v>
+        <v>-1.0079475032398477E-9</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1759.2744139910792</v>
+        <v>1198.5543353221146</v>
       </c>
       <c r="AE44">
-        <v>4.8430592869408429E-10</v>
+        <v>7.9535311670042574E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1759.2744139892602</v>
+        <v>1198.5543353202956</v>
       </c>
       <c r="AG44">
-        <v>1.546140993013978E-10</v>
+        <v>-1.0618350643198937E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>-2.7104640721831334E-20</v>
+        <v>1.07027400193376E-19</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>7.488052495136283E-20</v>
+        <v>-8.445338278286245E-20</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
         <v>3.637978807091713E-9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
+        <v>140</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="V45">
+        <v>10</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="T46" t="s">
+        <v>139</v>
+      </c>
+      <c r="U46">
+        <f>U47^2/U45</f>
+        <v>6.4</v>
+      </c>
+      <c r="V46">
+        <f>V47^2/V45</f>
+        <v>3.6</v>
+      </c>
+      <c r="W46">
+        <f>W47^2/W45</f>
+        <v>14.4</v>
+      </c>
+      <c r="X46">
+        <f>X47^2/X45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="T47" t="s">
+        <v>79</v>
+      </c>
+      <c r="U47">
+        <v>8</v>
+      </c>
+      <c r="V47">
+        <v>6</v>
+      </c>
+      <c r="W47">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="27:27" x14ac:dyDescent="0.2">
@@ -10299,4 +10441,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04399F6A-8712-2C4A-BDE2-261DEBFAF47B}">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>3269</v>
+      </c>
+      <c r="D3">
+        <v>2864</v>
+      </c>
+      <c r="E3">
+        <v>3858</v>
+      </c>
+      <c r="F3">
+        <v>4399</v>
+      </c>
+      <c r="G3">
+        <v>3863</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>6.6</v>
+      </c>
+      <c r="D5">
+        <v>25.9</v>
+      </c>
+      <c r="E5">
+        <v>4.7</v>
+      </c>
+      <c r="F5">
+        <v>5.2</v>
+      </c>
+      <c r="G5">
+        <v>15.8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <f>2.5 * (C3/1000) ^ (2/3)</f>
+        <v>5.5065969395516792</v>
+      </c>
+      <c r="D6">
+        <f>0.0327*D3^0.8903</f>
+        <v>39.110271131161461</v>
+      </c>
+      <c r="E6">
+        <f>1.6 * (E3/1000) ^ (2/3)</f>
+        <v>3.9357556858069622</v>
+      </c>
+      <c r="F6">
+        <f>1.6 * (F3/1000) ^ (2/3)</f>
+        <v>4.2955880345721758</v>
+      </c>
+      <c r="G6">
+        <f>1.6 * (G3/1000) ^ (2/3)</f>
+        <v>3.9391554663896855</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <f>C5/((C3/1000)^(2/3))</f>
+        <v>2.9964059801593814</v>
+      </c>
+      <c r="E7">
+        <f>E5/((E3/1000)^(2/3))</f>
+        <v>1.9106877053162785</v>
+      </c>
+      <c r="F7">
+        <f>F5/((F3/1000)^(2/3))</f>
+        <v>1.9368710251165047</v>
+      </c>
+      <c r="G7">
+        <f>G5/((G3/1000)^(2/3))</f>
+        <v>6.4176192627323809</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE184964-3C7B-1047-B4B4-56EAE7A28A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9526D-1CF9-A44C-899D-A8FFBA139D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="146">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -406,9 +406,6 @@
     <t>n_rotor</t>
   </si>
   <si>
-    <t>P_motor</t>
-  </si>
-  <si>
     <t>kW</t>
   </si>
   <si>
@@ -461,6 +458,24 @@
   </si>
   <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>P_hover</t>
+  </si>
+  <si>
+    <t>P_cruise</t>
+  </si>
+  <si>
+    <t>hp-to-kW</t>
+  </si>
+  <si>
+    <t>W_controllers</t>
+  </si>
+  <si>
+    <t>W_propulsion</t>
+  </si>
+  <si>
+    <t>Init values</t>
   </si>
 </sst>
 </file>
@@ -608,18 +623,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,7 +1137,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>multirotor!$F$31:$F$35</c:f>
+              <c:f>multirotor!$F$32:$F$36</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1145,24 +1160,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirotor!$G$31:$G$35</c:f>
+              <c:f>multirotor!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32.049999999999997</c:v>
+                  <c:v>44.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.909999999999997</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.14</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.03</c:v>
+                  <c:v>18.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.87</c:v>
+                  <c:v>5.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1647,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'lift+cruise'!$F$34:$F$38</c:f>
+              <c:f>'lift+cruise'!$F$35:$F$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1642,7 +1657,7 @@
                   <c:v>W_battery</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W_powerplant</c:v>
+                  <c:v>W_propulsion</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>W_structure</c:v>
@@ -1655,24 +1670,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'lift+cruise'!$G$34:$G$38</c:f>
+              <c:f>'lift+cruise'!$G$35:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33.369999999999997</c:v>
+                  <c:v>37.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.57</c:v>
+                  <c:v>10.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.01</c:v>
+                  <c:v>12.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.18</c:v>
+                  <c:v>33.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.86</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,7 +3305,7 @@
   <dimension ref="B1:AJ57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3321,11 +3336,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -3336,21 +3351,21 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -3424,7 +3439,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$7 * SQRT( ($C$15*$C$27)^3 / (2 * $C$26 * PI() * $C$16^2* $C$5) )</f>
-        <v>205115.18178619703</v>
+        <v>99790.888637145195</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -3434,7 +3449,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> 0.5 * $C$26 * $C$17^2</f>
-        <v>551.25</v>
+        <v>416.26522840146413</v>
       </c>
       <c r="L4" t="s">
         <v>48</v>
@@ -3447,14 +3462,14 @@
       </c>
       <c r="R4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q4^2)) - Q4</f>
-        <v>0.10194559945418491</v>
+        <v>0.11637926768186785</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S4^2)) - S4</f>
-        <v>-0.93695702544108994</v>
+        <v>-0.91378643136971804</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -3462,15 +3477,15 @@
       </c>
       <c r="V4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U4^2)) - U4</f>
-        <v>-0.42455735918318133</v>
+        <v>-0.39960399210411679</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.3281754484615118E-2</v>
+        <v>-4.6505619963828015E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.39779200038939799</v>
+        <v>0.36515270590591387</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -3481,18 +3496,18 @@
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
-        <f>G26</f>
-        <v>1.4108536561252549E-10</v>
+        <f>G27</f>
+        <v>-7.9376150097232312E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
-        <f>G26</f>
-        <v>1.4108536561252549E-10</v>
+        <f>G27</f>
+        <v>-7.9376150097232312E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
-        <f>G26</f>
-        <v>1.4108536561252549E-10</v>
+        <f>G27</f>
+        <v>-7.9376150097232312E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -3510,7 +3525,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$15 * $C$27 / $C$5</f>
-        <v>1749.3102309301814</v>
+        <v>1255.6508664176649</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -3520,7 +3535,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
-        <v>3.506549074876264</v>
+        <v>2.6102286930071386</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -3534,7 +3549,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q5^2)) - Q5</f>
-        <v>0.10194559945418491</v>
+        <v>0.11637926768186785</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -3542,7 +3557,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S5^2)) - S5</f>
-        <v>-0.42455735918318133</v>
+        <v>-0.39960399210411679</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -3550,15 +3565,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U5^2)) - U5</f>
-        <v>-0.16070685808562851</v>
+        <v>-0.13938186820967358</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>-1.6383356983938023E-2</v>
+        <v>-1.6221159750372426E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>6.8229279271460733E-2</v>
+        <v>5.5697550963515446E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -3571,31 +3586,31 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15"/>
-        <v>-264.34947063042887</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <v>-206.29091780149838</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>59.019351225829723</v>
+        <v>466.12282266038596</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>48.370255085541658</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15"/>
+        <v>242.87729795899588</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-12786.651326121748</v>
+        <v>-50103.380709109253</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>2854.7810737765594</v>
+        <v>113210.65168477476</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -3614,7 +3629,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
-        <v>0.11073107509144248</v>
+        <v>5.2753117348345813E-2</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -3625,7 +3640,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.10194559945418491</v>
+        <v>0.11637926768186785</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -3633,7 +3648,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.16070685808562851</v>
+        <v>-0.13938186820967358</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="2"/>
@@ -3641,15 +3656,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>-2.7253517543744693E-2</v>
+        <v>-1.0250063921568742E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-2.778376183232198E-3</v>
+        <v>-1.1928949328845048E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>4.379827176236765E-3</v>
+        <v>1.4286730586568243E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -3663,29 +3678,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-264.34947063042887</v>
+        <v>-206.29091780149838</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0, AF5, AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>48.370255085541658</v>
+        <v>242.87729795899588</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>-67.094962559569922</v>
+        <v>47.971367681479023</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>17736.517834590755</v>
+        <v>-9896.0574672054445</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>-3245.4004539612642</v>
+        <v>11651.156161875126</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -3699,17 +3714,17 @@
       <c r="C7" s="1">
         <v>0.75</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="J7" t="s">
         <v>69</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K4 * K5</f>
-        <v>1932.9851775255406</v>
+        <v>1086.5474430746717</v>
       </c>
       <c r="L7" t="s">
         <v>37</v>
@@ -3723,7 +3738,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.10194559945418491</v>
+        <v>0.11637926768186785</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -3731,7 +3746,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-2.7253517543744693E-2</v>
+        <v>-1.0250063921568742E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="2"/>
@@ -3739,15 +3754,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>3.8298171656185737E-2</v>
+        <v>5.3457869387301404E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>3.9043300674891286E-3</v>
+        <v>6.2213876911270793E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0437598931252038E-3</v>
+        <v>-5.4794657833071221E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -3758,32 +3773,32 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0, AF6, AB6)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC7" s="8">
-        <v>-67.094962559569922</v>
+        <v>-206.29091780149838</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0, AF6, AD6)</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="AE7" s="8">
-        <v>48.370255085541658</v>
+        <v>47.971367681479023</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="AG7" s="8">
-        <v>0.40757394959246085</v>
+        <v>-71.703698875837517</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>-27.346158888162201</v>
+        <v>14791.821850858789</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>19.714455908009029</v>
+        <v>-3439.7245028948555</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -3796,7 +3811,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
-        <v>21260.758915039496</v>
+        <v>9033.7716991443322</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -3806,7 +3821,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K7</f>
-        <v>1932.9851775255406</v>
+        <v>1086.5474430746717</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -3820,7 +3835,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>3.8298171656185737E-2</v>
+        <v>5.3457869387301404E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -3828,7 +3843,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-2.7253517543744693E-2</v>
+        <v>-1.0250063921568742E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="2"/>
@@ -3836,15 +3851,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="3"/>
-        <v>5.7107287804548518E-3</v>
+        <v>2.1694598427410533E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>2.1871047111578015E-4</v>
+        <v>1.1597470091424668E-3</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5563744700569404E-4</v>
+        <v>-2.2237102063372267E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -3855,32 +3870,32 @@
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC8" s="8">
-        <v>-67.094962559569922</v>
+        <v>-71.703698875837517</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE8" s="8">
-        <v>0.40757394959246085</v>
+        <v>47.971367681479023</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="AG8" s="8">
-        <v>-30.85714489922043</v>
+        <v>-9.9896599430754236</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>2070.3589817084189</v>
+        <v>716.29556843029638</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>-12.576568419722127</v>
+        <v>-479.21765014221398</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -3888,17 +3903,17 @@
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G9">
         <f>$C$5 * G8</f>
-        <v>148825.31240527646</v>
+        <v>63236.401894010327</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -3912,7 +3927,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>5.7107287804548518E-3</v>
+        <v>2.1694598427410533E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -3920,7 +3935,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-2.7253517543744693E-2</v>
+        <v>-1.0250063921568742E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="2"/>
@@ -3928,15 +3943,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="3"/>
-        <v>-1.073160447124602E-2</v>
+        <v>5.7436955683024538E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-6.1285282514402612E-5</v>
+        <v>1.2460716884361926E-4</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>2.9247397072963238E-4</v>
+        <v>-5.8873246721131254E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -3947,32 +3962,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="AC9" s="8">
-        <v>-30.85714489922043</v>
+        <v>-9.9896599430754236</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE9" s="8">
-        <v>0.40757394959246085</v>
+        <v>47.971367681479023</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>1187.5</v>
+        <v>937.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>-14.608656807266243</v>
+        <v>19.459299576775265</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>450.78143988479735</v>
+        <v>-194.39178550241641</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>-5.9541079531782914</v>
+        <v>933.48921482153537</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -3994,35 +4009,35 @@
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>5.7107287804548518E-3</v>
+        <v>5.7436955683024538E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.073160447124602E-2</v>
+        <v>-1.0250063921568742E-2</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="2"/>
-        <v>0.1015625</v>
+        <v>0.1171875</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="3"/>
-        <v>-2.499560981782209E-3</v>
+        <v>-2.2479971751305783E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-1.4274314837165647E-5</v>
+        <v>-1.2911811412353937E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>2.6824299808246045E-5</v>
+        <v>2.304211474059439E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -4033,32 +4048,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>875</v>
       </c>
       <c r="AC10" s="8">
-        <v>-14.608656807266243</v>
+        <v>-9.9896599430754236</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>937.5</v>
       </c>
       <c r="AE10" s="8">
-        <v>0.40757394959246085</v>
+        <v>19.459299576775265</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>1218.75</v>
+        <v>906.25</v>
       </c>
       <c r="AG10" s="8">
-        <v>-6.9471938893836978</v>
+        <v>4.8520806006823705</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>101.4891713035436</v>
+        <v>-48.470635217210017</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>-2.8314952520807233</v>
+        <v>94.418089979337921</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -4072,50 +4087,50 @@
       <c r="C11" s="1">
         <v>0.85</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="J11" s="20" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="J11" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>5.7107287804548518E-3</v>
+        <v>5.7436955683024538E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.1015625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-2.499560981782209E-3</v>
+        <v>-2.2479971751305783E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="2"/>
-        <v>9.765625E-2</v>
+        <v>0.11328125</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="3"/>
-        <v>1.6084188940824196E-3</v>
+        <v>1.7491677641976872E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>9.1852440694638372E-6</v>
+        <v>1.0046687135439768E-5</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>-4.0203411100097075E-6</v>
+        <v>-3.9321241927458698E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -4126,32 +4141,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>1218.75</v>
+        <v>875</v>
       </c>
       <c r="AC11" s="8">
-        <v>-6.9471938893836978</v>
+        <v>-9.9896599430754236</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>906.25</v>
       </c>
       <c r="AE11" s="8">
-        <v>0.40757394959246085</v>
+        <v>4.8520806006823705</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>1234.375</v>
+        <v>890.625</v>
       </c>
       <c r="AG11" s="8">
-        <v>-3.2315603835213551</v>
+        <v>-2.5394602632337637</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>22.450276549573996</v>
+        <v>25.368344468658101</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3170998288583262</v>
+        <v>-12.321665879440291</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -4170,7 +4185,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$23 + G9*G13)/3600</f>
-        <v>82574.953047448536</v>
+        <v>33604.826608879259</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -4180,7 +4195,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> SQRT( ($C$15*$C$27)^2 + K8^2)</f>
-        <v>12396.800378095417</v>
+        <v>8856.459855071229</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -4190,35 +4205,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>9.765625E-2</v>
+        <v>0.11328125</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>1.6084188940824196E-3</v>
+        <v>1.7491677641976872E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.1015625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-2.499560981782209E-3</v>
+        <v>-2.2479971751305783E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="2"/>
-        <v>9.9609375E-2</v>
+        <v>0.115234375</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>-4.4487672031645609E-4</v>
+        <v>-2.4908775814838635E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-7.155481224944082E-7</v>
+        <v>-4.3569627700942717E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>1.1119964918062502E-6</v>
+        <v>5.5994857667718119E-7</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -4229,32 +4244,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>1234.375</v>
+        <v>890.625</v>
       </c>
       <c r="AC12" s="8">
-        <v>-3.2315603835213551</v>
+        <v>-2.5394602632337637</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>906.25</v>
       </c>
       <c r="AE12" s="8">
-        <v>0.40757394959246085</v>
+        <v>4.8520806006823705</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>1242.1875</v>
+        <v>898.4375</v>
       </c>
       <c r="AG12" s="8">
-        <v>-1.402440095083648</v>
+        <v>1.1636408549138082</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>4.5320698515342395</v>
+        <v>-2.9550197117289811</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>-0.57159804862006869</v>
+        <v>5.6460792182887376</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -4267,7 +4282,7 @@
       </c>
       <c r="G13">
         <f xml:space="preserve"> $C$22 / $C$17</f>
-        <v>1666.6666666666667</v>
+        <v>1534.3624813074764</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -4277,42 +4292,42 @@
       </c>
       <c r="K13">
         <f>$C$15*$C$27/K12</f>
-        <v>0.98776871797886912</v>
+        <v>0.99244576374280458</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>9.765625E-2</v>
+        <v>0.11328125</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>1.6084188940824196E-3</v>
+        <v>1.7491677641976872E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>9.9609375E-2</v>
+        <v>0.115234375</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-4.4487672031645609E-4</v>
+        <v>-2.4908775814838635E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="2"/>
-        <v>9.86328125E-2</v>
+        <v>0.1142578125</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="3"/>
-        <v>5.8194647467829652E-4</v>
+        <v>7.5012207878442927E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>9.3601370521722845E-7</v>
+        <v>1.3120893594226815E-6</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>-2.588944390546041E-7</v>
+        <v>-1.8684622694202073E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -4323,32 +4338,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>1242.1875</v>
+        <v>890.625</v>
       </c>
       <c r="AC13" s="8">
-        <v>-1.402440095083648</v>
+        <v>-2.5394602632337637</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>898.4375</v>
       </c>
       <c r="AE13" s="8">
-        <v>0.40757394959246085</v>
+        <v>1.1636408549138082</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>1246.09375</v>
+        <v>894.53125</v>
       </c>
       <c r="AG13" s="8">
-        <v>-0.4950497100415987</v>
+        <v>-0.68607750060164108</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>0.694277562421872</v>
+        <v>1.7422665502766062</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>-0.20176936556625691</v>
+        <v>-0.79834780933722238</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -4356,45 +4371,45 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>9.86328125E-2</v>
+        <v>0.1142578125</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>5.8194647467829652E-4</v>
+        <v>7.5012207878442927E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>9.9609375E-2</v>
+        <v>0.115234375</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-4.4487672031645609E-4</v>
+        <v>-2.4908775814838635E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="2"/>
-        <v>9.912109375E-2</v>
+        <v>0.11474609375</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="3"/>
-        <v>6.8578498475302396E-5</v>
+        <v>2.5053763702115317E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>3.9909015426433164E-8</v>
+        <v>1.8793381309604621E-7</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-3.0508977485919616E-8</v>
+        <v>-6.2405858337393205E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -4405,32 +4420,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>1246.09375</v>
+        <v>894.53125</v>
       </c>
       <c r="AC14" s="8">
-        <v>-0.4950497100415987</v>
+        <v>-0.68607750060164108</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>898.4375</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.40757394959246085</v>
+        <v>1.1636408549138082</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>1248.046875</v>
+        <v>896.484375</v>
       </c>
       <c r="AG14" s="8">
-        <v>-4.3142598953409106E-2</v>
+        <v>0.23923965836166872</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>2.1357731102326156E-2</v>
+        <v>-0.16413694685356417</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>-1.7583799451124517E-2</v>
+        <v>0.2783890405852596</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -4443,7 +4458,7 @@
       </c>
       <c r="C15" s="3">
         <f>AF44</f>
-        <v>1248.2336000521173</v>
+        <v>895.97921151107585</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -4453,35 +4468,35 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>9.912109375E-2</v>
+        <v>0.11474609375</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>6.8578498475302396E-5</v>
+        <v>2.5053763702115317E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>9.9609375E-2</v>
+        <v>0.115234375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-4.4487672031645609E-4</v>
+        <v>-2.4908775814838635E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="2"/>
-        <v>9.9365234375E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>-1.8813823382304862E-4</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.2902237581380025E-8</v>
+        <v>1.8290583398221673E-10</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>8.3698320429328412E-8</v>
+        <v>-1.8184734509587738E-10</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -4492,32 +4507,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>1248.046875</v>
+        <v>894.53125</v>
       </c>
       <c r="AC15" s="8">
-        <v>-4.3142598953409106E-2</v>
+        <v>-0.68607750060164108</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>896.484375</v>
       </c>
       <c r="AE15" s="8">
-        <v>0.40757394959246085</v>
+        <v>0.23923965836166872</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>1249.0234375</v>
+        <v>895.5078125</v>
       </c>
       <c r="AG15" s="8">
-        <v>0.18236448695699892</v>
+        <v>-0.22330443845953596</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>-7.8676779241300104E-3</v>
+        <v>0.15320415101157139</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>7.4327014214466858E-2</v>
+        <v>-5.342327756770366E-2</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -4529,55 +4544,55 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>1.2</v>
+        <v>1.49999999995335</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="20" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="J16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>9.912109375E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>6.8578498475302396E-5</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>9.9365234375E-2</v>
+        <v>0.115234375</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8813823382304862E-4</v>
+        <v>-2.4908775814838635E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="2"/>
-        <v>9.92431640625E-2</v>
+        <v>0.1151123046875</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="3"/>
-        <v>-5.9777144870404308E-5</v>
+        <v>-1.2417757460450596E-4</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-4.0994268383529525E-9</v>
+        <v>-9.0656250753288743E-11</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>1.1246366458902376E-8</v>
+        <v>3.0931113670540385E-8</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -4588,32 +4603,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1248.046875</v>
+        <v>895.5078125</v>
       </c>
       <c r="AC16" s="8">
-        <v>-4.3142598953409106E-2</v>
+        <v>-0.22330443845953596</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1249.0234375</v>
+        <v>896.484375</v>
       </c>
       <c r="AE16" s="8">
-        <v>0.18236448695699892</v>
+        <v>0.23923965836166872</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1248.53515625</v>
+        <v>895.99609375</v>
       </c>
       <c r="AG16" s="8">
-        <v>6.9650118018557805E-2</v>
+        <v>7.9965765220890717E-3</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>-3.0048871087322527E-3</v>
+        <v>-1.7856710298638091E-3</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>1.270170803894872E-2</v>
+        <v>1.9130982352075305E-3</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -4625,7 +4640,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>26.069459131922201</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -4635,7 +4650,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$10 * $C$11 * $C$12)</f>
-        <v>485.73501792616787</v>
+        <v>197.67545064046624</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -4645,7 +4660,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> ACOS(K13)</f>
-        <v>0.15656498786335904</v>
+        <v>0.12299403680234966</v>
       </c>
       <c r="L17" t="s">
         <v>52</v>
@@ -4655,35 +4670,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>9.912109375E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>6.8578498475302396E-5</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>9.92431640625E-2</v>
+        <v>0.1151123046875</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9777144870404308E-5</v>
+        <v>-1.2417757460450596E-4</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
-        <v>9.918212890625E-2</v>
+        <v>0.11505126953125</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="3"/>
-        <v>4.401357944383566E-6</v>
+        <v>-6.1723441106609211E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>3.0183851907816846E-10</v>
+        <v>-4.5061403173142421E-11</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>-2.6310061146792131E-10</v>
+        <v>7.6646672128627951E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -4694,32 +4709,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1248.046875</v>
+        <v>895.5078125</v>
       </c>
       <c r="AC17" s="8">
-        <v>-4.3142598953409106E-2</v>
+        <v>-0.22330443845953596</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1248.53515625</v>
+        <v>895.99609375</v>
       </c>
       <c r="AE17" s="8">
-        <v>6.9650118018557805E-2</v>
+        <v>7.9965765220890717E-3</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1248.291015625</v>
+        <v>895.751953125</v>
       </c>
       <c r="AG17" s="8">
-        <v>1.3263060459507869E-2</v>
+        <v>-0.1076470338227864</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>-5.7220289829936594E-4</v>
+        <v>2.4038060439631991E-2</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>9.2377372629199065E-4</v>
+        <v>-8.6080774333982188E-4</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -4731,14 +4746,14 @@
         <v>113</v>
       </c>
       <c r="C18" s="1">
-        <v>0.3</v>
+        <v>0.499999998351708</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592</f>
-        <v>69.683003690574409</v>
+        <v>47.229928093029223</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -4748,7 +4763,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$5</f>
-        <v>1770.9714825850594</v>
+        <v>1265.2085507244612</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -4758,35 +4773,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>9.918212890625E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>4.401357944383566E-6</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>9.92431640625E-2</v>
+        <v>0.11505126953125</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9777144870404308E-5</v>
+        <v>-6.1723441106609211E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="2"/>
-        <v>9.9212646484375E-2</v>
+        <v>0.115020751953125</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="3"/>
-        <v>-2.7687723232652783E-5</v>
+        <v>-3.0496613998620692E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-1.2186358061192977E-10</v>
+        <v>-2.226415433374789E-11</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>1.6550930428099446E-9</v>
+        <v>1.8823559580948582E-9</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -4797,32 +4812,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1248.046875</v>
+        <v>895.751953125</v>
       </c>
       <c r="AC18" s="8">
-        <v>-4.3142598953409106E-2</v>
+        <v>-0.1076470338227864</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1248.291015625</v>
+        <v>895.99609375</v>
       </c>
       <c r="AE18" s="8">
-        <v>1.3263060459507869E-2</v>
+        <v>7.9965765220890717E-3</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1248.1689453125</v>
+        <v>895.8740234375</v>
       </c>
       <c r="AG18" s="8">
-        <v>-1.4935474596654785E-2</v>
+        <v>-4.9823504366941052E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>6.4435519070230702E-4</v>
+        <v>5.363352459757849E-3</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>-1.9809010256687632E-4</v>
+        <v>-3.9841746526888313E-4</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -4835,7 +4850,7 @@
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836</f>
-        <v>44.397654175805044</v>
+        <v>24.5966870637833</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -4845,7 +4860,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
-        <v>82.314059831572436</v>
+        <v>34.496699152850596</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -4855,35 +4870,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>9.918212890625E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>4.401357944383566E-6</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>9.9212646484375E-2</v>
+        <v>0.115020751953125</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.7687723232652783E-5</v>
+        <v>-3.0496613998620692E-5</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="2"/>
-        <v>9.91973876953125E-2</v>
+        <v>0.1150054931640625</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="3"/>
-        <v>-1.1643140079647951E-5</v>
+        <v>-1.4883260363918183E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-5.1245627087129215E-11</v>
+        <v>-1.0865573658328566E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>3.2237204008429935E-10</v>
+        <v>4.5388904635938377E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -4894,32 +4909,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1248.1689453125</v>
+        <v>895.8740234375</v>
       </c>
       <c r="AC19" s="8">
-        <v>-1.4935474596654785E-2</v>
+        <v>-4.9823504366941052E-2</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1248.291015625</v>
+        <v>895.99609375</v>
       </c>
       <c r="AE19" s="8">
-        <v>1.3263060459507869E-2</v>
+        <v>7.9965765220890717E-3</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1248.22998046875</v>
+        <v>895.93505859375</v>
       </c>
       <c r="AG19" s="8">
-        <v>-8.3562570671347203E-4</v>
+        <v>-2.0913032851979096E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>1.2480466514930763E-5</v>
+        <v>1.0419605836265622E-3</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1082954269659771E-5</v>
+        <v>-1.672326675098135E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -4927,17 +4942,17 @@
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="F20" s="14" t="s">
-        <v>97</v>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="F20" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="G20">
-        <f xml:space="preserve"> 14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>147.65177305694664</v>
+        <f xml:space="preserve"> 2.20462 * (49.9/398 * (G4/$C$5/1000 - 2) + 0.1) * 0.453592 * $C$5</f>
+        <v>11.45617135991813</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -4947,42 +4962,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> K18 / ($C$26 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
-        <v>3.2753112583850968E-2</v>
+        <v>5.4570261935192849E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>9.918212890625E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>4.401357944383566E-6</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>9.91973876953125E-2</v>
+        <v>0.1150054931640625</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1643140079647951E-5</v>
+        <v>-1.4883260363918183E-5</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="2"/>
-        <v>9.918975830078125E-2</v>
+        <v>0.11499786376953125</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="3"/>
-        <v>-3.620880425658779E-6</v>
+        <v>-7.0765985275139665E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5936790827136213E-11</v>
+        <v>-5.1662942575090436E-12</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>4.2158418007600463E-11</v>
+        <v>1.0532285837591039E-10</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -4993,32 +5008,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1248.22998046875</v>
+        <v>895.93505859375</v>
       </c>
       <c r="AC20" s="8">
-        <v>-8.3562570671347203E-4</v>
+        <v>-2.0913032851979096E-2</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1248.291015625</v>
+        <v>895.99609375</v>
       </c>
       <c r="AE20" s="8">
-        <v>1.3263060459507869E-2</v>
+        <v>7.9965765220890717E-3</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1248.260498046875</v>
+        <v>895.965576171875</v>
       </c>
       <c r="AG20" s="8">
-        <v>6.21386271677693E-3</v>
+        <v>-6.4581203970419665E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-5.1924634241272177E-6</v>
+        <v>1.3505888402537492E-4</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>8.2414836899694254E-5</v>
+        <v>-5.1642853943810342E-5</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -5036,11 +5051,11 @@
         <v>14</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21">
-        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>27.522433467817535</v>
+        <f xml:space="preserve"> 14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
+        <v>140.76768348510012</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -5056,35 +5071,35 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>9.918212890625E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>4.401357944383566E-6</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>9.918975830078125E-2</v>
+        <v>0.11499786376953125</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-3.620880425658779E-6</v>
+        <v>-7.0765985275139665E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="2"/>
-        <v>9.9185943603515625E-2</v>
+        <v>0.11499404907226562</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="3"/>
-        <v>3.9024141997023865E-7</v>
+        <v>-3.1732713546978042E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>1.7175921740135334E-12</v>
+        <v>-2.3166572914307316E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>-1.4130175188515241E-12</v>
+        <v>2.2455967396056731E-11</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -5095,32 +5110,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1248.22998046875</v>
+        <v>895.965576171875</v>
       </c>
       <c r="AC21" s="8">
-        <v>-8.3562570671347203E-4</v>
+        <v>-6.4581203970419665E-3</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1248.260498046875</v>
+        <v>895.99609375</v>
       </c>
       <c r="AE21" s="8">
-        <v>6.21386271677693E-3</v>
+        <v>7.9965765220890717E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2452392578125</v>
+        <v>895.9808349609375</v>
       </c>
       <c r="AG21" s="8">
-        <v>2.6891548400271859E-3</v>
+        <v>7.6994363956828238E-4</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>-2.2471269136596711E-6</v>
+        <v>-4.9723887232686525E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>1.6710039000085158E-5</v>
+        <v>6.1569132315035371E-6</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -5132,17 +5147,17 @@
         <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>101</v>
+      <c r="F22" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="G22">
-        <f xml:space="preserve"> 0.0268 * $C$15</f>
-        <v>33.452660481396741</v>
+        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592</f>
+        <v>21.937758065083997</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -5152,7 +5167,7 @@
       </c>
       <c r="K22">
         <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$26 * K19^3 *$C$16^ 5)</f>
-        <v>1477.3323557059282</v>
+        <v>505.90107959463302</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -5162,35 +5177,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>9.9185943603515625E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>3.9024141997023865E-7</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>9.918975830078125E-2</v>
+        <v>0.11499404907226562</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-3.620880425658779E-6</v>
+        <v>-3.1732713546978042E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="2"/>
-        <v>9.9187850952148438E-2</v>
+        <v>0.11499214172363281</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="3"/>
-        <v>-1.6153188377027172E-6</v>
+        <v>-1.221608704651822E-6</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>-6.3036431692978383E-13</v>
+        <v>-8.9183949198583588E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>5.8488763606356592E-12</v>
+        <v>3.8764959091211174E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -5201,32 +5216,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1248.22998046875</v>
+        <v>895.965576171875</v>
       </c>
       <c r="AC22" s="8">
-        <v>-8.3562570671347203E-4</v>
+        <v>-6.4581203970419665E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2452392578125</v>
+        <v>895.9808349609375</v>
       </c>
       <c r="AE22" s="8">
-        <v>2.6891548400271859E-3</v>
+        <v>7.6994363956828238E-4</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2376098632812</v>
+        <v>895.97320556640625</v>
       </c>
       <c r="AG22" s="8">
-        <v>9.2480413229623082E-4</v>
+        <v>-2.8440816462307339E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>-7.7279010662157717E-7</v>
+        <v>1.8367421690375397E-5</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>2.4869415084415512E-6</v>
+        <v>-2.1897825739282435E-6</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -5244,11 +5259,11 @@
         <v>26</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23">
-        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
-        <v>7.8201497823223827</v>
+        <f xml:space="preserve"> 0.0268 * $C$15</f>
+        <v>24.012242868496834</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -5258,42 +5273,42 @@
       </c>
       <c r="K23" s="5">
         <f>U34</f>
-        <v>9.9186314735561609E-2</v>
+        <v>0.11499094823375344</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>9.9185943603515625E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>3.9024141997023865E-7</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>9.9187850952148438E-2</v>
+        <v>0.11499214172363281</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6153188377027172E-6</v>
+        <v>-1.221608704651822E-6</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186897277832031E-2</v>
+        <v>0.11499118804931641</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="3"/>
-        <v>-6.1253854258258578E-7</v>
+        <v>-2.4577761373323348E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>-2.3903791064392875E-13</v>
+        <v>-1.7943076317208446E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>9.8944504665261873E-13</v>
+        <v>3.002440723450712E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -5304,32 +5319,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1248.22998046875</v>
+        <v>895.97320556640625</v>
       </c>
       <c r="AC23" s="8">
-        <v>-8.3562570671347203E-4</v>
+        <v>-2.8440816462307339E-3</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2376098632812</v>
+        <v>895.9808349609375</v>
       </c>
       <c r="AE23" s="8">
-        <v>9.2480413229623082E-4</v>
+        <v>7.6994363956828238E-4</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2337951660156</v>
+        <v>895.97702026367188</v>
       </c>
       <c r="AG23" s="8">
-        <v>4.6560998725908576E-5</v>
+        <v>-1.0370673202828584E-3</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>-3.8907567465622426E-8</v>
+        <v>2.9495041315221676E-6</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>4.3059804025559788E-8</v>
+        <v>-7.9848338705590962E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -5338,11 +5353,11 @@
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F24" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24">
-        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
-        <v>9.985868800416938</v>
+        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
+        <v>6.848822284711332</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -5352,7 +5367,7 @@
       </c>
       <c r="K24">
         <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
-        <v>5.1195298248893515</v>
+        <v>2.7519022147345376</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -5362,35 +5377,35 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>9.9185943603515625E-2</v>
+        <v>0.114990234375</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>3.9024141997023865E-7</v>
+        <v>7.3005332115738675E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186897277832031E-2</v>
+        <v>0.11499118804931641</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-6.1253854258258578E-7</v>
+        <v>-2.4577761373323348E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186420440673828E-2</v>
+        <v>0.1149907112121582</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="3"/>
-        <v>-1.1114851973526019E-7</v>
+        <v>2.4213787322424629E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-4.3374756169078026E-14</v>
+        <v>1.7677355852534728E-13</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>6.8082752288848042E-14</v>
+        <v>-5.9512068675495469E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -5401,32 +5416,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1248.22998046875</v>
+        <v>895.97702026367188</v>
       </c>
       <c r="AC24" s="8">
-        <v>-8.3562570671347203E-4</v>
+        <v>-1.0370673202828584E-3</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2337951660156</v>
+        <v>895.9808349609375</v>
       </c>
       <c r="AE24" s="8">
-        <v>4.6560998725908576E-5</v>
+        <v>7.6994363956828238E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2318878173828</v>
+        <v>895.97892761230469</v>
       </c>
       <c r="AG24" s="8">
-        <v>-3.9453178715120885E-4</v>
+        <v>-1.3356141965914503E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>3.29680903459158E-7</v>
+        <v>1.3851218357908383E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-1.8369794038877868E-8</v>
+        <v>-1.0283476555826887E-7</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -5434,17 +5449,17 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="F25" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25">
-        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
-        <v>21.985038670528521</v>
+        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
+        <v>7.1678336920886068</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -5454,42 +5469,42 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$26*PI()*$C$16^2) / K18^3 )</f>
-        <v>1.2673399974039654</v>
+        <v>1.2865521001167242</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>9.9185943603515625E-2</v>
+        <v>0.1149907112121582</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>3.9024141997023865E-7</v>
+        <v>2.4213787322424629E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186420440673828E-2</v>
+        <v>0.11499118804931641</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1114851973526019E-7</v>
+        <v>-2.4577761373323348E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186182022094727E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="3"/>
-        <v>1.3954646049807451E-7</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>5.4456808896589413E-14</v>
+        <v>-4.4065833012816199E-16</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5510382518655941E-14</v>
+        <v>4.4728216783447875E-16</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -5500,32 +5515,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2318878173828</v>
+        <v>895.97892761230469</v>
       </c>
       <c r="AC25" s="8">
-        <v>-3.9453178715120885E-4</v>
+        <v>-1.3356141965914503E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2337951660156</v>
+        <v>895.9808349609375</v>
       </c>
       <c r="AE25" s="8">
-        <v>4.6560998725908576E-5</v>
+        <v>7.6994363956828238E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2328414916992</v>
+        <v>895.97988128662109</v>
       </c>
       <c r="AG25" s="8">
-        <v>-1.739852524451635E-4</v>
+        <v>3.1750258040119661E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>6.8642712585144576E-8</v>
+        <v>-4.2406095383825658E-8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>-8.1009271174261387E-9</v>
+        <v>2.4445909232641854E-7</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -5542,14 +5557,14 @@
       <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="3">
-        <f>$C$15 - $C$21 - SUM(G17:G25)</f>
-        <v>1.4108536561252549E-10</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="F26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
+        <v>14.286633959191837</v>
+      </c>
+      <c r="H26" t="s">
         <v>14</v>
       </c>
       <c r="J26" t="s">
@@ -5563,35 +5578,35 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186182022094727E-2</v>
+        <v>0.1149907112121582</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.3954646049807451E-7</v>
+        <v>2.4213787322424629E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186420440673828E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1114851973526019E-7</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186301231384277E-2</v>
+        <v>0.11499083042144775</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="3"/>
-        <v>1.4198972969614587E-8</v>
+        <v>1.2015900514861233E-7</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>1.9814164206175495E-15</v>
+        <v>2.9095045955426247E-14</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5781948273336328E-15</v>
+        <v>-2.1867321230500803E-16</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -5602,32 +5617,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2328414916992</v>
+        <v>895.97892761230469</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.739852524451635E-4</v>
+        <v>-1.3356141965914503E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2337951660156</v>
+        <v>895.97988128662109</v>
       </c>
       <c r="AE26" s="8">
-        <v>4.6560998725908576E-5</v>
+        <v>3.1750258040119661E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2333183288574</v>
+        <v>895.97940444946289</v>
       </c>
       <c r="AG26" s="8">
-        <v>-6.371209144617751E-5</v>
+        <v>9.1970606831637269E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>1.1084964314072536E-8</v>
+        <v>-1.2283724815346536E-8</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>-2.9664986086504419E-9</v>
+        <v>2.9200904990108754E-8</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -5644,54 +5659,57 @@
       <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="10" t="str">
-        <f>IF(ABS(G26)&lt;0.00001, "TRUE", "FALSE")</f>
-        <v>TRUE</v>
+      <c r="F27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="3">
+        <f>$C$15 - $C$21 - SUM(G17:G26)</f>
+        <v>-7.9376150097232312E-10</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J27" t="s">
         <v>62</v>
       </c>
       <c r="K27">
         <f xml:space="preserve"> 1/$C$30 * LN( EXP($C$30 * K25) + EXP($C$30 * K26) )</f>
-        <v>1.2683121334640868</v>
+        <v>1.287101865907115</v>
       </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186301231384277E-2</v>
+        <v>0.11499083042144775</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.4198972969614587E-8</v>
+        <v>1.2015900514861233E-7</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186420440673828E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1114851973526019E-7</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186360836029053E-2</v>
+        <v>0.11499089002609253</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="3"/>
-        <v>-4.8474772723627879E-8</v>
+        <v>5.916957018792246E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-6.8829198761100271E-16</v>
+        <v>7.1097566888517534E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>5.3878992327344057E-15</v>
+        <v>-1.0768065171392663E-16</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -5702,32 +5720,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2333183288574</v>
+        <v>895.97892761230469</v>
       </c>
       <c r="AC27" s="8">
-        <v>-6.371209144617751E-5</v>
+        <v>-1.3356141965914503E-4</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2337951660156</v>
+        <v>895.97940444946289</v>
       </c>
       <c r="AE27" s="8">
-        <v>4.6560998725908576E-5</v>
+        <v>9.1970606831637269E-5</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2335567474365</v>
+        <v>895.97916603088379</v>
       </c>
       <c r="AG27" s="8">
-        <v>-8.5755377767782193E-6</v>
+        <v>-2.0795399393591651E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>5.4636544703424363E-10</v>
+        <v>2.7774630653870245E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>-3.9928560349855153E-10</v>
+        <v>-1.9125655015348857E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -5735,40 +5753,47 @@
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f>IF(ABS(G27)&lt;0.00001, "TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186301231384277E-2</v>
+        <v>0.11499089002609253</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>1.4198972969614587E-8</v>
+        <v>5.916957018792246E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186360836029053E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-4.8474772723627879E-8</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186331033706665E-2</v>
+        <v>0.11499091982841492</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>-1.7137899710473192E-8</v>
+        <v>2.8674852492471814E-8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>-2.433405747449745E-16</v>
+        <v>1.6966786971816343E-15</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>8.3075579342551605E-16</v>
+        <v>-5.2184371026922505E-17</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -5779,32 +5804,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335567474365</v>
+        <v>895.97916603088379</v>
       </c>
       <c r="AC28" s="8">
-        <v>-8.5755377767782193E-6</v>
+        <v>-2.0795399393591651E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2337951660156</v>
+        <v>895.97940444946289</v>
       </c>
       <c r="AE28" s="8">
-        <v>4.6560998725908576E-5</v>
+        <v>9.1970606831637269E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336759567261</v>
+        <v>895.97928524017334</v>
       </c>
       <c r="AG28" s="8">
-        <v>1.702322128949163E-5</v>
+        <v>3.4898971080110641E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>-1.4598327725049071E-10</v>
+        <v>-7.2573804203630544E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>7.9261818477087953E-10</v>
+        <v>3.2096795480375354E-9</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -5812,45 +5837,45 @@
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="P29" s="8">
         <v>25</v>
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186301231384277E-2</v>
+        <v>0.11499091982841492</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>1.4198972969614587E-8</v>
+        <v>2.8674852492471814E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186331033706665E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7137899710473192E-8</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186316132545471E-2</v>
+        <v>0.11499093472957611</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="3"/>
-        <v>-1.4694633287959391E-9</v>
+        <v>1.342749358923534E-8</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>-2.0864870085413412E-17</v>
+        <v>3.8503139801493429E-16</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>2.5183515157122898E-17</v>
+        <v>-2.4436230582397619E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -5861,32 +5886,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335567474365</v>
+        <v>895.97916603088379</v>
       </c>
       <c r="AC29" s="8">
-        <v>-8.5755377767782193E-6</v>
+        <v>-2.0795399393591651E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336759567261</v>
+        <v>895.97928524017334</v>
       </c>
       <c r="AE29" s="8">
-        <v>1.702322128949163E-5</v>
+        <v>3.4898971080110641E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336163520813</v>
+        <v>895.97922563552856</v>
       </c>
       <c r="AG29" s="8">
-        <v>2.2543313207279425E-6</v>
+        <v>7.7404206990649982E-6</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-1.9332103402276807E-11</v>
+        <v>-1.6096513991148053E-10</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>3.8375980932583695E-11</v>
+        <v>2.7013271812455914E-10</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -5900,45 +5925,40 @@
       <c r="C30" s="1">
         <v>30</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
       <c r="P30" s="8">
         <v>26</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186301231384277E-2</v>
+        <v>0.11499093472957611</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.4198972969614587E-8</v>
+        <v>1.342749358923534E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186316132545471E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4694633287959391E-9</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186308681964874E-2</v>
+        <v>0.11499094218015671</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="3"/>
-        <v>6.3647548342871119E-9</v>
+        <v>5.8038140959837392E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>9.037298185026647E-17</v>
+        <v>7.7930676566935363E-17</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>-9.3527738257615852E-18</v>
+        <v>-1.056216028436806E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -5949,32 +5969,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335567474365</v>
+        <v>895.97916603088379</v>
       </c>
       <c r="AC30" s="8">
-        <v>-8.5755377767782193E-6</v>
+        <v>-2.0795399393591651E-5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336163520813</v>
+        <v>895.97922563552856</v>
       </c>
       <c r="AE30" s="8">
-        <v>2.2543313207279425E-6</v>
+        <v>7.7404206990649982E-6</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2335865497589</v>
+        <v>895.97919583320618</v>
       </c>
       <c r="AG30" s="8">
-        <v>-1.1910918829016737E-6</v>
+        <v>-7.2161234925260942E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>1.0214253437437202E-11</v>
+        <v>1.5006217010055962E-10</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-2.6851157374900619E-12</v>
+        <v>-5.585583164855819E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -5982,50 +6002,45 @@
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31">
-        <f>ROUND($C$21/$C$15 * 100, 2)</f>
-        <v>32.049999999999997</v>
-      </c>
-      <c r="H31" t="s">
-        <v>95</v>
-      </c>
+      <c r="F31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="P31" s="8">
         <v>27</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186308681964874E-2</v>
+        <v>0.11499094218015671</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>6.3647548342871119E-9</v>
+        <v>5.8038140959837392E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186316132545471E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4694633287959391E-9</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186312407255173E-2</v>
+        <v>0.11499094590544701</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="3"/>
-        <v>2.4476457527455864E-9</v>
+        <v>1.9919743632357267E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>1.5578665137409788E-17</v>
+        <v>1.1561048888185744E-17</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-3.5967256755427715E-18</v>
+        <v>-3.6251251606089859E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -6036,32 +6051,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335865497589</v>
+        <v>895.97919583320618</v>
       </c>
       <c r="AC31" s="8">
-        <v>-1.1910918829016737E-6</v>
+        <v>-7.2161234925260942E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336163520813</v>
+        <v>895.97922563552856</v>
       </c>
       <c r="AE31" s="8">
-        <v>2.2543313207279425E-6</v>
+        <v>7.7404206990649982E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336014509201</v>
+        <v>895.97921073436737</v>
       </c>
       <c r="AG31" s="8">
-        <v>5.3161966206971556E-7</v>
+        <v>-4.2648582621040987E-7</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>-6.3320786428216897E-13</v>
+        <v>3.0775743897463397E-12</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>1.1984468549185644E-12</v>
+        <v>-3.3011797170568941E-12</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -6069,12 +6084,12 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F32" s="16" t="s">
-        <v>87</v>
+      <c r="F32" t="s">
+        <v>94</v>
       </c>
       <c r="G32">
-        <f>ROUND(G17/$C$15 * 100, 2)</f>
-        <v>38.909999999999997</v>
+        <f>ROUND($C$21/$C$15 * 100, 2)</f>
+        <v>44.64</v>
       </c>
       <c r="H32" t="s">
         <v>95</v>
@@ -6084,35 +6099,35 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186312407255173E-2</v>
+        <v>0.11499094590544701</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>2.4476457527455864E-9</v>
+        <v>1.9919743632357267E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186316132545471E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4694633287959391E-9</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186314269900322E-2</v>
+        <v>0.11499094776809216</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="3"/>
-        <v>4.8909122585261144E-10</v>
+        <v>8.6054496861720509E-11</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>1.1971220616632767E-18</v>
+        <v>1.7141835158969656E-19</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>-7.1870162082626488E-19</v>
+        <v>-1.5660759872944883E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -6123,45 +6138,45 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335865497589</v>
+        <v>895.97921073436737</v>
       </c>
       <c r="AC32" s="8">
-        <v>-1.1910918829016737E-6</v>
+        <v>-4.2648582621040987E-7</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336014509201</v>
+        <v>895.97922563552856</v>
       </c>
       <c r="AE32" s="8">
-        <v>5.3161966206971556E-7</v>
+        <v>7.7404206990649982E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2335940003395</v>
+        <v>895.97921818494797</v>
       </c>
       <c r="AG32" s="8">
-        <v>-2.2992475123828626E-6</v>
+        <v>3.6569674080055847E-6</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>2.7386150487810931E-12</v>
+        <v>-1.5596447664278028E-12</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>-1.2223251855476116E-12</v>
+        <v>2.8306466220732503E-11</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
         <v>1.4901161193847656E-5</v>
       </c>
     </row>
-    <row r="33" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F33" s="18" t="s">
-        <v>107</v>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F33" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G33">
-        <f>ROUND(SUM(G18:G19)/$C$15 * 100, 2)</f>
-        <v>9.14</v>
+        <f>ROUND(G17/$C$15 * 100, 2)</f>
+        <v>22.06</v>
       </c>
       <c r="H33" t="s">
         <v>95</v>
@@ -6171,35 +6186,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186314269900322E-2</v>
+        <v>0.11499094776809216</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>4.8909122585261144E-10</v>
+        <v>8.6054496861720509E-11</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186316132545471E-2</v>
+        <v>0.1149909496307373</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4694633287959391E-9</v>
+        <v>-1.8198653695122857E-9</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186315201222897E-2</v>
+        <v>0.11499094869941473</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="3"/>
-        <v>-4.9018605841055773E-10</v>
+        <v>-8.6690543632528261E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>-2.3974570020387948E-19</v>
+        <v>-7.460111114966248E-20</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>7.2031043712133881E-19</v>
+        <v>1.5776511822103197E-18</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -6210,45 +6225,51 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335940003395</v>
+        <v>895.97921073436737</v>
       </c>
       <c r="AC33" s="8">
-        <v>-2.2992475123828626E-6</v>
+        <v>-4.2648582621040987E-7</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336014509201</v>
+        <v>895.97921818494797</v>
       </c>
       <c r="AE33" s="8">
-        <v>5.3161966206971556E-7</v>
+        <v>3.6569674080055847E-6</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2335977256298</v>
+        <v>895.97921445965767</v>
       </c>
       <c r="AG33" s="8">
-        <v>-8.8381364093947923E-7</v>
+        <v>1.6152409898495534E-6</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>2.0321063153401382E-12</v>
+        <v>-6.8887738808490706E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>-4.6985270912885087E-13</v>
+        <v>5.9068836559544965E-12</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
         <v>7.4505805969238281E-6</v>
       </c>
     </row>
-    <row r="34" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F34" s="17" t="s">
-        <v>108</v>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="G34">
-        <f>ROUND(SUM(G20:G21)/$C$15 * 100, 2)</f>
-        <v>14.03</v>
+        <f>ROUND(SUM(G18:G19)/$C$15 * 100, 2)</f>
+        <v>8.02</v>
       </c>
       <c r="H34" t="s">
         <v>95</v>
@@ -6258,35 +6279,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>9.9186314269900322E-2</v>
+        <v>0.11499094776809216</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>4.8909122585261144E-10</v>
+        <v>8.6054496861720509E-11</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>9.9186315201222897E-2</v>
+        <v>0.11499094869941473</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-4.9018605841055773E-10</v>
+        <v>-8.6690543632528261E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="2"/>
-        <v>9.9186314735561609E-2</v>
+        <v>0.11499094823375344</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>-5.4742321786704906E-13</v>
+        <v>-3.9042546973178105E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-2.6773989268677621E-22</v>
+        <v>-3.3597867359769308E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>2.6833922944867278E-22</v>
+        <v>3.3846196219033307E-19</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -6297,45 +6318,48 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335977256298</v>
+        <v>895.97921073436737</v>
       </c>
       <c r="AC34" s="8">
-        <v>-8.8381364093947923E-7</v>
+        <v>-4.2648582621040987E-7</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336014509201</v>
+        <v>895.97921445965767</v>
       </c>
       <c r="AE34" s="8">
-        <v>5.3161966206971556E-7</v>
+        <v>1.6152409898495534E-6</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1248.233599588275</v>
+        <v>895.97921259701252</v>
       </c>
       <c r="AG34" s="8">
-        <v>-1.7609693259146297E-7</v>
+        <v>5.9437758181957179E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>1.5563687115193493E-13</v>
+        <v>-2.5349361406326557E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>-9.3616591795787026E-14</v>
+        <v>9.6006303360262907E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
         <v>3.7252902984619141E-6</v>
       </c>
     </row>
-    <row r="35" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F35" s="15" t="s">
-        <v>109</v>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>50</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="G35">
-        <f>ROUND(SUM(G22:G25)/$C$15*100, 2)</f>
-        <v>5.87</v>
+        <f>ROUND(SUM(G21:G22)/$C$15 * 100, 2)</f>
+        <v>18.16</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -6345,47 +6369,50 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1248.233599588275</v>
+        <v>895.97921073436737</v>
       </c>
       <c r="AC35">
-        <v>-1.7609693259146297E-7</v>
+        <v>-4.2648582621040987E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336014509201</v>
+        <v>895.97921259701252</v>
       </c>
       <c r="AE35">
-        <v>5.3161966206971556E-7</v>
+        <v>5.9437758181957179E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336005195975</v>
+        <v>895.97921166568995</v>
       </c>
       <c r="AG35">
-        <v>1.7776142158254515E-7</v>
+        <v>8.3946019913128112E-8</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>-3.1303241073784085E-14</v>
+        <v>-3.5801787659725962E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>9.4501466870744897E-14</v>
+        <v>4.9895632319342707E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
         <v>1.862645149230957E-6</v>
       </c>
     </row>
-    <row r="36" spans="6:36" x14ac:dyDescent="0.2">
-      <c r="F36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="3">
-        <f>SUM(G31:G35)</f>
-        <v>100</v>
-      </c>
-      <c r="H36" s="3" t="s">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(SUM(G23:G26)/$C$15*100, 2)</f>
+        <v>5.84</v>
+      </c>
+      <c r="H36" t="s">
         <v>95</v>
       </c>
       <c r="AA36" s="8">
@@ -6393,336 +6420,346 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1248.233599588275</v>
+        <v>895.97921073436737</v>
       </c>
       <c r="AC36">
-        <v>-1.7609693259146297E-7</v>
+        <v>-4.2648582621040987E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336005195975</v>
+        <v>895.97921166568995</v>
       </c>
       <c r="AE36">
-        <v>1.7776142158254515E-7</v>
+        <v>8.3946019913128112E-8</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921120002866</v>
       </c>
       <c r="AG36">
-        <v>8.3241502579767257E-10</v>
+        <v>-1.7126995999205974E-7</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>-1.4658573268601366E-16</v>
+        <v>7.3044210392237441E-14</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>1.4797127833246527E-16</v>
+        <v>-1.4377431472014102E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
         <v>9.3132257461547852E-7</v>
       </c>
     </row>
-    <row r="37" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="3">
+        <f>SUM(G32:G36)</f>
+        <v>98.72</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="AA37" s="8">
         <v>33</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1248.233599588275</v>
+        <v>895.97921120002866</v>
       </c>
       <c r="AC37">
-        <v>-1.7609693259146297E-7</v>
+        <v>-1.7126995999205974E-7</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921166568995</v>
       </c>
       <c r="AE37">
-        <v>8.3241502579767257E-10</v>
+        <v>8.3946019913128112E-8</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2335998211056</v>
+        <v>895.9792114328593</v>
       </c>
       <c r="AG37">
-        <v>-8.7632315626251511E-8</v>
+        <v>-4.3661884774337523E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>1.543178197766982E-14</v>
+        <v>7.4779692584787098E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>-7.2946456272735937E-17</v>
+        <v>-3.6652414487112428E-15</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
         <v>4.6566128730773926E-7</v>
       </c>
     </row>
-    <row r="38" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AA38" s="8">
         <v>34</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335998211056</v>
+        <v>895.9792114328593</v>
       </c>
       <c r="AC38">
-        <v>-8.7632315626251511E-8</v>
+        <v>-4.3661884774337523E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921166568995</v>
       </c>
       <c r="AE38">
-        <v>8.3241502579767257E-10</v>
+        <v>8.3946019913128112E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2335999375209</v>
+        <v>895.97921154927462</v>
       </c>
       <c r="AG38">
-        <v>-4.3400291360740084E-8</v>
+        <v>2.0141840195719851E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>3.8032680307956517E-15</v>
+        <v>-8.7943070576864008E-16</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-3.6127054652676963E-17</v>
+        <v>1.6908273181569428E-15</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
         <v>2.3283064365386963E-7</v>
       </c>
     </row>
-    <row r="39" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AA39" s="8">
         <v>35</v>
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335999375209</v>
+        <v>895.9792114328593</v>
       </c>
       <c r="AC39">
-        <v>-4.3400291360740084E-8</v>
+        <v>-4.3661884774337523E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921154927462</v>
       </c>
       <c r="AE39">
-        <v>8.3241502579767257E-10</v>
+        <v>2.0141840195719851E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2335999957286</v>
+        <v>895.97921149106696</v>
       </c>
       <c r="AG39">
-        <v>-2.1283881324052345E-8</v>
+        <v>-1.1760164397855988E-8</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>9.2372665075128621E-16</v>
+        <v>5.1347094286645455E-16</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>-1.7717022621435634E-17</v>
+        <v>-2.3687135197700927E-16</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
         <v>1.1641532182693481E-7</v>
       </c>
     </row>
-    <row r="40" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AA40" s="8">
         <v>36</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2335999957286</v>
+        <v>895.97921149106696</v>
       </c>
       <c r="AC40">
-        <v>-2.1283881324052345E-8</v>
+        <v>-1.1760164397855988E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921154927462</v>
       </c>
       <c r="AE40">
-        <v>8.3241502579767257E-10</v>
+        <v>2.0141840195719851E-8</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336000248324</v>
+        <v>895.97921152017079</v>
       </c>
       <c r="AG40">
-        <v>-1.022601736622164E-8</v>
+        <v>4.1911221160262357E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>2.1764934004035972E-16</v>
+        <v>-4.928828509595859E-17</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>-8.5122905097108344E-18</v>
+        <v>8.4416911901747673E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
         <v>5.8207660913467407E-8</v>
       </c>
     </row>
-    <row r="41" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AA41" s="8">
         <v>37</v>
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2336000248324</v>
+        <v>895.97921149106696</v>
       </c>
       <c r="AC41">
-        <v>-1.022601736622164E-8</v>
+        <v>-1.1760164397855988E-8</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921152017079</v>
       </c>
       <c r="AE41">
-        <v>8.3241502579767257E-10</v>
+        <v>4.1911221160262357E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336000393843</v>
+        <v>895.97921150561888</v>
       </c>
       <c r="AG41">
-        <v>-4.6968580136308447E-9</v>
+        <v>-3.7844074540771544E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>4.8030151614066295E-17</v>
+        <v>4.450525380841897E-17</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>-3.9097351845845247E-18</v>
+        <v>-1.5860913776837303E-17</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
         <v>2.9103830456733704E-8</v>
       </c>
     </row>
-    <row r="42" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AA42" s="8">
         <v>38</v>
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2336000393843</v>
+        <v>895.97921150561888</v>
       </c>
       <c r="AC42">
-        <v>-4.6968580136308447E-9</v>
+        <v>-3.7844074540771544E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921152017079</v>
       </c>
       <c r="AE42">
-        <v>8.3241502579767257E-10</v>
+        <v>4.1911221160262357E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336000466603</v>
+        <v>895.97921151289484</v>
       </c>
       <c r="AG42">
-        <v>-1.9324488675920293E-9</v>
+        <v>2.0304469217080623E-10</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>9.0764379496814737E-18</v>
+        <v>-7.6840384656200033E-19</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>-1.6085994739693022E-18</v>
+        <v>8.5098509989880507E-19</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
         <v>1.4551915228366852E-8</v>
       </c>
     </row>
-    <row r="43" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AA43" s="8">
         <v>39</v>
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2336000466603</v>
+        <v>895.97921150561888</v>
       </c>
       <c r="AC43">
-        <v>-1.9324488675920293E-9</v>
+        <v>-3.7844074540771544E-9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921151289484</v>
       </c>
       <c r="AE43">
-        <v>8.3241502579767257E-10</v>
+        <v>2.0304469217080623E-10</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1248.2336000502983</v>
+        <v>895.97921150925686</v>
       </c>
       <c r="AG43">
-        <v>-5.5024429457262158E-10</v>
+        <v>-1.7905108506965917E-9</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>1.0633189639458376E-18</v>
+        <v>6.7760226099822084E-18</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>-4.5803161866169094E-19</v>
+        <v>-3.6355372450817785E-19</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
         <v>7.2759576141834259E-9</v>
       </c>
     </row>
-    <row r="44" spans="6:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AA44" s="8">
         <v>40</v>
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1248.2336000502983</v>
+        <v>895.97921150925686</v>
       </c>
       <c r="AC44">
-        <v>-5.5024429457262158E-10</v>
+        <v>-1.7905108506965917E-9</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1248.2336000539362</v>
+        <v>895.97921151289484</v>
       </c>
       <c r="AE44">
-        <v>8.3241502579767257E-10</v>
+        <v>2.0304469217080623E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1248.2336000521173</v>
+        <v>895.97921151107585</v>
       </c>
       <c r="AG44">
-        <v>1.4108536561252549E-10</v>
+        <v>-7.9376150097232312E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>-7.7631417475984493E-20</v>
+        <v>1.4212385803561577E-18</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>1.1744157825602447E-19</v>
+        <v>-1.6116905962196246E-19</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -6740,6 +6777,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J16:L16"/>
@@ -6749,18 +6791,13 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G28">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",G27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",G28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",G27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",G28)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>1</formula>
@@ -6769,7 +6806,7 @@
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G28)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"""YES"""</formula>
@@ -6784,8 +6821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6816,11 +6853,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -6831,21 +6868,21 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -6919,7 +6956,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$20*$C$34)^3 / (2 * $C$33 * PI() * $C$21^2* $C$5) )</f>
-        <v>166764.64204991527</v>
+        <v>141987.14029808619</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -6929,7 +6966,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> $C$20 * $C$34</f>
-        <v>11757.8180294921</v>
+        <v>10562.257693231786</v>
       </c>
       <c r="L4" t="s">
         <v>37</v>
@@ -6942,14 +6979,14 @@
       </c>
       <c r="R4" s="8">
         <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
-        <v>0.63509455714344953</v>
+        <v>0.66454833981730577</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
-        <v>-0.57973927437983719</v>
+        <v>-0.57867770519125505</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -6957,15 +6994,15 @@
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
-        <v>-7.1737967926194857E-2</v>
+        <v>-6.9618954482291495E-2</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.5560392970457712E-2</v>
+        <v>-4.6265160621023392E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>4.1589317471016241E-2</v>
+        <v>4.0286936817626885E-2</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -6976,18 +7013,18 @@
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
-        <f>G29</f>
-        <v>-1.0618350643198937E-10</v>
+        <f>G30</f>
+        <v>-4.5190517994342372E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
-        <f>G29</f>
-        <v>-1.0618350643198937E-10</v>
+        <f>G30</f>
+        <v>-4.5190517994342372E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
-        <f>G29</f>
-        <v>-1.0618350643198937E-10</v>
+        <f>G30</f>
+        <v>-4.5190517994342372E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -7005,7 +7042,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$20 * $C$34 / $C$5</f>
-        <v>1959.6363382486834</v>
+        <v>1760.3762822052977</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -7015,7 +7052,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.5 * $C$33 * $C$23^2</f>
-        <v>1852.8124999999461</v>
+        <v>1852.8125000000002</v>
       </c>
       <c r="L5" t="s">
         <v>48</v>
@@ -7029,7 +7066,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>0.63509455714344953</v>
+        <v>0.66454833981730577</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -7037,7 +7074,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1737967926194857E-2</v>
+        <v>-6.9618954482291495E-2</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -7045,15 +7082,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" si="2"/>
-        <v>0.19404975122575574</v>
+        <v>0.19825525304734853</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>0.1232399408185179</v>
+        <v>0.13175019927267531</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-1.3920734829519357E-2</v>
+        <v>-1.3802323437778539E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -7066,31 +7103,31 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
-        <v>-357.0306442450181</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <v>-321.49628360127792</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>536.38035314613489</v>
+        <v>689.66264278427252</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>142.55710353272457</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20"/>
+        <v>224.28639848926287</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-50897.254515992398</v>
+        <v>-72107.243576613284</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>76464.829536372912</v>
+        <v>154681.9503226715</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -7109,7 +7146,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> 1.6 * ($C$20*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.28410413500282999</v>
+        <v>0.26450318405057344</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
@@ -7123,7 +7160,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.19404975122575574</v>
+        <v>0.19825525304734853</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -7131,7 +7168,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1737967926194857E-2</v>
+        <v>-6.9618954482291495E-2</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
@@ -7139,15 +7176,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="2"/>
-        <v>5.8563738317039926E-2</v>
+        <v>6.1383419688461283E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>1.1364278851271857E-2</v>
+        <v>1.2169585403247488E-2</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>-4.2012435810258788E-3</v>
+        <v>-4.2734495012583815E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -7161,29 +7198,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-357.0306442450181</v>
+        <v>-321.49628360127792</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0,AF5,AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>142.55710353272457</v>
+        <v>224.28639848926287</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>-98.697740238587812</v>
+        <v>-42.011887035075233</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>35238.117782910449</v>
+        <v>13506.665548853398</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>-14070.063973638318</v>
+        <v>-9422.6948368347803</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -7197,17 +7234,17 @@
       <c r="C7" s="1">
         <v>0.13</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="J7" t="s">
         <v>68</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K6 / $C$24</f>
-        <v>2.6861702975669303E-2</v>
+        <v>2.7839207480286919E-2</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
@@ -7218,7 +7255,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>5.8563738317039926E-2</v>
+        <v>6.1383419688461283E-2</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -7226,7 +7263,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1737967926194857E-2</v>
+        <v>-6.9618954482291495E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
@@ -7234,15 +7271,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="2"/>
-        <v>-6.9619213839557936E-3</v>
+        <v>-4.5421080200794828E-3</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>-4.0771614211379152E-4</v>
+        <v>-2.7881012286686484E-4</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>4.9943409294691079E-4</v>
+        <v>3.1621681150356467E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -7256,29 +7293,29 @@
         <v>1000</v>
       </c>
       <c r="AC7" s="8">
-        <v>-98.697740238587812</v>
+        <v>-42.011887035075233</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
         <v>1500</v>
       </c>
       <c r="AE7" s="8">
-        <v>142.55710353272457</v>
+        <v>224.28639848926287</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
         <v>1250</v>
       </c>
       <c r="AG7" s="8">
-        <v>24.988074606286091</v>
+        <v>93.493878552962769</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>-2466.2664965536769</v>
+        <v>-3927.8542642381149</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>3562.2275387317718</v>
+        <v>20969.405301436556</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -7297,7 +7334,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$23 * SIN(K17))</f>
-        <v>48888.096169850709</v>
+        <v>45121.145656732791</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -7307,7 +7344,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K5 * $C$24 * K7</f>
-        <v>526.39169263491567</v>
+        <v>490.07480569870324</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -7321,7 +7358,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>5.8563738317039926E-2</v>
+        <v>6.1383419688461283E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -7329,7 +7366,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9619213839557936E-3</v>
+        <v>-4.5421080200794828E-3</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
@@ -7337,15 +7374,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="2"/>
-        <v>2.5685907249851925E-2</v>
+        <v>2.8290456177514911E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>1.5042627506160868E-3</v>
+        <v>1.73656494472242E-3</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7882326694904926E-4</v>
+        <v>-1.2849830789559764E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -7359,29 +7396,29 @@
         <v>1000</v>
       </c>
       <c r="AC8" s="8">
-        <v>-98.697740238587812</v>
+        <v>-42.011887035075233</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE8" s="8">
-        <v>24.988074606286091</v>
+        <v>93.493878552962769</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
         <v>1125</v>
       </c>
       <c r="AG8" s="8">
-        <v>-36.160048462268151</v>
+        <v>26.276369949083232</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>3568.9150701436888</v>
+        <v>-1103.9198859927303</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>-903.56998874207716</v>
+        <v>2456.6797408323082</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -7400,7 +7437,7 @@
       </c>
       <c r="G9">
         <f xml:space="preserve"> $C$6 * G8</f>
-        <v>48888.096169850709</v>
+        <v>45121.145656732791</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -7421,7 +7458,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>2.5685907249851925E-2</v>
+        <v>2.8290456177514911E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -7429,7 +7466,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9619213839557936E-3</v>
+        <v>-4.5421080200794828E-3</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
@@ -7437,15 +7474,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="2"/>
-        <v>9.3363891812671684E-3</v>
+        <v>1.1845186562112142E-2</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>2.3981362655854944E-4</v>
+        <v>3.3510573134992207E-4</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>-6.4999207489997425E-5</v>
+        <v>-5.3802116883107276E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -7456,32 +7493,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="AC9" s="8">
-        <v>-36.160048462268151</v>
+        <v>-42.011887035075233</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="AE9" s="8">
-        <v>24.988074606286091</v>
+        <v>26.276369949083232</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>1187.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>-5.4023833145230356</v>
+        <v>-7.742324105302373</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>195.35044246490182</v>
+        <v>325.2696457009032</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>-134.99515731505676</v>
+        <v>-203.44017245662999</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -7494,7 +7531,7 @@
       </c>
       <c r="K10">
         <f xml:space="preserve"> K4 / (K5 * $C$24)</f>
-        <v>0.59999999994155828</v>
+        <v>0.59999999992432684</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
@@ -7505,7 +7542,7 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>9.3363891812671684E-3</v>
+        <v>1.1845186562112142E-2</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
@@ -7513,7 +7550,7 @@
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9619213839557936E-3</v>
+        <v>-4.5421080200794828E-3</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
@@ -7521,15 +7558,15 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" si="2"/>
-        <v>1.181177137633882E-3</v>
+        <v>3.6446820548206582E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>1.1027929448965097E-5</v>
+        <v>4.3171938898932929E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>-8.2232623727330189E-6</v>
+        <v>-1.6554539591840679E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -7540,32 +7577,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AC10" s="8">
-        <v>-5.4023833145230356</v>
+        <v>-7.742324105302373</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="AE10" s="8">
-        <v>24.988074606286091</v>
+        <v>26.276369949083232</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>1218.75</v>
+        <v>1093.75</v>
       </c>
       <c r="AG10" s="8">
-        <v>9.8398576323439784</v>
+        <v>9.2995295206034143</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>-53.158682690257251</v>
+        <v>-71.999971575338833</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>245.87909663224494</v>
+        <v>244.35787803579595</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -7573,22 +7610,22 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="F11" s="20" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="J11" t="s">
         <v>71</v>
       </c>
       <c r="K11">
         <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
-        <v>4.2006950064540312E-2</v>
+        <v>4.2984454568288019E-2</v>
       </c>
       <c r="P11" s="8">
         <v>7</v>
@@ -7599,7 +7636,7 @@
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>1.181177137633882E-3</v>
+        <v>3.6446820548206582E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
@@ -7607,7 +7644,7 @@
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9619213839557936E-3</v>
+        <v>-4.5421080200794828E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
@@ -7615,15 +7652,15 @@
       </c>
       <c r="V11" s="8">
         <f t="shared" si="2"/>
-        <v>-2.8918459566564803E-3</v>
+        <v>-4.5038159641141995E-4</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-3.4157823295616164E-6</v>
+        <v>-1.6414977222621824E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>2.013280420475285E-5</v>
+        <v>2.0456818611565113E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -7634,32 +7671,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AC11" s="8">
-        <v>-5.4023833145230356</v>
+        <v>-7.742324105302373</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>1218.75</v>
+        <v>1093.75</v>
       </c>
       <c r="AE11" s="8">
-        <v>9.8398576323439784</v>
+        <v>9.2995295206034143</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>1203.125</v>
+        <v>1078.125</v>
       </c>
       <c r="AG11" s="8">
-        <v>2.2303559250751732</v>
+        <v>0.78659259536061654</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>-12.049237635073705</v>
+        <v>-6.0900548121128573</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>21.946384772194559</v>
+        <v>7.3149410612441095</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -7678,7 +7715,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
-        <v>35808.600464868803</v>
+        <v>18581.192314161864</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -7688,7 +7725,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> K5 * K11 * $C$24</f>
-        <v>823.18345813489111</v>
+        <v>756.68814335088894</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -7702,7 +7739,7 @@
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>1.181177137633882E-3</v>
+        <v>3.6446820548206582E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
@@ -7710,7 +7747,7 @@
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-2.8918459566564803E-3</v>
+        <v>-4.5038159641141995E-4</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
@@ -7718,15 +7755,15 @@
       </c>
       <c r="V12" s="8">
         <f t="shared" si="2"/>
-        <v>-8.5570780034160965E-4</v>
+        <v>1.5967274914344132E-3</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0107424902584879E-6</v>
+        <v>5.8195640344698118E-6</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>2.4745751424972946E-6</v>
+        <v>-7.1913667662623282E-7</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -7737,32 +7774,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AC12" s="8">
-        <v>-5.4023833145230356</v>
+        <v>-7.742324105302373</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>1203.125</v>
+        <v>1078.125</v>
       </c>
       <c r="AE12" s="8">
-        <v>2.2303559250751732</v>
+        <v>0.78659259536061654</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>1195.3125</v>
+        <v>1070.3125</v>
       </c>
       <c r="AG12" s="8">
-        <v>-1.5831262617477933</v>
+        <v>-3.4758859606056376</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>8.5526549012495057</v>
+        <v>26.911435660079121</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>-3.5309350380313003</v>
+        <v>-2.7341061589303184</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -7775,52 +7812,52 @@
       </c>
       <c r="G13">
         <f xml:space="preserve"> $C$29 / $C$23</f>
-        <v>1818.1818181818446</v>
+        <v>727.27272727272725</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K13">
         <f>K10/K11</f>
-        <v>14.28335070791158</v>
+        <v>13.95853468307074</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.4296875</v>
+        <v>0.431640625</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>1.181177137633882E-3</v>
+        <v>1.5967274914344132E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.431640625</v>
+        <v>0.43359375</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-8.5570780034160965E-4</v>
+        <v>-4.5038159641141995E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>0.4306640625</v>
+        <v>0.4326171875</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="2"/>
-        <v>1.6264069476540355E-4</v>
+        <v>5.7306796885159272E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>1.9210747030578525E-7</v>
+        <v>9.1503338032581809E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>-1.3917291116373461E-7</v>
+        <v>-2.580992666636302E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -7831,32 +7868,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>1195.3125</v>
+        <v>1070.3125</v>
       </c>
       <c r="AC13" s="8">
-        <v>-1.5831262617477933</v>
+        <v>-3.4758859606056376</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>1203.125</v>
+        <v>1078.125</v>
       </c>
       <c r="AE13" s="8">
-        <v>2.2303559250751732</v>
+        <v>0.78659259536061654</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>1199.21875</v>
+        <v>1074.21875</v>
       </c>
       <c r="AG13" s="8">
-        <v>0.32433894758037241</v>
+        <v>-1.3441495314683607</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>-0.51346950562212845</v>
+        <v>4.6721104853855202</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>0.72339129346852959</v>
+        <v>-1.0572980685104545</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -7864,45 +7901,45 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.4306640625</v>
+        <v>0.4326171875</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>1.6264069476540355E-4</v>
+        <v>5.7306796885159272E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.431640625</v>
+        <v>0.43359375</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-8.5570780034160965E-4</v>
+        <v>-4.5038159641141995E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
-        <v>0.43115234375</v>
+        <v>0.43310546875</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="2"/>
-        <v>-3.4655696755120369E-4</v>
+        <v>6.1317029093788111E-5</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>-5.6364265978319179E-8</v>
+        <v>3.5138825318791168E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>2.9655150039629911E-7</v>
+        <v>-2.7616061450465773E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -7913,32 +7950,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>1195.3125</v>
+        <v>1074.21875</v>
       </c>
       <c r="AC14" s="8">
-        <v>-1.5831262617477933</v>
+        <v>-1.3441495314683607</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>1199.21875</v>
+        <v>1078.125</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.32433894758037241</v>
+        <v>0.78659259536061654</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>1197.265625</v>
+        <v>1076.171875</v>
       </c>
       <c r="AG14" s="8">
-        <v>-0.62921274287998585</v>
+        <v>-0.27865385631741901</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>0.99612321747966737</v>
+        <v>0.37455245041091068</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>-0.20407819882985406</v>
+        <v>-0.21918706004796296</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -7960,35 +7997,35 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.4306640625</v>
+        <v>0.43310546875</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>1.6264069476540355E-4</v>
+        <v>6.1317029093788111E-5</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.43115234375</v>
+        <v>0.43359375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-3.4655696755120369E-4</v>
+        <v>-4.5038159641141995E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
-        <v>0.430908203125</v>
+        <v>0.433349609375</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="2"/>
-        <v>-9.196399989463977E-5</v>
+        <v>-1.9453881204045675E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.4957088836269711E-8</v>
+        <v>-1.1928541997755664E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>3.1870764927365571E-8</v>
+        <v>8.7616700730762078E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -7999,32 +8036,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>1197.265625</v>
+        <v>1076.171875</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.62921274287998585</v>
+        <v>-0.27865385631741901</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>1199.21875</v>
+        <v>1078.125</v>
       </c>
       <c r="AE15" s="8">
-        <v>0.32433894758037241</v>
+        <v>0.78659259536061654</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>1198.2421875</v>
+        <v>1077.1484375</v>
       </c>
       <c r="AG15" s="8">
-        <v>-0.1523916866287891</v>
+        <v>0.25400055685020106</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>9.5886791135807656E-2</v>
+        <v>-7.0778234673080351E-2</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>-4.9426559261179365E-2</v>
+        <v>0.19979495723584148</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -8038,50 +8075,50 @@
       <c r="C16" s="1">
         <v>0.85</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="20" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="J16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.4306640625</v>
+        <v>0.43310546875</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>1.6264069476540355E-4</v>
+        <v>6.1317029093788111E-5</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.430908203125</v>
+        <v>0.433349609375</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-9.196399989463977E-5</v>
+        <v>-1.9453881204045675E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>0.4307861328125</v>
+        <v>0.4332275390625</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>3.5336880331138243E-5</v>
+        <v>-6.6612524929343664E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>5.747214767898247E-9</v>
+        <v>-4.0844821291032516E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>-3.2497208590496955E-9</v>
+        <v>1.2958721466769826E-8</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -8092,32 +8129,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1198.2421875</v>
+        <v>1076.171875</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.1523916866287891</v>
+        <v>-0.27865385631741901</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1199.21875</v>
+        <v>1077.1484375</v>
       </c>
       <c r="AE16" s="8">
-        <v>0.32433894758037241</v>
+        <v>0.25400055685020106</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1198.73046875</v>
+        <v>1076.66015625</v>
       </c>
       <c r="AG16" s="8">
-        <v>8.5984834820919787E-2</v>
+        <v>-1.2318857194486554E-2</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>-1.3103374002857802E-2</v>
+        <v>3.43269706266726E-3</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>2.7888230833689284E-2</v>
+        <v>-3.1289965871576903E-3</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -8136,7 +8173,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
-        <v>210.63882626393413</v>
+        <v>109.30113125977567</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -8156,35 +8193,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.4307861328125</v>
+        <v>0.43310546875</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>3.5336880331138243E-5</v>
+        <v>6.1317029093788111E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.430908203125</v>
+        <v>0.4332275390625</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-9.196399989463977E-5</v>
+        <v>-6.6612524929343664E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>0.43084716796875</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>-2.8313926404122114E-5</v>
+        <v>-2.6481564520675072E-6</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0005258290471184E-9</v>
+        <v>-1.6237708621632603E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>2.6038619248455244E-9</v>
+        <v>1.7640038768014908E-10</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -8195,32 +8232,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1198.2421875</v>
+        <v>1076.66015625</v>
       </c>
       <c r="AC17" s="8">
-        <v>-0.1523916866287891</v>
+        <v>-1.2318857194486554E-2</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1198.73046875</v>
+        <v>1077.1484375</v>
       </c>
       <c r="AE17" s="8">
-        <v>8.5984834820919787E-2</v>
+        <v>0.25400055685020106</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1198.486328125</v>
+        <v>1076.904296875</v>
       </c>
       <c r="AG17" s="8">
-        <v>-3.32006766085442E-2</v>
+        <v>0.12084275048027848</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>5.0595071055930365E-3</v>
+        <v>-1.488644586155522E-3</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>-2.8547546941284484E-3</v>
+        <v>3.0694125913300636E-2</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -8233,7 +8270,7 @@
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
-        <v>79.76666441523615</v>
+        <v>70.153547490439422</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -8243,7 +8280,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$6</f>
-        <v>823.18345813489111</v>
+        <v>756.68814335088894</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -8253,35 +8290,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.4307861328125</v>
+        <v>0.43310546875</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>3.5336880331138243E-5</v>
+        <v>6.1317029093788111E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.43084716796875</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-2.8313926404122114E-5</v>
+        <v>-2.6481564520675072E-6</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="3"/>
-        <v>0.430816650390625</v>
+        <v>0.433135986328125</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="2"/>
-        <v>3.5113852887569408E-6</v>
+        <v>2.933433416602016E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>1.2408140174532331E-10</v>
+        <v>1.7986942215047608E-9</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>-9.9421104642381105E-11</v>
+        <v>-7.7681906288850603E-11</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -8292,32 +8329,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1198.486328125</v>
+        <v>1076.66015625</v>
       </c>
       <c r="AC18" s="8">
-        <v>-3.32006766085442E-2</v>
+        <v>-1.2318857194486554E-2</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1198.73046875</v>
+        <v>1076.904296875</v>
       </c>
       <c r="AE18" s="8">
-        <v>8.5984834820919787E-2</v>
+        <v>0.12084275048027848</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1198.6083984375</v>
+        <v>1076.7822265625</v>
       </c>
       <c r="AG18" s="8">
-        <v>2.6392766487902009E-2</v>
+        <v>5.4262421744169842E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>-8.7625770496965749E-4</v>
+        <v>-6.6845102449343032E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>2.2693776669293615E-3</v>
+        <v>6.5572202912863534E-3</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -8325,17 +8362,17 @@
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="F19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
-        <v>52.214714785316005</v>
+        <v>46.848357759505966</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -8345,7 +8382,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> PI() * $C$23 / ($C$22 * $C$25)</f>
-        <v>153.14932077647677</v>
+        <v>169.96466000133157</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -8355,35 +8392,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.430816650390625</v>
+        <v>0.433135986328125</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>3.5113852887569408E-6</v>
+        <v>2.933433416602016E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.43084716796875</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.8313926404122114E-5</v>
+        <v>-2.6481564520675072E-6</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="3"/>
-        <v>0.4308319091796875</v>
+        <v>0.4331512451171875</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="2"/>
-        <v>-1.2401293473962571E-5</v>
+        <v>1.334306332090307E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-4.3545719466029626E-11</v>
+        <v>3.9140987825373733E-10</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>3.5112931073769609E-10</v>
+        <v>-3.5334519223594765E-11</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -8394,32 +8431,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1198.486328125</v>
+        <v>1076.66015625</v>
       </c>
       <c r="AC19" s="8">
-        <v>-3.32006766085442E-2</v>
+        <v>-1.2318857194486554E-2</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1198.6083984375</v>
+        <v>1076.7822265625</v>
       </c>
       <c r="AE19" s="8">
-        <v>2.6392766487902009E-2</v>
+        <v>5.4262421744169842E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1198.54736328125</v>
+        <v>1076.72119140625</v>
       </c>
       <c r="AG19" s="8">
-        <v>-3.4035780588510534E-3</v>
+        <v>2.0971901042230456E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>1.1300109444385044E-4</v>
+        <v>-2.5834985403614075E-4</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>-8.9829840930602656E-5</v>
+        <v>1.1379861391305041E-3</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -8432,17 +8469,17 @@
       </c>
       <c r="C20" s="3">
         <f>AF44</f>
-        <v>1198.5543353202956</v>
+        <v>1076.682741409968</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>97</v>
+      <c r="F20" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="G20">
-        <f xml:space="preserve"> 14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>146.79077861950864</v>
+        <f>2.20462 * (49.9/398 * (G4/$C$5/1000 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (G8/1000 -2) + 0.1) * 0.453592 * $C$6</f>
+        <v>22.403732641989148</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -8452,42 +8489,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> $C$23 * COS(K17) / (K19 * $C$22)</f>
-        <v>3.6065294920551015E-2</v>
+        <v>3.6065294920551855E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.430816650390625</v>
+        <v>0.4331512451171875</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>3.5113852887569408E-6</v>
+        <v>1.334306332090307E-5</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.4308319091796875</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2401293473962571E-5</v>
+        <v>-2.6481564520675072E-6</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082427978515625</v>
+        <v>0.43315887451171875</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="2"/>
-        <v>-4.4449598219920006E-6</v>
+        <v>5.3474470507741678E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5607966528058381E-11</v>
+        <v>7.13513246036561E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>5.512325123249523E-11</v>
+        <v>-1.4160876409596975E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -8498,32 +8535,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1198.54736328125</v>
+        <v>1076.66015625</v>
       </c>
       <c r="AC20" s="8">
-        <v>-3.4035780588510534E-3</v>
+        <v>-1.2318857194486554E-2</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1198.6083984375</v>
+        <v>1076.72119140625</v>
       </c>
       <c r="AE20" s="8">
-        <v>2.6392766487902009E-2</v>
+        <v>2.0971901042230456E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1198.577880859375</v>
+        <v>1076.690673828125</v>
       </c>
       <c r="AG20" s="8">
-        <v>1.1494842348497514E-2</v>
+        <v>4.3265516147812377E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-3.9123593207298053E-5</v>
+        <v>-5.3298171487065268E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>3.0338068991914201E-4</v>
+        <v>9.0736012319294503E-5</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -8535,17 +8572,17 @@
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>1.49999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21">
-        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>26.768395583058929</v>
+        <f xml:space="preserve"> 14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
+        <v>144.54154668542375</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -8555,42 +8592,42 @@
       </c>
       <c r="K21">
         <f xml:space="preserve"> K18 / ( $C$33 * PI() * $C$22^2 * K19^2 * $C$22^2)</f>
-        <v>1.6075481273085567E-2</v>
+        <v>1.8199999990402175E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.430816650390625</v>
+        <v>0.43315887451171875</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>3.5113852887569408E-6</v>
+        <v>5.3474470507741678E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082427978515625</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-4.4449598219920006E-6</v>
+        <v>-2.6481564520675072E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082046508789062</v>
+        <v>0.43316268920898438</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="2"/>
-        <v>-4.6678869902727627E-7</v>
+        <v>1.3496437034632436E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>-1.6390749707223692E-12</v>
+        <v>7.2171482416804472E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>2.0748570125361595E-12</v>
+        <v>-3.5740676813184738E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -8601,32 +8638,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1198.54736328125</v>
+        <v>1076.66015625</v>
       </c>
       <c r="AC21" s="8">
-        <v>-3.4035780588510534E-3</v>
+        <v>-1.2318857194486554E-2</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1198.577880859375</v>
+        <v>1076.690673828125</v>
       </c>
       <c r="AE21" s="8">
-        <v>1.1494842348497514E-2</v>
+        <v>4.3265516147812377E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5626220703125</v>
+        <v>1076.6754150390625</v>
       </c>
       <c r="AG21" s="8">
-        <v>4.0454377171954548E-3</v>
+        <v>-3.996049353872877E-3</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>-1.3768963052694943E-5</v>
+        <v>4.922676133248024E-5</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>4.650166878982742E-5</v>
+        <v>-1.7289113784744217E-5</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -8638,17 +8675,17 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>0.86786891819242595</v>
+        <v>0.78200689098041498</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G22">
-        <f xml:space="preserve"> 0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
-        <v>212.1167319418031</v>
+        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592</f>
+        <v>24.875308666159995</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -8664,35 +8701,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.430816650390625</v>
+        <v>0.43316268920898438</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>3.5113852887569408E-6</v>
+        <v>1.3496437034632436E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082046508789062</v>
+        <v>0.43316650390625</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6678869902727627E-7</v>
+        <v>-2.6481564520675072E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="3"/>
-        <v>0.43081855773925781</v>
+        <v>0.43316459655761719</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="2"/>
-        <v>1.5222979367623957E-6</v>
+        <v>-6.4925677323302011E-7</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>5.3453745802525202E-12</v>
+        <v>-8.7626531592480863E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>-7.1059147343322556E-13</v>
+        <v>1.7193335130855525E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -8703,32 +8740,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1198.54736328125</v>
+        <v>1076.6754150390625</v>
       </c>
       <c r="AC22" s="8">
-        <v>-3.4035780588510534E-3</v>
+        <v>-3.996049353872877E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5626220703125</v>
+        <v>1076.690673828125</v>
       </c>
       <c r="AE22" s="8">
-        <v>4.0454377171954548E-3</v>
+        <v>4.3265516147812377E-3</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5549926757812</v>
+        <v>1076.6830444335938</v>
       </c>
       <c r="AG22" s="8">
-        <v>3.2093251491005503E-4</v>
+        <v>1.6525298667602328E-4</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0923188661197518E-6</v>
+        <v>-6.6035909063228595E-7</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>1.2983125004915294E-6</v>
+        <v>7.149755763505709E-7</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -8740,16 +8777,17 @@
         <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>54.999999999999197</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <f xml:space="preserve"> 0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
+        <v>195.5786553432354</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -8759,7 +8797,7 @@
       </c>
       <c r="K23">
         <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$33 * K19^3 * C22^5)</f>
-        <v>1335.2275825919908</v>
+        <v>1084.0971074035022</v>
       </c>
       <c r="L23" t="s">
         <v>35</v>
@@ -8769,35 +8807,35 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.43081855773925781</v>
+        <v>0.43316268920898438</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.5222979367623957E-6</v>
+        <v>1.3496437034632436E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082046508789062</v>
+        <v>0.43316459655761719</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6678869902727627E-7</v>
+        <v>-6.4925677323302011E-7</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="3"/>
-        <v>0.43081951141357422</v>
+        <v>0.43316364288330078</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="2"/>
-        <v>5.2775452935582834E-7</v>
+        <v>3.5019336536157297E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>8.0339963115538665E-13</v>
+        <v>4.726362705548501E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-2.4634985016375957E-13</v>
+        <v>-2.2736541440226693E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -8808,32 +8846,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1198.54736328125</v>
+        <v>1076.6754150390625</v>
       </c>
       <c r="AC23" s="8">
-        <v>-3.4035780588510534E-3</v>
+        <v>-3.996049353872877E-3</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5549926757812</v>
+        <v>1076.6830444335938</v>
       </c>
       <c r="AE23" s="8">
-        <v>3.2093251491005503E-4</v>
+        <v>1.6525298667602328E-4</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5511779785156</v>
+        <v>1076.6792297363281</v>
       </c>
       <c r="AG23" s="8">
-        <v>-1.5413221004791922E-3</v>
+        <v>-1.9154937333496491E-3</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>5.2460100828131967E-6</v>
+        <v>7.6544074954994103E-6</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>-4.9466037799323565E-7</v>
+        <v>-3.1654106039523567E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -8845,13 +8883,13 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>10.576549642446899</v>
+        <v>9.5011032278081</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -8864,42 +8902,42 @@
       </c>
       <c r="K24" s="5">
         <f>U34</f>
-        <v>0.43082001758739352</v>
+        <v>0.43316397676244378</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.43081951141357422</v>
+        <v>0.43316364288330078</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>5.2775452935582834E-7</v>
+        <v>3.5019336536157297E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082046508789062</v>
+        <v>0.43316459655761719</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6678869902727627E-7</v>
+        <v>-6.4925677323302011E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="3"/>
-        <v>0.43081998825073242</v>
+        <v>0.43316411972045898</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>3.0482892765526515E-8</v>
+        <v>-1.4953172888798605E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>1.6087484724874629E-14</v>
+        <v>-5.2365019367618171E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>-1.4229069856608094E-14</v>
+        <v>9.70844877937686E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -8910,32 +8948,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5511779785156</v>
+        <v>1076.6792297363281</v>
       </c>
       <c r="AC24" s="8">
-        <v>-1.5413221004791922E-3</v>
+        <v>-1.9154937333496491E-3</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5549926757812</v>
+        <v>1076.6830444335938</v>
       </c>
       <c r="AE24" s="8">
-        <v>3.2093251491005503E-4</v>
+        <v>1.6525298667602328E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5530853271484</v>
+        <v>1076.6811370849609</v>
       </c>
       <c r="AG24" s="8">
-        <v>-6.1019462509648292E-4</v>
+        <v>-8.751202575467687E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>9.4050646125482422E-7</v>
+        <v>1.6762873692581665E-6</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-1.9583129561681245E-7</v>
+        <v>-1.4461623626029424E-7</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -8947,14 +8985,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>1.2999999999999601</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>101</v>
+        <v>1.2999999999999901</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="G25">
-        <f xml:space="preserve"> 0.0268 * $C$20</f>
-        <v>32.121256186583928</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -8964,7 +9001,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> K19 * $C$22 * K24 - $C$23 * SIN(K17)</f>
-        <v>2.4711032395395378</v>
+        <v>2.7826471401966231</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -8974,35 +9011,35 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.43081998825073242</v>
+        <v>0.43316364288330078</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>3.0482892765526515E-8</v>
+        <v>3.5019336536157297E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082046508789062</v>
+        <v>0.43316411972045898</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6678869902727627E-7</v>
+        <v>-1.4953172888798605E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082022666931152</v>
+        <v>0.43316388130187988</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="2"/>
-        <v>-2.1815290873750115E-7</v>
+        <v>1.0033081199178895E-7</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>-6.6499317235329396E-15</v>
+        <v>3.5135184700863836E-14</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>1.0183131245859429E-13</v>
+        <v>-1.5002639777867684E-14</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -9013,32 +9050,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5530853271484</v>
+        <v>1076.6811370849609</v>
       </c>
       <c r="AC25" s="8">
-        <v>-6.1019462509648292E-4</v>
+        <v>-8.751202575467687E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5549926757812</v>
+        <v>1076.6830444335938</v>
       </c>
       <c r="AE25" s="8">
-        <v>3.2093251491005503E-4</v>
+        <v>1.6525298667602328E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5540390014648</v>
+        <v>1076.6820907592773</v>
       </c>
       <c r="AG25" s="8">
-        <v>-1.4442584836160677E-4</v>
+        <v>-3.5502962055034004E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>8.8127876395252129E-8</v>
+        <v>3.1069361297274514E-7</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>-4.6350950732708712E-8</v>
+        <v>-5.8669705154398943E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -9047,11 +9084,11 @@
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F26" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26">
-        <f xml:space="preserve"> 11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592</f>
-        <v>7.6941352232120019</v>
+        <f xml:space="preserve"> 0.0268 * $C$20</f>
+        <v>28.855097469787143</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -9061,42 +9098,42 @@
       </c>
       <c r="K26">
         <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$33*PI()*$C$22^2) / K18^3 )</f>
-        <v>1.1972131715570866</v>
+        <v>1.2203377806519058</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.43081998825073242</v>
+        <v>0.43316388130187988</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>3.0482892765526515E-8</v>
+        <v>1.0033081199178895E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082022666931152</v>
+        <v>0.43316411972045898</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-2.1815290873750115E-7</v>
+        <v>-1.4953172888798605E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082010746002197</v>
+        <v>0.43316400051116943</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="2"/>
-        <v>-9.3835009373766098E-8</v>
+        <v>-2.4600460002410784E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>-2.8603625283926874E-15</v>
+        <v>-2.4681841274134003E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>2.047038023629776E-14</v>
+        <v>3.6785493156002339E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -9107,32 +9144,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5540390014648</v>
+        <v>1076.6820907592773</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.4442584836160677E-4</v>
+        <v>-3.5502962055034004E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5549926757812</v>
+        <v>1076.6830444335938</v>
       </c>
       <c r="AE26" s="8">
-        <v>3.2093251491005503E-4</v>
+        <v>1.6525298667602328E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1198.554515838623</v>
+        <v>1076.6825675964355</v>
       </c>
       <c r="AG26" s="8">
-        <v>8.8253343619726365E-5</v>
+        <v>-9.4792295499246393E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>-1.2746064023027376E-8</v>
+        <v>3.3654072702193153E-8</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>2.8323367517100041E-8</v>
+        <v>-1.5664709945126627E-8</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -9140,17 +9177,17 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="F27" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27">
-        <f xml:space="preserve"> 8 * ($C$20/1000)</f>
-        <v>9.5884346825623652</v>
+        <f xml:space="preserve"> 11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592</f>
+        <v>7.3710918768078662</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -9166,35 +9203,35 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.43081998825073242</v>
+        <v>0.43316388130187988</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>3.0482892765526515E-8</v>
+        <v>1.0033081199178895E-7</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082010746002197</v>
+        <v>0.43316400051116943</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-9.3835009373766098E-8</v>
+        <v>-2.4600460002410784E-8</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="3"/>
-        <v>0.4308200478553772</v>
+        <v>0.43316394090652466</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="2"/>
-        <v>-3.1676058664942275E-8</v>
+        <v>3.7865175606111023E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-9.6557789951796239E-16</v>
+        <v>3.7990438147727982E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>2.9723232617488233E-15</v>
+        <v>-9.3150073798239467E-16</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -9205,32 +9242,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5540390014648</v>
+        <v>1076.6825675964355</v>
       </c>
       <c r="AC27" s="8">
-        <v>-1.4442584836160677E-4</v>
+        <v>-9.4792295499246393E-5</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1198.554515838623</v>
+        <v>1076.6830444335938</v>
       </c>
       <c r="AE27" s="8">
-        <v>8.8253343619726365E-5</v>
+        <v>1.6525298667602328E-4</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5542774200439</v>
+        <v>1076.6828060150146</v>
       </c>
       <c r="AG27" s="8">
-        <v>-2.8291414537306991E-5</v>
+        <v>3.5134333188580058E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>4.086011545900457E-9</v>
+        <v>-3.3304640937808605E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>-2.4968119286490758E-9</v>
+        <v>5.8060534942833826E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -9248,11 +9285,11 @@
         <v>14</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28">
-        <f xml:space="preserve"> 13 * ($C$20*2.20462/1000)^1.3 * 0.453592</f>
-        <v>20.854397619186699</v>
+        <f xml:space="preserve"> 8 * ($C$20/1000)</f>
+        <v>8.613461931279744</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -9262,42 +9299,42 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> 1/$C$38 * LN( EXP($C$38 * K26) + EXP($C$38 * K27) )</f>
-        <v>1.2044530196453378</v>
+        <v>1.2241517465330662</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.43081998825073242</v>
+        <v>0.43316394090652466</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>3.0482892765526515E-8</v>
+        <v>3.7865175606111023E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.4308200478553772</v>
+        <v>0.43316400051116943</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1676058664942275E-8</v>
+        <v>-2.4600460002410784E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082001805305481</v>
+        <v>0.43316397070884705</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="2"/>
-        <v>-5.9658300521903129E-10</v>
+        <v>6.6323577185833926E-9</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>-1.8185575773827276E-17</v>
+        <v>2.5113538969670602E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>1.8897398271825599E-17</v>
+        <v>-1.631590507776912E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -9308,32 +9345,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5542774200439</v>
+        <v>1076.6825675964355</v>
       </c>
       <c r="AC28" s="8">
-        <v>-2.8291414537306991E-5</v>
+        <v>-9.4792295499246393E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1198.554515838623</v>
+        <v>1076.6828060150146</v>
       </c>
       <c r="AE28" s="8">
-        <v>8.8253343619726365E-5</v>
+        <v>3.5134333188580058E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543966293335</v>
+        <v>1076.6826868057251</v>
       </c>
       <c r="AG28" s="8">
-        <v>2.9980965337017551E-5</v>
+        <v>-2.9828980700585817E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>-8.4820391857819535E-10</v>
+        <v>2.8275575530112486E-9</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>2.6459204359389152E-9</v>
+        <v>-1.0480213466101062E-9</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -9345,19 +9382,19 @@
         <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="3">
-        <f>$C$20 - $C$28 - SUM(G17:G28)</f>
-        <v>-1.0618350643198937E-10</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="F29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29">
+        <f xml:space="preserve"> 13 * ($C$20*2.20462/1000)^1.3 * 0.453592</f>
+        <v>18.14081028601586</v>
+      </c>
+      <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="P29" s="8">
@@ -9365,35 +9402,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.43081998825073242</v>
+        <v>0.43316397070884705</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>3.0482892765526515E-8</v>
+        <v>6.6323577185833926E-9</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082001805305481</v>
+        <v>0.43316400051116943</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9658300521903129E-10</v>
+        <v>-2.4600460002410784E-8</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082000315189362</v>
+        <v>0.43316398561000824</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="2"/>
-        <v>1.4943154880153742E-8</v>
+        <v>-8.9840511696692715E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>4.5551058779038076E-16</v>
+        <v>-5.9585441119304144E-17</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-8.9148322458555526E-18</v>
+        <v>2.2101179145906075E-16</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -9404,32 +9441,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5542774200439</v>
+        <v>1076.6826868057251</v>
       </c>
       <c r="AC29" s="8">
-        <v>-2.8291414537306991E-5</v>
+        <v>-2.9828980700585817E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543966293335</v>
+        <v>1076.6828060150146</v>
       </c>
       <c r="AE29" s="8">
-        <v>2.9980965337017551E-5</v>
+        <v>3.5134333188580058E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543370246887</v>
+        <v>1076.6827464103699</v>
       </c>
       <c r="AG29" s="8">
-        <v>8.4477562722895527E-7</v>
+        <v>2.7486904627949116E-6</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-2.3899897460947897E-11</v>
+        <v>-8.1990634766593714E-11</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>2.5327188797508568E-11</v>
+        <v>9.6573406552108741E-11</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -9446,47 +9483,50 @@
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="10" t="str">
-        <f>IF(ABS(G29)&lt;0.00001, "TRUE", "FALSE")</f>
-        <v>TRUE</v>
+      <c r="F30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="3">
+        <f>$C$20 - $C$28 - SUM(G17:G29)</f>
+        <v>-4.5190517994342372E-10</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="P30" s="8">
         <v>26</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.43082000315189362</v>
+        <v>0.43316397070884705</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.4943154880153742E-8</v>
+        <v>6.6323577185833926E-9</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082001805305481</v>
+        <v>0.43316398561000824</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9658300521903129E-10</v>
+        <v>-8.9840511696692715E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082001060247421</v>
+        <v>0.43316397815942764</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="2"/>
-        <v>7.1732859097117796E-9</v>
+        <v>-1.1758466977873638E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>1.0719152234844765E-16</v>
+        <v>-7.7986359219408164E-18</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>-4.2794604653111862E-18</v>
+        <v>1.0563866900608317E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -9497,32 +9537,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5542774200439</v>
+        <v>1076.6826868057251</v>
       </c>
       <c r="AC30" s="8">
-        <v>-2.8291414537306991E-5</v>
+        <v>-2.9828980700585817E-5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543370246887</v>
+        <v>1076.6827464103699</v>
       </c>
       <c r="AE30" s="8">
-        <v>8.4477562722895527E-7</v>
+        <v>2.7486904627949116E-6</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543072223663</v>
+        <v>1076.6827166080475</v>
       </c>
       <c r="AG30" s="8">
-        <v>-1.3518154560188123E-5</v>
+        <v>-1.3636159110319568E-5</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>3.8244771444166902E-10</v>
+        <v>4.0675272693183985E-10</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-1.1419807497560883E-11</v>
+        <v>-3.7481580495689343E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -9530,40 +9570,47 @@
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f>IF(ABS(G30)&lt;0.00001, "TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
       <c r="P31" s="8">
         <v>27</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.43082001060247421</v>
+        <v>0.43316397070884705</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>7.1732859097117796E-9</v>
+        <v>6.6323577185833926E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082001805305481</v>
+        <v>0.43316397815942764</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9658300521903129E-10</v>
+        <v>-1.1758466977873638E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082001432776451</v>
+        <v>0.43316397443413734</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="2"/>
-        <v>3.2883514800019498E-9</v>
+        <v>2.7282555103980144E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>2.3588285337677863E-17</v>
+        <v>1.8094766492655944E-17</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9617746081560125E-18</v>
+        <v>-3.2080102326216841E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -9574,32 +9621,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543072223663</v>
+        <v>1076.6827166080475</v>
       </c>
       <c r="AC31" s="8">
-        <v>-1.3518154560188123E-5</v>
+        <v>-1.3636159110319568E-5</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543370246887</v>
+        <v>1076.6827464103699</v>
       </c>
       <c r="AE31" s="8">
-        <v>8.4477562722895527E-7</v>
+        <v>2.7486904627949116E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543221235275</v>
+        <v>1076.6827315092087</v>
       </c>
       <c r="AG31" s="8">
-        <v>-6.5418543044870603E-6</v>
+        <v>-5.4437344942925847E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>8.8433797598288053E-11</v>
+        <v>7.4231629718508715E-11</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>-5.5263990733134973E-12</v>
+        <v>-1.4963141086449709E-11</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -9607,45 +9654,45 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="P32" s="8">
         <v>28</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.43082001432776451</v>
+        <v>0.43316397443413734</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>3.2883514800019498E-9</v>
+        <v>2.7282555103980144E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082001805305481</v>
+        <v>0.43316397815942764</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9658300521903129E-10</v>
+        <v>-1.1758466977873638E-9</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082001619040966</v>
+        <v>0.43316397629678249</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="2"/>
-        <v>1.3458842373914592E-9</v>
+        <v>7.7620437854974966E-10</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>4.4257404239375005E-18</v>
+        <v>2.1176838729734208E-18</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>-8.0293166301992088E-19</v>
+        <v>-9.1269735532581605E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -9656,32 +9703,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543221235275</v>
+        <v>1076.6827315092087</v>
       </c>
       <c r="AC32" s="8">
-        <v>-6.5418543044870603E-6</v>
+        <v>-5.4437344942925847E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543370246887</v>
+        <v>1076.6827464103699</v>
       </c>
       <c r="AE32" s="8">
-        <v>8.4477562722895527E-7</v>
+        <v>2.7486904627949116E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543295741081</v>
+        <v>1076.6827389597893</v>
       </c>
       <c r="AG32" s="8">
-        <v>-2.848539566002728E-6</v>
+        <v>-1.3475219020619988E-6</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>1.8634730821356648E-11</v>
+        <v>7.3355514600696571E-12</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>-2.4063767985564505E-12</v>
+        <v>-3.7039206006050751E-12</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -9698,45 +9745,40 @@
       <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
       <c r="P33" s="8">
         <v>29</v>
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.43082001619040966</v>
+        <v>0.43316397629678249</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.3458842373914592E-9</v>
+        <v>7.7620437854974966E-10</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082001805305481</v>
+        <v>0.43316397815942764</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9658300521903129E-10</v>
+        <v>-1.1758466977873638E-9</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082001712173223</v>
+        <v>0.43316397722810507</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="2"/>
-        <v>3.7465058833063836E-10</v>
+        <v>-1.9982115961880709E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>5.0423632136364274E-19</v>
+        <v>-1.5510205902300649E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>-2.2351017389337037E-19</v>
+        <v>2.3495905068581605E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -9747,32 +9789,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543295741081</v>
+        <v>1076.6827389597893</v>
       </c>
       <c r="AC33" s="8">
-        <v>-2.848539566002728E-6</v>
+        <v>-1.3475219020619988E-6</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543370246887</v>
+        <v>1076.6827464103699</v>
       </c>
       <c r="AE33" s="8">
-        <v>8.4477562722895527E-7</v>
+        <v>2.7486904627949116E-6</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543332993984</v>
+        <v>1076.6827426850796</v>
       </c>
       <c r="AG33" s="8">
-        <v>-1.0018820830737241E-6</v>
+        <v>7.0058433720987523E-7</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>2.853900754104735E-12</v>
+        <v>-9.4405273863189586E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>-8.4636556513805752E-13</v>
+        <v>1.9256894860722783E-12</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -9789,50 +9831,45 @@
       <c r="D34" t="s">
         <v>30</v>
       </c>
-      <c r="F34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34">
-        <f>ROUND($C$28/$C$20 * 100, 2)</f>
-        <v>33.369999999999997</v>
-      </c>
-      <c r="H34" t="s">
-        <v>95</v>
-      </c>
+      <c r="F34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="P34" s="8">
         <v>30</v>
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.43082001712173223</v>
+        <v>0.43316397629678249</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>3.7465058833063836E-10</v>
+        <v>7.7620437854974966E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.43082001805305481</v>
+        <v>0.43316397722810507</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-5.9658300521903129E-10</v>
+        <v>-1.9982115961880709E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>0.43082001758739352</v>
+        <v>0.43316397676244378</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="2"/>
-        <v>-1.1096623619977208E-10</v>
+        <v>2.8819158170989567E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-4.1573565677081191E-20</v>
+        <v>2.2369556758439897E-19</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>6.6200570669904888E-20</v>
+        <v>-5.7586776049649548E-20</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -9843,32 +9880,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543332993984</v>
+        <v>1076.6827389597893</v>
       </c>
       <c r="AC34" s="8">
-        <v>-1.0018820830737241E-6</v>
+        <v>-1.3475219020619988E-6</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543370246887</v>
+        <v>1076.6827426850796</v>
       </c>
       <c r="AE34" s="8">
-        <v>8.4477562722895527E-7</v>
+        <v>7.0058433720987523E-7</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543351620436</v>
+        <v>1076.6827408224344</v>
       </c>
       <c r="AG34" s="8">
-        <v>-7.8553057392127812E-8</v>
+        <v>-3.2346883926948067E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>7.870090077183481E-14</v>
+        <v>4.3588134555019757E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>-6.6359708329186894E-14</v>
+        <v>-2.2661720236765678E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -9885,12 +9922,12 @@
       <c r="D35" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>87</v>
+      <c r="F35" t="s">
+        <v>94</v>
       </c>
       <c r="G35">
-        <f>ROUND(G17/$C$20 * 100, 2)</f>
-        <v>17.57</v>
+        <f>ROUND($C$28/$C$20 * 100, 2)</f>
+        <v>37.15</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -9900,32 +9937,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543351620436</v>
+        <v>1076.6827408224344</v>
       </c>
       <c r="AC35">
-        <v>-7.8553057392127812E-8</v>
+        <v>-3.2346883926948067E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543370246887</v>
+        <v>1076.6827426850796</v>
       </c>
       <c r="AE35">
-        <v>8.4477562722895527E-7</v>
+        <v>7.0058433720987523E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543360933661</v>
+        <v>1076.682741753757</v>
       </c>
       <c r="AG35">
-        <v>3.8311111438815715E-7</v>
+        <v>1.8855769212677842E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>-3.0094549356094952E-14</v>
+        <v>-6.0992537807581109E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>3.2364293195563949E-13</v>
+        <v>1.3210056576446277E-13</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -9933,12 +9970,12 @@
       </c>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F36" s="18" t="s">
-        <v>107</v>
+      <c r="F36" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G36">
-        <f>ROUND(SUM(G18:G19)/$C$20 * 100, 2)</f>
-        <v>11.01</v>
+        <f>ROUND(G17/$C$20 * 100, 2)</f>
+        <v>10.15</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -9948,32 +9985,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543351620436</v>
+        <v>1076.6827408224344</v>
       </c>
       <c r="AC36">
-        <v>-7.8553057392127812E-8</v>
+        <v>-3.2346883926948067E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543360933661</v>
+        <v>1076.682741753757</v>
       </c>
       <c r="AE36">
-        <v>3.8311111438815715E-7</v>
+        <v>1.8855769212677842E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543356277049</v>
+        <v>1076.6827412880957</v>
       </c>
       <c r="AG36">
-        <v>1.5227908534143353E-7</v>
+        <v>-6.7455630414769985E-8</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>-1.1961987730446357E-14</v>
+        <v>2.1819794472456724E-14</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>5.8339810083165885E-14</v>
+        <v>-1.2719277991965949E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -9981,17 +10018,17 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="F37" s="17" t="s">
-        <v>108</v>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="F37" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="G37">
-        <f>ROUND(SUM(G20:G24)/$C$20 * 100, 2)</f>
-        <v>32.18</v>
+        <f>ROUND(SUM(G18:G20)/$C$20 * 100, 2)</f>
+        <v>12.95</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
@@ -10001,32 +10038,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543351620436</v>
+        <v>1076.6827412880957</v>
       </c>
       <c r="AC37">
-        <v>-7.8553057392127812E-8</v>
+        <v>-6.7455630414769985E-8</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543356277049</v>
+        <v>1076.682741753757</v>
       </c>
       <c r="AE37">
-        <v>1.5227908534143353E-7</v>
+        <v>1.8855769212677842E-7</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543353948742</v>
+        <v>1076.6827415209264</v>
       </c>
       <c r="AG37">
-        <v>3.6862957131233998E-8</v>
+        <v>6.0551315073098522E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>-2.8956979871733714E-15</v>
+        <v>-4.0845271306992249E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>5.6134573949247876E-15</v>
+        <v>1.1417416225424869E-14</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -10040,12 +10077,12 @@
       <c r="C38" s="1">
         <v>30</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>109</v>
+      <c r="F38" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="G38">
-        <f>ROUND(SUM(G25:G28)/$C$20*100, 2)</f>
-        <v>5.86</v>
+        <f>ROUND(SUM(G21:G25)/$C$20 * 100, 2)</f>
+        <v>33.9</v>
       </c>
       <c r="H38" t="s">
         <v>95</v>
@@ -10055,32 +10092,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543351620436</v>
+        <v>1076.6827412880957</v>
       </c>
       <c r="AC38">
-        <v>-7.8553057392127812E-8</v>
+        <v>-6.7455630414769985E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543353948742</v>
+        <v>1076.6827415209264</v>
       </c>
       <c r="AE38">
-        <v>3.6862957131233998E-8</v>
+        <v>6.0551315073098522E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543352784589</v>
+        <v>1076.682741404511</v>
       </c>
       <c r="AG38">
-        <v>-2.0844936443609186E-8</v>
+        <v>-3.4522145142545924E-9</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>1.637433488790089E-15</v>
+        <v>2.3287130638606247E-16</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-7.6840599852406267E-16</v>
+        <v>-2.0903612875255359E-16</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -10088,14 +10125,14 @@
       </c>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="3">
-        <f>SUM(G34:G38)</f>
-        <v>99.99</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="F39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <f>ROUND(SUM(G26:G29)/$C$20*100, 2)</f>
+        <v>5.85</v>
+      </c>
+      <c r="H39" t="s">
         <v>95</v>
       </c>
       <c r="AA39" s="8">
@@ -10103,32 +10140,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543352784589</v>
+        <v>1076.682741404511</v>
       </c>
       <c r="AC39">
-        <v>-2.0844936443609186E-8</v>
+        <v>-3.4522145142545924E-9</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543353948742</v>
+        <v>1076.6827415209264</v>
       </c>
       <c r="AE39">
-        <v>3.6862957131233998E-8</v>
+        <v>6.0551315073098522E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543353366666</v>
+        <v>1076.6827414627187</v>
       </c>
       <c r="AG39">
-        <v>8.0087829701369628E-9</v>
+        <v>2.8549607122840825E-8</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>-1.6694257200316459E-16</v>
+        <v>-9.855936808573739E-17</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>2.9522742330151575E-16</v>
+        <v>1.7287162561083126E-15</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -10136,37 +10173,47 @@
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="3">
+        <f>SUM(G35:G39)</f>
+        <v>100</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="AA40" s="8">
         <v>36</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543352784589</v>
+        <v>1076.682741404511</v>
       </c>
       <c r="AC40">
-        <v>-2.0844936443609186E-8</v>
+        <v>-3.4522145142545924E-9</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543353366666</v>
+        <v>1076.6827414627187</v>
       </c>
       <c r="AE40">
-        <v>8.0087829701369628E-9</v>
+        <v>2.8549607122840825E-8</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543353075627</v>
+        <v>1076.6827414336149</v>
       </c>
       <c r="AG40">
-        <v>-6.418190423573833E-9</v>
+        <v>1.2548753147711977E-8</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>1.3378677146237767E-16</v>
+        <v>-4.3320987752329291E-17</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>-5.1401894163414253E-17</v>
+        <v>3.582619722486891E-16</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -10174,40 +10221,37 @@
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="C41" s="1">
-        <v>1.2</v>
-      </c>
       <c r="AA41" s="8">
         <v>37</v>
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543353075627</v>
+        <v>1076.682741404511</v>
       </c>
       <c r="AC41">
-        <v>-6.418190423573833E-9</v>
+        <v>-3.4522145142545924E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543353366666</v>
+        <v>1076.6827414336149</v>
       </c>
       <c r="AE41">
-        <v>8.0087829701369628E-9</v>
+        <v>1.2548753147711977E-8</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543353221146</v>
+        <v>1076.6827414190629</v>
       </c>
       <c r="AG41">
-        <v>7.9535311670042574E-10</v>
+        <v>4.5482693167286925E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>-5.1047277569662737E-18</v>
+        <v>-1.570160134994961E-17</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>6.3698104962757261E-18</v>
+        <v>5.7075108904940985E-17</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -10215,40 +10259,43 @@
       </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
       <c r="C42" s="1">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AA42" s="8">
         <v>38</v>
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543353075627</v>
+        <v>1076.682741404511</v>
       </c>
       <c r="AC42">
-        <v>-6.418190423573833E-9</v>
+        <v>-3.4522145142545924E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543353221146</v>
+        <v>1076.6827414190629</v>
       </c>
       <c r="AE42">
-        <v>7.9535311670042574E-10</v>
+        <v>4.5482693167286925E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543353148387</v>
+        <v>1076.682741411787</v>
       </c>
       <c r="AG42">
-        <v>-2.8113618100178428E-9</v>
+        <v>5.4797055781818926E-10</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>1.8043855446257716E-17</v>
+        <v>-1.8917119130841383E-18</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>-2.2360253777702415E-18</v>
+        <v>2.4923176745951762E-18</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -10257,39 +10304,39 @@
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <v>55</v>
+        <v>0.9</v>
       </c>
       <c r="AA43" s="8">
         <v>39</v>
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543353148387</v>
+        <v>1076.682741404511</v>
       </c>
       <c r="AC43">
-        <v>-2.8113618100178428E-9</v>
+        <v>-3.4522145142545924E-9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543353221146</v>
+        <v>1076.682741411787</v>
       </c>
       <c r="AE43">
-        <v>7.9535311670042574E-10</v>
+        <v>5.4797055781818926E-10</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1198.5543353184767</v>
+        <v>1076.682741408149</v>
       </c>
       <c r="AG43">
-        <v>-1.0079475032398477E-9</v>
+        <v>-1.4521219782182015E-9</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>2.8337051171113438E-18</v>
+        <v>5.0130365696729664E-18</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>-8.0167418817222536E-19</v>
+        <v>-7.9572009042428038E-19</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -10298,39 +10345,39 @@
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <v>6.4</v>
+        <v>50</v>
       </c>
       <c r="AA44" s="8">
         <v>40</v>
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1198.5543353184767</v>
+        <v>1076.682741408149</v>
       </c>
       <c r="AC44">
-        <v>-1.0079475032398477E-9</v>
+        <v>-1.4521219782182015E-9</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1198.5543353221146</v>
+        <v>1076.682741411787</v>
       </c>
       <c r="AE44">
-        <v>7.9535311670042574E-10</v>
+        <v>5.4797055781818926E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1198.5543353202956</v>
+        <v>1076.682741409968</v>
       </c>
       <c r="AG44">
-        <v>-1.0618350643198937E-10</v>
+        <v>-4.5190517994342372E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>1.07027400193376E-19</v>
+        <v>6.5622144386649679E-19</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>-8.445338278286245E-20</v>
+        <v>-2.4763073353452709E-19</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -10339,10 +10386,10 @@
     </row>
     <row r="45" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="T45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U45">
         <v>10</v>
@@ -10358,8 +10405,11 @@
       </c>
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
       <c r="T46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U46">
         <f>U47^2/U45</f>
@@ -10403,6 +10453,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F7:H7"/>
@@ -10411,19 +10467,13 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",G31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",G31)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
@@ -10432,7 +10482,7 @@
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G31)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"""YES"""</formula>
@@ -10445,10 +10495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04399F6A-8712-2C4A-BDE2-261DEBFAF47B}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10458,16 +10508,16 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -10475,7 +10525,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>3269</v>
@@ -10493,7 +10543,7 @@
         <v>3863</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -10518,7 +10568,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>6.6</v>
@@ -10536,12 +10586,12 @@
         <v>15.8</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <f>2.5 * (C3/1000) ^ (2/3)</f>
@@ -10566,7 +10616,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <f>C5/((C3/1000)^(2/3))</f>
@@ -10603,50 +10653,126 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <f>177*$C$19</f>
+        <v>131.9889</v>
+      </c>
+      <c r="D10">
+        <f>200*$C$19</f>
+        <v>149.14000000000001</v>
+      </c>
+      <c r="E10">
+        <f>138*$C$19</f>
+        <v>102.9066</v>
+      </c>
+      <c r="F10">
+        <f>100*$C$19</f>
+        <v>74.570000000000007</v>
+      </c>
+      <c r="G10">
+        <f>102*$C$19</f>
+        <v>76.061400000000006</v>
+      </c>
+      <c r="H10" t="s">
         <v>122</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <f>252*$C$19</f>
+        <v>187.91640000000001</v>
+      </c>
+      <c r="D11">
+        <f>240*$C$19</f>
+        <v>178.96800000000002</v>
+      </c>
+      <c r="E11">
+        <f>435*$C$19</f>
+        <v>324.37950000000001</v>
+      </c>
+      <c r="F11">
+        <f>680*$C$19</f>
+        <v>507.07600000000002</v>
+      </c>
+      <c r="G11">
+        <f>308*$C$19</f>
+        <v>229.6756</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" t="s">
-        <v>127</v>
+      <c r="H12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
         <v>126</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16">
+        <f>2.20462 * (49.9/398 * (C11/C4-2) + 0.1) * C4 * $C$18</f>
+        <v>41.287451382961208</v>
+      </c>
+      <c r="D16">
+        <f>2.20462 * (49.9/398 * (D11/D4-2) + 0.1) * D4 * $C$18</f>
+        <v>38.511069677957792</v>
+      </c>
+      <c r="E16">
+        <f>2.20462 * (49.9/398 * (E11/E4-2) + 0.1) * E4 * $C$18</f>
+        <v>71.197203841549751</v>
+      </c>
+      <c r="F16">
+        <f>2.20462 * (49.9/398 * (F11/F4-2) + 0.1) * F4 * $C$18</f>
+        <v>111.06451209424725</v>
+      </c>
+      <c r="G16">
+        <f>2.20462*(49.9/398*(G11/4-2)+0.1)*4*$C$18 + 2.20462*(49.9/398*(G10/1-2)+0.1)*1*$C$18</f>
+        <v>66.277197701519597</v>
+      </c>
+      <c r="H16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17">
+      <c r="C18">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19">
+        <v>0.74570000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9526D-1CF9-A44C-899D-A8FFBA139D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8B4625-6A28-0449-93AA-B11A3B7886DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="153">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Nm</t>
   </si>
   <si>
-    <t>thrust</t>
-  </si>
-  <si>
     <t>n_rotor</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>technology_factor</t>
   </si>
   <si>
-    <t>RPM</t>
-  </si>
-  <si>
     <t>helicopter</t>
   </si>
   <si>
@@ -454,12 +448,6 @@
     <t>L/D</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>P_hover</t>
   </si>
   <si>
@@ -475,7 +463,40 @@
     <t>W_propulsion</t>
   </si>
   <si>
-    <t>Init values</t>
+    <t>g</t>
+  </si>
+  <si>
+    <t>lb to kg</t>
+  </si>
+  <si>
+    <t>thrust of each rotor</t>
+  </si>
+  <si>
+    <t>Init values for</t>
+  </si>
+  <si>
+    <t>optimize_multirotor.py</t>
+  </si>
+  <si>
+    <t>Design values for</t>
+  </si>
+  <si>
+    <t>mtow_multirotor.py</t>
+  </si>
+  <si>
+    <t>estimate_</t>
+  </si>
+  <si>
+    <t>optimize_liftcruise.py</t>
+  </si>
+  <si>
+    <t>mtow_liftcruise.py</t>
+  </si>
+  <si>
+    <t>Optimal design</t>
+  </si>
+  <si>
+    <t>W_takeoff</t>
   </si>
 </sst>
 </file>
@@ -591,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -635,6 +656,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,7 +1160,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>multirotor!$F$32:$F$36</c:f>
+              <c:f>multirotor!$F$34:$F$38</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1160,24 +1183,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>multirotor!$G$32:$G$36</c:f>
+              <c:f>multirotor!$G$34:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.64</c:v>
+                  <c:v>37.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.06</c:v>
+                  <c:v>28.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.02</c:v>
+                  <c:v>11.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.16</c:v>
+                  <c:v>15.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.84</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,19 +1698,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37.15</c:v>
+                  <c:v>32.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.15</c:v>
+                  <c:v>16.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.95</c:v>
+                  <c:v>15.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.9</c:v>
+                  <c:v>29.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.85</c:v>
+                  <c:v>5.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3439,7 +3462,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$7 * SQRT( ($C$15*$C$27)^3 / (2 * $C$26 * PI() * $C$16^2* $C$5) )</f>
-        <v>99790.888637145195</v>
+        <v>192253.98362120942</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -3449,7 +3472,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> 0.5 * $C$26 * $C$17^2</f>
-        <v>416.26522840146413</v>
+        <v>551.25</v>
       </c>
       <c r="L4" t="s">
         <v>48</v>
@@ -3462,14 +3485,14 @@
       </c>
       <c r="R4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q4^2)) - Q4</f>
-        <v>0.11637926768186785</v>
+        <v>0.11497969558616483</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S4^2)) - S4</f>
-        <v>-0.91378643136971804</v>
+        <v>-0.93259633323594415</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -3477,15 +3500,15 @@
       </c>
       <c r="V4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U4^2)) - U4</f>
-        <v>-0.39960399210411679</v>
+        <v>-0.41743214108030258</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.6505619963828015E-2</v>
+        <v>-4.7996220509294203E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.36515270590591387</v>
+        <v>0.38929568414631949</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -3496,18 +3519,18 @@
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
-        <f>G27</f>
-        <v>-7.9376150097232312E-10</v>
+        <f>G29</f>
+        <v>6.7961991589982063E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
-        <f>G27</f>
-        <v>-7.9376150097232312E-10</v>
+        <f>G29</f>
+        <v>6.7961991589982063E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
-        <f>G27</f>
-        <v>-7.9376150097232312E-10</v>
+        <f>G29</f>
+        <v>6.7961991589982063E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -3525,7 +3548,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$15 * $C$27 / $C$5</f>
-        <v>1255.6508664176649</v>
+        <v>1483.6485377299193</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -3535,7 +3558,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
-        <v>2.6102286930071386</v>
+        <v>3.0282490920191445</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -3549,7 +3572,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q5^2)) - Q5</f>
-        <v>0.11637926768186785</v>
+        <v>0.11497969558616483</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -3557,7 +3580,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S5^2)) - S5</f>
-        <v>-0.39960399210411679</v>
+        <v>-0.41743214108030258</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -3565,15 +3588,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U5^2)) - U5</f>
-        <v>-0.13938186820967358</v>
+        <v>-0.15049364808164992</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>-1.6221159750372426E-2</v>
+        <v>-1.7303713844079527E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>5.5697550963515446E-2</v>
+        <v>6.2820885737708693E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -3586,31 +3609,31 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>-206.29091780149838</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15"/>
+        <v>-229.19249747638241</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>466.12282266038596</v>
+        <v>186.96614444510101</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15"/>
-        <v>242.87729795899588</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <v>114.71452141751035</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-50103.380709109253</v>
+        <v>-26291.707660487158</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>113210.65168477476</v>
+        <v>21447.731781296876</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -3629,7 +3652,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
-        <v>5.2753117348345813E-2</v>
+        <v>0.13770308911668305</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -3640,7 +3663,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.11637926768186785</v>
+        <v>0.11497969558616483</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -3648,7 +3671,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13938186820967358</v>
+        <v>-0.15049364808164992</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="2"/>
@@ -3656,15 +3679,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>-1.0250063921568742E-2</v>
+        <v>-1.5155621422872551E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-1.1928949328845048E-3</v>
+        <v>-1.7425887376210441E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>1.4286730586568243E-3</v>
+        <v>2.280824756872496E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -3678,29 +3701,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-206.29091780149838</v>
+        <v>-229.19249747638241</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0, AF5, AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>242.87729795899588</v>
+        <v>114.71452141751035</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>47.971367681479023</v>
+        <v>-19.510207164513076</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>-9896.0574672054445</v>
+        <v>4471.5931063163616</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>11651.156161875126</v>
+        <v>-2238.1040776335994</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -3724,7 +3747,7 @@
       </c>
       <c r="K7">
         <f xml:space="preserve"> K4 * K5</f>
-        <v>1086.5474430746717</v>
+        <v>1669.3223119755535</v>
       </c>
       <c r="L7" t="s">
         <v>37</v>
@@ -3738,7 +3761,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.11637926768186785</v>
+        <v>0.11497969558616483</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -3746,7 +3769,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0250063921568742E-2</v>
+        <v>-1.5155621422872551E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="2"/>
@@ -3754,15 +3777,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>5.3457869387301404E-2</v>
+        <v>5.1076446881588911E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>6.2213876911270793E-3</v>
+        <v>5.8727543140680112E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-5.4794657833071221E-4</v>
+        <v>-7.7409529256282079E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -3773,32 +3796,32 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0, AF6, AB6)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AC7" s="8">
-        <v>-206.29091780149838</v>
+        <v>-19.510207164513076</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0, AF6, AD6)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="AE7" s="8">
-        <v>47.971367681479023</v>
+        <v>114.71452141751035</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="AG7" s="8">
-        <v>-71.703698875837517</v>
+        <v>56.552204396811021</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>14791.821850858789</v>
+        <v>-1103.3452233916703</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>-3439.7245028948555</v>
+        <v>6487.3590624854014</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -3811,7 +3834,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
-        <v>9033.7716991443322</v>
+        <v>20118.636908715685</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -3821,7 +3844,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K7</f>
-        <v>1086.5474430746717</v>
+        <v>1669.3223119755535</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -3835,7 +3858,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>5.3457869387301404E-2</v>
+        <v>5.1076446881588911E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -3843,7 +3866,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0250063921568742E-2</v>
+        <v>-1.5155621422872551E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="2"/>
@@ -3851,15 +3874,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="3"/>
-        <v>2.1694598427410533E-2</v>
+        <v>1.8190818926534763E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>1.1597470091424668E-3</v>
+        <v>9.2912239663375503E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-2.2237102063372267E-4</v>
+        <v>-2.7569316502258569E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -3870,32 +3893,32 @@
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AC8" s="8">
-        <v>-71.703698875837517</v>
+        <v>-19.510207164513076</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE8" s="8">
-        <v>47.971367681479023</v>
+        <v>56.552204396811021</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="AG8" s="8">
-        <v>-9.9896599430754236</v>
+        <v>20.821003582932235</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>716.29556843029638</v>
+        <v>-406.22209327607692</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>-479.21765014221398</v>
+        <v>1177.4736503687184</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -3913,7 +3936,7 @@
       </c>
       <c r="G9">
         <f>$C$5 * G8</f>
-        <v>63236.401894010327</v>
+        <v>140830.45836100981</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -3927,7 +3950,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>2.1694598427410533E-2</v>
+        <v>1.8190818926534763E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -3935,7 +3958,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0250063921568742E-2</v>
+        <v>-1.5155621422872551E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="2"/>
@@ -3943,15 +3966,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="3"/>
-        <v>5.7436955683024538E-3</v>
+        <v>1.5662598879128686E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>1.2460716884361926E-4</v>
+        <v>2.8491550012917629E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>-5.8873246721131254E-5</v>
+        <v>-2.3737641911038233E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -3962,32 +3985,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="AC9" s="8">
-        <v>-9.9896599430754236</v>
+        <v>-19.510207164513076</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="AE9" s="8">
-        <v>47.971367681479023</v>
+        <v>20.821003582932235</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>937.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>19.459299576775265</v>
+        <v>1.2382060102188461</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>-194.39178550241641</v>
+        <v>-24.157655771714882</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>933.48921482153537</v>
+        <v>25.780691775174823</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -4013,7 +4036,7 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>5.7436955683024538E-3</v>
+        <v>1.5662598879128686E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
@@ -4021,7 +4044,7 @@
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0250063921568742E-2</v>
+        <v>-1.5155621422872551E-2</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="2"/>
@@ -4029,15 +4052,15 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" si="3"/>
-        <v>-2.2479971751305783E-3</v>
+        <v>-6.7836515216387894E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-1.2911811412353937E-5</v>
+        <v>-1.0624961271921931E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>2.304211474059439E-5</v>
+        <v>1.0281045432665082E-4</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -4048,32 +4071,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="AC10" s="8">
-        <v>-9.9896599430754236</v>
+        <v>-19.510207164513076</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>937.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AE10" s="8">
-        <v>19.459299576775265</v>
+        <v>1.2382060102188461</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>906.25</v>
+        <v>1031.25</v>
       </c>
       <c r="AG10" s="8">
-        <v>4.8520806006823705</v>
+        <v>-8.9893304113539898</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>-48.470635217210017</v>
+        <v>175.38369859577389</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>94.418089979337921</v>
+        <v>-11.130642943181563</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -4106,7 +4129,7 @@
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>5.7436955683024538E-3</v>
+        <v>1.5662598879128686E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
@@ -4114,7 +4137,7 @@
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-2.2479971751305783E-3</v>
+        <v>-6.7836515216387894E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="2"/>
@@ -4122,15 +4145,15 @@
       </c>
       <c r="V11" s="8">
         <f t="shared" si="3"/>
-        <v>1.7491677641976872E-3</v>
+        <v>-2.6057968385830854E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>1.0046687135439768E-5</v>
+        <v>-4.0813550643228509E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>-3.9321241927458698E-6</v>
+        <v>1.7676817689135696E-5</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -4141,32 +4164,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>1031.25</v>
       </c>
       <c r="AC11" s="8">
-        <v>-9.9896599430754236</v>
+        <v>-8.9893304113539898</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>906.25</v>
+        <v>1062.5</v>
       </c>
       <c r="AE11" s="8">
-        <v>4.8520806006823705</v>
+        <v>1.2382060102188461</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>890.625</v>
+        <v>1046.875</v>
       </c>
       <c r="AG11" s="8">
-        <v>-2.5394602632337637</v>
+        <v>-3.8390145282813819</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>25.368344468658101</v>
+        <v>34.510170048709618</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>-12.321665879440291</v>
+        <v>-4.7534908622354752</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -4185,7 +4208,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$23 + G9*G13)/3600</f>
-        <v>33604.826608879259</v>
+        <v>51936.504008361131</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -4195,7 +4218,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> SQRT( ($C$15*$C$27)^2 + K8^2)</f>
-        <v>8856.459855071229</v>
+        <v>10518.843718449174</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -4205,35 +4228,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.11328125</v>
+        <v>0.109375</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>1.7491677641976872E-3</v>
+        <v>1.5662598879128686E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.1171875</v>
+        <v>0.11328125</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-2.2479971751305783E-3</v>
+        <v>-2.6057968385830854E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="2"/>
-        <v>0.115234375</v>
+        <v>0.111328125</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>-2.4908775814838635E-4</v>
+        <v>-5.1902596054387296E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-4.3569627700942717E-7</v>
+        <v>-8.1292954278531547E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>5.5994857667718119E-7</v>
+        <v>1.3524762071277734E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -4244,32 +4267,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>890.625</v>
+        <v>1046.875</v>
       </c>
       <c r="AC12" s="8">
-        <v>-2.5394602632337637</v>
+        <v>-3.8390145282813819</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>906.25</v>
+        <v>1062.5</v>
       </c>
       <c r="AE12" s="8">
-        <v>4.8520806006823705</v>
+        <v>1.2382060102188461</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>898.4375</v>
+        <v>1054.6875</v>
       </c>
       <c r="AG12" s="8">
-        <v>1.1636408549138082</v>
+        <v>-1.2912829831548152</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>-2.9550197117289811</v>
+        <v>4.9572541324538584</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>5.6460792182887376</v>
+        <v>-1.5988743506356131</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -4282,7 +4305,7 @@
       </c>
       <c r="G13">
         <f xml:space="preserve"> $C$22 / $C$17</f>
-        <v>1534.3624813074764</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -4292,42 +4315,42 @@
       </c>
       <c r="K13">
         <f>$C$15*$C$27/K12</f>
-        <v>0.99244576374280458</v>
+        <v>0.98732712854114046</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.11328125</v>
+        <v>0.109375</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>1.7491677641976872E-3</v>
+        <v>1.5662598879128686E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.115234375</v>
+        <v>0.111328125</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4908775814838635E-4</v>
+        <v>-5.1902596054387296E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="2"/>
-        <v>0.1142578125</v>
+        <v>0.1103515625</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="3"/>
-        <v>7.5012207878442927E-4</v>
+        <v>5.2380481590380557E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>1.3120893594226815E-6</v>
+        <v>8.2041447224571525E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>-1.8684622694202073E-7</v>
+        <v>-2.7186829771197924E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -4338,32 +4361,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>890.625</v>
+        <v>1054.6875</v>
       </c>
       <c r="AC13" s="8">
-        <v>-2.5394602632337637</v>
+        <v>-1.2912829831548152</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>898.4375</v>
+        <v>1062.5</v>
       </c>
       <c r="AE13" s="8">
-        <v>1.1636408549138082</v>
+        <v>1.2382060102188461</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>894.53125</v>
+        <v>1058.59375</v>
       </c>
       <c r="AG13" s="8">
-        <v>-0.68607750060164108</v>
+        <v>-2.4260619257347571E-2</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>1.7422665502766062</v>
+        <v>3.1327324807810926E-2</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>-0.79834780933722238</v>
+        <v>-3.0039644576078842E-2</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -4381,35 +4404,35 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.1142578125</v>
+        <v>0.1103515625</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>7.5012207878442927E-4</v>
+        <v>5.2380481590380557E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.115234375</v>
+        <v>0.111328125</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4908775814838635E-4</v>
+        <v>-5.1902596054387296E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="2"/>
-        <v>0.11474609375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="3"/>
-        <v>2.5053763702115317E-4</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>1.8793381309604621E-7</v>
+        <v>1.2760475784086771E-9</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-6.2405858337393205E-8</v>
+        <v>-1.264405748046569E-9</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -4420,32 +4443,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>894.53125</v>
+        <v>1058.59375</v>
       </c>
       <c r="AC14" s="8">
-        <v>-0.68607750060164108</v>
+        <v>-2.4260619257347571E-2</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>898.4375</v>
+        <v>1062.5</v>
       </c>
       <c r="AE14" s="8">
-        <v>1.1636408549138082</v>
+        <v>1.2382060102188461</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>896.484375</v>
+        <v>1060.546875</v>
       </c>
       <c r="AG14" s="8">
-        <v>0.23923965836166872</v>
+        <v>0.60754175834131274</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>-0.16413694685356417</v>
+        <v>-1.4739339282058056E-2</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>0.2783890405852596</v>
+        <v>0.75226185663713918</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -4458,45 +4481,50 @@
       </c>
       <c r="C15" s="3">
         <f>AF44</f>
-        <v>895.97921151107585</v>
+        <v>1058.6686813567212</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="P15" s="8">
         <v>11</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.11474609375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>2.5053763702115317E-4</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.115234375</v>
+        <v>0.111328125</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4908775814838635E-4</v>
+        <v>-5.1902596054387296E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="2"/>
-        <v>0.114990234375</v>
+        <v>0.111083984375</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>7.3005332115738675E-7</v>
+        <v>-2.5828328739285755E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>1.8290583398221673E-10</v>
+        <v>-6.2920720355044332E-10</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>-1.8184734509587738E-10</v>
+        <v>1.3405573133150709E-7</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -4507,32 +4535,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>894.53125</v>
+        <v>1058.59375</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.68607750060164108</v>
+        <v>-2.4260619257347571E-2</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>896.484375</v>
+        <v>1060.546875</v>
       </c>
       <c r="AE15" s="8">
-        <v>0.23923965836166872</v>
+        <v>0.60754175834131274</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>895.5078125</v>
+        <v>1059.5703125</v>
       </c>
       <c r="AG15" s="8">
-        <v>-0.22330443845953596</v>
+        <v>0.29178336235747793</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>0.15320415101157139</v>
+        <v>-7.0788450597834536E-3</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>-5.342327756770366E-2</v>
+        <v>0.17727057702140253</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -4544,16 +4572,21 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>1.49999999995335</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="F16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16">
+        <f>C15</f>
+        <v>1058.6686813567212</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
       <c r="J16" s="21" t="s">
         <v>50</v>
       </c>
@@ -4564,35 +4597,35 @@
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.115234375</v>
+        <v>0.111083984375</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4908775814838635E-4</v>
+        <v>-2.5828328739285755E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="2"/>
-        <v>0.1151123046875</v>
+        <v>0.1109619140625</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="3"/>
-        <v>-1.2417757460450596E-4</v>
+        <v>-1.2792067386108164E-4</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-9.0656250753288743E-11</v>
+        <v>-3.1162918162023233E-10</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>3.0931113670540385E-8</v>
+        <v>3.3039772170349751E-8</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -4603,32 +4636,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>895.5078125</v>
+        <v>1058.59375</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.22330443845953596</v>
+        <v>-2.4260619257347571E-2</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>896.484375</v>
+        <v>1059.5703125</v>
       </c>
       <c r="AE16" s="8">
-        <v>0.23923965836166872</v>
+        <v>0.29178336235747793</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>895.99609375</v>
+        <v>1059.08203125</v>
       </c>
       <c r="AG16" s="8">
-        <v>7.9965765220890717E-3</v>
+        <v>0.13379757990185226</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>-1.7856710298638091E-3</v>
+        <v>-3.2460121435533775E-3</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>1.9130982352075305E-3</v>
+        <v>3.9039907739055767E-2</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -4640,7 +4673,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>26.069459131922201</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -4650,7 +4683,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$10 * $C$11 * $C$12)</f>
-        <v>197.67545064046624</v>
+        <v>305.50884710800665</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -4660,7 +4693,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> ACOS(K13)</f>
-        <v>0.12299403680234966</v>
+        <v>0.15937207554178379</v>
       </c>
       <c r="L17" t="s">
         <v>52</v>
@@ -4670,35 +4703,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.1151123046875</v>
+        <v>0.1109619140625</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2417757460450596E-4</v>
+        <v>-1.2792067386108164E-4</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
-        <v>0.11505126953125</v>
+        <v>0.11090087890625</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="3"/>
-        <v>-6.1723441106609211E-5</v>
+        <v>-6.2741551656225747E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-4.5061403173142421E-11</v>
+        <v>-1.5284549249205961E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>7.6646672128627951E-9</v>
+        <v>8.02594156695426E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -4709,32 +4742,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>895.5078125</v>
+        <v>1058.59375</v>
       </c>
       <c r="AC17" s="8">
-        <v>-0.22330443845953596</v>
+        <v>-2.4260619257347571E-2</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>895.99609375</v>
+        <v>1059.08203125</v>
       </c>
       <c r="AE17" s="8">
-        <v>7.9965765220890717E-3</v>
+        <v>0.13379757990185226</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>895.751953125</v>
+        <v>1058.837890625</v>
       </c>
       <c r="AG17" s="8">
-        <v>-0.1076470338227864</v>
+        <v>5.4776516890342464E-2</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>2.4038060439631991E-2</v>
+        <v>-1.3289122205202668E-3</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>-8.6080774333982188E-4</v>
+        <v>7.3289653953807557E-3</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -4746,14 +4779,14 @@
         <v>113</v>
       </c>
       <c r="C18" s="1">
-        <v>0.499999998351708</v>
+        <v>0.3</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592</f>
-        <v>47.229928093029223</v>
+        <v>57.440123562966924</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -4763,7 +4796,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$5</f>
-        <v>1265.2085507244612</v>
+        <v>1502.6919597784533</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -4773,35 +4806,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.11505126953125</v>
+        <v>0.11090087890625</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-6.1723441106609211E-5</v>
+        <v>-6.2741551656225747E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="2"/>
-        <v>0.115020751953125</v>
+        <v>0.110870361328125</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="3"/>
-        <v>-3.0496613998620692E-5</v>
+        <v>-3.0152537169120253E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-2.226415433374789E-11</v>
+        <v>-7.3454979544516984E-11</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>1.8823559580948582E-9</v>
+        <v>1.8918169683626251E-9</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -4812,32 +4845,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>895.751953125</v>
+        <v>1058.59375</v>
       </c>
       <c r="AC18" s="8">
-        <v>-0.1076470338227864</v>
+        <v>-2.4260619257347571E-2</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>895.99609375</v>
+        <v>1058.837890625</v>
       </c>
       <c r="AE18" s="8">
-        <v>7.9965765220890717E-3</v>
+        <v>5.4776516890342464E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>895.8740234375</v>
+        <v>1058.7158203125</v>
       </c>
       <c r="AG18" s="8">
-        <v>-4.9823504366941052E-2</v>
+        <v>1.5260211967415671E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>5.363352459757849E-3</v>
+        <v>-3.702221923278905E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>-3.9841746526888313E-4</v>
+        <v>8.359012585833507E-4</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -4850,7 +4883,7 @@
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836</f>
-        <v>24.5966870637833</v>
+        <v>41.979748920787365</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -4860,7 +4893,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
-        <v>34.496699152850596</v>
+        <v>98.732712854114041</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -4870,35 +4903,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.115020751953125</v>
+        <v>0.110870361328125</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-3.0496613998620692E-5</v>
+        <v>-3.0152537169120253E-5</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="2"/>
-        <v>0.1150054931640625</v>
+        <v>0.1108551025390625</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="3"/>
-        <v>-1.4883260363918183E-5</v>
+        <v>-1.3858166638763825E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0865573658328566E-11</v>
+        <v>-3.3760056119503153E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>4.5388904635938377E-10</v>
+        <v>4.1785888467118851E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -4909,32 +4942,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>895.8740234375</v>
+        <v>1058.59375</v>
       </c>
       <c r="AC19" s="8">
-        <v>-4.9823504366941052E-2</v>
+        <v>-2.4260619257347571E-2</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>895.99609375</v>
+        <v>1058.7158203125</v>
       </c>
       <c r="AE19" s="8">
-        <v>7.9965765220890717E-3</v>
+        <v>1.5260211967415671E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>895.93505859375</v>
+        <v>1058.65478515625</v>
       </c>
       <c r="AG19" s="8">
-        <v>-2.0913032851979096E-2</v>
+        <v>-4.498622341088776E-3</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>1.0419605836265622E-3</v>
+        <v>1.0913936379975237E-4</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>-1.672326675098135E-4</v>
+        <v>-6.8649930486366437E-5</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -4948,11 +4981,11 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="F20" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G20">
         <f xml:space="preserve"> 2.20462 * (49.9/398 * (G4/$C$5/1000 - 2) + 0.1) * 0.453592 * $C$5</f>
-        <v>11.45617135991813</v>
+        <v>23.048882890076268</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -4962,42 +4995,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> K18 / ($C$26 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
-        <v>5.4570261935192849E-2</v>
+        <v>4.0055472670491699E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.1150054931640625</v>
+        <v>0.1108551025390625</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4883260363918183E-5</v>
+        <v>-1.3858166638763825E-5</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499786376953125</v>
+        <v>0.11084747314453125</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="3"/>
-        <v>-7.0765985275139665E-6</v>
+        <v>-5.7110155592954293E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>-5.1662942575090436E-12</v>
+        <v>-1.3912677687239002E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>1.0532285837591039E-10</v>
+        <v>7.9144205297289037E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -5008,32 +5041,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>895.93505859375</v>
+        <v>1058.65478515625</v>
       </c>
       <c r="AC20" s="8">
-        <v>-2.0913032851979096E-2</v>
+        <v>-4.498622341088776E-3</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>895.99609375</v>
+        <v>1058.7158203125</v>
       </c>
       <c r="AE20" s="8">
-        <v>7.9965765220890717E-3</v>
+        <v>1.5260211967415671E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>895.965576171875</v>
+        <v>1058.685302734375</v>
       </c>
       <c r="AG20" s="8">
-        <v>-6.4581203970419665E-3</v>
+        <v>5.3809362756283008E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>1.3505888402537492E-4</v>
+        <v>-2.4206800145516506E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>-5.1642853943810342E-5</v>
+        <v>8.2114228149244106E-5</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -5055,7 +5088,7 @@
       </c>
       <c r="G21">
         <f xml:space="preserve"> 14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>140.76768348510012</v>
+        <v>144.19078653370963</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -5071,35 +5104,35 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.11499786376953125</v>
+        <v>0.11084747314453125</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-7.0765985275139665E-6</v>
+        <v>-5.7110155592954293E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499404907226562</v>
+        <v>0.11084365844726562</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="3"/>
-        <v>-3.1732713546978042E-6</v>
+        <v>-1.6374485669323757E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>-2.3166572914307316E-12</v>
+        <v>-3.9890092934665517E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>2.2455967396056731E-11</v>
+        <v>9.3514942432968016E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -5110,32 +5143,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>895.965576171875</v>
+        <v>1058.65478515625</v>
       </c>
       <c r="AC21" s="8">
-        <v>-6.4581203970419665E-3</v>
+        <v>-4.498622341088776E-3</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>895.99609375</v>
+        <v>1058.685302734375</v>
       </c>
       <c r="AE21" s="8">
-        <v>7.9965765220890717E-3</v>
+        <v>5.3809362756283008E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>895.9808349609375</v>
+        <v>1058.6700439453125</v>
       </c>
       <c r="AG21" s="8">
-        <v>7.6994363956828238E-4</v>
+        <v>4.401768042043841E-4</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>-4.9723887232686525E-6</v>
+        <v>-1.9801892054229022E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>6.1569132315035371E-6</v>
+        <v>2.3685633334335063E-6</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -5147,7 +5180,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -5157,7 +5190,7 @@
       </c>
       <c r="G22">
         <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>21.937758065083997</v>
+        <v>24.58987613566206</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -5167,7 +5200,7 @@
       </c>
       <c r="K22">
         <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$26 * K19^3 *$C$16^ 5)</f>
-        <v>505.90107959463302</v>
+        <v>1024.5499192485026</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -5177,35 +5210,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>2.4361127268501814E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.11499404907226562</v>
+        <v>0.11084365844726562</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1732713546978042E-6</v>
+        <v>-1.6374485669323757E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499214172363281</v>
+        <v>0.11084175109863281</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="3"/>
-        <v>-1.221608704651822E-6</v>
+        <v>3.9933279230575103E-7</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>-8.9183949198583588E-13</v>
+        <v>9.7281969758466019E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>3.8764959091211174E-12</v>
+        <v>-6.5388690849015604E-13</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -5216,32 +5249,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>895.965576171875</v>
+        <v>1058.65478515625</v>
       </c>
       <c r="AC22" s="8">
-        <v>-6.4581203970419665E-3</v>
+        <v>-4.498622341088776E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>895.9808349609375</v>
+        <v>1058.6700439453125</v>
       </c>
       <c r="AE22" s="8">
-        <v>7.6994363956828238E-4</v>
+        <v>4.401768042043841E-4</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>895.97320556640625</v>
+        <v>1058.6624145507812</v>
       </c>
       <c r="AG22" s="8">
-        <v>-2.8440816462307339E-3</v>
+        <v>-2.0292139231514739E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>1.8367421690375397E-5</v>
+        <v>9.1286670895376227E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>-2.1897825739282435E-6</v>
+        <v>-8.9321289973985646E-7</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -5258,12 +5291,11 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>101</v>
+      <c r="F23" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="G23">
-        <f xml:space="preserve"> 0.0268 * $C$15</f>
-        <v>24.012242868496834</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -5273,42 +5305,42 @@
       </c>
       <c r="K23" s="5">
         <f>U34</f>
-        <v>0.11499094823375344</v>
+        <v>0.11084212502464652</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11084175109863281</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>3.9933279230575103E-7</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.11499214172363281</v>
+        <v>0.11084365844726562</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-1.221608704651822E-6</v>
+        <v>-1.6374485669323757E-6</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499118804931641</v>
+        <v>0.11084270477294922</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="3"/>
-        <v>-2.4577761373323348E-7</v>
+        <v>-6.190577092335392E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>-1.7943076317208446E-13</v>
+        <v>-2.4721004362663093E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>3.002440723450712E-13</v>
+        <v>1.0136751588328981E-12</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -5319,32 +5351,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>895.97320556640625</v>
+        <v>1058.6624145507812</v>
       </c>
       <c r="AC23" s="8">
-        <v>-2.8440816462307339E-3</v>
+        <v>-2.0292139231514739E-3</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>895.9808349609375</v>
+        <v>1058.6700439453125</v>
       </c>
       <c r="AE23" s="8">
-        <v>7.6994363956828238E-4</v>
+        <v>4.401768042043841E-4</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>895.97702026367188</v>
+        <v>1058.6662292480469</v>
       </c>
       <c r="AG23" s="8">
-        <v>-1.0370673202828584E-3</v>
+        <v>-7.9451634837823804E-4</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>2.9495041315221676E-6</v>
+        <v>1.6122436363005875E-6</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>-7.9848338705590962E-7</v>
+        <v>-3.4972766711726991E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -5352,12 +5384,11 @@
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F24" s="15" t="s">
-        <v>102</v>
+      <c r="F24" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="G24">
-        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
-        <v>6.848822284711332</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -5367,7 +5398,7 @@
       </c>
       <c r="K24">
         <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
-        <v>2.7519022147345376</v>
+        <v>6.1827955695217582</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -5377,35 +5408,35 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.114990234375</v>
+        <v>0.11084175109863281</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>7.3005332115738675E-7</v>
+        <v>3.9933279230575103E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.11499118804931641</v>
+        <v>0.11084270477294922</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4577761373323348E-7</v>
+        <v>-6.190577092335392E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="2"/>
-        <v>0.1149907112121582</v>
+        <v>0.11084222793579102</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="3"/>
-        <v>2.4213787322424629E-7</v>
+        <v>-1.098624139439508E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>1.7677355852534728E-13</v>
+        <v>-4.3871664529688149E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>-5.9512068675495469E-14</v>
+        <v>6.8011174307009022E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -5416,32 +5447,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>895.97702026367188</v>
+        <v>1058.6662292480469</v>
       </c>
       <c r="AC24" s="8">
-        <v>-1.0370673202828584E-3</v>
+        <v>-7.9451634837823804E-4</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>895.9808349609375</v>
+        <v>1058.6700439453125</v>
       </c>
       <c r="AE24" s="8">
-        <v>7.6994363956828238E-4</v>
+        <v>4.401768042043841E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>895.97892761230469</v>
+        <v>1058.6681365966797</v>
       </c>
       <c r="AG24" s="8">
-        <v>-1.3356141965914503E-4</v>
+        <v>-1.7716921922783513E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>1.3851218357908383E-7</v>
+        <v>1.4076384110592309E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-1.0283476555826887E-7</v>
+        <v>-7.7985780723094389E-8</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -5455,11 +5486,11 @@
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25">
-        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
-        <v>7.1678336920886068</v>
+        <f xml:space="preserve"> 0.0268 * $C$15</f>
+        <v>28.372320660360128</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -5469,42 +5500,42 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$26*PI()*$C$16^2) / K18^3 )</f>
-        <v>1.2865521001167242</v>
+        <v>1.2845371158923076</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.1149907112121582</v>
+        <v>0.11084175109863281</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>2.4213787322424629E-7</v>
+        <v>3.9933279230575103E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.11499118804931641</v>
+        <v>0.11084222793579102</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4577761373323348E-7</v>
+        <v>-1.098624139439508E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="2"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084198951721191</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="3"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>1.4473520029700815E-7</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>-4.4065833012816199E-16</v>
+        <v>5.7797511679536425E-14</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>4.4728216783447875E-16</v>
+        <v>-1.590095848729054E-14</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -5515,32 +5546,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>895.97892761230469</v>
+        <v>1058.6681365966797</v>
       </c>
       <c r="AC25" s="8">
-        <v>-1.3356141965914503E-4</v>
+        <v>-1.7716921922783513E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>895.9808349609375</v>
+        <v>1058.6700439453125</v>
       </c>
       <c r="AE25" s="8">
-        <v>7.6994363956828238E-4</v>
+        <v>4.401768042043841E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>895.97988128662109</v>
+        <v>1058.6690902709961</v>
       </c>
       <c r="AG25" s="8">
-        <v>3.1750258040119661E-4</v>
+        <v>1.3251945881620486E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>-4.2406095383825658E-8</v>
+        <v>-2.3478369050962269E-8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>2.4445909232641854E-7</v>
+        <v>5.8331991876611546E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -5558,11 +5589,11 @@
         <v>28</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G26">
-        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
-        <v>14.286633959191837</v>
+        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
+        <v>7.3215115198772631</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -5578,35 +5609,35 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.1149907112121582</v>
+        <v>0.11084198951721191</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>2.4213787322424629E-7</v>
+        <v>1.4473520029700815E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084222793579102</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-1.098624139439508E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499083042144775</v>
+        <v>0.11084210872650146</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="3"/>
-        <v>1.2015900514861233E-7</v>
+        <v>1.7436395965964024E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>2.9095045955426247E-14</v>
+        <v>2.5236602625917481E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>-2.1867321230500803E-16</v>
+        <v>-1.9156045513033735E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -5617,32 +5648,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>895.97892761230469</v>
+        <v>1058.6681365966797</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.3356141965914503E-4</v>
+        <v>-1.7716921922783513E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>895.97988128662109</v>
+        <v>1058.6690902709961</v>
       </c>
       <c r="AE26" s="8">
-        <v>3.1750258040119661E-4</v>
+        <v>1.3251945881620486E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>895.97940444946289</v>
+        <v>1058.6686134338379</v>
       </c>
       <c r="AG26" s="8">
-        <v>9.1970606831637269E-5</v>
+        <v>-2.1309318299245206E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>-1.2283724815346536E-8</v>
+        <v>3.7753552853546926E-9</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>2.9200904990108754E-8</v>
+        <v>-2.8238993287582256E-9</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -5659,14 +5690,14 @@
       <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="3">
-        <f>$C$15 - $C$21 - SUM(G17:G26)</f>
-        <v>-7.9376150097232312E-10</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="F27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27">
+        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
+        <v>8.4693494508537697</v>
+      </c>
+      <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="J27" t="s">
@@ -5674,42 +5705,42 @@
       </c>
       <c r="K27">
         <f xml:space="preserve"> 1/$C$30 * LN( EXP($C$30 * K25) + EXP($C$30 * K26) )</f>
-        <v>1.287101865907115</v>
+        <v>1.2851208415088495</v>
       </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499083042144775</v>
+        <v>0.11084210872650146</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.2015900514861233E-7</v>
+        <v>1.7436395965964024E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084222793579102</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-1.098624139439508E-7</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499089002609253</v>
+        <v>0.11084216833114624</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="3"/>
-        <v>5.916957018792246E-8</v>
+        <v>-4.6213008281226209E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>7.1097566888517534E-15</v>
+        <v>-8.0578831116983471E-16</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0768065171392663E-16</v>
+        <v>5.0770726453872997E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -5720,32 +5751,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>895.97892761230469</v>
+        <v>1058.6686134338379</v>
       </c>
       <c r="AC27" s="8">
-        <v>-1.3356141965914503E-4</v>
+        <v>-2.1309318299245206E-5</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>895.97940444946289</v>
+        <v>1058.6690902709961</v>
       </c>
       <c r="AE27" s="8">
-        <v>9.1970606831637269E-5</v>
+        <v>1.3251945881620486E-4</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>895.97916603088379</v>
+        <v>1058.668851852417</v>
       </c>
       <c r="AG27" s="8">
-        <v>-2.0795399393591651E-5</v>
+        <v>5.5605078841836075E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>2.7774630653870245E-9</v>
+        <v>-1.1849063240953099E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>-1.9125655015348857E-9</v>
+        <v>7.3687549555525203E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -5753,47 +5784,50 @@
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="10" t="str">
-        <f>IF(ABS(G27)&lt;0.00001, "TRUE", "FALSE")</f>
-        <v>TRUE</v>
+      <c r="F28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28">
+        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
+        <v>17.747234573741498</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499089002609253</v>
+        <v>0.11084210872650146</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>5.916957018792246E-8</v>
+        <v>1.7436395965964024E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084216833114624</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-4.6213008281226209E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499091982841492</v>
+        <v>0.11084213852882385</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>2.8674852492471814E-8</v>
+        <v>-1.4388305991097639E-8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>1.6966786971816343E-15</v>
+        <v>-2.5088020054023089E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-5.2184371026922505E-17</v>
+        <v>6.6492690391941183E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -5804,32 +5838,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>895.97916603088379</v>
+        <v>1058.6686134338379</v>
       </c>
       <c r="AC28" s="8">
-        <v>-2.0795399393591651E-5</v>
+        <v>-2.1309318299245206E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>895.97940444946289</v>
+        <v>1058.668851852417</v>
       </c>
       <c r="AE28" s="8">
-        <v>9.1970606831637269E-5</v>
+        <v>5.5605078841836075E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>895.97928524017334</v>
+        <v>1058.6687326431274</v>
       </c>
       <c r="AG28" s="8">
-        <v>3.4898971080110641E-5</v>
+        <v>1.6132354858200415E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>-7.2573804203630544E-10</v>
+        <v>-3.437694845897674E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>3.2096795480375354E-9</v>
+        <v>8.9704086379471127E-10</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -5842,40 +5876,50 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="3">
+        <f>$C$15 - $C$21 - SUM(G17:G28)</f>
+        <v>6.7961991589982063E-10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="P29" s="8">
         <v>25</v>
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499091982841492</v>
+        <v>0.11084210872650146</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>2.8674852492471814E-8</v>
+        <v>1.7436395965964024E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084213852882385</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-1.4388305991097639E-8</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499093472957611</v>
+        <v>0.11084212362766266</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="3"/>
-        <v>1.342749358923534E-8</v>
+        <v>1.5240450290665564E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>3.8503139801493429E-16</v>
+        <v>2.6573852596763629E-17</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-2.4436230582397619E-17</v>
+        <v>-2.1928426222420908E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -5886,32 +5930,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>895.97916603088379</v>
+        <v>1058.6686134338379</v>
       </c>
       <c r="AC29" s="8">
-        <v>-2.0795399393591651E-5</v>
+        <v>-2.1309318299245206E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>895.97928524017334</v>
+        <v>1058.6687326431274</v>
       </c>
       <c r="AE29" s="8">
-        <v>3.4898971080110641E-5</v>
+        <v>1.6132354858200415E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>895.97922563552856</v>
+        <v>1058.6686730384827</v>
       </c>
       <c r="AG29" s="8">
-        <v>7.7404206990649982E-6</v>
+        <v>-3.6040088389199809E-6</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-1.6096513991148053E-10</v>
+        <v>7.6798971501839016E-11</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>2.7013271812455914E-10</v>
+        <v>-5.8141149501547991E-11</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -5925,40 +5969,47 @@
       <c r="C30" s="1">
         <v>30</v>
       </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>IF(ABS(G29)&lt;0.00001, "TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
       <c r="P30" s="8">
         <v>26</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499093472957611</v>
+        <v>0.11084212362766266</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.342749358923534E-8</v>
+        <v>1.5240450290665564E-9</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084213852882385</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-1.4388305991097639E-8</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499094218015671</v>
+        <v>0.11084213107824326</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="3"/>
-        <v>5.8038140959837392E-9</v>
+        <v>-6.4321304671377533E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>7.7930676566935363E-17</v>
+        <v>-9.8028564647488407E-18</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>-1.056216028436806E-17</v>
+        <v>9.2547461335839785E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -5969,32 +6020,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>895.97916603088379</v>
+        <v>1058.6686730384827</v>
       </c>
       <c r="AC30" s="8">
-        <v>-2.0795399393591651E-5</v>
+        <v>-3.6040088389199809E-6</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>895.97922563552856</v>
+        <v>1058.6687326431274</v>
       </c>
       <c r="AE30" s="8">
-        <v>7.7404206990649982E-6</v>
+        <v>1.6132354858200415E-5</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>895.97919583320618</v>
+        <v>1058.6687028408051</v>
       </c>
       <c r="AG30" s="8">
-        <v>-7.2161234925260942E-6</v>
+        <v>7.2797008670022478E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>1.5006217010055962E-10</v>
+        <v>-2.623610626936955E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-5.585583164855819E-11</v>
+        <v>1.1743871764802949E-10</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -6002,45 +6053,40 @@
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
       <c r="P31" s="8">
         <v>27</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499094218015671</v>
+        <v>0.11084212362766266</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>5.8038140959837392E-9</v>
+        <v>1.5240450290665564E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084213107824326</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-6.4321304671377533E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499094590544701</v>
+        <v>0.11084212735295296</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="3"/>
-        <v>1.9919743632357267E-9</v>
+        <v>-2.4540427190355985E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>1.1561048888185744E-17</v>
+        <v>-3.7400716070631797E-18</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-3.6251251606089859E-18</v>
+        <v>1.5784722940766445E-17</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -6051,32 +6097,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>895.97919583320618</v>
+        <v>1058.6686730384827</v>
       </c>
       <c r="AC31" s="8">
-        <v>-7.2161234925260942E-6</v>
+        <v>-3.6040088389199809E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>895.97922563552856</v>
+        <v>1058.6687028408051</v>
       </c>
       <c r="AE31" s="8">
-        <v>7.7404206990649982E-6</v>
+        <v>7.2797008670022478E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921073436737</v>
+        <v>1058.6686879396439</v>
       </c>
       <c r="AG31" s="8">
-        <v>-4.2648582621040987E-7</v>
+        <v>2.8533735303426511E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>3.0775743897463397E-12</v>
+        <v>-1.0283583424095225E-11</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>-3.3011797170568941E-12</v>
+        <v>2.0771705762716662E-11</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -6084,50 +6130,40 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32">
-        <f>ROUND($C$21/$C$15 * 100, 2)</f>
-        <v>44.64</v>
-      </c>
-      <c r="H32" t="s">
-        <v>95</v>
-      </c>
       <c r="P32" s="8">
         <v>28</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499094590544701</v>
+        <v>0.11084212362766266</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>1.9919743632357267E-9</v>
+        <v>1.5240450290665564E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084212735295296</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-2.4540427190355985E-9</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499094776809216</v>
+        <v>0.11084212549030781</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="3"/>
-        <v>8.6054496861720509E-11</v>
+        <v>-4.6499884498452104E-10</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>1.7141835158969656E-19</v>
+        <v>-7.0867917822034951E-19</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5660759872944883E-19</v>
+        <v>1.1411270298942268E-18</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -6138,32 +6174,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921073436737</v>
+        <v>1058.6686730384827</v>
       </c>
       <c r="AC32" s="8">
-        <v>-4.2648582621040987E-7</v>
+        <v>-3.6040088389199809E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>895.97922563552856</v>
+        <v>1058.6686879396439</v>
       </c>
       <c r="AE32" s="8">
-        <v>7.7404206990649982E-6</v>
+        <v>2.8533735303426511E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921818494797</v>
+        <v>1058.6686804890633</v>
       </c>
       <c r="AG32" s="8">
-        <v>3.6569674080055847E-6</v>
+        <v>-3.7531742691498948E-7</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5596447664278028E-12</v>
+        <v>1.352647324002326E-12</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>2.8306466220732503E-11</v>
+        <v>-1.0709208114355435E-12</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -6171,50 +6207,45 @@
       </c>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F33" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33">
-        <f>ROUND(G17/$C$15 * 100, 2)</f>
-        <v>22.06</v>
-      </c>
-      <c r="H33" t="s">
-        <v>95</v>
-      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="P33" s="8">
         <v>29</v>
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499094776809216</v>
+        <v>0.11084212362766266</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>8.6054496861720509E-11</v>
+        <v>1.5240450290665564E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.1149909496307373</v>
+        <v>0.11084212549030781</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8198653695122857E-9</v>
+        <v>-4.6499884498452104E-10</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499094869941473</v>
+        <v>0.11084212455898523</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="3"/>
-        <v>-8.6690543632528261E-10</v>
+        <v>5.2952309204101766E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>-7.460111114966248E-20</v>
+        <v>8.0701703620106557E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>1.5776511822103197E-18</v>
+        <v>-2.4622762619170544E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -6225,32 +6256,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921073436737</v>
+        <v>1058.6686804890633</v>
       </c>
       <c r="AC33" s="8">
-        <v>-4.2648582621040987E-7</v>
+        <v>-3.7531742691498948E-7</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921818494797</v>
+        <v>1058.6686879396439</v>
       </c>
       <c r="AE33" s="8">
-        <v>3.6569674080055847E-6</v>
+        <v>2.8533735303426511E-6</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921445965767</v>
+        <v>1058.6686842143536</v>
       </c>
       <c r="AG33" s="8">
-        <v>1.6152409898495534E-6</v>
+        <v>1.2390281654006685E-6</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>-6.8887738808490706E-13</v>
+        <v>-4.650288629133789E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>5.9068836559544965E-12</v>
+        <v>3.5354101705032837E-12</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -6259,17 +6290,17 @@
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="1">
         <v>1.2</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>107</v>
+      <c r="F34" t="s">
+        <v>94</v>
       </c>
       <c r="G34">
-        <f>ROUND(SUM(G18:G19)/$C$15 * 100, 2)</f>
-        <v>8.02</v>
+        <f>ROUND($C$21/$C$15 * 100, 2)</f>
+        <v>37.78</v>
       </c>
       <c r="H34" t="s">
         <v>95</v>
@@ -6279,35 +6310,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.11499094776809216</v>
+        <v>0.11084212455898523</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>8.6054496861720509E-11</v>
+        <v>5.2952309204101766E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.11499094869941473</v>
+        <v>0.11084212549030781</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-8.6690543632528261E-10</v>
+        <v>-4.6499884498452104E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="2"/>
-        <v>0.11499094823375344</v>
+        <v>0.11084212502464652</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>-3.9042546973178105E-10</v>
+        <v>3.2262109650460502E-11</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-3.3597867359769308E-20</v>
+        <v>1.7083532057878201E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>3.3846196219033307E-19</v>
+        <v>-1.5001843724228103E-20</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -6318,32 +6349,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921073436737</v>
+        <v>1058.6686804890633</v>
       </c>
       <c r="AC34" s="8">
-        <v>-4.2648582621040987E-7</v>
+        <v>-3.7531742691498948E-7</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921445965767</v>
+        <v>1058.6686842143536</v>
       </c>
       <c r="AE34" s="8">
-        <v>1.6152409898495534E-6</v>
+        <v>1.2390281654006685E-6</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921259701252</v>
+        <v>1058.6686823517084</v>
       </c>
       <c r="AG34" s="8">
-        <v>5.9437758181957179E-7</v>
+        <v>4.3185514186916407E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>-2.5349361406326557E-13</v>
+        <v>-1.620827606463424E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>9.6006303360262907E-13</v>
+        <v>5.3508068414899579E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -6351,15 +6382,18 @@
       </c>
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
       <c r="C35" s="1">
         <v>50</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>108</v>
+      <c r="F35" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G35">
-        <f>ROUND(SUM(G21:G22)/$C$15 * 100, 2)</f>
-        <v>18.16</v>
+        <f>ROUND(G17/$C$15 * 100, 2)</f>
+        <v>28.86</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -6369,32 +6403,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921073436737</v>
+        <v>1058.6686804890633</v>
       </c>
       <c r="AC35">
-        <v>-4.2648582621040987E-7</v>
+        <v>-3.7531742691498948E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921259701252</v>
+        <v>1058.6686823517084</v>
       </c>
       <c r="AE35">
-        <v>5.9437758181957179E-7</v>
+        <v>4.3185514186916407E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921166568995</v>
+        <v>1058.6686814203858</v>
       </c>
       <c r="AG35">
-        <v>8.3946019913128112E-8</v>
+        <v>2.8268800633668434E-8</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>-3.5801787659725962E-14</v>
+        <v>-1.0609773515801261E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>4.9895632319342707E-14</v>
+        <v>1.2208026908123997E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -6405,12 +6439,12 @@
       <c r="C36" s="1">
         <v>0.3</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>109</v>
+      <c r="F36" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="G36">
-        <f>ROUND(SUM(G23:G26)/$C$15*100, 2)</f>
-        <v>5.84</v>
+        <f>ROUND(SUM(G18:G20)/$C$15 * 100, 2)</f>
+        <v>11.57</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -6420,32 +6454,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921073436737</v>
+        <v>1058.6686804890633</v>
       </c>
       <c r="AC36">
-        <v>-4.2648582621040987E-7</v>
+        <v>-3.7531742691498948E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921166568995</v>
+        <v>1058.6686814203858</v>
       </c>
       <c r="AE36">
-        <v>8.3946019913128112E-8</v>
+        <v>2.8268800633668434E-8</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921120002866</v>
+        <v>1058.6686809547246</v>
       </c>
       <c r="AG36">
-        <v>-1.7126995999205974E-7</v>
+        <v>-1.7352442682749825E-7</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>7.3044210392237441E-14</v>
+        <v>6.5126741383795013E-14</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>-1.4377431472014102E-14</v>
+        <v>-4.9053274270581342E-15</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -6453,14 +6487,14 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="3">
-        <f>SUM(G32:G36)</f>
-        <v>98.72</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="F37" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37">
+        <f>ROUND(SUM(G21:G24)/$C$15 * 100, 2)</f>
+        <v>15.94</v>
+      </c>
+      <c r="H37" t="s">
         <v>95</v>
       </c>
       <c r="AA37" s="8">
@@ -6468,32 +6502,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921120002866</v>
+        <v>1058.6686809547246</v>
       </c>
       <c r="AC37">
-        <v>-1.7126995999205974E-7</v>
+        <v>-1.7352442682749825E-7</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921166568995</v>
+        <v>1058.6686814203858</v>
       </c>
       <c r="AE37">
-        <v>8.3946019913128112E-8</v>
+        <v>2.8268800633668434E-8</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>895.9792114328593</v>
+        <v>1058.6686811875552</v>
       </c>
       <c r="AG37">
-        <v>-4.3661884774337523E-8</v>
+        <v>-7.2627699410077184E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>7.4779692584787098E-15</v>
+        <v>1.2602679911933476E-14</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>-3.6652414487112428E-15</v>
+        <v>-2.0530979551054705E-15</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -6501,37 +6535,47 @@
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38">
+        <f>ROUND(SUM(G25:G28)/$C$15*100, 2)</f>
+        <v>5.85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
       <c r="AA38" s="8">
         <v>34</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>895.9792114328593</v>
+        <v>1058.6686811875552</v>
       </c>
       <c r="AC38">
-        <v>-4.3661884774337523E-8</v>
+        <v>-7.2627699410077184E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921166568995</v>
+        <v>1058.6686814203858</v>
       </c>
       <c r="AE38">
-        <v>8.3946019913128112E-8</v>
+        <v>2.8268800633668434E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921154927462</v>
+        <v>1058.6686813039705</v>
       </c>
       <c r="AG38">
-        <v>2.0141840195719851E-8</v>
+        <v>-2.2179392544785514E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>-8.7943070576864008E-16</v>
+        <v>1.6108382548407892E-15</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>1.6908273181569428E-15</v>
+        <v>-6.2698482602441369E-16</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -6539,37 +6583,53 @@
       </c>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.49999999995335</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="3">
+        <f>SUM(G34:G38)</f>
+        <v>100</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="AA39" s="8">
         <v>35</v>
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>895.9792114328593</v>
+        <v>1058.6686813039705</v>
       </c>
       <c r="AC39">
-        <v>-4.3661884774337523E-8</v>
+        <v>-2.2179392544785514E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921154927462</v>
+        <v>1058.6686814203858</v>
       </c>
       <c r="AE39">
-        <v>2.0141840195719851E-8</v>
+        <v>2.8268800633668434E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921149106696</v>
+        <v>1058.6686813621782</v>
       </c>
       <c r="AG39">
-        <v>-1.1760164397855988E-8</v>
+        <v>3.0447608878603205E-9</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>5.1347094286645455E-16</v>
+        <v>-6.7530946936863717E-17</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>-2.3687135197700927E-16</v>
+        <v>8.6071738516114692E-17</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -6577,37 +6637,43 @@
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1">
+        <v>26.069459131922201</v>
+      </c>
       <c r="AA40" s="8">
         <v>36</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921149106696</v>
+        <v>1058.6686813039705</v>
       </c>
       <c r="AC40">
-        <v>-1.1760164397855988E-8</v>
+        <v>-2.2179392544785514E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921154927462</v>
+        <v>1058.6686813621782</v>
       </c>
       <c r="AE40">
-        <v>2.0141840195719851E-8</v>
+        <v>3.0447608878603205E-9</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921152017079</v>
+        <v>1058.6686813330743</v>
       </c>
       <c r="AG40">
-        <v>4.1911221160262357E-9</v>
+        <v>-9.5675432021380402E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>-4.928828509595859E-17</v>
+        <v>2.1220229636941378E-16</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>8.4416911901747673E-17</v>
+        <v>-2.9130881334783793E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -6615,37 +6681,40 @@
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>0.499999998351708</v>
+      </c>
       <c r="AA41" s="8">
         <v>37</v>
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921149106696</v>
+        <v>1058.6686813330743</v>
       </c>
       <c r="AC41">
-        <v>-1.1760164397855988E-8</v>
+        <v>-9.5675432021380402E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921152017079</v>
+        <v>1058.6686813621782</v>
       </c>
       <c r="AE41">
-        <v>4.1911221160262357E-9</v>
+        <v>3.0447608878603205E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921150561888</v>
+        <v>1058.6686813476263</v>
       </c>
       <c r="AG41">
-        <v>-3.7844074540771544E-9</v>
+        <v>-3.2615616873954423E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>4.450525380841897E-17</v>
+        <v>3.120513235059414E-17</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5860913776837303E-17</v>
+        <v>-9.930675459125352E-18</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -6658,32 +6727,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921150561888</v>
+        <v>1058.6686813476263</v>
       </c>
       <c r="AC42">
-        <v>-3.7844074540771544E-9</v>
+        <v>-3.2615616873954423E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921152017079</v>
+        <v>1058.6686813621782</v>
       </c>
       <c r="AE42">
-        <v>4.1911221160262357E-9</v>
+        <v>3.0447608878603205E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921151289484</v>
+        <v>1058.6686813549022</v>
       </c>
       <c r="AG42">
-        <v>2.0304469217080623E-10</v>
+        <v>-1.0845724318642169E-10</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>-7.6840384656200033E-19</v>
+        <v>3.5373998909736337E-19</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>8.5098509989880507E-19</v>
+        <v>-3.3022637205917201E-19</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -6696,32 +6765,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921150561888</v>
+        <v>1058.6686813549022</v>
       </c>
       <c r="AC43">
-        <v>-3.7844074540771544E-9</v>
+        <v>-1.0845724318642169E-10</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921151289484</v>
+        <v>1058.6686813621782</v>
       </c>
       <c r="AE43">
-        <v>2.0304469217080623E-10</v>
+        <v>3.0447608878603205E-9</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>895.97921150925686</v>
+        <v>1058.6686813585402</v>
       </c>
       <c r="AG43">
-        <v>-1.7905108506965917E-9</v>
+        <v>1.4681518223369494E-9</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>6.7760226099822084E-18</v>
+        <v>-1.592316992297867E-19</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>-3.6355372450817785E-19</v>
+        <v>4.4701712460923976E-18</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -6729,41 +6798,63 @@
       </c>
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
       <c r="AA44" s="8">
         <v>40</v>
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>895.97921150925686</v>
+        <v>1058.6686813549022</v>
       </c>
       <c r="AC44">
-        <v>-1.7905108506965917E-9</v>
+        <v>-1.0845724318642169E-10</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>895.97921151289484</v>
+        <v>1058.6686813585402</v>
       </c>
       <c r="AE44">
-        <v>2.0304469217080623E-10</v>
+        <v>1.4681518223369494E-9</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>895.97921151107585</v>
+        <v>1058.6686813567212</v>
       </c>
       <c r="AG44">
-        <v>-7.9376150097232312E-10</v>
+        <v>6.7961991589982063E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>1.4212385803561577E-18</v>
+        <v>-7.3709702493082304E-20</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>-1.6116905962196246E-19</v>
+        <v>9.9778521802480595E-19</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
         <v>3.637978807091713E-9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="55" spans="27:27" x14ac:dyDescent="0.2">
@@ -6786,18 +6877,18 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F11:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",G28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",G30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",G28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",G30)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>1</formula>
@@ -6806,7 +6897,7 @@
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",G28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",G30)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"""YES"""</formula>
@@ -6819,10 +6910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
-  <dimension ref="B1:AJ57"/>
+  <dimension ref="B1:AJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6956,7 +7047,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$20*$C$34)^3 / (2 * $C$33 * PI() * $C$21^2* $C$5) )</f>
-        <v>141987.14029808619</v>
+        <v>263233.32295700605</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -6966,7 +7057,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> $C$20 * $C$34</f>
-        <v>10562.257693231786</v>
+        <v>12164.3942948941</v>
       </c>
       <c r="L4" t="s">
         <v>37</v>
@@ -6979,14 +7070,14 @@
       </c>
       <c r="R4" s="8">
         <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
-        <v>0.66454833981730577</v>
+        <v>1.1457993016711427</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
-        <v>-0.57867770519125505</v>
+        <v>-0.65991996386560281</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -6994,15 +7085,15 @@
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
-        <v>-6.9618954482291495E-2</v>
+        <v>-0.13699147913345805</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.6265160621023392E-2</v>
+        <v>-0.15696474112601316</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>4.0286936817626885E-2</v>
+        <v>9.0403411959647115E-2</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -7014,17 +7105,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G30</f>
-        <v>-4.5190517994342372E-10</v>
+        <v>-8.1058715295512229E-11</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G30</f>
-        <v>-4.5190517994342372E-10</v>
+        <v>-8.1058715295512229E-11</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G30</f>
-        <v>-4.5190517994342372E-10</v>
+        <v>-8.1058715295512229E-11</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -7042,7 +7133,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$20 * $C$34 / $C$5</f>
-        <v>1760.3762822052977</v>
+        <v>2027.3990491490167</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -7052,7 +7143,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.5 * $C$33 * $C$23^2</f>
-        <v>1852.8125000000002</v>
+        <v>551.25</v>
       </c>
       <c r="L5" t="s">
         <v>48</v>
@@ -7066,7 +7157,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>0.66454833981730577</v>
+        <v>1.1457993016711427</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -7074,7 +7165,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9618954482291495E-2</v>
+        <v>-0.13699147913345805</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -7082,15 +7173,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" si="2"/>
-        <v>0.19825525304734853</v>
+        <v>0.15849860530369719</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>0.13175019927267531</v>
+        <v>0.18160759127282633</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-1.3802323437778539E-2</v>
+        <v>-2.1712958381143638E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -7103,31 +7194,31 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>-321.49628360127792</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
+        <v>-316.38214877663165</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>689.66264278427252</v>
+        <v>116.14060012224877</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20"/>
-        <v>224.28639848926287</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <v>74.907148780426269</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-72107.243576613284</v>
+        <v>-23699.284689882104</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>154681.9503226715</v>
+        <v>8699.7612128052824</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -7146,7 +7237,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> 1.6 * ($C$20*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.26450318405057344</v>
+        <v>0.29061635914651102</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
@@ -7160,7 +7251,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.19825525304734853</v>
+        <v>0.15849860530369719</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -7168,7 +7259,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9618954482291495E-2</v>
+        <v>-0.13699147913345805</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
@@ -7176,15 +7267,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="2"/>
-        <v>6.1383419688461283E-2</v>
+        <v>3.2388899899743473E-3</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>1.2169585403247488E-2</v>
+        <v>5.1335954614303988E-4</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>-4.2734495012583815E-3</v>
+        <v>-4.4370033047713697E-4</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -7198,29 +7289,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-321.49628360127792</v>
+        <v>-316.38214877663165</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0,AF5,AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>224.28639848926287</v>
+        <v>74.907148780426269</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>-42.011887035075233</v>
+        <v>-87.818211887496318</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>13506.665548853398</v>
+        <v>27784.114578687622</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>-9422.6948368347803</v>
+        <v>-6578.2118634876852</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -7244,7 +7335,7 @@
       </c>
       <c r="K7">
         <f xml:space="preserve"> K6 / $C$24</f>
-        <v>2.7839207480286919E-2</v>
+        <v>3.6327044893313877E-2</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
@@ -7255,7 +7346,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>6.1383419688461283E-2</v>
+        <v>3.2388899899743473E-3</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -7263,7 +7354,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-6.9618954482291495E-2</v>
+        <v>-0.13699147913345805</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
@@ -7271,15 +7362,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="2"/>
-        <v>-4.5421080200794828E-3</v>
+        <v>-6.7957552598711224E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>-2.7881012286686484E-4</v>
+        <v>-2.2010703685512096E-4</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>3.1621681150356467E-4</v>
+        <v>9.3096056487872256E-3</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -7293,29 +7384,29 @@
         <v>1000</v>
       </c>
       <c r="AC7" s="8">
-        <v>-42.011887035075233</v>
+        <v>-87.818211887496318</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
         <v>1500</v>
       </c>
       <c r="AE7" s="8">
-        <v>224.28639848926287</v>
+        <v>74.907148780426269</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
         <v>1250</v>
       </c>
       <c r="AG7" s="8">
-        <v>93.493878552962769</v>
+        <v>3.2880417107148787</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>-3927.8542642381149</v>
+        <v>-288.74994364648506</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>20969.405301436556</v>
+        <v>246.29782962076672</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -7334,7 +7425,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$23 * SIN(K17))</f>
-        <v>45121.145656732791</v>
+        <v>59343.788209791019</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -7344,7 +7435,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K5 * $C$24 * K7</f>
-        <v>490.07480569870324</v>
+        <v>160.2022679795142</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -7358,7 +7449,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>6.1383419688461283E-2</v>
+        <v>3.2388899899743473E-3</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -7366,7 +7457,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5421080200794828E-3</v>
+        <v>-6.7957552598711224E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
@@ -7374,15 +7465,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="2"/>
-        <v>2.8290456177514911E-2</v>
+        <v>-3.2691471828298124E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>1.73656494472242E-3</v>
+        <v>-1.0588408086220317E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-1.2849830789559764E-4</v>
+        <v>2.2216324163008561E-3</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -7396,29 +7487,29 @@
         <v>1000</v>
       </c>
       <c r="AC8" s="8">
-        <v>-42.011887035075233</v>
+        <v>-87.818211887496318</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE8" s="8">
-        <v>93.493878552962769</v>
+        <v>3.2880417107148787</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
         <v>1125</v>
       </c>
       <c r="AG8" s="8">
-        <v>26.276369949083232</v>
+        <v>-39.997701789718235</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>-1103.9198859927303</v>
+        <v>3512.5266507823667</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>2456.6797408323082</v>
+        <v>-131.51411181732871</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -7437,7 +7528,7 @@
       </c>
       <c r="G9">
         <f xml:space="preserve"> $C$6 * G8</f>
-        <v>45121.145656732791</v>
+        <v>59343.788209791019</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -7454,35 +7545,35 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="7"/>
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>2.8290456177514911E-2</v>
+        <v>3.2388899899743473E-3</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
-        <v>0.4375</v>
+        <v>0.40625</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5421080200794828E-3</v>
+        <v>-3.2691471828298124E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>0.421875</v>
+        <v>0.390625</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" si="2"/>
-        <v>1.1845186562112142E-2</v>
+        <v>-1.4819192735502529E-2</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>3.3510573134992207E-4</v>
+        <v>-4.7997735010519707E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>-5.3802116883107276E-5</v>
+        <v>4.8446122183080112E-4</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -7493,32 +7584,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="AC9" s="8">
-        <v>-42.011887035075233</v>
+        <v>-39.997701789718235</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="AE9" s="8">
-        <v>26.276369949083232</v>
+        <v>3.2880417107148787</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>1062.5</v>
+        <v>1187.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>-7.742324105302373</v>
+        <v>-17.766278981273217</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>325.2696457009032</v>
+        <v>710.61032860590524</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>-203.44017245662999</v>
+        <v>-58.41626633462338</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -7531,42 +7622,42 @@
       </c>
       <c r="K10">
         <f xml:space="preserve"> K4 / (K5 * $C$24)</f>
-        <v>0.59999999992432684</v>
+        <v>2.7583660532639684</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>0.421875</v>
+        <v>0.375</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>1.1845186562112142E-2</v>
+        <v>3.2388899899743473E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.4375</v>
+        <v>0.390625</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5421080200794828E-3</v>
+        <v>-1.4819192735502529E-2</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>0.4296875</v>
+        <v>0.3828125</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="2"/>
-        <v>3.6446820548206582E-3</v>
+        <v>-5.814784127819661E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>4.3171938898932929E-5</v>
+        <v>-1.8833446105456816E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6554539591840679E-5</v>
+        <v>8.6170406705500532E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -7577,32 +7668,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>1062.5</v>
+        <v>1187.5</v>
       </c>
       <c r="AC10" s="8">
-        <v>-7.742324105302373</v>
+        <v>-17.766278981273217</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="AE10" s="8">
-        <v>26.276369949083232</v>
+        <v>3.2880417107148787</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>1093.75</v>
+        <v>1218.75</v>
       </c>
       <c r="AG10" s="8">
-        <v>9.2995295206034143</v>
+        <v>-7.0893360001998644</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>-71.999971575338833</v>
+        <v>125.9511211715344</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>244.35787803579595</v>
+        <v>-23.310032469929737</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -7625,42 +7716,42 @@
       </c>
       <c r="K11">
         <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
-        <v>4.2984454568288019E-2</v>
+        <v>0.35642113892619809</v>
       </c>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.4296875</v>
+        <v>0.375</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>3.6446820548206582E-3</v>
+        <v>3.2388899899743473E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.4375</v>
+        <v>0.3828125</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5421080200794828E-3</v>
+        <v>-5.814784127819661E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
-        <v>0.43359375</v>
+        <v>0.37890625</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="2"/>
-        <v>-4.5038159641141995E-4</v>
+        <v>-1.2942936984547959E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-1.6414977222621824E-6</v>
+        <v>-4.1920749040121148E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>2.0456818611565113E-6</v>
+        <v>7.5260384545119539E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -7671,32 +7762,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>1062.5</v>
+        <v>1218.75</v>
       </c>
       <c r="AC11" s="8">
-        <v>-7.742324105302373</v>
+        <v>-7.0893360001998644</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>1093.75</v>
+        <v>1250</v>
       </c>
       <c r="AE11" s="8">
-        <v>9.2995295206034143</v>
+        <v>3.2880417107148787</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>1078.125</v>
+        <v>1234.375</v>
       </c>
       <c r="AG11" s="8">
-        <v>0.78659259536061654</v>
+        <v>-1.8628745280194607</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>-6.0900548121128573</v>
+        <v>13.206543455343693</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>7.3149410612441095</v>
+        <v>-6.1252091499562802</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -7715,7 +7806,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
-        <v>18581.192314161864</v>
+        <v>34033.273810964572</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -7725,7 +7816,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> K5 * K11 * $C$24</f>
-        <v>756.68814335088894</v>
+        <v>1571.8172226645336</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -7735,35 +7826,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.4296875</v>
+        <v>0.375</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>3.6446820548206582E-3</v>
+        <v>3.2388899899743473E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.37890625</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5038159641141995E-4</v>
+        <v>-1.2942936984547959E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>0.431640625</v>
+        <v>0.376953125</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="2"/>
-        <v>1.5967274914344132E-3</v>
+        <v>9.7068709038683476E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>5.8195640344698118E-6</v>
+        <v>3.1439487004512434E-6</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>-7.1913667662623282E-7</v>
+        <v>-1.2563541842591012E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -7774,32 +7865,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>1062.5</v>
+        <v>1234.375</v>
       </c>
       <c r="AC12" s="8">
-        <v>-7.742324105302373</v>
+        <v>-1.8628745280194607</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>1078.125</v>
+        <v>1250</v>
       </c>
       <c r="AE12" s="8">
-        <v>0.78659259536061654</v>
+        <v>3.2880417107148787</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>1070.3125</v>
+        <v>1242.1875</v>
       </c>
       <c r="AG12" s="8">
-        <v>-3.4758859606056376</v>
+        <v>0.72206755088757291</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>26.911435660079121</v>
+        <v>-1.3451212480578554</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>-2.7341061589303184</v>
+        <v>2.3741882252720781</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -7812,52 +7903,52 @@
       </c>
       <c r="G13">
         <f xml:space="preserve"> $C$29 / $C$23</f>
-        <v>727.27272727272725</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K13">
         <f>K10/K11</f>
-        <v>13.95853468307074</v>
+        <v>7.7390641351245053</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.431640625</v>
+        <v>0.376953125</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>1.5967274914344132E-3</v>
+        <v>9.7068709038683476E-4</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.37890625</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5038159641141995E-4</v>
+        <v>-1.2942936984547959E-3</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>0.4326171875</v>
+        <v>0.3779296875</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="2"/>
-        <v>5.7306796885159272E-4</v>
+        <v>-1.6220297925562122E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>9.1503338032581809E-7</v>
+        <v>-1.5744833798571508E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>-2.580992666636302E-7</v>
+        <v>2.0993829392114453E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -7868,32 +7959,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>1070.3125</v>
+        <v>1234.375</v>
       </c>
       <c r="AC13" s="8">
-        <v>-3.4758859606056376</v>
+        <v>-1.8628745280194607</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>1078.125</v>
+        <v>1242.1875</v>
       </c>
       <c r="AE13" s="8">
-        <v>0.78659259536061654</v>
+        <v>0.72206755088757291</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>1074.21875</v>
+        <v>1238.28125</v>
       </c>
       <c r="AG13" s="8">
-        <v>-1.3441495314683607</v>
+        <v>-0.56803746278421841</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>4.6721104853855202</v>
+        <v>1.0581825203815229</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>-1.0572980685104545</v>
+        <v>-0.41016141956499141</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -7911,35 +8002,35 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.4326171875</v>
+        <v>0.376953125</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>5.7306796885159272E-4</v>
+        <v>9.7068709038683476E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.3779296875</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5038159641141995E-4</v>
+        <v>-1.6220297925562122E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
-        <v>0.43310546875</v>
+        <v>0.37744140625</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="2"/>
-        <v>6.1317029093788111E-5</v>
+        <v>4.0414175314607004E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>3.5138825318791168E-8</v>
+        <v>3.9229518246519317E-7</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7616061450465773E-8</v>
+        <v>-6.5552996401882382E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -7950,32 +8041,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>1074.21875</v>
+        <v>1238.28125</v>
       </c>
       <c r="AC14" s="8">
-        <v>-1.3441495314683607</v>
+        <v>-0.56803746278421841</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>1078.125</v>
+        <v>1242.1875</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.78659259536061654</v>
+        <v>0.72206755088757291</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>1076.171875</v>
+        <v>1240.234375</v>
       </c>
       <c r="AG14" s="8">
-        <v>-0.27865385631741901</v>
+        <v>7.7607141678072367E-2</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>0.37455245041091068</v>
+        <v>-4.40837638527476E-2</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>-0.21918706004796296</v>
+        <v>5.6037598722870598E-2</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -7992,40 +8083,45 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
+      <c r="F15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="P15" s="8">
         <v>11</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.43310546875</v>
+        <v>0.37744140625</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>6.1317029093788111E-5</v>
+        <v>4.0414175314607004E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.43359375</v>
+        <v>0.3779296875</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5038159641141995E-4</v>
+        <v>-1.6220297925562122E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
-        <v>0.433349609375</v>
+        <v>0.377685546875</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="2"/>
-        <v>-1.9453881204045675E-4</v>
+        <v>1.2094435944498549E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.1928541997755664E-8</v>
+        <v>4.8878665459224894E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>8.7616700730762078E-8</v>
+        <v>-1.9617535426139379E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -8036,32 +8132,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>1076.171875</v>
+        <v>1238.28125</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.27865385631741901</v>
+        <v>-0.56803746278421841</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>1078.125</v>
+        <v>1240.234375</v>
       </c>
       <c r="AE15" s="8">
-        <v>0.78659259536061654</v>
+        <v>7.7607141678072367E-2</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>1077.1484375</v>
+        <v>1239.2578125</v>
       </c>
       <c r="AG15" s="8">
-        <v>0.25400055685020106</v>
+        <v>-0.24506741497907569</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>-7.0778234673080351E-2</v>
+        <v>0.13920747261580133</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>0.19979495723584148</v>
+        <v>-1.9018981594960082E-2</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -8075,11 +8171,16 @@
       <c r="C16" s="1">
         <v>0.85</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="F16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="25">
+        <f>C20</f>
+        <v>1239.9994184397656</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="J16" s="21" t="s">
         <v>50</v>
       </c>
@@ -8090,35 +8191,35 @@
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.43310546875</v>
+        <v>0.377685546875</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>6.1317029093788111E-5</v>
+        <v>1.2094435944498549E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.433349609375</v>
+        <v>0.3779296875</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.9453881204045675E-4</v>
+        <v>-1.6220297925562122E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>0.4332275390625</v>
+        <v>0.3778076171875</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>-6.6612524929343664E-5</v>
+        <v>-2.0635560780690732E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-4.0844821291032516E-9</v>
+        <v>-2.4957546804087053E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>1.2958721466769826E-8</v>
+        <v>3.3471494372384893E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -8129,32 +8230,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1076.171875</v>
+        <v>1239.2578125</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.27865385631741901</v>
+        <v>-0.24506741497907569</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1077.1484375</v>
+        <v>1240.234375</v>
       </c>
       <c r="AE16" s="8">
-        <v>0.25400055685020106</v>
+        <v>7.7607141678072367E-2</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1076.66015625</v>
+        <v>1239.74609375</v>
       </c>
       <c r="AG16" s="8">
-        <v>-1.2318857194486554E-2</v>
+        <v>-8.3693189630253073E-2</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>3.43269706266726E-3</v>
+        <v>2.0510473634039704E-2</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>-3.1289965871576903E-3</v>
+        <v>-6.4951892251248269E-3</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -8173,7 +8274,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
-        <v>109.30113125977567</v>
+        <v>200.1957282997916</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -8193,35 +8294,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.43310546875</v>
+        <v>0.377685546875</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>6.1317029093788111E-5</v>
+        <v>1.2094435944498549E-4</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.4332275390625</v>
+        <v>0.3778076171875</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-6.6612524929343664E-5</v>
+        <v>-2.0635560780690732E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316650390625</v>
+        <v>0.37774658203125</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>-2.6481564520675072E-6</v>
+        <v>5.0152835863959133E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-1.6237708621632603E-10</v>
+        <v>6.0657026079160331E-9</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>1.7640038768014908E-10</v>
+        <v>-1.0349318927947346E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -8232,32 +8333,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1076.66015625</v>
+        <v>1239.74609375</v>
       </c>
       <c r="AC17" s="8">
-        <v>-1.2318857194486554E-2</v>
+        <v>-8.3693189630253073E-2</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1077.1484375</v>
+        <v>1240.234375</v>
       </c>
       <c r="AE17" s="8">
-        <v>0.25400055685020106</v>
+        <v>7.7607141678072367E-2</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1076.904296875</v>
+        <v>1239.990234375</v>
       </c>
       <c r="AG17" s="8">
-        <v>0.12084275048027848</v>
+        <v>-3.0337858927396155E-3</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>-1.488644586155522E-3</v>
+        <v>2.5390721801864323E-4</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>3.0694125913300636E-2</v>
+        <v>-2.3544345159878059E-4</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -8270,7 +8371,7 @@
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
-        <v>70.153547490439422</v>
+        <v>86.001868820107859</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -8280,7 +8381,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$6</f>
-        <v>756.68814335088894</v>
+        <v>1571.8172226645336</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -8290,35 +8391,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.43310546875</v>
+        <v>0.37774658203125</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>6.1317029093788111E-5</v>
+        <v>5.0152835863959133E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316650390625</v>
+        <v>0.3778076171875</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6481564520675072E-6</v>
+        <v>-2.0635560780690732E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="3"/>
-        <v>0.433135986328125</v>
+        <v>0.377777099609375</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="2"/>
-        <v>2.933433416602016E-5</v>
+        <v>1.4758246768276084E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>1.7986942215047608E-9</v>
+        <v>7.4016792780915582E-10</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>-7.7681906288850603E-11</v>
+        <v>-3.0454469820319369E-10</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -8329,32 +8430,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1076.66015625</v>
+        <v>1239.990234375</v>
       </c>
       <c r="AC18" s="8">
-        <v>-1.2318857194486554E-2</v>
+        <v>-3.0337858927396155E-3</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1076.904296875</v>
+        <v>1240.234375</v>
       </c>
       <c r="AE18" s="8">
-        <v>0.12084275048027848</v>
+        <v>7.7607141678072367E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1076.7822265625</v>
+        <v>1240.1123046875</v>
       </c>
       <c r="AG18" s="8">
-        <v>5.4262421744169842E-2</v>
+        <v>3.7289084183043997E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>-6.6845102449343032E-4</v>
+        <v>-1.131270975476988E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>6.5572202912863534E-3</v>
+        <v>2.8938992392390627E-3</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -8372,7 +8473,7 @@
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
-        <v>46.848357759505966</v>
+        <v>72.316496899357844</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -8382,7 +8483,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> PI() * $C$23 / ($C$22 * $C$25)</f>
-        <v>169.96466000133157</v>
+        <v>94.247779607693786</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -8392,35 +8493,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.433135986328125</v>
+        <v>0.377777099609375</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>2.933433416602016E-5</v>
+        <v>1.4758246768276084E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316650390625</v>
+        <v>0.3778076171875</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6481564520675072E-6</v>
+        <v>-2.0635560780690732E-5</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="3"/>
-        <v>0.4331512451171875</v>
+        <v>0.3777923583984375</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="2"/>
-        <v>1.334306332090307E-5</v>
+        <v>-2.9387546878201221E-6</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>3.9140987825373733E-10</v>
+        <v>-4.3370866874277508E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>-3.5334519223594765E-11</v>
+        <v>6.064285098005194E-11</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -8431,32 +8532,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1076.66015625</v>
+        <v>1239.990234375</v>
       </c>
       <c r="AC19" s="8">
-        <v>-1.2318857194486554E-2</v>
+        <v>-3.0337858927396155E-3</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1076.7822265625</v>
+        <v>1240.1123046875</v>
       </c>
       <c r="AE19" s="8">
-        <v>5.4262421744169842E-2</v>
+        <v>3.7289084183043997E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1076.72119140625</v>
+        <v>1240.05126953125</v>
       </c>
       <c r="AG19" s="8">
-        <v>2.0971901042230456E-2</v>
+        <v>1.712800920358859E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>-2.5834985403614075E-4</v>
+        <v>-5.1962712692561361E-5</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>1.1379861391305041E-3</v>
+        <v>6.386877770805673E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -8469,17 +8570,17 @@
       </c>
       <c r="C20" s="3">
         <f>AF44</f>
-        <v>1076.682741409968</v>
+        <v>1239.9994184397656</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G20">
         <f>2.20462 * (49.9/398 * (G4/$C$5/1000 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (G8/1000 -2) + 0.1) * 0.453592 * $C$6</f>
-        <v>22.403732641989148</v>
+        <v>39.388357829828024</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -8489,42 +8590,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> $C$23 * COS(K17) / (K19 * $C$22)</f>
-        <v>3.6065294920551855E-2</v>
+        <v>2.7742534554270875E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.4331512451171875</v>
+        <v>0.377777099609375</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.334306332090307E-5</v>
+        <v>1.4758246768276084E-5</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316650390625</v>
+        <v>0.3777923583984375</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6481564520675072E-6</v>
+        <v>-2.9387546878201221E-6</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="3"/>
-        <v>0.43315887451171875</v>
+        <v>0.37778472900390625</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="2"/>
-        <v>5.3474470507741678E-6</v>
+        <v>5.9097216183467971E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>7.13513246036561E-11</v>
+        <v>8.721712997537793E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>-1.4160876409596975E-11</v>
+        <v>-1.7367222109628569E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -8535,32 +8636,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1076.66015625</v>
+        <v>1239.990234375</v>
       </c>
       <c r="AC20" s="8">
-        <v>-1.2318857194486554E-2</v>
+        <v>-3.0337858927396155E-3</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1076.72119140625</v>
+        <v>1240.05126953125</v>
       </c>
       <c r="AE20" s="8">
-        <v>2.0971901042230456E-2</v>
+        <v>1.712800920358859E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1076.690673828125</v>
+        <v>1240.020751953125</v>
       </c>
       <c r="AG20" s="8">
-        <v>4.3265516147812377E-3</v>
+        <v>7.0472499701281777E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-5.3298171487065268E-5</v>
+        <v>-2.1379847541984541E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>9.0736012319294503E-5</v>
+        <v>1.2070536234834484E-4</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -8572,7 +8673,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -8582,7 +8683,7 @@
       </c>
       <c r="G21">
         <f xml:space="preserve"> 14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>144.54154668542375</v>
+        <v>147.51111805117898</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -8592,42 +8693,42 @@
       </c>
       <c r="K21">
         <f xml:space="preserve"> K18 / ( $C$33 * PI() * $C$22^2 * K19^2 * $C$22^2)</f>
-        <v>1.8199999990402175E-2</v>
+        <v>4.5980514539193842E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.43315887451171875</v>
+        <v>0.37778472900390625</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>5.3474470507741678E-6</v>
+        <v>5.9097216183467971E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316650390625</v>
+        <v>0.3777923583984375</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6481564520675072E-6</v>
+        <v>-2.9387546878201221E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316268920898438</v>
+        <v>0.37778854370117188</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="2"/>
-        <v>1.3496437034632436E-6</v>
+        <v>1.4854773600081472E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>7.2171482416804472E-12</v>
+        <v>8.7787576680048764E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>-3.5740676813184738E-12</v>
+        <v>-4.3654535553746022E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -8638,32 +8739,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1076.66015625</v>
+        <v>1239.990234375</v>
       </c>
       <c r="AC21" s="8">
-        <v>-1.2318857194486554E-2</v>
+        <v>-3.0337858927396155E-3</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1076.690673828125</v>
+        <v>1240.020751953125</v>
       </c>
       <c r="AE21" s="8">
-        <v>4.3265516147812377E-3</v>
+        <v>7.0472499701281777E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6754150390625</v>
+        <v>1240.0054931640625</v>
       </c>
       <c r="AG21" s="8">
-        <v>-3.996049353872877E-3</v>
+        <v>2.006766617341782E-3</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>4.922676133248024E-5</v>
+        <v>-6.0881002537122964E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>-1.7289113784744217E-5</v>
+        <v>1.4142185984116098E-5</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -8675,7 +8776,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>0.78200689098041498</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -8685,7 +8786,7 @@
       </c>
       <c r="G22">
         <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>24.875308666159995</v>
+        <v>27.398119125585467</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -8701,35 +8802,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316268920898438</v>
+        <v>0.37778854370117188</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>1.3496437034632436E-6</v>
+        <v>1.4854773600081472E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316650390625</v>
+        <v>0.3777923583984375</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6481564520675072E-6</v>
+        <v>-2.9387546878201221E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316459655761719</v>
+        <v>0.37779045104980469</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="2"/>
-        <v>-6.4925677323302011E-7</v>
+        <v>-7.2664019024060167E-7</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>-8.7626531592480863E-13</v>
+        <v>-1.0794075514744268E-12</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>1.7193335130855525E-12</v>
+        <v>2.1354172654280734E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -8740,32 +8841,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6754150390625</v>
+        <v>1239.990234375</v>
       </c>
       <c r="AC22" s="8">
-        <v>-3.996049353872877E-3</v>
+        <v>-3.0337858927396155E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1076.690673828125</v>
+        <v>1240.0054931640625</v>
       </c>
       <c r="AE22" s="8">
-        <v>4.3265516147812377E-3</v>
+        <v>2.006766617341782E-3</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6830444335938</v>
+        <v>1239.9978637695312</v>
       </c>
       <c r="AG22" s="8">
-        <v>1.6525298667602328E-4</v>
+        <v>-5.1330781934666447E-4</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>-6.6035909063228595E-7</v>
+        <v>1.5572660209668458E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>7.149755763505709E-7</v>
+        <v>-1.0300889962853923E-6</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -8777,7 +8878,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -8787,7 +8888,7 @@
       </c>
       <c r="G23">
         <f xml:space="preserve"> 0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
-        <v>195.5786553432354</v>
+        <v>194.43958648309695</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -8797,7 +8898,7 @@
       </c>
       <c r="K23">
         <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$33 * K19^3 * C22^5)</f>
-        <v>1084.0971074035022</v>
+        <v>630.50053776545394</v>
       </c>
       <c r="L23" t="s">
         <v>35</v>
@@ -8807,35 +8908,35 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316268920898438</v>
+        <v>0.37778854370117188</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.3496437034632436E-6</v>
+        <v>1.4854773600081472E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316459655761719</v>
+        <v>0.37779045104980469</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-6.4925677323302011E-7</v>
+        <v>-7.2664019024060167E-7</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316364288330078</v>
+        <v>0.37778949737548828</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="2"/>
-        <v>3.5019336536157297E-7</v>
+        <v>3.7941820330011922E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>4.726362705548501E-13</v>
+        <v>5.6361715097729556E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-2.2736541440226693E-13</v>
+        <v>-2.7570051542674592E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -8846,32 +8947,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6754150390625</v>
+        <v>1239.9978637695312</v>
       </c>
       <c r="AC23" s="8">
-        <v>-3.996049353872877E-3</v>
+        <v>-5.1330781934666447E-4</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6830444335938</v>
+        <v>1240.0054931640625</v>
       </c>
       <c r="AE23" s="8">
-        <v>1.6525298667602328E-4</v>
+        <v>2.006766617341782E-3</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6792297363281</v>
+        <v>1240.0016784667969</v>
       </c>
       <c r="AG23" s="8">
-        <v>-1.9154937333496491E-3</v>
+        <v>7.4653838578342402E-4</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>7.6544074954994103E-6</v>
+        <v>-3.832039908650683E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>-3.1654106039523567E-7</v>
+        <v>1.4981283111543961E-6</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -8883,7 +8984,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>9.5011032278081</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -8902,42 +9003,42 @@
       </c>
       <c r="K24" s="5">
         <f>U34</f>
-        <v>0.43316397676244378</v>
+        <v>0.37778982473537326</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316364288330078</v>
+        <v>0.37778949737548828</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>3.5019336536157297E-7</v>
+        <v>3.7941820330011922E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316459655761719</v>
+        <v>0.37779045104980469</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-6.4925677323302011E-7</v>
+        <v>-7.2664019024060167E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316411972045898</v>
+        <v>0.37778997421264648</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>-1.4953172888798605E-7</v>
+        <v>-1.7361108883839904E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-5.2365019367618171E-14</v>
+        <v>-6.5871207400042742E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>9.70844877937686E-14</v>
+        <v>1.2615279462141228E-13</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -8948,32 +9049,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6792297363281</v>
+        <v>1239.9978637695312</v>
       </c>
       <c r="AC24" s="8">
-        <v>-1.9154937333496491E-3</v>
+        <v>-5.1330781934666447E-4</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6830444335938</v>
+        <v>1240.0016784667969</v>
       </c>
       <c r="AE24" s="8">
-        <v>1.6525298667602328E-4</v>
+        <v>7.4653838578342402E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6811370849609</v>
+        <v>1239.9997711181641</v>
       </c>
       <c r="AG24" s="8">
-        <v>-8.751202575467687E-4</v>
+        <v>1.1642264928468649E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>1.6762873692581665E-6</v>
+        <v>-5.9760656226883927E-8</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-1.4461623626029424E-7</v>
+        <v>8.6913976665619559E-8</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -8985,7 +9086,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>1.2999999999999901</v>
+        <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>100</v>
@@ -9001,7 +9102,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> K19 * $C$22 * K24 - $C$23 * SIN(K17)</f>
-        <v>2.7826471401966231</v>
+        <v>5.7200111969363547</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -9011,35 +9112,35 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316364288330078</v>
+        <v>0.37778949737548828</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>3.5019336536157297E-7</v>
+        <v>3.7941820330011922E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316411972045898</v>
+        <v>0.37778997421264648</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4953172888798605E-7</v>
+        <v>-1.7361108883839904E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316388130187988</v>
+        <v>0.37778973579406738</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="2"/>
-        <v>1.0033081199178895E-7</v>
+        <v>1.0290353336106506E-7</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>3.5135184700863836E-14</v>
+        <v>3.9043473741089183E-14</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5002639777867684E-14</v>
+        <v>-1.7865194472133026E-14</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -9050,32 +9151,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6811370849609</v>
+        <v>1239.9978637695312</v>
       </c>
       <c r="AC25" s="8">
-        <v>-8.751202575467687E-4</v>
+        <v>-5.1330781934666447E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6830444335938</v>
+        <v>1239.9997711181641</v>
       </c>
       <c r="AE25" s="8">
-        <v>1.6525298667602328E-4</v>
+        <v>1.1642264928468649E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6820907592773</v>
+        <v>1239.9988174438477</v>
       </c>
       <c r="AG25" s="8">
-        <v>-3.5502962055034004E-4</v>
+        <v>-1.9844244968680869E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>3.1069361297274514E-7</v>
+        <v>1.0186206111454595E-7</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>-5.8669705154398943E-8</v>
+        <v>-2.3103195723081373E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -9088,7 +9189,7 @@
       </c>
       <c r="G26">
         <f xml:space="preserve"> 0.0268 * $C$20</f>
-        <v>28.855097469787143</v>
+        <v>33.231984414185717</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -9098,42 +9199,42 @@
       </c>
       <c r="K26">
         <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$33*PI()*$C$22^2) / K18^3 )</f>
-        <v>1.2203377806519058</v>
+        <v>1.3052634650193407</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316388130187988</v>
+        <v>0.37778973579406738</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.0033081199178895E-7</v>
+        <v>1.0290353336106506E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316411972045898</v>
+        <v>0.37778997421264648</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4953172888798605E-7</v>
+        <v>-1.7361108883839904E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316400051116943</v>
+        <v>0.37778985500335693</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="2"/>
-        <v>-2.4600460002410784E-8</v>
+        <v>-3.5353783678360173E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>-2.4681841274134003E-15</v>
+        <v>-3.6380292581860134E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>3.6785493156002339E-15</v>
+        <v>6.1378088789573298E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -9144,32 +9245,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6820907592773</v>
+        <v>1239.9988174438477</v>
       </c>
       <c r="AC26" s="8">
-        <v>-3.5502962055034004E-4</v>
+        <v>-1.9844244968680869E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6830444335938</v>
+        <v>1239.9997711181641</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.6525298667602328E-4</v>
+        <v>1.1642264928468649E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6825675964355</v>
+        <v>1239.9992942810059</v>
       </c>
       <c r="AG26" s="8">
-        <v>-9.4792295499246393E-5</v>
+        <v>-4.0816692035150481E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>3.3654072702193153E-8</v>
+        <v>8.0997643555673142E-9</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5664709945126627E-8</v>
+        <v>-4.7519874217693806E-9</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -9187,7 +9288,7 @@
       </c>
       <c r="G27">
         <f xml:space="preserve"> 11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592</f>
-        <v>7.3710918768078662</v>
+        <v>7.7994740316798676</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -9203,35 +9304,35 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316388130187988</v>
+        <v>0.37778973579406738</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.0033081199178895E-7</v>
+        <v>1.0290353336106506E-7</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316400051116943</v>
+        <v>0.37778985500335693</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4600460002410784E-8</v>
+        <v>-3.5353783678360173E-8</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316394090652466</v>
+        <v>0.37778979539871216</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="2"/>
-        <v>3.7865175606111023E-8</v>
+        <v>3.3774873342551359E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>3.7990438147727982E-15</v>
+        <v>3.4755538057709805E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>-9.3150073798239467E-16</v>
+        <v>-1.1940695659165743E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -9242,32 +9343,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6825675964355</v>
+        <v>1239.9992942810059</v>
       </c>
       <c r="AC27" s="8">
-        <v>-9.4792295499246393E-5</v>
+        <v>-4.0816692035150481E-5</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6830444335938</v>
+        <v>1239.9997711181641</v>
       </c>
       <c r="AE27" s="8">
-        <v>1.6525298667602328E-4</v>
+        <v>1.1642264928468649E-4</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6828060150146</v>
+        <v>1239.999532699585</v>
       </c>
       <c r="AG27" s="8">
-        <v>3.5134333188580058E-5</v>
+        <v>3.799616138167039E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>-3.3304640937808605E-9</v>
+        <v>-1.5508776176335182E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>5.8060534942833826E-9</v>
+        <v>4.4236137707025603E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -9289,7 +9390,7 @@
       </c>
       <c r="G28">
         <f xml:space="preserve"> 8 * ($C$20/1000)</f>
-        <v>8.613461931279744</v>
+        <v>9.9199953475181246</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -9299,42 +9400,42 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> 1/$C$38 * LN( EXP($C$38 * K26) + EXP($C$38 * K27) )</f>
-        <v>1.2241517465330662</v>
+        <v>1.3055781854443305</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316394090652466</v>
+        <v>0.37778979539871216</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>3.7865175606111023E-8</v>
+        <v>3.3774873342551359E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316400051116943</v>
+        <v>0.37778985500335693</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4600460002410784E-8</v>
+        <v>-3.5353783678360173E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316397070884705</v>
+        <v>0.37778982520103455</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="2"/>
-        <v>6.6323577185833926E-9</v>
+        <v>-7.8945555648246568E-10</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>2.5113538969670602E-16</v>
+        <v>-2.6663761429768679E-17</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-1.631590507776912E-16</v>
+        <v>2.7910240967560543E-17</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -9345,32 +9446,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6825675964355</v>
+        <v>1239.9992942810059</v>
       </c>
       <c r="AC28" s="8">
-        <v>-9.4792295499246393E-5</v>
+        <v>-4.0816692035150481E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6828060150146</v>
+        <v>1239.999532699585</v>
       </c>
       <c r="AE28" s="8">
-        <v>3.5134333188580058E-5</v>
+        <v>3.799616138167039E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6826868057251</v>
+        <v>1239.9994134902954</v>
       </c>
       <c r="AG28" s="8">
-        <v>-2.9828980700585817E-5</v>
+        <v>-1.4102630530032911E-6</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>2.8275575530112486E-9</v>
+        <v>5.7562272722986434E-11</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>-1.0480213466101062E-9</v>
+        <v>-5.3584582552520233E-11</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -9382,7 +9483,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -9392,7 +9493,7 @@
       </c>
       <c r="G29">
         <f xml:space="preserve"> 13 * ($C$20*2.20462/1000)^1.3 * 0.453592</f>
-        <v>18.14081028601586</v>
+        <v>21.796689137516186</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -9402,35 +9503,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316397070884705</v>
+        <v>0.37778979539871216</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>6.6323577185833926E-9</v>
+        <v>3.3774873342551359E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316400051116943</v>
+        <v>0.37778982520103455</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4600460002410784E-8</v>
+        <v>-7.8945555648246568E-10</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316398561000824</v>
+        <v>0.37778981029987335</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="2"/>
-        <v>-8.9840511696692715E-9</v>
+        <v>1.649270880976772E-8</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>-5.9585441119304144E-17</v>
+        <v>5.5703915112548573E-16</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>2.2101179145906075E-16</v>
+        <v>-1.302026061131844E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -9441,32 +9542,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6826868057251</v>
+        <v>1239.9994134902954</v>
       </c>
       <c r="AC29" s="8">
-        <v>-2.9828980700585817E-5</v>
+        <v>-1.4102630530032911E-6</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6828060150146</v>
+        <v>1239.999532699585</v>
       </c>
       <c r="AE29" s="8">
-        <v>3.5134333188580058E-5</v>
+        <v>3.799616138167039E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827464103699</v>
+        <v>1239.9994730949402</v>
       </c>
       <c r="AG29" s="8">
-        <v>2.7486904627949116E-6</v>
+        <v>1.8292949675924319E-5</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-8.1990634766593714E-11</v>
+        <v>-2.5797871058404596E-11</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>9.6573406552108741E-11</v>
+        <v>6.9506186803319553E-10</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -9488,7 +9589,7 @@
       </c>
       <c r="G30" s="3">
         <f>$C$20 - $C$28 - SUM(G17:G29)</f>
-        <v>-4.5190517994342372E-10</v>
+        <v>-8.1058715295512229E-11</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>14</v>
@@ -9498,35 +9599,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316397070884705</v>
+        <v>0.37778981029987335</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>6.6323577185833926E-9</v>
+        <v>1.649270880976772E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316398561000824</v>
+        <v>0.37778982520103455</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-8.9840511696692715E-9</v>
+        <v>-7.8945555648246568E-10</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316397815942764</v>
+        <v>0.37778981775045395</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="2"/>
-        <v>-1.1758466977873638E-9</v>
+        <v>7.8516265711314759E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>-7.7986359219408164E-18</v>
+        <v>1.294945907207064E-16</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>1.0563866900608317E-17</v>
+        <v>-6.1985102240051132E-18</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -9537,32 +9638,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6826868057251</v>
+        <v>1239.9994134902954</v>
       </c>
       <c r="AC30" s="8">
-        <v>-2.9828980700585817E-5</v>
+        <v>-1.4102630530032911E-6</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827464103699</v>
+        <v>1239.9994730949402</v>
       </c>
       <c r="AE30" s="8">
-        <v>2.7486904627949116E-6</v>
+        <v>1.8292949675924319E-5</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827166080475</v>
+        <v>1239.9994432926178</v>
       </c>
       <c r="AG30" s="8">
-        <v>-1.3636159110319568E-5</v>
+        <v>8.248169137914374E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>4.0675272693183985E-10</v>
+        <v>-1.1632088190122649E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-3.7481580495689343E-11</v>
+        <v>1.5088334295837971E-10</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -9582,35 +9683,35 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316397070884705</v>
+        <v>0.37778981775045395</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>6.6323577185833926E-9</v>
+        <v>7.8516265711314759E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316397815942764</v>
+        <v>0.37778982520103455</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1758466977873638E-9</v>
+        <v>-7.8945555648246568E-10</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316397443413734</v>
+        <v>0.37778982147574425</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="2"/>
-        <v>2.7282555103980144E-9</v>
+        <v>3.5310855350800807E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>1.8094766492655944E-17</v>
+        <v>2.7724765012172767E-17</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-3.2080102326216841E-18</v>
+        <v>-2.7876350960838302E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -9621,32 +9722,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827166080475</v>
+        <v>1239.9994134902954</v>
       </c>
       <c r="AC31" s="8">
-        <v>-1.3636159110319568E-5</v>
+        <v>-1.4102630530032911E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827464103699</v>
+        <v>1239.9994432926178</v>
       </c>
       <c r="AE31" s="8">
-        <v>2.7486904627949116E-6</v>
+        <v>8.248169137914374E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827315092087</v>
+        <v>1239.9994283914566</v>
       </c>
       <c r="AG31" s="8">
-        <v>-5.4437344942925847E-6</v>
+        <v>3.2257787552225636E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>7.4231629718508715E-11</v>
+        <v>-4.5491965956533288E-12</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>-1.4963141086449709E-11</v>
+        <v>2.6606768774566595E-11</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -9664,35 +9765,35 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316397443413734</v>
+        <v>0.37778982147574425</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>2.7282555103980144E-9</v>
+        <v>3.5310855350800807E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316397815942764</v>
+        <v>0.37778982520103455</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1758466977873638E-9</v>
+        <v>-7.8945555648246568E-10</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316397629678249</v>
+        <v>0.3777898233383894</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="2"/>
-        <v>7.7620437854974966E-10</v>
+        <v>1.3708149615432319E-9</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>2.1176838729734208E-18</v>
+        <v>4.8404648819766633E-18</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>-9.1269735532581605E-19</v>
+        <v>-1.0821974882996019E-18</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -9703,32 +9804,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827315092087</v>
+        <v>1239.9994134902954</v>
       </c>
       <c r="AC32" s="8">
-        <v>-5.4437344942925847E-6</v>
+        <v>-1.4102630530032911E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827464103699</v>
+        <v>1239.9994283914566</v>
       </c>
       <c r="AE32" s="8">
-        <v>2.7486904627949116E-6</v>
+        <v>3.2257787552225636E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827389597893</v>
+        <v>1239.999420940876</v>
       </c>
       <c r="AG32" s="8">
-        <v>-1.3475219020619988E-6</v>
+        <v>9.0775790795305511E-7</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>7.3355514600696571E-12</v>
+        <v>-1.280177438657756E-12</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>-3.7039206006050751E-12</v>
+        <v>2.9282261743602446E-12</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -9750,35 +9851,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316397629678249</v>
+        <v>0.3777898233383894</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>7.7620437854974966E-10</v>
+        <v>1.3708149615432319E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316397815942764</v>
+        <v>0.37778982520103455</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1758466977873638E-9</v>
+        <v>-7.8945555648246568E-10</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316397722810507</v>
+        <v>0.37778982426971197</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="2"/>
-        <v>-1.9982115961880709E-10</v>
+        <v>2.9067970253038311E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5510205902300649E-19</v>
+        <v>3.9846808524558521E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>2.3495905068581605E-19</v>
+        <v>-2.2947870631928119E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -9789,32 +9890,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827389597893</v>
+        <v>1239.9994134902954</v>
       </c>
       <c r="AC33" s="8">
-        <v>-1.3475219020619988E-6</v>
+        <v>-1.4102630530032911E-6</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827464103699</v>
+        <v>1239.999420940876</v>
       </c>
       <c r="AE33" s="8">
-        <v>2.7486904627949116E-6</v>
+        <v>9.0775790795305511E-7</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827426850796</v>
+        <v>1239.9994172155857</v>
       </c>
       <c r="AG33" s="8">
-        <v>7.0058433720987523E-7</v>
+        <v>-4.4442674607125809E-7</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>-9.4405273863189586E-13</v>
+        <v>6.2675861975077086E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>1.9256894860722783E-12</v>
+        <v>-4.034318932520289E-13</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -9841,35 +9942,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.43316397629678249</v>
+        <v>0.37778982426971197</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>7.7620437854974966E-10</v>
+        <v>2.9067970253038311E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.43316397722810507</v>
+        <v>0.37778982520103455</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-1.9982115961880709E-10</v>
+        <v>-7.8945555648246568E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>0.43316397676244378</v>
+        <v>0.37778982473537326</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="2"/>
-        <v>2.8819158170989567E-10</v>
+        <v>-2.4938789922046567E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>2.2369556758439897E-19</v>
+        <v>-7.2492000360082123E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>-5.7586776049649548E-20</v>
+        <v>1.9688066275908579E-19</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -9880,32 +9981,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827389597893</v>
+        <v>1239.9994172155857</v>
       </c>
       <c r="AC34" s="8">
-        <v>-1.3475219020619988E-6</v>
+        <v>-4.4442674607125809E-7</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827426850796</v>
+        <v>1239.999420940876</v>
       </c>
       <c r="AE34" s="8">
-        <v>7.0058433720987523E-7</v>
+        <v>9.0775790795305511E-7</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827408224344</v>
+        <v>1239.9994190782309</v>
       </c>
       <c r="AG34" s="8">
-        <v>-3.2346883926948067E-7</v>
+        <v>2.3166558094089851E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>4.3588134555019757E-13</v>
+        <v>-1.0295838031427119E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>-2.2661720236765678E-13</v>
+        <v>2.1029626309963919E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -9927,7 +10028,7 @@
       </c>
       <c r="G35">
         <f>ROUND($C$28/$C$20 * 100, 2)</f>
-        <v>37.15</v>
+        <v>32.26</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -9937,32 +10038,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827408224344</v>
+        <v>1239.9994172155857</v>
       </c>
       <c r="AC35">
-        <v>-3.2346883926948067E-7</v>
+        <v>-4.4442674607125809E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827426850796</v>
+        <v>1239.9994190782309</v>
       </c>
       <c r="AE35">
-        <v>7.0058433720987523E-7</v>
+        <v>2.3166558094089851E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1076.682741753757</v>
+        <v>1239.9994181469083</v>
       </c>
       <c r="AG35">
-        <v>1.8855769212677842E-7</v>
+        <v>-1.063808667822741E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>-6.0992537807581109E-14</v>
+        <v>4.7278502468286065E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>1.3210056576446277E-13</v>
+        <v>-2.4644785304111861E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -9975,7 +10076,7 @@
       </c>
       <c r="G36">
         <f>ROUND(G17/$C$20 * 100, 2)</f>
-        <v>10.15</v>
+        <v>16.14</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -9985,32 +10086,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827408224344</v>
+        <v>1239.9994181469083</v>
       </c>
       <c r="AC36">
-        <v>-3.2346883926948067E-7</v>
+        <v>-1.063808667822741E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1076.682741753757</v>
+        <v>1239.9994190782309</v>
       </c>
       <c r="AE36">
-        <v>1.8855769212677842E-7</v>
+        <v>2.3166558094089851E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827412880957</v>
+        <v>1239.9994186125696</v>
       </c>
       <c r="AG36">
-        <v>-6.7455630414769985E-8</v>
+        <v>6.2642129705636762E-8</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>2.1819794472456724E-14</v>
+        <v>-6.6639240551732793E-15</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>-1.2719277991965949E-14</v>
+        <v>1.4512025369631456E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -10024,11 +10125,11 @@
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="F37" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G37">
         <f>ROUND(SUM(G18:G20)/$C$20 * 100, 2)</f>
-        <v>12.95</v>
+        <v>15.94</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
@@ -10038,32 +10139,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827412880957</v>
+        <v>1239.9994181469083</v>
       </c>
       <c r="AC37">
-        <v>-6.7455630414769985E-8</v>
+        <v>-1.063808667822741E-7</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1076.682741753757</v>
+        <v>1239.9994186125696</v>
       </c>
       <c r="AE37">
-        <v>1.8855769212677842E-7</v>
+        <v>6.2642129705636762E-8</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827415209264</v>
+        <v>1239.9994183797389</v>
       </c>
       <c r="AG37">
-        <v>6.0551315073098522E-8</v>
+        <v>-2.1869141164643224E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>-4.0845271306992249E-15</v>
+        <v>2.3264581928786574E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>1.1417416225424869E-14</v>
+        <v>-1.3699295773864611E-15</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -10082,7 +10183,7 @@
       </c>
       <c r="G38">
         <f>ROUND(SUM(G21:G25)/$C$20 * 100, 2)</f>
-        <v>33.9</v>
+        <v>29.79</v>
       </c>
       <c r="H38" t="s">
         <v>95</v>
@@ -10092,32 +10193,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1076.6827412880957</v>
+        <v>1239.9994183797389</v>
       </c>
       <c r="AC38">
-        <v>-6.7455630414769985E-8</v>
+        <v>-2.1869141164643224E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827415209264</v>
+        <v>1239.9994186125696</v>
       </c>
       <c r="AE38">
-        <v>6.0551315073098522E-8</v>
+        <v>6.2642129705636762E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1076.682741404511</v>
+        <v>1239.9994184961542</v>
       </c>
       <c r="AG38">
-        <v>-3.4522145142545924E-9</v>
+        <v>2.0386437427077908E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>2.3287130638606247E-16</v>
+        <v>-4.4583387793693278E-16</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-2.0903612875255359E-16</v>
+        <v>1.2770498575428621E-15</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -10130,7 +10231,7 @@
       </c>
       <c r="G39">
         <f>ROUND(SUM(G26:G29)/$C$20*100, 2)</f>
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="H39" t="s">
         <v>95</v>
@@ -10140,32 +10241,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1076.682741404511</v>
+        <v>1239.9994183797389</v>
       </c>
       <c r="AC39">
-        <v>-3.4522145142545924E-9</v>
+        <v>-2.1869141164643224E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827415209264</v>
+        <v>1239.9994184961542</v>
       </c>
       <c r="AE39">
-        <v>6.0551315073098522E-8</v>
+        <v>2.0386437427077908E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827414627187</v>
+        <v>1239.9994184379466</v>
       </c>
       <c r="AG39">
-        <v>2.8549607122840825E-8</v>
+        <v>-7.4123818194493651E-10</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>-9.855936808573739E-17</v>
+        <v>1.6210242437577315E-17</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>1.7287162561083126E-15</v>
+        <v>-1.5111205814781438E-17</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -10188,32 +10289,32 @@
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1076.682741404511</v>
+        <v>1239.9994184379466</v>
       </c>
       <c r="AC40">
-        <v>-3.4522145142545924E-9</v>
+        <v>-7.4123818194493651E-10</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827414627187</v>
+        <v>1239.9994184961542</v>
       </c>
       <c r="AE40">
-        <v>2.8549607122840825E-8</v>
+        <v>2.0386437427077908E-8</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827414336149</v>
+        <v>1239.9994184670504</v>
       </c>
       <c r="AG40">
-        <v>1.2548753147711977E-8</v>
+        <v>9.8227701528230682E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>-4.3320987752329291E-17</v>
+        <v>-7.2810122897415573E-18</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>3.582619722486891E-16</v>
+        <v>2.0025128908109598E-16</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -10226,32 +10327,32 @@
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1076.682741404511</v>
+        <v>1239.9994184379466</v>
       </c>
       <c r="AC41">
-        <v>-3.4522145142545924E-9</v>
+        <v>-7.4123818194493651E-10</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827414336149</v>
+        <v>1239.9994184670504</v>
       </c>
       <c r="AE41">
-        <v>1.2548753147711977E-8</v>
+        <v>9.8227701528230682E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1076.6827414190629</v>
+        <v>1239.9994184524985</v>
       </c>
       <c r="AG41">
-        <v>4.5482693167286925E-9</v>
+        <v>4.540424924925901E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>-1.570160134994961E-17</v>
+        <v>-3.3655363166095497E-18</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>5.7075108904940985E-17</v>
+        <v>4.459955043369606E-17</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -10260,7 +10361,7 @@
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1">
         <v>1.2</v>
@@ -10270,32 +10371,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1076.682741404511</v>
+        <v>1239.9994184379466</v>
       </c>
       <c r="AC42">
-        <v>-3.4522145142545924E-9</v>
+        <v>-7.4123818194493651E-10</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1076.6827414190629</v>
+        <v>1239.9994184524985</v>
       </c>
       <c r="AE42">
-        <v>4.5482693167286925E-9</v>
+        <v>4.540424924925901E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1076.682741411787</v>
+        <v>1239.9994184452225</v>
       </c>
       <c r="AG42">
-        <v>5.4797055781818926E-10</v>
+        <v>1.8998207451659255E-9</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>-1.8917119130841383E-18</v>
+        <v>-1.4082196751680651E-18</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>2.4923176745951762E-18</v>
+        <v>8.6259934642426665E-18</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -10303,6 +10404,9 @@
       </c>
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
       <c r="C43" s="1">
         <v>0.9</v>
       </c>
@@ -10311,32 +10415,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1076.682741404511</v>
+        <v>1239.9994184379466</v>
       </c>
       <c r="AC43">
-        <v>-3.4522145142545924E-9</v>
+        <v>-7.4123818194493651E-10</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1076.682741411787</v>
+        <v>1239.9994184452225</v>
       </c>
       <c r="AE43">
-        <v>5.4797055781818926E-10</v>
+        <v>1.8998207451659255E-9</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1076.682741408149</v>
+        <v>1239.9994184415846</v>
       </c>
       <c r="AG43">
-        <v>-1.4521219782182015E-9</v>
+        <v>5.7912075135391206E-10</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>5.0130365696729664E-18</v>
+        <v>-4.292664128601594E-19</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>-7.9572009042428038E-19</v>
+        <v>1.1002256173782398E-18</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -10352,32 +10456,32 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1076.682741408149</v>
+        <v>1239.9994184379466</v>
       </c>
       <c r="AC44">
-        <v>-1.4521219782182015E-9</v>
+        <v>-7.4123818194493651E-10</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1076.682741411787</v>
+        <v>1239.9994184415846</v>
       </c>
       <c r="AE44">
-        <v>5.4797055781818926E-10</v>
+        <v>5.7912075135391206E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1076.682741409968</v>
+        <v>1239.9994184397656</v>
       </c>
       <c r="AG44">
-        <v>-4.5190517994342372E-10</v>
+        <v>-8.1058715295512229E-11</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>6.5622144386649679E-19</v>
+        <v>6.0083814756437702E-20</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>-2.4763073353452709E-19</v>
+        <v>-4.6942784105719886E-20</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -10388,68 +10492,81 @@
       <c r="C45" s="1">
         <v>6.4</v>
       </c>
-      <c r="T45" t="s">
-        <v>139</v>
-      </c>
-      <c r="U45">
-        <v>10</v>
-      </c>
-      <c r="V45">
-        <v>10</v>
-      </c>
-      <c r="W45">
-        <v>10</v>
-      </c>
-      <c r="X45">
-        <v>10</v>
-      </c>
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="T46" t="s">
-        <v>138</v>
-      </c>
-      <c r="U46">
-        <f>U47^2/U45</f>
-        <v>6.4</v>
-      </c>
-      <c r="V46">
-        <f>V47^2/V45</f>
-        <v>3.6</v>
-      </c>
-      <c r="W46">
-        <f>W47^2/W45</f>
-        <v>14.4</v>
-      </c>
-      <c r="X46">
-        <f>X47^2/X45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="T47" t="s">
-        <v>79</v>
-      </c>
-      <c r="U47">
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.78200689098041498</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>9.5011032278081</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>1.2999999999999901</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA55" s="8"/>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="8"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="8"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
         <v>8</v>
       </c>
-      <c r="V47">
-        <v>6</v>
-      </c>
-      <c r="W47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA55" s="8"/>
-    </row>
-    <row r="56" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA56" s="8"/>
-    </row>
-    <row r="57" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA57" s="8"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -10465,7 +10582,7 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="G31">
@@ -10495,10 +10612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04399F6A-8712-2C4A-BDE2-261DEBFAF47B}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10508,16 +10625,16 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -10525,7 +10642,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>3269</v>
@@ -10543,12 +10660,12 @@
         <v>3863</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10568,7 +10685,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>6.6</v>
@@ -10586,12 +10703,12 @@
         <v>15.8</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <f>2.5 * (C3/1000) ^ (2/3)</f>
@@ -10616,7 +10733,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <f>C5/((C3/1000)^(2/3))</f>
@@ -10637,7 +10754,27 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <f>C3*$C$21*$C$20 / C4</f>
+        <v>14546.191952880001</v>
+      </c>
+      <c r="D8">
+        <f>D3*$C$21*$C$20 / D4</f>
+        <v>3186.0120643199998</v>
+      </c>
+      <c r="E8">
+        <f>E3*$C$21*$C$20 / E4</f>
+        <v>8583.5436760800003</v>
+      </c>
+      <c r="F8">
+        <f>F3*$C$21*$C$20 / F4</f>
+        <v>4893.5988376200003</v>
+      </c>
+      <c r="G8">
+        <f>G3*$C$21*$C$20 / (G4-1)</f>
+        <v>4297.3340099400002</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -10647,13 +10784,33 @@
       <c r="B9" t="s">
         <v>118</v>
       </c>
+      <c r="C9">
+        <f>(C11/C4)*1000/C12</f>
+        <v>8056.9509196123981</v>
+      </c>
+      <c r="D9">
+        <f>(D11/D4)*1000/D12</f>
+        <v>1117.8604285746135</v>
+      </c>
+      <c r="E9">
+        <f>(E11/E4)*1000/E12</f>
+        <v>2700.2055859367888</v>
+      </c>
+      <c r="F9">
+        <f>(F11/F4)*1000/F12</f>
+        <v>1161.4135684602581</v>
+      </c>
+      <c r="G9">
+        <f>(G11/(G4-1))*1000/G12</f>
+        <v>574.18899999999996</v>
+      </c>
       <c r="H9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <f>177*$C$19</f>
@@ -10676,12 +10833,12 @@
         <v>76.061400000000006</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <f>252*$C$19</f>
@@ -10704,36 +10861,91 @@
         <v>229.6756</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>53</v>
       </c>
+      <c r="C12">
+        <v>23.323513060327823</v>
+      </c>
+      <c r="D12">
+        <v>40.024674687743122</v>
+      </c>
+      <c r="E12">
+        <v>60.065704198493883</v>
+      </c>
+      <c r="F12">
+        <v>109.15061046519696</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <f xml:space="preserve"> 2.20462/1000 * (7200/500 * (C8 - 300) + 800) * C4 * $C$18</f>
+        <v>363.22466218038375</v>
+      </c>
+      <c r="D14">
+        <f xml:space="preserve"> 2.20462/1000 * (7200/500 * (D8 - 300) + 800) * D4 * $C$18</f>
+        <v>298.8305881864726</v>
+      </c>
+      <c r="E14">
+        <f xml:space="preserve"> 2.20462/1000 * (7200/500 * (E8 - 300) + 800) * E4 * $C$18</f>
+        <v>423.57991560303464</v>
+      </c>
+      <c r="F14">
+        <f xml:space="preserve"> 2.20462/1000 * (7200/500 * (F8 - 300) + 800) * F4 * $C$18</f>
+        <v>472.30243238166651</v>
+      </c>
+      <c r="G14">
+        <f xml:space="preserve"> 2.20462/1000 * (7200/500 * (G8 - 300) + 800) * (G4-1) * $C$18</f>
+        <v>411.72855063012003</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C15">
+        <f>2.20462 * (58/990 * (C9 - 10) + 2) * C4 * $C$18</f>
+        <v>834.99987548360514</v>
+      </c>
+      <c r="D15">
+        <f>2.20462 * (58/990 * (D9 - 10) + 2) * D4 * $C$18</f>
+        <v>472.0000018313101</v>
+      </c>
+      <c r="E15">
+        <f>2.20462 * (58/990 * (E9 - 10) + 2) * E4 * $C$18</f>
+        <v>562.99999653226962</v>
+      </c>
+      <c r="F15">
+        <f>2.20462 * (58/990 * (F9 - 10) + 2) * F4 * $C$18</f>
+        <v>490.00097524148214</v>
+      </c>
+      <c r="G15">
+        <f>2.20462 * (58/990 * (G9 - 10) + 2) * G4 * $C$18</f>
+        <v>309.11856195733338</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16">
         <f>2.20462 * (49.9/398 * (C11/C4-2) + 0.1) * C4 * $C$18</f>
@@ -10756,23 +10968,122 @@
         <v>66.277197701519597</v>
       </c>
       <c r="H16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>127</v>
       </c>
       <c r="C18">
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>0.74570000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21">
+        <v>0.453592</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>835</v>
+      </c>
+      <c r="D24">
+        <v>472</v>
+      </c>
+      <c r="E24">
+        <v>563</v>
+      </c>
+      <c r="F24">
+        <v>490</v>
+      </c>
+      <c r="G24">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>C15-C24</f>
+        <v>-1.2451639486243948E-4</v>
+      </c>
+      <c r="D25">
+        <f>D15-D24</f>
+        <v>1.8313101008970989E-6</v>
+      </c>
+      <c r="E25">
+        <f>E15-E24</f>
+        <v>-3.4677303801800008E-6</v>
+      </c>
+      <c r="F25">
+        <f>F15-F24</f>
+        <v>9.7524148213778972E-4</v>
+      </c>
+      <c r="G25">
+        <f>G15-G24</f>
+        <v>-95.881438042666616</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>30000</v>
+      </c>
+      <c r="E32">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>26.2</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f>240+D32/D34</f>
+        <v>1385.0381679389313</v>
+      </c>
+      <c r="E35">
+        <f>E33+E32/E34</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f>D35/60</f>
+        <v>23.083969465648856</v>
+      </c>
+      <c r="E36">
+        <f>E35/60</f>
+        <v>12.333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8B4625-6A28-0449-93AA-B11A3B7886DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37231E84-FE78-7A41-A837-09362BA76784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="156">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>W_takeoff</t>
+  </si>
+  <si>
+    <t>CP [kW]</t>
+  </si>
+  <si>
+    <t>CT [Nm]</t>
+  </si>
+  <si>
+    <t>omega [RPM]</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -656,8 +665,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3008,6 +3015,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>196807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A8D17E-899A-88A6-D765-799A1C4F2844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="1447800"/>
+          <a:ext cx="7772400" cy="1593807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3327,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3609,14 +3665,14 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15"/>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
         <v>-229.19249747638241</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15"/>
         <v>186.96614444510101</v>
       </c>
       <c r="AF5" s="8">
@@ -7194,14 +7250,14 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20" ca="1"/>
         <v>-316.38214877663165</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20"/>
         <v>116.14060012224877</v>
       </c>
       <c r="AF5" s="8">
@@ -8174,11 +8230,11 @@
       <c r="F16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="5">
         <f>C20</f>
         <v>1239.9994184397656</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="21" t="s">
@@ -10612,10 +10668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04399F6A-8712-2C4A-BDE2-261DEBFAF47B}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10971,7 +11027,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>126</v>
       </c>
@@ -10979,31 +11035,130 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>138</v>
       </c>
       <c r="C19">
         <v>0.74570000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19">
+        <v>84</v>
+      </c>
+      <c r="M19">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>105</v>
+      </c>
+      <c r="O19">
+        <v>129</v>
+      </c>
+      <c r="P19">
+        <v>138</v>
+      </c>
+      <c r="Q19">
+        <v>162</v>
+      </c>
+      <c r="R19">
+        <v>168</v>
+      </c>
+      <c r="S19">
+        <v>178</v>
+      </c>
+      <c r="T19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>141</v>
       </c>
       <c r="C20">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20">
+        <v>400</v>
+      </c>
+      <c r="M20">
+        <v>425</v>
+      </c>
+      <c r="N20">
+        <v>500</v>
+      </c>
+      <c r="O20">
+        <v>400</v>
+      </c>
+      <c r="P20">
+        <v>425</v>
+      </c>
+      <c r="Q20">
+        <v>500</v>
+      </c>
+      <c r="R20">
+        <v>400</v>
+      </c>
+      <c r="S20">
+        <v>425</v>
+      </c>
+      <c r="T20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>142</v>
       </c>
       <c r="C21">
         <v>0.453592</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21">
+        <f>9550*L19/L20</f>
+        <v>2005.5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:Q21" si="0">9550*M19/M20</f>
+        <v>2022.3529411764705</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>2005.5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>3079.875</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>3100.9411764705883</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>3094.2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21" si="1">9550*R19/R20</f>
+        <v>4011</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21" si="2">9550*S19/S20</f>
+        <v>3999.7647058823532</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21" si="3">9550*T19/T20</f>
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>835</v>
       </c>
@@ -11020,7 +11175,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>C15-C24</f>
         <v>-1.2451639486243948E-4</v>
@@ -11042,7 +11197,7 @@
         <v>-95.881438042666616</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>30000</v>
       </c>
@@ -11088,5 +11243,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37231E84-FE78-7A41-A837-09362BA76784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3548FA2-8AC0-BE4D-A199-21421007D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -653,18 +653,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,16 +1195,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37.78</c:v>
+                  <c:v>37.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.86</c:v>
+                  <c:v>28.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.57</c:v>
+                  <c:v>11.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.94</c:v>
+                  <c:v>15.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.85</c:v>
@@ -1705,16 +1705,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32.26</c:v>
+                  <c:v>32.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.14</c:v>
+                  <c:v>16.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.94</c:v>
+                  <c:v>15.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.79</c:v>
+                  <c:v>29.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.87</c:v>
@@ -3384,7 +3384,7 @@
   <dimension ref="B1:AJ57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3415,11 +3415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -3430,21 +3430,21 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$7 * SQRT( ($C$15*$C$27)^3 / (2 * $C$26 * PI() * $C$16^2* $C$5) )</f>
-        <v>192253.98362120942</v>
+        <v>192744.61779778515</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -3541,14 +3541,14 @@
       </c>
       <c r="R4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q4^2)) - Q4</f>
-        <v>0.11497969558616483</v>
+        <v>0.11508329825005216</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S4^2)) - S4</f>
-        <v>-0.93259633323594415</v>
+        <v>-0.93257296814979274</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -3556,15 +3556,15 @@
       </c>
       <c r="V4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U4^2)) - U4</f>
-        <v>-0.41743214108030258</v>
+        <v>-0.41738320139120477</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.7996220509294203E-2</v>
+        <v>-4.8033835450265606E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.38929568414631949</v>
+        <v>0.38924029097725854</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -3576,17 +3576,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G29</f>
-        <v>6.7961991589982063E-10</v>
+        <v>1.34718902700115E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G29</f>
-        <v>6.7961991589982063E-10</v>
+        <v>1.34718902700115E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G29</f>
-        <v>6.7961991589982063E-10</v>
+        <v>1.34718902700115E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$15 * $C$27 / $C$5</f>
-        <v>1483.6485377299193</v>
+        <v>1486.1716563739199</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
-        <v>3.0282490920191445</v>
+        <v>3.0328336146612234</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q5^2)) - Q5</f>
-        <v>0.11497969558616483</v>
+        <v>0.11508329825005216</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S5^2)) - S5</f>
-        <v>-0.41743214108030258</v>
+        <v>-0.41738320139120477</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -3644,15 +3644,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U5^2)) - U5</f>
-        <v>-0.15049364808164992</v>
+        <v>-0.15041614140866638</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>-1.7303713844079527E-2</v>
+        <v>-1.7310385663355573E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>6.2820885737708693E-2</v>
+        <v>6.2781170642061332E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -3666,30 +3666,30 @@
       </c>
       <c r="AC5" s="8">
         <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>-229.19249747638241</v>
+        <v>-225.43444458585736</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15"/>
-        <v>186.96614444510101</v>
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <v>169.56998949292461</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>114.71452141751035</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15"/>
+        <v>109.75319151035558</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-26291.707660487158</v>
+        <v>-24742.149769662246</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>21447.731781296876</v>
+        <v>18610.847531225936</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
-        <v>0.13770308911668305</v>
+        <v>0.13791156038531263</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.11497969558616483</v>
+        <v>0.11508329825005216</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.15049364808164992</v>
+        <v>-0.15041614140866638</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="2"/>
@@ -3735,15 +3735,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>-1.5155621422872551E-2</v>
+        <v>-1.5060679536437929E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-1.7425887376210441E-3</v>
+        <v>-1.7332326749403435E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>2.280824756872496E-3</v>
+        <v>2.2653693028634558E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -3757,29 +3757,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-229.19249747638241</v>
+        <v>-225.43444458585736</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0, AF5, AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>114.71452141751035</v>
+        <v>109.75319151035558</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>-19.510207164513076</v>
+        <v>-19.551529132740143</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>4471.5931063163616</v>
+        <v>4407.5881108434833</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>-2238.1040776335994</v>
+        <v>-2145.8427212259253</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -3793,17 +3793,17 @@
       <c r="C7" s="1">
         <v>0.75</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>69</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K4 * K5</f>
-        <v>1669.3223119755535</v>
+        <v>1671.8495300819993</v>
       </c>
       <c r="L7" t="s">
         <v>37</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.11497969558616483</v>
+        <v>0.11508329825005216</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5155621422872551E-2</v>
+        <v>-1.5060679536437929E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="2"/>
@@ -3833,15 +3833,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>5.1076446881588911E-2</v>
+        <v>5.1177682948687797E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>5.8727543140680112E-3</v>
+        <v>5.8896965505304466E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-7.7409529256282079E-4</v>
+        <v>-7.7077068230761063E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -3855,29 +3855,29 @@
         <v>1000</v>
       </c>
       <c r="AC7" s="8">
-        <v>-19.510207164513076</v>
+        <v>-19.551529132740143</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0, AF6, AD6)</f>
         <v>1500</v>
       </c>
       <c r="AE7" s="8">
-        <v>114.71452141751035</v>
+        <v>109.75319151035558</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
         <v>1250</v>
       </c>
       <c r="AG7" s="8">
-        <v>56.552204396811021</v>
+        <v>54.174397242680698</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>-1103.3452233916703</v>
+        <v>-1059.1923059389089</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>6487.3590624854014</v>
+        <v>5945.8129955340137</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
-        <v>20118.636908715685</v>
+        <v>20169.911847593958</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K7</f>
-        <v>1669.3223119755535</v>
+        <v>1671.8495300819993</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>5.1076446881588911E-2</v>
+        <v>5.1177682948687797E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5155621422872551E-2</v>
+        <v>-1.5060679536437929E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="2"/>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="3"/>
-        <v>1.8190818926534763E-2</v>
+        <v>1.8289296486283635E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>9.2912239663375503E-4</v>
+        <v>9.3600381692957361E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7569316502258569E-4</v>
+        <v>-2.7544923332681808E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -3952,29 +3952,29 @@
         <v>1000</v>
       </c>
       <c r="AC8" s="8">
-        <v>-19.510207164513076</v>
+        <v>-19.551529132740143</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE8" s="8">
-        <v>56.552204396811021</v>
+        <v>54.174397242680698</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
         <v>1125</v>
       </c>
       <c r="AG8" s="8">
-        <v>20.821003582932235</v>
+        <v>19.643932088454108</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>-406.22209327607692</v>
+        <v>-384.0689105089794</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>1177.4736503687184</v>
+        <v>1064.1981803681551</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -3982,17 +3982,17 @@
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G9">
         <f>$C$5 * G8</f>
-        <v>140830.45836100981</v>
+        <v>141189.3829331577</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>1.8190818926534763E-2</v>
+        <v>1.8289296486283635E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5155621422872551E-2</v>
+        <v>-1.5060679536437929E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="2"/>
@@ -4022,15 +4022,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="3"/>
-        <v>1.5662598879128686E-3</v>
+        <v>1.6630516786295541E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>2.8491550012917629E-5</v>
+        <v>3.0416045222467604E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>-2.3737641911038233E-5</v>
+        <v>-2.5046688384374874E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -4044,29 +4044,29 @@
         <v>1000</v>
       </c>
       <c r="AC9" s="8">
-        <v>-19.510207164513076</v>
+        <v>-19.551529132740143</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
         <v>1125</v>
       </c>
       <c r="AE9" s="8">
-        <v>20.821003582932235</v>
+        <v>19.643932088454108</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
         <v>1062.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>1.2382060102188461</v>
+        <v>0.63736339142235465</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>-24.157655771714882</v>
+        <v>-12.461428915536226</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>25.780691775174823</v>
+        <v>12.520323176767528</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>1.5662598879128686E-3</v>
+        <v>1.6630516786295541E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5155621422872551E-2</v>
+        <v>-1.5060679536437929E-2</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="2"/>
@@ -4108,15 +4108,15 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" si="3"/>
-        <v>-6.7836515216387894E-3</v>
+        <v>-6.6877660820997414E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0624961271921931E-5</v>
+        <v>-1.112210060911777E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>1.0281045432665082E-4</v>
+        <v>1.0072230177716324E-4</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -4130,29 +4130,29 @@
         <v>1000</v>
       </c>
       <c r="AC10" s="8">
-        <v>-19.510207164513076</v>
+        <v>-19.551529132740143</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
         <v>1062.5</v>
       </c>
       <c r="AE10" s="8">
-        <v>1.2382060102188461</v>
+        <v>0.63736339142235465</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
         <v>1031.25</v>
       </c>
       <c r="AG10" s="8">
-        <v>-8.9893304113539898</v>
+        <v>-9.3082931056800362</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>175.38369859577389</v>
+        <v>181.99136383178745</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>-11.130642943181563</v>
+        <v>-5.9327652621895499</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -4166,16 +4166,16 @@
       <c r="C11" s="1">
         <v>0.85</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="J11" s="21" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="J11" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
       <c r="P11" s="8">
         <v>7</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>1.5662598879128686E-3</v>
+        <v>1.6630516786295541E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-6.7836515216387894E-3</v>
+        <v>-6.6877660820997414E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="2"/>
@@ -4201,15 +4201,15 @@
       </c>
       <c r="V11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.6057968385830854E-3</v>
+        <v>-2.5094533342914782E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-4.0813550643228509E-6</v>
+        <v>-4.1733505800359739E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>1.7676817689135696E-5</v>
+        <v>1.6782636893686651E-5</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -4223,29 +4223,29 @@
         <v>1031.25</v>
       </c>
       <c r="AC11" s="8">
-        <v>-8.9893304113539898</v>
+        <v>-9.3082931056800362</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
         <v>1062.5</v>
       </c>
       <c r="AE11" s="8">
-        <v>1.2382060102188461</v>
+        <v>0.63736339142235465</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
         <v>1046.875</v>
       </c>
       <c r="AG11" s="8">
-        <v>-3.8390145282813819</v>
+        <v>-4.2983912772571102</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>34.510170048709618</v>
+        <v>40.010685891607565</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>-4.7534908622354752</v>
+        <v>-2.7396372421328583</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$23 + G9*G13)/3600</f>
-        <v>51936.504008361131</v>
+        <v>52068.914223507265</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> SQRT( ($C$15*$C$27)^2 + K8^2)</f>
-        <v>10518.843718449174</v>
+        <v>10536.682792486745</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>1.5662598879128686E-3</v>
+        <v>1.6630516786295541E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6057968385830854E-3</v>
+        <v>-2.5094533342914782E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="2"/>
@@ -4304,15 +4304,15 @@
       </c>
       <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>-5.1902596054387296E-4</v>
+        <v>-4.224570607790773E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-8.1292954278531547E-7</v>
+        <v>-7.0256792407755207E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>1.3524762071277734E-6</v>
+        <v>1.0601362797670332E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -4326,29 +4326,29 @@
         <v>1046.875</v>
       </c>
       <c r="AC12" s="8">
-        <v>-3.8390145282813819</v>
+        <v>-4.2983912772571102</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
         <v>1062.5</v>
       </c>
       <c r="AE12" s="8">
-        <v>1.2382060102188461</v>
+        <v>0.63736339142235465</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
         <v>1054.6875</v>
       </c>
       <c r="AG12" s="8">
-        <v>-1.2912829831548152</v>
+        <v>-1.8212616793756524</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>4.9572541324538584</v>
+        <v>7.8284953162309403</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5988743506356131</v>
+        <v>-1.160805520634439</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="K13">
         <f>$C$15*$C$27/K12</f>
-        <v>0.98732712854114046</v>
+        <v>0.98733176270956124</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>1.5662598879128686E-3</v>
+        <v>1.6630516786295541E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-5.1902596054387296E-4</v>
+        <v>-4.224570607790773E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="2"/>
@@ -4398,15 +4398,15 @@
       </c>
       <c r="V13" s="8">
         <f t="shared" si="3"/>
-        <v>5.2380481590380557E-4</v>
+        <v>6.2048547795968967E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>8.2041447224571525E-7</v>
+        <v>1.0318994156861231E-6</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7186829771197924E-7</v>
+        <v>-2.6212847127495144E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -4420,29 +4420,29 @@
         <v>1054.6875</v>
       </c>
       <c r="AC13" s="8">
-        <v>-1.2912829831548152</v>
+        <v>-1.8212616793756524</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
         <v>1062.5</v>
       </c>
       <c r="AE13" s="8">
-        <v>1.2382060102188461</v>
+        <v>0.63736339142235465</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
         <v>1058.59375</v>
       </c>
       <c r="AG13" s="8">
-        <v>-2.4260619257347571E-2</v>
+        <v>-0.5896385904085264</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>3.1327324807810926E-2</v>
+        <v>1.0738861693921253</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>-3.0039644576078842E-2</v>
+        <v>-0.37581405169627508</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -4450,11 +4450,11 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>5.2380481590380557E-4</v>
+        <v>6.2048547795968967E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-5.1902596054387296E-4</v>
+        <v>-4.224570607790773E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="2"/>
@@ -4480,15 +4480,15 @@
       </c>
       <c r="V14" s="8">
         <f t="shared" si="3"/>
-        <v>2.4361127268501814E-6</v>
+        <v>9.9060972372111422E-5</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>1.2760475784086771E-9</v>
+        <v>6.1465894789461165E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-1.264405748046569E-9</v>
+        <v>-4.1849007226239574E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -4502,29 +4502,29 @@
         <v>1058.59375</v>
       </c>
       <c r="AC14" s="8">
-        <v>-2.4260619257347571E-2</v>
+        <v>-0.5896385904085264</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
         <v>1062.5</v>
       </c>
       <c r="AE14" s="8">
-        <v>1.2382060102188461</v>
+        <v>0.63736339142235465</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
         <v>1060.546875</v>
       </c>
       <c r="AG14" s="8">
-        <v>0.60754175834131274</v>
+        <v>2.4439627423703314E-2</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>-1.4739339282058056E-2</v>
+        <v>-1.4410547464221988E-2</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>0.75226185663713918</v>
+        <v>1.5576923819870329E-2</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -4537,16 +4537,16 @@
       </c>
       <c r="C15" s="3">
         <f>AF44</f>
-        <v>1058.6686813567212</v>
+        <v>1060.4690718264465</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="P15" s="8">
         <v>11</v>
       </c>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>9.9060972372111422E-5</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-5.1902596054387296E-4</v>
+        <v>-4.224570607790773E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="2"/>
@@ -4572,15 +4572,15 @@
       </c>
       <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>-2.5828328739285755E-4</v>
+        <v>-1.6168638806270119E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-6.2920720355044332E-10</v>
+        <v>-1.6016810820825727E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>1.3405573133150709E-7</v>
+        <v>6.8305556268954038E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -4594,29 +4594,29 @@
         <v>1058.59375</v>
       </c>
       <c r="AC15" s="8">
-        <v>-2.4260619257347571E-2</v>
+        <v>-0.5896385904085264</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
         <v>1060.546875</v>
       </c>
       <c r="AE15" s="8">
-        <v>0.60754175834131274</v>
+        <v>2.4439627423703314E-2</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
         <v>1059.5703125</v>
       </c>
       <c r="AG15" s="8">
-        <v>0.29178336235747793</v>
+        <v>-0.28245464672272647</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>-7.0788450597834536E-3</v>
+        <v>0.16654615974792672</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>0.17727057702140253</v>
+        <v>-6.9030863299971773E-3</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -4638,16 +4638,16 @@
       </c>
       <c r="G16">
         <f>C15</f>
-        <v>1058.6686813567212</v>
+        <v>1060.4690718264465</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>9.9060972372111422E-5</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-2.5828328739285755E-4</v>
+        <v>-1.6168638806270119E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="2"/>
@@ -4673,15 +4673,15 @@
       </c>
       <c r="V16" s="8">
         <f t="shared" si="3"/>
-        <v>-1.2792067386108164E-4</v>
+        <v>-3.1309789459768589E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-3.1162918162023233E-10</v>
+        <v>-3.1015781886507617E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>3.3039772170349751E-8</v>
+        <v>5.0623667687536159E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -4692,32 +4692,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1058.59375</v>
+        <v>1059.5703125</v>
       </c>
       <c r="AC16" s="8">
-        <v>-2.4260619257347571E-2</v>
+        <v>-0.28245464672272647</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1059.5703125</v>
+        <v>1060.546875</v>
       </c>
       <c r="AE16" s="8">
-        <v>0.29178336235747793</v>
+        <v>2.4439627423703314E-2</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1059.08203125</v>
+        <v>1060.05859375</v>
       </c>
       <c r="AG16" s="8">
-        <v>0.13379757990185226</v>
+        <v>-0.12897079478204887</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>-3.2460121435533775E-3</v>
+        <v>3.6428400277712866E-2</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>3.9039907739055767E-2</v>
+        <v>-3.1519981730121736E-3</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$10 * $C$11 * $C$12)</f>
-        <v>305.50884710800665</v>
+        <v>306.2877307265133</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> ACOS(K13)</f>
-        <v>0.15937207554178379</v>
+        <v>0.15934287176145334</v>
       </c>
       <c r="L17" t="s">
         <v>52</v>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>9.9060972372111422E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2792067386108164E-4</v>
+        <v>-3.1309789459768589E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
@@ -4779,15 +4779,15 @@
       </c>
       <c r="V17" s="8">
         <f t="shared" si="3"/>
-        <v>-6.2741551656225747E-5</v>
+        <v>3.3876321596376657E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5284549249205961E-10</v>
+        <v>3.3558213577274296E-9</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>8.02594156695426E-9</v>
+        <v>-1.0606604968539648E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -4798,32 +4798,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1058.59375</v>
+        <v>1060.05859375</v>
       </c>
       <c r="AC17" s="8">
-        <v>-2.4260619257347571E-2</v>
+        <v>-0.12897079478204887</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1059.08203125</v>
+        <v>1060.546875</v>
       </c>
       <c r="AE17" s="8">
-        <v>0.13379757990185226</v>
+        <v>2.4439627423703314E-2</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1058.837890625</v>
+        <v>1060.302734375</v>
       </c>
       <c r="AG17" s="8">
-        <v>5.4776516890342464E-2</v>
+        <v>-5.2256405156185792E-2</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>-1.3289122205202668E-3</v>
+        <v>6.7395501054460386E-3</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>7.3289653953807557E-3</v>
+        <v>-1.2771270725192695E-3</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592</f>
-        <v>57.440123562966924</v>
+        <v>57.55472336542315</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$5</f>
-        <v>1502.6919597784533</v>
+        <v>1505.2403989266779</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -4862,35 +4862,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.11090087890625</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>3.3876321596376657E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.11090087890625</v>
+        <v>0.1109619140625</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-6.2741551656225747E-5</v>
+        <v>-3.1309789459768589E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="2"/>
-        <v>0.110870361328125</v>
+        <v>0.110931396484375</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="3"/>
-        <v>-3.0152537169120253E-5</v>
+        <v>1.2834485353663272E-6</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-7.3454979544516984E-11</v>
+        <v>4.34785153364683E-11</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>1.8918169683626251E-9</v>
+        <v>-4.0184503424768061E-11</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -4901,32 +4901,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1058.59375</v>
+        <v>1060.302734375</v>
       </c>
       <c r="AC18" s="8">
-        <v>-2.4260619257347571E-2</v>
+        <v>-5.2256405156185792E-2</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1058.837890625</v>
+        <v>1060.546875</v>
       </c>
       <c r="AE18" s="8">
-        <v>5.4776516890342464E-2</v>
+        <v>2.4439627423703314E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1058.7158203125</v>
+        <v>1060.4248046875</v>
       </c>
       <c r="AG18" s="8">
-        <v>1.5260211967415671E-2</v>
+        <v>-1.3905076953847129E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>-3.702221923278905E-4</v>
+        <v>7.266293350281773E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>8.359012585833507E-4</v>
+        <v>-3.3983490004994724E-4</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -4938,8 +4938,8 @@
         <v>89</v>
       </c>
       <c r="G19">
-        <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836</f>
-        <v>41.979748920787365</v>
+        <f xml:space="preserve"> 0.2213 * (G4/1000)</f>
+        <v>42.654383918649849</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
-        <v>98.732712854114041</v>
+        <v>98.733176270956136</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -4959,35 +4959,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.110931396484375</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>1.2834485353663272E-6</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.110870361328125</v>
+        <v>0.1109619140625</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-3.0152537169120253E-5</v>
+        <v>-3.1309789459768589E-5</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="2"/>
-        <v>0.1108551025390625</v>
+        <v>0.1109466552734375</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3858166638763825E-5</v>
+        <v>-1.5013124853927029E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-3.3760056119503153E-11</v>
+        <v>-1.926857310504445E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>4.1785888467118851E-10</v>
+        <v>4.7005777830967437E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -4998,32 +4998,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1058.59375</v>
+        <v>1060.4248046875</v>
       </c>
       <c r="AC19" s="8">
-        <v>-2.4260619257347571E-2</v>
+        <v>-1.3905076953847129E-2</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1058.7158203125</v>
+        <v>1060.546875</v>
       </c>
       <c r="AE19" s="8">
-        <v>1.5260211967415671E-2</v>
+        <v>2.4439627423703314E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1058.65478515625</v>
+        <v>1060.48583984375</v>
       </c>
       <c r="AG19" s="8">
-        <v>-4.498622341088776E-3</v>
+        <v>5.2668315468054061E-3</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>1.0913936379975237E-4</v>
+        <v>-7.3235697961278873E-5</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>-6.8649930486366437E-5</v>
+        <v>1.2871940070733115E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -5031,17 +5031,17 @@
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="F20" s="13" t="s">
         <v>139</v>
       </c>
       <c r="G20">
         <f xml:space="preserve"> 2.20462 * (49.9/398 * (G4/$C$5/1000 - 2) + 0.1) * 0.453592 * $C$5</f>
-        <v>23.048882890076268</v>
+        <v>23.110396951192861</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -5051,42 +5051,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> K18 / ($C$26 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
-        <v>4.0055472670491699E-2</v>
+        <v>4.0123026734622723E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.110931396484375</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>1.2834485353663272E-6</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.1108551025390625</v>
+        <v>0.1109466552734375</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.3858166638763825E-5</v>
+        <v>-1.5013124853927029E-5</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084747314453125</v>
+        <v>0.11093902587890625</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="3"/>
-        <v>-5.7110155592954293E-6</v>
+        <v>-6.8648267561449705E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>-1.3912677687239002E-11</v>
+        <v>-8.8106518457178375E-12</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>7.9144205297289037E-11</v>
+        <v>1.0306250119058332E-10</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -5097,32 +5097,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1058.65478515625</v>
+        <v>1060.4248046875</v>
       </c>
       <c r="AC20" s="8">
-        <v>-4.498622341088776E-3</v>
+        <v>-1.3905076953847129E-2</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1058.7158203125</v>
+        <v>1060.48583984375</v>
       </c>
       <c r="AE20" s="8">
-        <v>1.5260211967415671E-2</v>
+        <v>5.2668315468054061E-3</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1058.685302734375</v>
+        <v>1060.455322265625</v>
       </c>
       <c r="AG20" s="8">
-        <v>5.3809362756283008E-3</v>
+        <v>-4.3189792679640959E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-2.4206800145516506E-5</v>
+        <v>6.0055739083111091E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>8.2114228149244106E-5</v>
+        <v>-2.274733625851182E-5</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="G21">
         <f xml:space="preserve"> 14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>144.19078653370963</v>
+        <v>144.22607158496641</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -5160,35 +5160,35 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.110931396484375</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>1.2834485353663272E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084747314453125</v>
+        <v>0.11093902587890625</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-5.7110155592954293E-6</v>
+        <v>-6.8648267561449705E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084365844726562</v>
+        <v>0.11093521118164062</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="3"/>
-        <v>-1.6374485669323757E-6</v>
+        <v>-2.7906862594684334E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>-3.9890092934665517E-12</v>
+        <v>-3.5817021923816949E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>9.3514942432968016E-12</v>
+        <v>1.9157577702005027E-11</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -5199,32 +5199,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1058.65478515625</v>
+        <v>1060.455322265625</v>
       </c>
       <c r="AC21" s="8">
-        <v>-4.498622341088776E-3</v>
+        <v>-4.3189792679640959E-3</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1058.685302734375</v>
+        <v>1060.48583984375</v>
       </c>
       <c r="AE21" s="8">
-        <v>5.3809362756283008E-3</v>
+        <v>5.2668315468054061E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6700439453125</v>
+        <v>1060.4705810546875</v>
       </c>
       <c r="AG21" s="8">
-        <v>4.401768042043841E-4</v>
+        <v>4.7497935031515226E-4</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>-1.9801892054229022E-6</v>
+        <v>-2.051425966722198E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>2.3685633334335063E-6</v>
+        <v>2.5016362263209804E-6</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="G22">
         <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>24.58987613566206</v>
+        <v>24.618471949435456</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="K22">
         <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$26 * K19^3 *$C$16^ 5)</f>
-        <v>1024.5499192485026</v>
+        <v>1024.5643459537839</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -5266,35 +5266,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.110931396484375</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>2.4361127268501814E-6</v>
+        <v>1.2834485353663272E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084365844726562</v>
+        <v>0.11093521118164062</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6374485669323757E-6</v>
+        <v>-2.7906862594684334E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084175109863281</v>
+        <v>0.11093330383300781</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="3"/>
-        <v>3.9933279230575103E-7</v>
+        <v>-7.5361814930174909E-7</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>9.7281969758466019E-13</v>
+        <v>-9.672301099468119E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>-6.5388690849015604E-13</v>
+        <v>2.1031118141424214E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -5305,32 +5305,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1058.65478515625</v>
+        <v>1060.455322265625</v>
       </c>
       <c r="AC22" s="8">
-        <v>-4.498622341088776E-3</v>
+        <v>-4.3189792679640959E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6700439453125</v>
+        <v>1060.4705810546875</v>
       </c>
       <c r="AE22" s="8">
-        <v>4.401768042043841E-4</v>
+        <v>4.7497935031515226E-4</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6624145507812</v>
+        <v>1060.4629516601562</v>
       </c>
       <c r="AG22" s="8">
-        <v>-2.0292139231514739E-3</v>
+        <v>-1.9230083423735778E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>9.1286670895376227E-6</v>
+        <v>8.3054331628334837E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>-8.9321289973985646E-7</v>
+        <v>-9.1338925311121986E-7</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -5361,42 +5361,42 @@
       </c>
       <c r="K23" s="5">
         <f>U34</f>
-        <v>0.11084212502464652</v>
+        <v>0.11093259835615754</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084175109863281</v>
+        <v>0.110931396484375</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>3.9933279230575103E-7</v>
+        <v>1.2834485353663272E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084365844726562</v>
+        <v>0.11093330383300781</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6374485669323757E-6</v>
+        <v>-7.5361814930174909E-7</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084270477294922</v>
+        <v>0.11093235015869141</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="3"/>
-        <v>-6.190577092335392E-7</v>
+        <v>2.6491537122308451E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>-2.4721004362663093E-13</v>
+        <v>3.4000524519229468E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>1.0136751588328981E-12</v>
+        <v>-1.9964503178272678E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -5407,32 +5407,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6624145507812</v>
+        <v>1060.4629516601562</v>
       </c>
       <c r="AC23" s="8">
-        <v>-2.0292139231514739E-3</v>
+        <v>-1.9230083423735778E-3</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6700439453125</v>
+        <v>1060.4705810546875</v>
       </c>
       <c r="AE23" s="8">
-        <v>4.401768042043841E-4</v>
+        <v>4.7497935031515226E-4</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6662292480469</v>
+        <v>1060.4667663574219</v>
       </c>
       <c r="AG23" s="8">
-        <v>-7.9451634837823804E-4</v>
+        <v>-7.2299490932437038E-4</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>1.6122436363005875E-6</v>
+        <v>1.3903252421243926E-6</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>-3.4972766711726991E-7</v>
+        <v>-3.4340765231205184E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="K24">
         <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
-        <v>6.1827955695217582</v>
+        <v>6.1926446675845828</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -5464,35 +5464,35 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084175109863281</v>
+        <v>0.11093235015869141</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>3.9933279230575103E-7</v>
+        <v>2.6491537122308451E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084270477294922</v>
+        <v>0.11093330383300781</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-6.190577092335392E-7</v>
+        <v>-7.5361814930174909E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084222793579102</v>
+        <v>0.11093282699584961</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="3"/>
-        <v>-1.098624139439508E-7</v>
+        <v>-2.4435134449163343E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-4.3871664529688149E-14</v>
+        <v>-6.4732427134860875E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>6.8011174307009022E-14</v>
+        <v>1.8414760801517893E-13</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -5503,32 +5503,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6662292480469</v>
+        <v>1060.4667663574219</v>
       </c>
       <c r="AC24" s="8">
-        <v>-7.9451634837823804E-4</v>
+        <v>-7.2299490932437038E-4</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6700439453125</v>
+        <v>1060.4705810546875</v>
       </c>
       <c r="AE24" s="8">
-        <v>4.401768042043841E-4</v>
+        <v>4.7497935031515226E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6681365966797</v>
+        <v>1060.4686737060547</v>
       </c>
       <c r="AG24" s="8">
-        <v>-1.7716921922783513E-4</v>
+        <v>-1.2400721914218593E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>1.4076384110592309E-7</v>
+        <v>8.9656588159272046E-8</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-7.7985780723094389E-8</v>
+        <v>-5.890086838254419E-8</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -5536,17 +5536,17 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="F25" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G25">
         <f xml:space="preserve"> 0.0268 * $C$15</f>
-        <v>28.372320660360128</v>
+        <v>28.420571124948765</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -5556,42 +5556,42 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$26*PI()*$C$16^2) / K18^3 )</f>
-        <v>1.2845371158923076</v>
+        <v>1.2846602993298406</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084175109863281</v>
+        <v>0.11093235015869141</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>3.9933279230575103E-7</v>
+        <v>2.6491537122308451E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084222793579102</v>
+        <v>0.11093282699584961</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-1.098624139439508E-7</v>
+        <v>-2.4435134449163343E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084198951721191</v>
+        <v>0.11093258857727051</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="3"/>
-        <v>1.4473520029700815E-7</v>
+        <v>1.0282024495711362E-8</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>5.7797511679536425E-14</v>
+        <v>2.7238663362062236E-15</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.590095848729054E-14</v>
+        <v>-2.5124265096229804E-15</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -5602,32 +5602,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6681365966797</v>
+        <v>1060.4686737060547</v>
       </c>
       <c r="AC25" s="8">
-        <v>-1.7716921922783513E-4</v>
+        <v>-1.2400721914218593E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6700439453125</v>
+        <v>1060.4705810546875</v>
       </c>
       <c r="AE25" s="8">
-        <v>4.401768042043841E-4</v>
+        <v>4.7497935031515226E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6690902709961</v>
+        <v>1060.4696273803711</v>
       </c>
       <c r="AG25" s="8">
-        <v>1.3251945881620486E-4</v>
+        <v>1.744688549933926E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>-2.3478369050962269E-8</v>
+        <v>-2.1635397534651897E-8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>5.8331991876611546E-8</v>
+        <v>8.2869103394990127E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="G26">
         <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
-        <v>7.3215115198772631</v>
+        <v>7.3264894174355195</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -5665,35 +5665,35 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084198951721191</v>
+        <v>0.11093258857727051</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.4473520029700815E-7</v>
+        <v>1.0282024495711362E-8</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084222793579102</v>
+        <v>0.11093282699584961</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.098624139439508E-7</v>
+        <v>-2.4435134449163343E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084210872650146</v>
+        <v>0.11093270778656006</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="3"/>
-        <v>1.7436395965964024E-8</v>
+        <v>-1.1703465721546458E-7</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>2.5236602625917481E-15</v>
+        <v>-1.2033532123365892E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9156045513033735E-15</v>
+        <v>2.8597575842716219E-14</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -5704,32 +5704,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6681365966797</v>
+        <v>1060.4686737060547</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.7716921922783513E-4</v>
+        <v>-1.2400721914218593E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6690902709961</v>
+        <v>1060.4696273803711</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.3251945881620486E-4</v>
+        <v>1.744688549933926E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686134338379</v>
+        <v>1060.4691505432129</v>
       </c>
       <c r="AG26" s="8">
-        <v>-2.1309318299245206E-5</v>
+        <v>2.5230853111679608E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>3.7753552853546926E-9</v>
+        <v>-3.1288079309643571E-9</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>-2.8238993287582256E-9</v>
+        <v>4.4019980529012182E-9</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="G27">
         <f xml:space="preserve"> 8 * ($C$15/1000)</f>
-        <v>8.4693494508537697</v>
+        <v>8.4837525746115716</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -5761,42 +5761,42 @@
       </c>
       <c r="K27">
         <f xml:space="preserve"> 1/$C$30 * LN( EXP($C$30 * K25) + EXP($C$30 * K26) )</f>
-        <v>1.2851208415088495</v>
+        <v>1.2852418904426068</v>
       </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084210872650146</v>
+        <v>0.11093258857727051</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.7436395965964024E-8</v>
+        <v>1.0282024495711362E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084222793579102</v>
+        <v>0.11093270778656006</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.098624139439508E-7</v>
+        <v>-1.1703465721546458E-7</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084216833114624</v>
+        <v>0.11093264818191528</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="3"/>
-        <v>-4.6213008281226209E-8</v>
+        <v>-5.3376315659048323E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-8.0578831116983471E-16</v>
+        <v>-5.4881658509715683E-16</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>5.0770726453872997E-15</v>
+        <v>6.2468788065811546E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -5807,32 +5807,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686134338379</v>
+        <v>1060.4686737060547</v>
       </c>
       <c r="AC27" s="8">
-        <v>-2.1309318299245206E-5</v>
+        <v>-1.2400721914218593E-4</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6690902709961</v>
+        <v>1060.4691505432129</v>
       </c>
       <c r="AE27" s="8">
-        <v>1.3251945881620486E-4</v>
+        <v>2.5230853111679608E-5</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1058.668851852417</v>
+        <v>1060.4689121246338</v>
       </c>
       <c r="AG27" s="8">
-        <v>5.5605078841836075E-5</v>
+        <v>-4.9388173692932469E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>-1.1849063240953099E-9</v>
+        <v>6.1244900781718185E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>7.3687549555525203E-9</v>
+        <v>-1.2461057559004981E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="G28">
         <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
-        <v>17.747234573741498</v>
+        <v>17.786480213134851</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -5855,35 +5855,35 @@
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084210872650146</v>
+        <v>0.11093258857727051</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>1.7436395965964024E-8</v>
+        <v>1.0282024495711362E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084216833114624</v>
+        <v>0.11093264818191528</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6213008281226209E-8</v>
+        <v>-5.3376315659048323E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084213852882385</v>
+        <v>0.1109326183795929</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>-1.4388305991097639E-8</v>
+        <v>-2.1547145401257239E-8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5088020054023089E-16</v>
+        <v>-2.2154827682838136E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>6.6492690391941183E-16</v>
+        <v>1.1501072344889179E-15</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -5894,32 +5894,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686134338379</v>
+        <v>1060.4689121246338</v>
       </c>
       <c r="AC28" s="8">
-        <v>-2.1309318299245206E-5</v>
+        <v>-4.9388173692932469E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1058.668851852417</v>
+        <v>1060.4691505432129</v>
       </c>
       <c r="AE28" s="8">
-        <v>5.5605078841836075E-5</v>
+        <v>2.5230853111679608E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6687326431274</v>
+        <v>1060.4690313339233</v>
       </c>
       <c r="AG28" s="8">
-        <v>1.6132354858200415E-5</v>
+        <v>-1.3096008615320898E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>-3.437694845897674E-10</v>
+        <v>6.4678794817760858E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>8.9704086379471127E-10</v>
+        <v>-3.3042346972245219E-10</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -5927,17 +5927,17 @@
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G29" s="3">
         <f>$C$15 - $C$21 - SUM(G17:G28)</f>
-        <v>6.7961991589982063E-10</v>
+        <v>1.34718902700115E-10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>14</v>
@@ -5947,35 +5947,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084210872650146</v>
+        <v>0.11093258857727051</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>1.7436395965964024E-8</v>
+        <v>1.0282024495711362E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084213852882385</v>
+        <v>0.1109326183795929</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4388305991097639E-8</v>
+        <v>-2.1547145401257239E-8</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084212362766266</v>
+        <v>0.1109326034784317</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="3"/>
-        <v>1.5240450290665564E-9</v>
+        <v>-5.6325604042006816E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>2.6573852596763629E-17</v>
+        <v>-5.7914124049565292E-17</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-2.1928426222420908E-17</v>
+        <v>1.2136559801067635E-16</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -5986,32 +5986,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686134338379</v>
+        <v>1060.4690313339233</v>
       </c>
       <c r="AC29" s="8">
-        <v>-2.1309318299245206E-5</v>
+        <v>-1.3096008615320898E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6687326431274</v>
+        <v>1060.4691505432129</v>
       </c>
       <c r="AE29" s="8">
-        <v>1.6132354858200415E-5</v>
+        <v>2.5230853111679608E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686730384827</v>
+        <v>1060.4690909385681</v>
       </c>
       <c r="AG29" s="8">
-        <v>-3.6040088389199809E-6</v>
+        <v>6.0674228734569624E-6</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>7.6798971501839016E-11</v>
+        <v>-7.9459022223587456E-11</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>-5.8141149501547991E-11</v>
+        <v>1.5308625528663763E-10</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -6037,35 +6037,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084212362766266</v>
+        <v>0.11093258857727051</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.5240450290665564E-9</v>
+        <v>1.0282024495711362E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084213852882385</v>
+        <v>0.1109326034784317</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4388305991097639E-8</v>
+        <v>-5.6325604042006816E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084213107824326</v>
+        <v>0.1109325960278511</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="3"/>
-        <v>-6.4321304671377533E-9</v>
+        <v>2.3247320596331278E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>-9.8028564647488407E-18</v>
+        <v>2.3902951983113346E-17</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>9.2547461335839785E-17</v>
+        <v>-1.3094193749465453E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -6076,32 +6076,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686730384827</v>
+        <v>1060.4690313339233</v>
       </c>
       <c r="AC30" s="8">
-        <v>-3.6040088389199809E-6</v>
+        <v>-1.3096008615320898E-5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6687326431274</v>
+        <v>1060.4690909385681</v>
       </c>
       <c r="AE30" s="8">
-        <v>1.6132354858200415E-5</v>
+        <v>6.0674228734569624E-6</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6687028408051</v>
+        <v>1060.4690611362457</v>
       </c>
       <c r="AG30" s="8">
-        <v>7.2797008670022478E-6</v>
+        <v>-2.496942329344165E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>-2.623610626936955E-11</v>
+        <v>3.2699978257050616E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>1.1743871764802949E-10</v>
+        <v>-1.5150005002765695E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -6114,35 +6114,35 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084212362766266</v>
+        <v>0.1109325960278511</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>1.5240450290665564E-9</v>
+        <v>2.3247320596331278E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084213107824326</v>
+        <v>0.1109326034784317</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-6.4321304671377533E-9</v>
+        <v>-5.6325604042006816E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084212735295296</v>
+        <v>0.1109325997531414</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="3"/>
-        <v>-2.4540427190355985E-9</v>
+        <v>-1.6539141722837769E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>-3.7400716070631797E-18</v>
+        <v>-3.8449073001896844E-18</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>1.5784722940766445E-17</v>
+        <v>9.315771478751947E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -6153,32 +6153,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686730384827</v>
+        <v>1060.4690611362457</v>
       </c>
       <c r="AC31" s="8">
-        <v>-3.6040088389199809E-6</v>
+        <v>-2.496942329344165E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6687028408051</v>
+        <v>1060.4690909385681</v>
       </c>
       <c r="AE31" s="8">
-        <v>7.2797008670022478E-6</v>
+        <v>6.0674228734569624E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686879396439</v>
+        <v>1060.4690760374069</v>
       </c>
       <c r="AG31" s="8">
-        <v>2.8533735303426511E-6</v>
+        <v>1.7852402152129798E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0283583424095225E-11</v>
+        <v>-4.4576418614127763E-12</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>2.0771705762716662E-11</v>
+        <v>1.0831807316398464E-11</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -6191,35 +6191,35 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084212362766266</v>
+        <v>0.1109325960278511</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>1.5240450290665564E-9</v>
+        <v>2.3247320596331278E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084212735295296</v>
+        <v>0.1109325997531414</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4540427190355985E-9</v>
+        <v>-1.6539141722837769E-9</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084212549030781</v>
+        <v>0.11093259789049625</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="3"/>
-        <v>-4.6499884498452104E-10</v>
+        <v>3.3540893673578154E-10</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>-7.0867917822034951E-19</v>
+        <v>7.7973590831713087E-19</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>1.1411270298942268E-18</v>
+        <v>-5.5473759397794182E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -6230,32 +6230,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686730384827</v>
+        <v>1060.4690611362457</v>
       </c>
       <c r="AC32" s="8">
-        <v>-3.6040088389199809E-6</v>
+        <v>-2.496942329344165E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686879396439</v>
+        <v>1060.4690760374069</v>
       </c>
       <c r="AE32" s="8">
-        <v>2.8533735303426511E-6</v>
+        <v>1.7852402152129798E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686804890633</v>
+        <v>1060.4690685868263</v>
       </c>
       <c r="AG32" s="8">
-        <v>-3.7531742691498948E-7</v>
+        <v>-1.3732014849665575E-6</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>1.352647324002326E-12</v>
+        <v>3.4288049145312625E-12</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>-1.0709208114355435E-12</v>
+        <v>-2.4514945145524805E-12</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -6273,35 +6273,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084212362766266</v>
+        <v>0.11093259789049625</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.5240450290665564E-9</v>
+        <v>3.3540893673578154E-10</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084212549030781</v>
+        <v>0.1109325997531414</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6499884498452104E-10</v>
+        <v>-1.6539141722837769E-9</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084212455898523</v>
+        <v>0.11093259882181883</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="3"/>
-        <v>5.2952309204101766E-10</v>
+        <v>-6.5925261083510378E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>8.0701703620106557E-19</v>
+        <v>-2.2111921724049013E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>-2.4622762619170544E-19</v>
+        <v>1.0903472361752596E-18</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -6312,32 +6312,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686804890633</v>
+        <v>1060.4690685868263</v>
       </c>
       <c r="AC33" s="8">
-        <v>-3.7531742691498948E-7</v>
+        <v>-1.3732014849665575E-6</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686879396439</v>
+        <v>1060.4690760374069</v>
       </c>
       <c r="AE33" s="8">
-        <v>2.8533735303426511E-6</v>
+        <v>1.7852402152129798E-6</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686842143536</v>
+        <v>1060.4690723121166</v>
       </c>
       <c r="AG33" s="8">
-        <v>1.2390281654006685E-6</v>
+        <v>2.0601942196663003E-7</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>-4.650288629133789E-13</v>
+        <v>-2.8290617617652817E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>3.5354101705032837E-12</v>
+        <v>3.677941572097603E-13</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="G34">
         <f>ROUND($C$21/$C$15 * 100, 2)</f>
-        <v>37.78</v>
+        <v>37.72</v>
       </c>
       <c r="H34" t="s">
         <v>95</v>
@@ -6366,35 +6366,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.11084212455898523</v>
+        <v>0.11093259789049625</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>5.2952309204101766E-10</v>
+        <v>3.3540893673578154E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.11084212549030781</v>
+        <v>0.11093259882181883</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6499884498452104E-10</v>
+        <v>-6.5925261083510378E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="2"/>
-        <v>0.11084212502464652</v>
+        <v>0.11093259835615754</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>3.2262109650460502E-11</v>
+        <v>-1.6192182317187331E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>1.7083532057878201E-20</v>
+        <v>-5.4310026544397261E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5001843724228103E-20</v>
+        <v>1.0674738467723749E-19</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -6405,32 +6405,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686804890633</v>
+        <v>1060.4690685868263</v>
       </c>
       <c r="AC34" s="8">
-        <v>-3.7531742691498948E-7</v>
+        <v>-1.3732014849665575E-6</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686842143536</v>
+        <v>1060.4690723121166</v>
       </c>
       <c r="AE34" s="8">
-        <v>1.2390281654006685E-6</v>
+        <v>2.0601942196663003E-7</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686823517084</v>
+        <v>1060.4690704494715</v>
       </c>
       <c r="AG34" s="8">
-        <v>4.3185514186916407E-7</v>
+        <v>-5.8359114518680144E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>-1.620827606463424E-13</v>
+        <v>8.0138822718384958E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>5.3508068414899579E-13</v>
+        <v>-1.202311103962285E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="G35">
         <f>ROUND(G17/$C$15 * 100, 2)</f>
-        <v>28.86</v>
+        <v>28.88</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -6459,32 +6459,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686804890633</v>
+        <v>1060.4690704494715</v>
       </c>
       <c r="AC35">
-        <v>-3.7531742691498948E-7</v>
+        <v>-5.8359114518680144E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686823517084</v>
+        <v>1060.4690723121166</v>
       </c>
       <c r="AE35">
-        <v>4.3185514186916407E-7</v>
+        <v>2.0601942196663003E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686814203858</v>
+        <v>1060.469071380794</v>
       </c>
       <c r="AG35">
-        <v>2.8268800633668434E-8</v>
+        <v>-1.887858616100857E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0609773515801261E-14</v>
+        <v>1.1017375717210693E-13</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>1.2208026908123997E-14</v>
+        <v>-3.8893554084382068E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="G36">
         <f>ROUND(SUM(G18:G20)/$C$15 * 100, 2)</f>
-        <v>11.57</v>
+        <v>11.63</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -6510,32 +6510,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686804890633</v>
+        <v>1060.469071380794</v>
       </c>
       <c r="AC36">
-        <v>-3.7531742691498948E-7</v>
+        <v>-1.887858616100857E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686814203858</v>
+        <v>1060.4690723121166</v>
       </c>
       <c r="AE36">
-        <v>2.8268800633668434E-8</v>
+        <v>2.0601942196663003E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686809547246</v>
+        <v>1060.4690718464553</v>
       </c>
       <c r="AG36">
-        <v>-1.7352442682749825E-7</v>
+        <v>8.6166664914344437E-9</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>6.5126741383795013E-14</v>
+        <v>-1.6267048077922056E-15</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>-4.9053274270581342E-15</v>
+        <v>1.7752006498445542E-15</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="G37">
         <f>ROUND(SUM(G21:G24)/$C$15 * 100, 2)</f>
-        <v>15.94</v>
+        <v>15.92</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
@@ -6558,32 +6558,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686809547246</v>
+        <v>1060.469071380794</v>
       </c>
       <c r="AC37">
-        <v>-1.7352442682749825E-7</v>
+        <v>-1.887858616100857E-7</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686814203858</v>
+        <v>1060.4690718464553</v>
       </c>
       <c r="AE37">
-        <v>2.8268800633668434E-8</v>
+        <v>8.6166664914344437E-9</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686811875552</v>
+        <v>1060.4690716136247</v>
       </c>
       <c r="AG37">
-        <v>-7.2627699410077184E-8</v>
+        <v>-9.0084313342231326E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>1.2602679911933476E-14</v>
+        <v>1.700664471186608E-14</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>-2.0530979551054705E-15</v>
+        <v>-7.7622648417988545E-16</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -6606,32 +6606,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686811875552</v>
+        <v>1060.4690716136247</v>
       </c>
       <c r="AC38">
-        <v>-7.2627699410077184E-8</v>
+        <v>-9.0084313342231326E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686814203858</v>
+        <v>1060.4690718464553</v>
       </c>
       <c r="AE38">
-        <v>2.8268800633668434E-8</v>
+        <v>8.6166664914344437E-9</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686813039705</v>
+        <v>1060.46907173004</v>
       </c>
       <c r="AG38">
-        <v>-2.2179392544785514E-8</v>
+        <v>-4.0733880268817302E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>1.6108382548407892E-15</v>
+        <v>3.6694836337810718E-15</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-6.2698482602441369E-16</v>
+        <v>-3.509902611784207E-16</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="G39" s="3">
         <f>SUM(G34:G38)</f>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>95</v>
@@ -6660,32 +6660,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686813039705</v>
+        <v>1060.46907173004</v>
       </c>
       <c r="AC39">
-        <v>-2.2179392544785514E-8</v>
+        <v>-4.0733880268817302E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686814203858</v>
+        <v>1060.4690718464553</v>
       </c>
       <c r="AE39">
-        <v>2.8268800633668434E-8</v>
+        <v>8.6166664914344437E-9</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686813621782</v>
+        <v>1060.4690717882477</v>
       </c>
       <c r="AG39">
-        <v>3.0447608878603205E-9</v>
+        <v>-1.6058606888691429E-8</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>-6.7530946936863717E-17</v>
+        <v>6.541293702879614E-16</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>8.6071738516114692E-17</v>
+        <v>-1.3837165987690576E-16</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -6704,32 +6704,32 @@
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686813039705</v>
+        <v>1060.4690717882477</v>
       </c>
       <c r="AC40">
-        <v>-2.2179392544785514E-8</v>
+        <v>-1.6058606888691429E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686813621782</v>
+        <v>1060.4690718464553</v>
       </c>
       <c r="AE40">
-        <v>3.0447608878603205E-9</v>
+        <v>8.6166664914344437E-9</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686813330743</v>
+        <v>1060.4690718173515</v>
       </c>
       <c r="AG40">
-        <v>-9.5675432021380402E-9</v>
+        <v>-3.720856511790771E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>2.1220229636941378E-16</v>
+        <v>5.9751772012075637E-17</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>-2.9130881334783793E-17</v>
+        <v>-3.2061379624583186E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -6745,32 +6745,32 @@
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686813330743</v>
+        <v>1060.4690718173515</v>
       </c>
       <c r="AC41">
-        <v>-9.5675432021380402E-9</v>
+        <v>-3.720856511790771E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686813621782</v>
+        <v>1060.4690718464553</v>
       </c>
       <c r="AE41">
-        <v>3.0447608878603205E-9</v>
+        <v>8.6166664914344437E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686813476263</v>
+        <v>1060.4690718319034</v>
       </c>
       <c r="AG41">
-        <v>-3.2615616873954423E-9</v>
+        <v>2.4479049898218364E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>3.120513235059414E-17</v>
+        <v>-9.1083032216237009E-18</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>-9.930675459125352E-18</v>
+        <v>2.109278090001299E-17</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -6783,32 +6783,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686813476263</v>
+        <v>1060.4690718173515</v>
       </c>
       <c r="AC42">
-        <v>-3.2615616873954423E-9</v>
+        <v>-3.720856511790771E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686813621782</v>
+        <v>1060.4690718319034</v>
       </c>
       <c r="AE42">
-        <v>3.0447608878603205E-9</v>
+        <v>2.4479049898218364E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686813549022</v>
+        <v>1060.4690718246275</v>
       </c>
       <c r="AG42">
-        <v>-1.0845724318642169E-10</v>
+        <v>-6.3630523072788492E-10</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>3.5373998909736337E-19</v>
+        <v>2.3676004612403796E-18</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>-3.3022637205917201E-19</v>
+        <v>-1.5576147493485244E-18</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -6821,32 +6821,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686813549022</v>
+        <v>1060.4690718246275</v>
       </c>
       <c r="AC43">
-        <v>-1.0845724318642169E-10</v>
+        <v>-6.3630523072788492E-10</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686813621782</v>
+        <v>1060.4690718319034</v>
       </c>
       <c r="AE43">
-        <v>3.0447608878603205E-9</v>
+        <v>2.4479049898218364E-9</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1058.6686813585402</v>
+        <v>1060.4690718282654</v>
       </c>
       <c r="AG43">
-        <v>1.4681518223369494E-9</v>
+        <v>9.0562934929039329E-10</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>-1.592316992297867E-19</v>
+        <v>-5.7625669205416799E-19</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>4.4701712460923976E-18</v>
+        <v>2.2168946030570565E-18</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -6865,32 +6865,32 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1058.6686813549022</v>
+        <v>1060.4690718246275</v>
       </c>
       <c r="AC44">
-        <v>-1.0845724318642169E-10</v>
+        <v>-6.3630523072788492E-10</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1058.6686813585402</v>
+        <v>1060.4690718282654</v>
       </c>
       <c r="AE44">
-        <v>1.4681518223369494E-9</v>
+        <v>9.0562934929039329E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1058.6686813567212</v>
+        <v>1060.4690718264465</v>
       </c>
       <c r="AG44">
-        <v>6.7961991589982063E-10</v>
+        <v>1.34718902700115E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>-7.3709702493082304E-20</v>
+        <v>-8.5722342466004151E-20</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>9.9778521802480595E-19</v>
+        <v>1.2200539218942095E-19</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -6924,11 +6924,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F7:H7"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J16:L16"/>
@@ -6938,6 +6933,11 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -6968,7 +6968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
   <dimension ref="B1:AJ60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -7000,11 +7000,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -7015,21 +7015,21 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$20*$C$34)^3 / (2 * $C$33 * PI() * $C$21^2* $C$5) )</f>
-        <v>263233.32295700605</v>
+        <v>262298.73684875615</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> $C$20 * $C$34</f>
-        <v>12164.3942948941</v>
+        <v>12135.584842569206</v>
       </c>
       <c r="L4" t="s">
         <v>37</v>
@@ -7126,14 +7126,14 @@
       </c>
       <c r="R4" s="8">
         <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
-        <v>1.1457993016711427</v>
+        <v>1.1421448443882893</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
-        <v>-0.65991996386560281</v>
+        <v>-0.66002130878058374</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -7141,15 +7141,15 @@
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
-        <v>-0.13699147913345805</v>
+        <v>-0.13719393554739773</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-0.15696474112601316</v>
+        <v>-0.15669534616679959</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>9.0403411959647115E-2</v>
+        <v>9.0550920896752499E-2</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -7161,17 +7161,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G30</f>
-        <v>-8.1058715295512229E-11</v>
+        <v>-6.0435922932811081E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G30</f>
-        <v>-8.1058715295512229E-11</v>
+        <v>-6.0435922932811081E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G30</f>
-        <v>-8.1058715295512229E-11</v>
+        <v>-6.0435922932811081E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$20 * $C$34 / $C$5</f>
-        <v>2027.3990491490167</v>
+        <v>2022.5974737615343</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>1.1457993016711427</v>
+        <v>1.1421448443882893</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13699147913345805</v>
+        <v>-0.13719393554739773</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -7229,15 +7229,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" si="2"/>
-        <v>0.15849860530369719</v>
+        <v>0.15809554380490631</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>0.18160759127282633</v>
+        <v>0.18056801027753669</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-2.1712958381143638E-2</v>
+        <v>-2.1689749847101109E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -7251,14 +7251,14 @@
       </c>
       <c r="AC5" s="8">
         <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>-316.38214877663165</v>
+        <v>-307.30699016242596</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20"/>
-        <v>116.14060012224877</v>
+        <v>92.303283962681235</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
@@ -7266,15 +7266,15 @@
       </c>
       <c r="AG5" s="8">
         <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>74.907148780426269</v>
+        <v>71.895809140737811</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-23699.284689882104</v>
+        <v>-22094.084712332369</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>8699.7612128052824</v>
+        <v>6636.2192868442553</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> 1.6 * ($C$20*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.29061635914651102</v>
+        <v>0.29015732511390857</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.15849860530369719</v>
+        <v>0.15809554380490631</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13699147913345805</v>
+        <v>-0.13719393554739773</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
@@ -7323,15 +7323,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="2"/>
-        <v>3.2388899899743473E-3</v>
+        <v>2.9692697198202E-3</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>5.1335954614303988E-4</v>
+        <v>4.6942831105841631E-4</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>-4.4370033047713697E-4</v>
+        <v>-4.0736579856385222E-4</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -7345,29 +7345,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-316.38214877663165</v>
+        <v>-307.30699016242596</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0,AF5,AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>74.907148780426269</v>
+        <v>71.895809140737811</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>-87.818211887496318</v>
+        <v>-83.749470438284789</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>27784.114578687622</v>
+        <v>25736.797688086368</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>-6578.2118634876852</v>
+        <v>-6021.2359422687869</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -7381,17 +7381,17 @@
       <c r="C7" s="1">
         <v>0.13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>68</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K6 / $C$24</f>
-        <v>3.6327044893313877E-2</v>
+        <v>3.6269665639238571E-2</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>3.2388899899743473E-3</v>
+        <v>2.9692697198202E-3</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13699147913345805</v>
+        <v>-0.13719393554739773</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
@@ -7418,15 +7418,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="2"/>
-        <v>-6.7957552598711224E-2</v>
+        <v>-6.8188822739930877E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>-2.2010703685512096E-4</v>
+        <v>-2.0247100659186385E-4</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>9.3096056487872256E-3</v>
+        <v>9.3550929520350053E-3</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -7440,29 +7440,29 @@
         <v>1000</v>
       </c>
       <c r="AC7" s="8">
-        <v>-87.818211887496318</v>
+        <v>-83.749470438284789</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
         <v>1500</v>
       </c>
       <c r="AE7" s="8">
-        <v>74.907148780426269</v>
+        <v>71.895809140737811</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
         <v>1250</v>
       </c>
       <c r="AG7" s="8">
-        <v>3.2880417107148787</v>
+        <v>4.0771172678928451</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>-288.74994364648506</v>
+        <v>-341.45641210081226</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>246.29782962076672</v>
+        <v>293.12764493683039</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$23 * SIN(K17))</f>
-        <v>59343.788209791019</v>
+        <v>59038.762605515054</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K5 * $C$24 * K7</f>
-        <v>160.2022679795142</v>
+        <v>159.94922546904209</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>3.2388899899743473E-3</v>
+        <v>2.9692697198202E-3</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-6.7957552598711224E-2</v>
+        <v>-6.8188822739930877E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
@@ -7521,15 +7521,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="2"/>
-        <v>-3.2691471828298124E-2</v>
+        <v>-3.294045233945192E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0588408086220317E-4</v>
+        <v>-9.7809087688715052E-5</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>2.2216324163008561E-3</v>
+        <v>2.2461706655480282E-3</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -7543,29 +7543,29 @@
         <v>1000</v>
       </c>
       <c r="AC8" s="8">
-        <v>-87.818211887496318</v>
+        <v>-83.749470438284789</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE8" s="8">
-        <v>3.2880417107148787</v>
+        <v>4.0771172678928451</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
         <v>1125</v>
       </c>
       <c r="AG8" s="8">
-        <v>-39.997701789718235</v>
+        <v>-37.504441232064551</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>3512.5266507823667</v>
+        <v>3140.9770922691791</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>-131.51411181732871</v>
+        <v>-152.9100049699228</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="G9">
         <f xml:space="preserve"> $C$6 * G8</f>
-        <v>59343.788209791019</v>
+        <v>59038.762605515054</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>3.2388899899743473E-3</v>
+        <v>2.9692697198202E-3</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-3.2691471828298124E-2</v>
+        <v>-3.294045233945192E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
@@ -7621,15 +7621,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="2"/>
-        <v>-1.4819192735502529E-2</v>
+        <v>-1.5078083441782852E-2</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-4.7997735010519707E-5</v>
+        <v>-4.4770896596608169E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>4.8446122183080112E-4</v>
+        <v>4.966788889843272E-4</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -7643,29 +7643,29 @@
         <v>1125</v>
       </c>
       <c r="AC9" s="8">
-        <v>-39.997701789718235</v>
+        <v>-37.504441232064551</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE9" s="8">
-        <v>3.2880417107148787</v>
+        <v>4.0771172678928451</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
         <v>1187.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>-17.766278981273217</v>
+        <v>-16.108954945561436</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>710.61032860590524</v>
+        <v>604.15735406578449</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>-58.41626633462338</v>
+        <v>-65.678098376256372</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="K10">
         <f xml:space="preserve"> K4 / (K5 * $C$24)</f>
-        <v>2.7583660532639684</v>
+        <v>2.7518332976347404</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>3.2388899899743473E-3</v>
+        <v>2.9692697198202E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4819192735502529E-2</v>
+        <v>-1.5078083441782852E-2</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
@@ -7705,15 +7705,15 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" si="2"/>
-        <v>-5.814784127819661E-3</v>
+        <v>-6.0789309889376364E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-1.8833446105456816E-5</v>
+        <v>-1.8049985714329187E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>8.6170406705500532E-5</v>
+        <v>9.1658628688041238E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -7727,29 +7727,29 @@
         <v>1187.5</v>
       </c>
       <c r="AC10" s="8">
-        <v>-17.766278981273217</v>
+        <v>-16.108954945561436</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE10" s="8">
-        <v>3.2880417107148787</v>
+        <v>4.0771172678928451</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
         <v>1218.75</v>
       </c>
       <c r="AG10" s="8">
-        <v>-7.0893360001998644</v>
+        <v>-5.8620862877063473</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>125.9511211715344</v>
+        <v>94.43208389565504</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>-23.310032469929737</v>
+        <v>-23.900413229485412</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -7757,22 +7757,22 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="F11" s="21" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="J11" t="s">
         <v>71</v>
       </c>
       <c r="K11">
         <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
-        <v>0.35642113892619809</v>
+        <v>0.35484937018358748</v>
       </c>
       <c r="P11" s="8">
         <v>7</v>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>3.2388899899743473E-3</v>
+        <v>2.9692697198202E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-5.814784127819661E-3</v>
+        <v>-6.0789309889376364E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
@@ -7799,15 +7799,15 @@
       </c>
       <c r="V11" s="8">
         <f t="shared" si="2"/>
-        <v>-1.2942936984547959E-3</v>
+        <v>-1.5611492763178969E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-4.1920749040121148E-6</v>
+        <v>-4.6354732742899497E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>7.5260384545119539E-6</v>
+        <v>9.4901187141664292E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -7821,29 +7821,29 @@
         <v>1218.75</v>
       </c>
       <c r="AC11" s="8">
-        <v>-7.0893360001998644</v>
+        <v>-5.8620862877063473</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE11" s="8">
-        <v>3.2880417107148787</v>
+        <v>4.0771172678928451</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
         <v>1234.375</v>
       </c>
       <c r="AG11" s="8">
-        <v>-1.8628745280194607</v>
+        <v>-0.85369791488346891</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>13.206543455343693</v>
+        <v>5.0044508406818835</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>-6.1252091499562802</v>
+        <v>-3.4806265103355076</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
-        <v>34033.273810964572</v>
+        <v>33886.238735893479</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> K5 * K11 * $C$24</f>
-        <v>1571.8172226645336</v>
+        <v>1564.8857225096208</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>3.2388899899743473E-3</v>
+        <v>2.9692697198202E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2942936984547959E-3</v>
+        <v>-1.5611492763178969E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
@@ -7902,15 +7902,15 @@
       </c>
       <c r="V12" s="8">
         <f t="shared" si="2"/>
-        <v>9.7068709038683476E-4</v>
+        <v>7.0245627091330975E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>3.1439487004512434E-6</v>
+        <v>2.0857821347207058E-6</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>-1.2563541842591012E-6</v>
+        <v>-1.0966390989812821E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -7924,29 +7924,29 @@
         <v>1234.375</v>
       </c>
       <c r="AC12" s="8">
-        <v>-1.8628745280194607</v>
+        <v>-0.85369791488346891</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="AE12" s="8">
-        <v>3.2880417107148787</v>
+        <v>4.0771172678928451</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
         <v>1242.1875</v>
       </c>
       <c r="AG12" s="8">
-        <v>0.72206755088757291</v>
+        <v>1.621447328228669</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>-1.3451212480578554</v>
+        <v>-1.3842262032021864</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>2.3741882252720781</v>
+        <v>6.6108309008998241</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="K13">
         <f>K10/K11</f>
-        <v>7.7390641351245053</v>
+        <v>7.754933582694628</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>9.7068709038683476E-4</v>
+        <v>7.0245627091330975E-4</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.2942936984547959E-3</v>
+        <v>-1.5611492763178969E-3</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
@@ -7996,15 +7996,15 @@
       </c>
       <c r="V13" s="8">
         <f t="shared" si="2"/>
-        <v>-1.6220297925562122E-4</v>
+        <v>-4.2974441541060449E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5744833798571508E-7</v>
+        <v>-3.018766594951535E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>2.0993829392114453E-7</v>
+        <v>6.7089518311992282E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -8018,29 +8018,29 @@
         <v>1234.375</v>
       </c>
       <c r="AC13" s="8">
-        <v>-1.8628745280194607</v>
+        <v>-0.85369791488346891</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
         <v>1242.1875</v>
       </c>
       <c r="AE13" s="8">
-        <v>0.72206755088757291</v>
+        <v>1.621447328228669</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
         <v>1238.28125</v>
       </c>
       <c r="AG13" s="8">
-        <v>-0.56803746278421841</v>
+        <v>0.38630413243242856</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>1.0581825203815229</v>
+        <v>-0.32978703236843171</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>-0.41016141956499141</v>
+        <v>0.6263718034162552</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -8048,11 +8048,11 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>9.7068709038683476E-4</v>
+        <v>7.0245627091330975E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6220297925562122E-4</v>
+        <v>-4.2974441541060449E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
@@ -8078,15 +8078,15 @@
       </c>
       <c r="V14" s="8">
         <f t="shared" si="2"/>
-        <v>4.0414175314607004E-4</v>
+        <v>1.3625606765182985E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>3.9229518246519317E-7</v>
+        <v>9.5713929172016046E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-6.5552996401882382E-8</v>
+        <v>-5.8555284139183397E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -8097,32 +8097,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>1238.28125</v>
+        <v>1234.375</v>
       </c>
       <c r="AC14" s="8">
-        <v>-0.56803746278421841</v>
+        <v>-0.85369791488346891</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>1242.1875</v>
+        <v>1238.28125</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.72206755088757291</v>
+        <v>0.38630413243242856</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>1240.234375</v>
+        <v>1236.328125</v>
       </c>
       <c r="AG14" s="8">
-        <v>7.7607141678072367E-2</v>
+        <v>-0.23309032396798557</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>-4.40837638527476E-2</v>
+        <v>0.19898872355098154</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>5.6037598722870598E-2</v>
+        <v>-9.0043755378846374E-2</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -8139,11 +8139,11 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="P15" s="8">
         <v>11</v>
       </c>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>4.0414175314607004E-4</v>
+        <v>1.3625606765182985E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6220297925562122E-4</v>
+        <v>-4.2974441541060449E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
@@ -8169,15 +8169,15 @@
       </c>
       <c r="V15" s="8">
         <f t="shared" si="2"/>
-        <v>1.2094435944498549E-4</v>
+        <v>-1.4676909101174473E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>4.8878665459224894E-8</v>
+        <v>-1.9998179194093863E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9617535426139379E-8</v>
+        <v>6.3073197217188047E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -8188,32 +8188,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>1238.28125</v>
+        <v>1236.328125</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.56803746278421841</v>
+        <v>-0.23309032396798557</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>1240.234375</v>
+        <v>1238.28125</v>
       </c>
       <c r="AE15" s="8">
-        <v>7.7607141678072367E-2</v>
+        <v>0.38630413243242856</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>1239.2578125</v>
+        <v>1237.3046875</v>
       </c>
       <c r="AG15" s="8">
-        <v>-0.24506741497907569</v>
+        <v>7.6758632383643999E-2</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>0.13920747261580133</v>
+        <v>-1.789169448964309E-2</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>-1.9018981594960082E-2</v>
+        <v>2.9652176889663311E-2</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -8232,50 +8232,50 @@
       </c>
       <c r="G16" s="5">
         <f>C20</f>
-        <v>1239.9994184397656</v>
+        <v>1237.0626750835072</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.377685546875</v>
+        <v>0.37744140625</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>1.2094435944498549E-4</v>
+        <v>1.3625606765182985E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.3779296875</v>
+        <v>0.377685546875</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6220297925562122E-4</v>
+        <v>-1.4676909101174473E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>0.3778076171875</v>
+        <v>0.3775634765625</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>-2.0635560780690732E-5</v>
+        <v>-5.2627469400157167E-6</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-2.4957546804087053E-9</v>
+        <v>-7.1708120309324204E-10</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>3.3471494372384893E-9</v>
+        <v>7.7240858461094783E-10</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -8286,32 +8286,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1239.2578125</v>
+        <v>1236.328125</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.24506741497907569</v>
+        <v>-0.23309032396798557</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1240.234375</v>
+        <v>1237.3046875</v>
       </c>
       <c r="AE16" s="8">
-        <v>7.7607141678072367E-2</v>
+        <v>7.6758632383643999E-2</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1239.74609375</v>
+        <v>1236.81640625</v>
       </c>
       <c r="AG16" s="8">
-        <v>-8.3693189630253073E-2</v>
+        <v>-7.8127778126145131E-2</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>2.0510473634039704E-2</v>
+        <v>1.8210829114322064E-2</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>-6.4951892251248269E-3</v>
+        <v>-5.9969814001356765E-3</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
-        <v>200.1957282997916</v>
+        <v>199.33081609349105</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -8350,35 +8350,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.377685546875</v>
+        <v>0.37744140625</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>1.2094435944498549E-4</v>
+        <v>1.3625606765182985E-4</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.3778076171875</v>
+        <v>0.3775634765625</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0635560780690732E-5</v>
+        <v>-5.2627469400157167E-6</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>0.37774658203125</v>
+        <v>0.37750244140625</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>5.0152835863959133E-5</v>
+        <v>6.5495100792900551E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>6.0657026079160331E-9</v>
+        <v>8.9241048845008717E-9</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0349318927947346E-9</v>
+        <v>-3.4468414128385832E-10</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -8389,32 +8389,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1239.74609375</v>
+        <v>1236.81640625</v>
       </c>
       <c r="AC17" s="8">
-        <v>-8.3693189630253073E-2</v>
+        <v>-7.8127778126145131E-2</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1240.234375</v>
+        <v>1237.3046875</v>
       </c>
       <c r="AE17" s="8">
-        <v>7.7607141678072367E-2</v>
+        <v>7.6758632383643999E-2</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1239.990234375</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AG17" s="8">
-        <v>-3.0337858927396155E-3</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>2.5390721801864323E-4</v>
+        <v>5.2729069519225449E-5</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>-2.3544345159878059E-4</v>
+        <v>-5.1805021981079286E-5</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
-        <v>86.001868820107859</v>
+        <v>85.744349307823455</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$6</f>
-        <v>1571.8172226645336</v>
+        <v>1564.8857225096208</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -8447,35 +8447,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.37774658203125</v>
+        <v>0.37750244140625</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>5.0152835863959133E-5</v>
+        <v>6.5495100792900551E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.3778076171875</v>
+        <v>0.3775634765625</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0635560780690732E-5</v>
+        <v>-5.2627469400157167E-6</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="3"/>
-        <v>0.377777099609375</v>
+        <v>0.377532958984375</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="2"/>
-        <v>1.4758246768276084E-5</v>
+        <v>3.0115787129192384E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>7.4016792780915582E-10</v>
+        <v>1.9724365134839923E-9</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>-3.0454469820319369E-10</v>
+        <v>-1.5849176656032192E-10</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -8486,32 +8486,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1239.990234375</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AC18" s="8">
-        <v>-3.0337858927396155E-3</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1240.234375</v>
+        <v>1237.3046875</v>
       </c>
       <c r="AE18" s="8">
-        <v>7.7607141678072367E-2</v>
+        <v>7.6758632383643999E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1240.1123046875</v>
+        <v>1237.1826171875</v>
       </c>
       <c r="AG18" s="8">
-        <v>3.7289084183043997E-2</v>
+        <v>3.8044327370243991E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>-1.131270975476988E-4</v>
+        <v>-2.5676424324762071E-5</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>2.8938992392390627E-3</v>
+        <v>2.9202305388955642E-3</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -8519,17 +8519,17 @@
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="F19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G19">
-        <f xml:space="preserve"> 0.188 * (G4/1000) + 5.836 + 0.188 * (G9/1000) + 5.836</f>
-        <v>72.316496899357844</v>
+        <f xml:space="preserve"> 0.2213 * (G4/1000) + 0.2213 * (G9/1000)</f>
+        <v>71.111988629230225</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -8549,35 +8549,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.377777099609375</v>
+        <v>0.377532958984375</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>1.4758246768276084E-5</v>
+        <v>3.0115787129192384E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.3778076171875</v>
+        <v>0.3775634765625</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0635560780690732E-5</v>
+        <v>-5.2627469400157167E-6</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="3"/>
-        <v>0.3777923583984375</v>
+        <v>0.3775482177734375</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="2"/>
-        <v>-2.9387546878201221E-6</v>
+        <v>1.24264226569748E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-4.3370866874277508E-11</v>
+        <v>3.7423149951482633E-10</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>6.064285098005194E-11</v>
+        <v>-6.5397117813336102E-11</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -8588,32 +8588,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1239.990234375</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AC19" s="8">
-        <v>-3.0337858927396155E-3</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1240.1123046875</v>
+        <v>1237.1826171875</v>
       </c>
       <c r="AE19" s="8">
-        <v>3.7289084183043997E-2</v>
+        <v>3.8044327370243991E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1240.05126953125</v>
+        <v>1237.12158203125</v>
       </c>
       <c r="AG19" s="8">
-        <v>1.712800920358859E-2</v>
+        <v>1.8685081770968281E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>-5.1962712692561361E-5</v>
+        <v>-1.2610712851490781E-5</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>6.386877770805673E-4</v>
+        <v>7.1086136783449563E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C20" s="3">
         <f>AF44</f>
-        <v>1239.9994184397656</v>
+        <v>1237.0626750835072</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="G20">
         <f>2.20462 * (49.9/398 * (G4/$C$5/1000 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (G8/1000 -2) + 0.1) * 0.453592 * $C$6</f>
-        <v>39.388357829828024</v>
+        <v>39.232939487026556</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -8653,35 +8653,35 @@
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.377777099609375</v>
+        <v>0.3775482177734375</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.4758246768276084E-5</v>
+        <v>1.24264226569748E-5</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.3777923583984375</v>
+        <v>0.3775634765625</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-2.9387546878201221E-6</v>
+        <v>-5.2627469400157167E-6</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778472900390625</v>
+        <v>0.37755584716796875</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="2"/>
-        <v>5.9097216183467971E-6</v>
+        <v>3.5818135005194485E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>8.721712997537793E-11</v>
+        <v>4.4509128435913097E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7367222109628569E-11</v>
+        <v>-1.885017803956571E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -8692,32 +8692,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1239.990234375</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AC20" s="8">
-        <v>-3.0337858927396155E-3</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1240.05126953125</v>
+        <v>1237.12158203125</v>
       </c>
       <c r="AE20" s="8">
-        <v>1.712800920358859E-2</v>
+        <v>1.8685081770968281E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1240.020751953125</v>
+        <v>1237.091064453125</v>
       </c>
       <c r="AG20" s="8">
-        <v>7.0472499701281777E-3</v>
+        <v>9.0052287052913016E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-2.1379847541984541E-5</v>
+        <v>-6.0777017064424531E-6</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>1.2070536234834484E-4</v>
+        <v>1.6826343472463879E-4</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="G21">
         <f xml:space="preserve"> 14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>147.51111805117898</v>
+        <v>147.46075959523168</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -8749,42 +8749,42 @@
       </c>
       <c r="K21">
         <f xml:space="preserve"> K18 / ( $C$33 * PI() * $C$22^2 * K19^2 * $C$22^2)</f>
-        <v>4.5980514539193842E-2</v>
+        <v>4.577774672430051E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778472900390625</v>
+        <v>0.37755584716796875</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>5.9097216183467971E-6</v>
+        <v>3.5818135005194485E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.3777923583984375</v>
+        <v>0.3775634765625</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-2.9387546878201221E-6</v>
+        <v>-5.2627469400157167E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778854370117188</v>
+        <v>0.37755966186523438</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="2"/>
-        <v>1.4854773600081472E-6</v>
+        <v>-8.4047280907162403E-7</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>8.7787576680048764E-12</v>
+        <v>-3.0104168543522478E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>-4.3654535553746022E-12</v>
+        <v>4.4231957041081028E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -8795,32 +8795,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1239.990234375</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AC21" s="8">
-        <v>-3.0337858927396155E-3</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1240.020751953125</v>
+        <v>1237.091064453125</v>
       </c>
       <c r="AE21" s="8">
-        <v>7.0472499701281777E-3</v>
+        <v>9.0052287052913016E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1240.0054931640625</v>
+        <v>1237.0758056640625</v>
       </c>
       <c r="AG21" s="8">
-        <v>2.006766617341782E-3</v>
+        <v>4.1650004692428411E-3</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>-6.0881002537122964E-6</v>
+        <v>-2.8109925119810699E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>1.4142185984116098E-5</v>
+        <v>3.7506781783177376E-5</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="G22">
         <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>27.398119125585467</v>
+        <v>27.35371901870186</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -8858,35 +8858,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778854370117188</v>
+        <v>0.37755584716796875</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>1.4854773600081472E-6</v>
+        <v>3.5818135005194485E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.3777923583984375</v>
+        <v>0.37755966186523438</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-2.9387546878201221E-6</v>
+        <v>-8.4047280907162403E-7</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="3"/>
-        <v>0.37779045104980469</v>
+        <v>0.37755775451660156</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="2"/>
-        <v>-7.2664019024060167E-7</v>
+        <v>1.3706688233861009E-6</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0794075514744268E-12</v>
+        <v>4.9094800963454436E-12</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>2.1354172654280734E-12</v>
+        <v>-1.1520098762982139E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -8897,32 +8897,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1239.990234375</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AC22" s="8">
-        <v>-3.0337858927396155E-3</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1240.0054931640625</v>
+        <v>1237.0758056640625</v>
       </c>
       <c r="AE22" s="8">
-        <v>2.006766617341782E-3</v>
+        <v>4.1650004692428411E-3</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9978637695312</v>
+        <v>1237.0681762695312</v>
       </c>
       <c r="AG22" s="8">
-        <v>-5.1330781934666447E-4</v>
+        <v>1.7450550573130386E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>1.5572660209668458E-6</v>
+        <v>-1.1777517758583574E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>-1.0300889962853923E-6</v>
+        <v>7.2681551325633985E-6</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G23">
         <f xml:space="preserve"> 0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
-        <v>194.43958648309695</v>
+        <v>194.25663745723645</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -8964,35 +8964,35 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778854370117188</v>
+        <v>0.37755775451660156</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.4854773600081472E-6</v>
+        <v>1.3706688233861009E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.37779045104980469</v>
+        <v>0.37755966186523438</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2664019024060167E-7</v>
+        <v>-8.4047280907162403E-7</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778949737548828</v>
+        <v>0.37755870819091797</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="2"/>
-        <v>3.7941820330011922E-7</v>
+        <v>2.6509762657278557E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>5.6361715097729556E-13</v>
+        <v>3.6336105189696797E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7570051542674592E-13</v>
+        <v>-2.228073468838495E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -9003,32 +9003,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9978637695312</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AC23" s="8">
-        <v>-5.1330781934666447E-4</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1240.0054931640625</v>
+        <v>1237.0681762695312</v>
       </c>
       <c r="AE23" s="8">
-        <v>2.006766617341782E-3</v>
+        <v>1.7450550573130386E-3</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1240.0016784667969</v>
+        <v>1237.0643615722656</v>
       </c>
       <c r="AG23" s="8">
-        <v>7.4653838578342402E-4</v>
+        <v>5.3507570066813059E-4</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>-3.832039908650683E-7</v>
+        <v>-3.6112691919926E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>1.4981283111543961E-6</v>
+        <v>9.3373655749623891E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -9059,42 +9059,42 @@
       </c>
       <c r="K24" s="5">
         <f>U34</f>
-        <v>0.37778982473537326</v>
+        <v>0.37755893683061004</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778949737548828</v>
+        <v>0.37755870819091797</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>3.7941820330011922E-7</v>
+        <v>2.6509762657278557E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.37779045104980469</v>
+        <v>0.37755966186523438</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-7.2664019024060167E-7</v>
+        <v>-8.4047280907162403E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778997421264648</v>
+        <v>0.37755918502807617</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>-1.7361108883839904E-7</v>
+        <v>-2.8768768639553244E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-6.5871207400042742E-14</v>
+        <v>-7.6265322857671496E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>1.2615279462141228E-13</v>
+        <v>2.4179367792016958E-13</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -9105,32 +9105,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9978637695312</v>
+        <v>1237.060546875</v>
       </c>
       <c r="AC24" s="8">
-        <v>-5.1330781934666447E-4</v>
+        <v>-6.7490809010450903E-4</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1240.0016784667969</v>
+        <v>1237.0643615722656</v>
       </c>
       <c r="AE24" s="8">
-        <v>7.4653838578342402E-4</v>
+        <v>5.3507570066813059E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9997711181641</v>
+        <v>1237.0624542236328</v>
       </c>
       <c r="AG24" s="8">
-        <v>1.1642264928468649E-4</v>
+        <v>-6.9915640665385581E-5</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>-5.9760656226883927E-8</v>
+        <v>4.7186631509908529E-8</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>8.6913976665619559E-8</v>
+        <v>-3.7410160416692432E-8</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> K19 * $C$22 * K24 - $C$23 * SIN(K17)</f>
-        <v>5.7200111969363547</v>
+        <v>5.6982505245741493</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -9168,35 +9168,35 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778949737548828</v>
+        <v>0.37755870819091797</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>3.7941820330011922E-7</v>
+        <v>2.6509762657278557E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778997421264648</v>
+        <v>0.37755918502807617</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7361108883839904E-7</v>
+        <v>-2.8768768639553244E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778973579406738</v>
+        <v>0.37755894660949707</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="2"/>
-        <v>1.0290353336106506E-7</v>
+        <v>-1.129505367014616E-8</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>3.9043473741089183E-14</v>
+        <v>-2.9942919199679778E-15</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>-1.7865194472133026E-14</v>
+        <v>3.2494478580777163E-15</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -9207,32 +9207,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9978637695312</v>
+        <v>1237.0624542236328</v>
       </c>
       <c r="AC25" s="8">
-        <v>-5.1330781934666447E-4</v>
+        <v>-6.9915640665385581E-5</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9997711181641</v>
+        <v>1237.0643615722656</v>
       </c>
       <c r="AE25" s="8">
-        <v>1.1642264928468649E-4</v>
+        <v>5.3507570066813059E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9988174438477</v>
+        <v>1237.0634078979492</v>
       </c>
       <c r="AG25" s="8">
-        <v>-1.9844244968680869E-4</v>
+        <v>2.3238486767240829E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>1.0186206111454595E-7</v>
+        <v>-1.6247336904257277E-8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>-2.3103195723081373E-8</v>
+        <v>1.2434349589448467E-7</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="G26">
         <f xml:space="preserve"> 0.0268 * $C$20</f>
-        <v>33.231984414185717</v>
+        <v>33.153279692237994</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -9255,42 +9255,42 @@
       </c>
       <c r="K26">
         <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$33*PI()*$C$22^2) / K18^3 )</f>
-        <v>1.3052634650193407</v>
+        <v>1.305076759765579</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778973579406738</v>
+        <v>0.37755870819091797</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.0290353336106506E-7</v>
+        <v>2.6509762657278557E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778997421264648</v>
+        <v>0.37755894660949707</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7361108883839904E-7</v>
+        <v>-1.129505367014616E-8</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778985500335693</v>
+        <v>0.37755882740020752</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="2"/>
-        <v>-3.5353783678360173E-8</v>
+        <v>1.2690128048387095E-7</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>-3.6380292581860134E-15</v>
+        <v>3.3641228265321541E-14</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>6.1378088789573298E-15</v>
+        <v>-1.4333567738755938E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -9301,32 +9301,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9988174438477</v>
+        <v>1237.0624542236328</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.9844244968680869E-4</v>
+        <v>-6.9915640665385581E-5</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9997711181641</v>
+        <v>1237.0634078979492</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.1642264928468649E-4</v>
+        <v>2.3238486767240829E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9992942810059</v>
+        <v>1237.062931060791</v>
       </c>
       <c r="AG26" s="8">
-        <v>-4.0816692035150481E-5</v>
+        <v>8.1039347605837975E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>8.0997643555673142E-9</v>
+        <v>-5.6659179069670432E-9</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>-4.7519874217693806E-9</v>
+        <v>1.8832318069640956E-8</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -9334,17 +9334,17 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="F27" s="15" t="s">
         <v>102</v>
       </c>
       <c r="G27">
         <f xml:space="preserve"> 11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592</f>
-        <v>7.7994740316798676</v>
+        <v>7.7920800449100396</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -9360,35 +9360,35 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778973579406738</v>
+        <v>0.37755882740020752</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.0290353336106506E-7</v>
+        <v>1.2690128048387095E-7</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778985500335693</v>
+        <v>0.37755894660949707</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5353783678360173E-8</v>
+        <v>-1.129505367014616E-8</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778979539871216</v>
+        <v>0.37755888700485229</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="2"/>
-        <v>3.3774873342551359E-8</v>
+        <v>5.7803111908061311E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>3.4755538057709805E-15</v>
+        <v>7.3352889170854693E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1940695659165743E-15</v>
+        <v>-6.5288925130301715E-16</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -9399,32 +9399,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9992942810059</v>
+        <v>1237.0624542236328</v>
       </c>
       <c r="AC27" s="8">
-        <v>-4.0816692035150481E-5</v>
+        <v>-6.9915640665385581E-5</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9997711181641</v>
+        <v>1237.062931060791</v>
       </c>
       <c r="AE27" s="8">
-        <v>1.1642264928468649E-4</v>
+        <v>8.1039347605837975E-5</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1239.999532699585</v>
+        <v>1237.0626926422119</v>
       </c>
       <c r="AG27" s="8">
-        <v>3.799616138167039E-5</v>
+        <v>5.3665618224840728E-6</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5508776176335182E-9</v>
+        <v>-3.7520660798937321E-10</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>4.4236137707025603E-9</v>
+        <v>4.3490266898050612E-10</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="G28">
         <f xml:space="preserve"> 8 * ($C$20/1000)</f>
-        <v>9.9199953475181246</v>
+        <v>9.8965014006680576</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -9456,42 +9456,42 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> 1/$C$38 * LN( EXP($C$38 * K26) + EXP($C$38 * K27) )</f>
-        <v>1.3055781854443305</v>
+        <v>1.3053932395699492</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778979539871216</v>
+        <v>0.37755888700485229</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>3.3774873342551359E-8</v>
+        <v>5.7803111908061311E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778985500335693</v>
+        <v>0.37755894660949707</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5353783678360173E-8</v>
+        <v>-1.129505367014616E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778982520103455</v>
+        <v>0.37755891680717468</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="2"/>
-        <v>-7.8945555648246568E-10</v>
+        <v>2.3254028702623941E-8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>-2.6663761429768679E-17</v>
+        <v>1.3441552234110415E-15</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>2.7910240967560543E-17</v>
+        <v>-2.6265550224325667E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -9502,32 +9502,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9992942810059</v>
+        <v>1237.0624542236328</v>
       </c>
       <c r="AC28" s="8">
-        <v>-4.0816692035150481E-5</v>
+        <v>-6.9915640665385581E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1239.999532699585</v>
+        <v>1237.0626926422119</v>
       </c>
       <c r="AE28" s="8">
-        <v>3.799616138167039E-5</v>
+        <v>5.3665618224840728E-6</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994134902954</v>
+        <v>1237.0625734329224</v>
       </c>
       <c r="AG28" s="8">
-        <v>-1.4102630530032911E-6</v>
+        <v>-3.207923680292879E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>5.7562272722986434E-11</v>
+        <v>2.242840393133382E-9</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>-5.3584582552520233E-11</v>
+        <v>-1.7215520752102368E-10</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="G29">
         <f xml:space="preserve"> 13 * ($C$20*2.20462/1000)^1.3 * 0.453592</f>
-        <v>21.796689137516186</v>
+        <v>21.729604357554244</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -9559,35 +9559,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778979539871216</v>
+        <v>0.37755891680717468</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>3.3774873342551359E-8</v>
+        <v>2.3254028702623941E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778982520103455</v>
+        <v>0.37755894660949707</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8945555648246568E-10</v>
+        <v>-1.129505367014616E-8</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778981029987335</v>
+        <v>0.37755893170833588</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="2"/>
-        <v>1.649270880976772E-8</v>
+        <v>5.9794874052165881E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>5.5703915112548573E-16</v>
+        <v>1.390471717478849E-16</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-1.302026061131844E-17</v>
+        <v>-6.7538631161884369E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -9598,32 +9598,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994134902954</v>
+        <v>1237.0625734329224</v>
       </c>
       <c r="AC29" s="8">
-        <v>-1.4102630530032911E-6</v>
+        <v>-3.207923680292879E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1239.999532699585</v>
+        <v>1237.0626926422119</v>
       </c>
       <c r="AE29" s="8">
-        <v>3.799616138167039E-5</v>
+        <v>5.3665618224840728E-6</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994730949402</v>
+        <v>1237.0626330375671</v>
       </c>
       <c r="AG29" s="8">
-        <v>1.8292949675924319E-5</v>
+        <v>-1.3161036349629285E-5</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-2.5797871058404596E-11</v>
+        <v>4.2219600163171133E-10</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>6.9506186803319553E-10</v>
+        <v>-7.0629515218245663E-11</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="G30" s="3">
         <f>$C$20 - $C$28 - SUM(G17:G29)</f>
-        <v>-8.1058715295512229E-11</v>
+        <v>-6.0435922932811081E-10</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>14</v>
@@ -9655,35 +9655,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778981029987335</v>
+        <v>0.37755893170833588</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.649270880976772E-8</v>
+        <v>5.9794874052165881E-9</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778982520103455</v>
+        <v>0.37755894660949707</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8945555648246568E-10</v>
+        <v>-1.129505367014616E-8</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778981775045395</v>
+        <v>0.37755893915891647</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="2"/>
-        <v>7.8516265711314759E-9</v>
+        <v>-2.6577831602203617E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>1.294945907207064E-16</v>
+        <v>-1.5892180932334394E-17</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>-6.1985102240051132E-18</v>
+        <v>3.0019803438299656E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -9694,32 +9694,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994134902954</v>
+        <v>1237.0626330375671</v>
       </c>
       <c r="AC30" s="8">
-        <v>-1.4102630530032911E-6</v>
+        <v>-1.3161036349629285E-5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994730949402</v>
+        <v>1237.0626926422119</v>
       </c>
       <c r="AE30" s="8">
-        <v>1.8292949675924319E-5</v>
+        <v>5.3665618224840728E-6</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994432926178</v>
+        <v>1237.0626628398895</v>
       </c>
       <c r="AG30" s="8">
-        <v>8.248169137914374E-6</v>
+        <v>-3.8972370930423494E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>-1.1632088190122649E-11</v>
+        <v>5.1291679044653928E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>1.5088334295837971E-10</v>
+        <v>-2.0914763796689881E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -9739,35 +9739,35 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778981775045395</v>
+        <v>0.37755893170833588</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>7.8516265711314759E-9</v>
+        <v>5.9794874052165881E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778982520103455</v>
+        <v>0.37755893915891647</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8945555648246568E-10</v>
+        <v>-2.6577831602203617E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778982147574425</v>
+        <v>0.37755893543362617</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="2"/>
-        <v>3.5310855350800807E-9</v>
+        <v>1.6608521224981132E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>2.7724765012172767E-17</v>
+        <v>9.9310443484047058E-18</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7876350960838302E-18</v>
+        <v>-4.4141848027917305E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -9778,32 +9778,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994134902954</v>
+        <v>1237.0626628398895</v>
       </c>
       <c r="AC31" s="8">
-        <v>-1.4102630530032911E-6</v>
+        <v>-3.8972370930423494E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994432926178</v>
+        <v>1237.0626926422119</v>
       </c>
       <c r="AE31" s="8">
-        <v>8.248169137914374E-6</v>
+        <v>5.3665618224840728E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994283914566</v>
+        <v>1237.0626777410507</v>
       </c>
       <c r="AG31" s="8">
-        <v>3.2257787552225636E-6</v>
+        <v>9.2996276634949027E-7</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>-4.5491965956533288E-12</v>
+        <v>-3.6242853881655091E-12</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>2.6606768774566595E-11</v>
+        <v>4.9907026782228504E-12</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -9811,45 +9811,45 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="P32" s="8">
         <v>28</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778982147574425</v>
+        <v>0.37755893543362617</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>3.5310855350800807E-9</v>
+        <v>1.6608521224981132E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778982520103455</v>
+        <v>0.37755893915891647</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8945555648246568E-10</v>
+        <v>-2.6577831602203617E-9</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="3"/>
-        <v>0.3777898233383894</v>
+        <v>0.37755893729627132</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="2"/>
-        <v>1.3708149615432319E-9</v>
+        <v>-4.9846549110554861E-10</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>4.8404648819766633E-18</v>
+        <v>-8.2787746889471477E-19</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0821974882996019E-18</v>
+        <v>1.3248131882112996E-18</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -9860,32 +9860,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994134902954</v>
+        <v>1237.0626628398895</v>
       </c>
       <c r="AC32" s="8">
-        <v>-1.4102630530032911E-6</v>
+        <v>-3.8972370930423494E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994283914566</v>
+        <v>1237.0626777410507</v>
       </c>
       <c r="AE32" s="8">
-        <v>3.2257787552225636E-6</v>
+        <v>9.2996276634949027E-7</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1239.999420940876</v>
+        <v>1237.0626702904701</v>
       </c>
       <c r="AG32" s="8">
-        <v>9.0775790795305511E-7</v>
+        <v>-1.6789376786618959E-6</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>-1.280177438657756E-12</v>
+        <v>6.5432181981875574E-12</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>2.9282261743602446E-12</v>
+        <v>-1.5613495281768083E-12</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -9907,35 +9907,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.3777898233383894</v>
+        <v>0.37755893543362617</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.3708149615432319E-9</v>
+        <v>1.6608521224981132E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778982520103455</v>
+        <v>0.37755893729627132</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8945555648246568E-10</v>
+        <v>-4.9846549110554861E-10</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778982426971197</v>
+        <v>0.37755893636494875</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="2"/>
-        <v>2.9067970253038311E-10</v>
+        <v>5.811933156962823E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>3.9846808524558521E-19</v>
+        <v>9.6527615195588643E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>-2.2947870631928119E-19</v>
+        <v>-2.8970481153580951E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -9946,32 +9946,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994134902954</v>
+        <v>1237.0626702904701</v>
       </c>
       <c r="AC33" s="8">
-        <v>-1.4102630530032911E-6</v>
+        <v>-1.6789376786618959E-6</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1239.999420940876</v>
+        <v>1237.0626777410507</v>
       </c>
       <c r="AE33" s="8">
-        <v>9.0775790795305511E-7</v>
+        <v>9.2996276634949027E-7</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994172155857</v>
+        <v>1237.0626740157604</v>
       </c>
       <c r="AG33" s="8">
-        <v>-4.4442674607125809E-7</v>
+        <v>-3.7448739931278396E-7</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>6.2675861975077086E-13</v>
+        <v>6.2874100489033598E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>-4.034318932520289E-13</v>
+        <v>-3.4825933782794278E-13</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -9998,35 +9998,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.37778982426971197</v>
+        <v>0.37755893636494875</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>2.9067970253038311E-10</v>
+        <v>5.811933156962823E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.37778982520103455</v>
+        <v>0.37755893729627132</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8945555648246568E-10</v>
+        <v>-4.9846549110554861E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>0.37778982473537326</v>
+        <v>0.37755893683061004</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="2"/>
-        <v>-2.4938789922046567E-10</v>
+        <v>4.1363912295366845E-11</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-7.2492000360082123E-20</v>
+        <v>2.4040429337114476E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>1.9688066275908579E-19</v>
+        <v>-2.0618482856356875E-20</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -10037,32 +10037,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994172155857</v>
+        <v>1237.0626740157604</v>
       </c>
       <c r="AC34" s="8">
-        <v>-4.4442674607125809E-7</v>
+        <v>-3.7448739931278396E-7</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1239.999420940876</v>
+        <v>1237.0626777410507</v>
       </c>
       <c r="AE34" s="8">
-        <v>9.0775790795305511E-7</v>
+        <v>9.2996276634949027E-7</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994190782309</v>
+        <v>1237.0626758784056</v>
       </c>
       <c r="AG34" s="8">
-        <v>2.3166558094089851E-7</v>
+        <v>2.7773751298809657E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0295838031427119E-13</v>
+        <v>-1.0400919893051284E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>2.1029626309963919E-13</v>
+        <v>2.5828554589743777E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="G35">
         <f>ROUND($C$28/$C$20 * 100, 2)</f>
-        <v>32.26</v>
+        <v>32.33</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -10094,32 +10094,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994172155857</v>
+        <v>1237.0626740157604</v>
       </c>
       <c r="AC35">
-        <v>-4.4442674607125809E-7</v>
+        <v>-3.7448739931278396E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994190782309</v>
+        <v>1237.0626758784056</v>
       </c>
       <c r="AE35">
-        <v>2.3166558094089851E-7</v>
+        <v>2.7773751298809657E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994181469083</v>
+        <v>1237.062674947083</v>
       </c>
       <c r="AG35">
-        <v>-1.063808667822741E-7</v>
+        <v>-4.8374886318924837E-8</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>4.7278502468286065E-14</v>
+        <v>1.8115785369625735E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>-2.4644785304111861E-14</v>
+        <v>-1.3435520617300082E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="G36">
         <f>ROUND(G17/$C$20 * 100, 2)</f>
-        <v>16.14</v>
+        <v>16.11</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -10142,32 +10142,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994181469083</v>
+        <v>1237.062674947083</v>
       </c>
       <c r="AC36">
-        <v>-1.063808667822741E-7</v>
+        <v>-4.8374886318924837E-8</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994190782309</v>
+        <v>1237.0626758784056</v>
       </c>
       <c r="AE36">
-        <v>2.3166558094089851E-7</v>
+        <v>2.7773751298809657E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994186125696</v>
+        <v>1237.0626754127443</v>
       </c>
       <c r="AG36">
-        <v>6.2642129705636762E-8</v>
+        <v>1.1468137017800473E-7</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>-6.6639240551732793E-15</v>
+        <v>-5.5476982452595156E-15</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>1.4512025369631456E-14</v>
+        <v>3.1851318539306298E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -10175,17 +10175,17 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="F37" s="18" t="s">
         <v>140</v>
       </c>
       <c r="G37">
         <f>ROUND(SUM(G18:G20)/$C$20 * 100, 2)</f>
-        <v>15.94</v>
+        <v>15.85</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
@@ -10195,32 +10195,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994181469083</v>
+        <v>1237.062674947083</v>
       </c>
       <c r="AC37">
-        <v>-1.063808667822741E-7</v>
+        <v>-4.8374886318924837E-8</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994186125696</v>
+        <v>1237.0626754127443</v>
       </c>
       <c r="AE37">
-        <v>6.2642129705636762E-8</v>
+        <v>1.1468137017800473E-7</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994183797389</v>
+        <v>1237.0626751799136</v>
       </c>
       <c r="AG37">
-        <v>-2.1869141164643224E-8</v>
+        <v>3.3153128242702223E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>2.3264581928786574E-15</v>
+        <v>-1.6037788098574564E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3699295773864611E-15</v>
+        <v>3.802046172560197E-15</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="G38">
         <f>ROUND(SUM(G21:G25)/$C$20 * 100, 2)</f>
-        <v>29.79</v>
+        <v>29.83</v>
       </c>
       <c r="H38" t="s">
         <v>95</v>
@@ -10249,32 +10249,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994183797389</v>
+        <v>1237.062674947083</v>
       </c>
       <c r="AC38">
-        <v>-2.1869141164643224E-8</v>
+        <v>-4.8374886318924837E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994186125696</v>
+        <v>1237.0626751799136</v>
       </c>
       <c r="AE38">
-        <v>6.2642129705636762E-8</v>
+        <v>3.3153128242702223E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994184961542</v>
+        <v>1237.0626750634983</v>
       </c>
       <c r="AG38">
-        <v>2.0386437427077908E-8</v>
+        <v>-7.6107653512735851E-9</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>-4.4583387793693278E-16</v>
+        <v>3.6816990866787173E-16</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>1.2770498575428621E-15</v>
+        <v>-2.523206797158878E-16</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -10297,32 +10297,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994183797389</v>
+        <v>1237.0626750634983</v>
       </c>
       <c r="AC39">
-        <v>-2.1869141164643224E-8</v>
+        <v>-7.6107653512735851E-9</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994184961542</v>
+        <v>1237.0626751799136</v>
       </c>
       <c r="AE39">
-        <v>2.0386437427077908E-8</v>
+        <v>3.3153128242702223E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994184379466</v>
+        <v>1237.062675121706</v>
       </c>
       <c r="AG39">
-        <v>-7.4123818194493651E-10</v>
+        <v>1.2771124602295458E-8</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>1.6210242437577315E-17</v>
+        <v>-9.7198032619947919E-17</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5111205814781438E-17</v>
+        <v>4.2340273174343076E-16</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="G40" s="3">
         <f>SUM(G35:G39)</f>
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>95</v>
@@ -10345,32 +10345,32 @@
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994184379466</v>
+        <v>1237.0626750634983</v>
       </c>
       <c r="AC40">
-        <v>-7.4123818194493651E-10</v>
+        <v>-7.6107653512735851E-9</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994184961542</v>
+        <v>1237.062675121706</v>
       </c>
       <c r="AE40">
-        <v>2.0386437427077908E-8</v>
+        <v>1.2771124602295458E-8</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994184670504</v>
+        <v>1237.0626750926021</v>
       </c>
       <c r="AG40">
-        <v>9.8227701528230682E-9</v>
+        <v>2.5800090952543542E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>-7.2810122897415573E-18</v>
+        <v>-1.9635843828132549E-17</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>2.0025128908109598E-16</v>
+        <v>3.2949617630548929E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -10383,32 +10383,32 @@
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994184379466</v>
+        <v>1237.0626750634983</v>
       </c>
       <c r="AC41">
-        <v>-7.4123818194493651E-10</v>
+        <v>-7.6107653512735851E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994184670504</v>
+        <v>1237.0626750926021</v>
       </c>
       <c r="AE41">
-        <v>9.8227701528230682E-9</v>
+        <v>2.5800090952543542E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994184524985</v>
+        <v>1237.0626750780502</v>
       </c>
       <c r="AG41">
-        <v>4.540424924925901E-9</v>
+        <v>-2.515207597753033E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>-3.3655363166095497E-18</v>
+        <v>1.9142654836238853E-17</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>4.459955043369606E-17</v>
+        <v>-6.4892584786556804E-18</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -10427,32 +10427,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994184379466</v>
+        <v>1237.0626750780502</v>
       </c>
       <c r="AC42">
-        <v>-7.4123818194493651E-10</v>
+        <v>-2.515207597753033E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994184524985</v>
+        <v>1237.0626750926021</v>
       </c>
       <c r="AE42">
-        <v>4.540424924925901E-9</v>
+        <v>2.5800090952543542E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994184452225</v>
+        <v>1237.0626750853262</v>
       </c>
       <c r="AG42">
-        <v>1.8998207451659255E-9</v>
+        <v>3.2400748750660568E-11</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>-1.4082196751680651E-18</v>
+        <v>-8.1494609430548555E-20</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>8.6259934642426665E-18</v>
+        <v>8.359422646975542E-20</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -10471,32 +10471,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994184379466</v>
+        <v>1237.0626750780502</v>
       </c>
       <c r="AC43">
-        <v>-7.4123818194493651E-10</v>
+        <v>-2.515207597753033E-9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994184452225</v>
+        <v>1237.0626750853262</v>
       </c>
       <c r="AE43">
-        <v>1.8998207451659255E-9</v>
+        <v>3.2400748750660568E-11</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1239.9994184415846</v>
+        <v>1237.0626750816882</v>
       </c>
       <c r="AG43">
-        <v>5.7912075135391206E-10</v>
+        <v>-1.2415739547577687E-9</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>-4.292664128601594E-19</v>
+        <v>3.1228162441790202E-18</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>1.1002256173782398E-18</v>
+        <v>-4.0227925763470474E-20</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -10512,32 +10512,32 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1239.9994184379466</v>
+        <v>1237.0626750816882</v>
       </c>
       <c r="AC44">
-        <v>-7.4123818194493651E-10</v>
+        <v>-1.2415739547577687E-9</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1239.9994184415846</v>
+        <v>1237.0626750853262</v>
       </c>
       <c r="AE44">
-        <v>5.7912075135391206E-10</v>
+        <v>3.2400748750660568E-11</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1239.9994184397656</v>
+        <v>1237.0626750835072</v>
       </c>
       <c r="AG44">
-        <v>-8.1058715295512229E-11</v>
+        <v>-6.0435922932811081E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>6.0083814756437702E-20</v>
+        <v>7.5035667845125979E-19</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>-4.6942784105719886E-20</v>
+        <v>-1.958169154460297E-20</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -10626,12 +10626,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F7:H7"/>
@@ -10640,6 +10634,12 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
@@ -10670,7 +10670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04399F6A-8712-2C4A-BDE2-261DEBFAF47B}">
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3548FA2-8AC0-BE4D-A199-21421007D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCDDFB-7B6C-5B47-A84F-E4DC7D7683A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="156">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -653,18 +653,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,19 +1195,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37.72</c:v>
+                  <c:v>44.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.88</c:v>
+                  <c:v>26.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.63</c:v>
+                  <c:v>9.7899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.92</c:v>
+                  <c:v>14.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.85</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,19 +1705,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32.33</c:v>
+                  <c:v>41.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.11</c:v>
+                  <c:v>13.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.85</c:v>
+                  <c:v>12.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.83</c:v>
+                  <c:v>28.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.87</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3415,11 +3415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -3430,21 +3430,21 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$7 * SQRT( ($C$15*$C$27)^3 / (2 * $C$26 * PI() * $C$16^2* $C$5) )</f>
-        <v>192744.61779778515</v>
+        <v>151102.29547988271</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -3541,14 +3541,14 @@
       </c>
       <c r="R4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q4^2)) - Q4</f>
-        <v>0.11508329825005216</v>
+        <v>0.10601029008077278</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S4^2)) - S4</f>
-        <v>-0.93257296814979274</v>
+        <v>-0.93456298248072001</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -3556,15 +3556,15 @@
       </c>
       <c r="V4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U4^2)) - U4</f>
-        <v>-0.41738320139120477</v>
+        <v>-0.42163082070222835</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.8033835450265606E-2</v>
+        <v>-4.4697205609637525E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.38924029097725854</v>
+        <v>0.39404055730126825</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -3576,17 +3576,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G29</f>
-        <v>1.34718902700115E-10</v>
+        <v>-2.2106405594968237E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G29</f>
-        <v>1.34718902700115E-10</v>
+        <v>-2.2106405594968237E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G29</f>
-        <v>1.34718902700115E-10</v>
+        <v>-2.2106405594968237E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$15 * $C$27 / $C$5</f>
-        <v>1486.1716563739199</v>
+        <v>1263.5570132632372</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
-        <v>3.0328336146612234</v>
+        <v>2.6248558944624021</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q5^2)) - Q5</f>
-        <v>0.11508329825005216</v>
+        <v>0.10601029008077278</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S5^2)) - S5</f>
-        <v>-0.41738320139120477</v>
+        <v>-0.42163082070222835</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -3644,15 +3644,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U5^2)) - U5</f>
-        <v>-0.15041614140866638</v>
+        <v>-0.15718551893513549</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>-1.7310385663355573E-2</v>
+        <v>-1.6663282458810515E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>6.2781170642061332E-2</v>
+        <v>6.6274259351126838E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -3665,31 +3665,31 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>-225.43444458585736</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15"/>
+        <v>-185.46845484670672</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>169.56998949292461</v>
+        <v>278.07906506336235</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15"/>
-        <v>109.75319151035558</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <v>183.74382234715597</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-24742.149769662246</v>
+        <v>-34078.682818354799</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>18610.847531225936</v>
+        <v>51095.310329465676</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
-        <v>0.13791156038531263</v>
+        <v>0.1193596544307399</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.11508329825005216</v>
+        <v>0.10601029008077278</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.15041614140866638</v>
+        <v>-0.15718551893513549</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="2"/>
@@ -3735,15 +3735,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>-1.5060679536437929E-2</v>
+        <v>-2.3369155237717515E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-1.7332326749403435E-3</v>
+        <v>-2.4773709256930444E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>2.2653693028634558E-3</v>
+        <v>3.6732927931163672E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -3757,29 +3757,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-225.43444458585736</v>
+        <v>-185.46845484670672</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0, AF5, AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>109.75319151035558</v>
+        <v>183.74382234715597</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>-19.551529132740143</v>
+        <v>37.536509992970878</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>4407.5881108434833</v>
+        <v>-6961.8385087342749</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>-2145.8427212259253</v>
+        <v>6897.1018236806858</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -3793,17 +3793,17 @@
       <c r="C7" s="1">
         <v>0.75</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="J7" t="s">
         <v>69</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K4 * K5</f>
-        <v>1671.8495300819993</v>
+        <v>1446.9518118223991</v>
       </c>
       <c r="L7" t="s">
         <v>37</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.11508329825005216</v>
+        <v>0.10601029008077278</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5060679536437929E-2</v>
+        <v>-2.3369155237717515E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="2"/>
@@ -3833,15 +3833,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>5.1177682948687797E-2</v>
+        <v>4.2313586749874676E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>5.8896965505304466E-3</v>
+        <v>4.4856756057121581E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-7.7077068230761063E-4</v>
+        <v>-9.8883277742244828E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -3852,32 +3852,32 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0, AF6, AB6)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC7" s="8">
-        <v>-19.551529132740143</v>
+        <v>-185.46845484670672</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0, AF6, AD6)</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="AE7" s="8">
-        <v>109.75319151035558</v>
+        <v>37.536509992970878</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="AG7" s="8">
-        <v>54.174397242680698</v>
+        <v>-63.824762830915233</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>-1059.1923059389089</v>
+        <v>11837.480143207367</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>5945.8129955340137</v>
+        <v>-2395.758847801646</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
-        <v>20169.911847593958</v>
+        <v>15881.229952984293</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K7</f>
-        <v>1671.8495300819993</v>
+        <v>1446.9518118223991</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>5.1177682948687797E-2</v>
+        <v>4.2313586749874676E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5060679536437929E-2</v>
+        <v>-2.3369155237717515E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="2"/>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="3"/>
-        <v>1.8289296486283635E-2</v>
+        <v>9.6687082685759373E-3</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>9.3600381692957361E-4</v>
+        <v>4.0911772608161852E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7544923332681808E-4</v>
+        <v>-2.2594954447655401E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -3949,32 +3949,32 @@
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC8" s="8">
-        <v>-19.551529132740143</v>
+        <v>-63.824762830915233</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE8" s="8">
-        <v>54.174397242680698</v>
+        <v>37.536509992970878</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="AG8" s="8">
-        <v>19.643932088454108</v>
+        <v>-10.676794834070961</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>-384.0689105089794</v>
+        <v>681.44389807892003</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>1064.1981803681551</v>
+        <v>-400.76961598200444</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -3982,17 +3982,17 @@
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G9">
         <f>$C$5 * G8</f>
-        <v>141189.3829331577</v>
+        <v>111168.60967089006</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>1.8289296486283635E-2</v>
+        <v>9.6687082685759373E-3</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5060679536437929E-2</v>
+        <v>-2.3369155237717515E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="2"/>
@@ -4022,15 +4022,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="3"/>
-        <v>1.6630516786295541E-3</v>
+        <v>-6.8087248226126884E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>3.0416045222467604E-5</v>
+        <v>-6.5831573990853532E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>-2.5046688384374874E-5</v>
+        <v>1.5911414735053655E-4</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="AC9" s="8">
-        <v>-19.551529132740143</v>
+        <v>-10.676794834070961</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="AE9" s="8">
-        <v>19.643932088454108</v>
+        <v>37.536509992970878</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>1062.5</v>
+        <v>937.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>0.63736339142235465</v>
+        <v>14.038310412167675</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>-12.461428915536226</v>
+        <v>-149.88416008771642</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>12.520323176767528</v>
+        <v>526.9491790707591</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -4088,35 +4088,35 @@
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>1.6630516786295541E-3</v>
+        <v>9.6687082685759373E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5060679536437929E-2</v>
+        <v>-6.8087248226126884E-3</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="2"/>
-        <v>0.1171875</v>
+        <v>0.1015625</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="3"/>
-        <v>-6.6877660820997414E-3</v>
+        <v>1.441335686356543E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-1.112210060911777E-5</v>
+        <v>1.393585426846908E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>1.0072230177716324E-4</v>
+        <v>-9.8136580654132906E-6</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -4127,32 +4127,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="AC10" s="8">
-        <v>-19.551529132740143</v>
+        <v>-10.676794834070961</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>1062.5</v>
+        <v>937.5</v>
       </c>
       <c r="AE10" s="8">
-        <v>0.63736339142235465</v>
+        <v>14.038310412167675</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>1031.25</v>
+        <v>906.25</v>
       </c>
       <c r="AG10" s="8">
-        <v>-9.3082931056800362</v>
+        <v>1.8339274150075084</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>181.99136383178745</v>
+        <v>-19.580466750613276</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>-5.9327652621895499</v>
+        <v>25.745242325259653</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -4166,50 +4166,50 @@
       <c r="C11" s="1">
         <v>0.85</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="J11" s="20" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="J11" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.109375</v>
+        <v>0.1015625</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>1.6630516786295541E-3</v>
+        <v>1.441335686356543E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.1171875</v>
+        <v>0.109375</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-6.6877660820997414E-3</v>
+        <v>-6.8087248226126884E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="2"/>
-        <v>0.11328125</v>
+        <v>0.10546875</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.5094533342914782E-3</v>
+        <v>-2.6809795961076077E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-4.1733505800359739E-6</v>
+        <v>-3.8641915662636461E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>1.6782636893686651E-5</v>
+        <v>1.8254052324936008E-5</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -4220,32 +4220,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>1031.25</v>
+        <v>875</v>
       </c>
       <c r="AC11" s="8">
-        <v>-9.3082931056800362</v>
+        <v>-10.676794834070961</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>1062.5</v>
+        <v>906.25</v>
       </c>
       <c r="AE11" s="8">
-        <v>0.63736339142235465</v>
+        <v>1.8339274150075084</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>1046.875</v>
+        <v>890.625</v>
       </c>
       <c r="AG11" s="8">
-        <v>-4.2983912772571102</v>
+        <v>-4.3830095540373009</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>40.010685891607565</v>
+        <v>46.796493764229119</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>-2.7396372421328583</v>
+        <v>-8.038121381388839</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$23 + G9*G13)/3600</f>
-        <v>52068.914223507265</v>
+        <v>40953.655718350536</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> SQRT( ($C$15*$C$27)^2 + K8^2)</f>
-        <v>10536.682792486745</v>
+        <v>8962.4722877287077</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -4284,35 +4284,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.109375</v>
+        <v>0.1015625</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>1.6630516786295541E-3</v>
+        <v>1.441335686356543E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.11328125</v>
+        <v>0.10546875</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-2.5094533342914782E-3</v>
+        <v>-2.6809795961076077E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="2"/>
-        <v>0.111328125</v>
+        <v>0.103515625</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>-4.224570607790773E-4</v>
+        <v>-6.1912804997214799E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-7.0256792407755207E-7</v>
+        <v>-8.9237135284919391E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>1.0601362797670332E-6</v>
+        <v>1.6598696693532201E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -4323,32 +4323,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>1046.875</v>
+        <v>890.625</v>
       </c>
       <c r="AC12" s="8">
-        <v>-4.2983912772571102</v>
+        <v>-4.3830095540373009</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>1062.5</v>
+        <v>906.25</v>
       </c>
       <c r="AE12" s="8">
-        <v>0.63736339142235465</v>
+        <v>1.8339274150075084</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>1054.6875</v>
+        <v>898.4375</v>
       </c>
       <c r="AG12" s="8">
-        <v>-1.8212616793756524</v>
+        <v>-1.2649524494768798</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>7.8284953162309403</v>
+        <v>5.5442986714600506</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>-1.160805520634439</v>
+        <v>-2.3198309757765503</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -4371,42 +4371,42 @@
       </c>
       <c r="K13">
         <f>$C$15*$C$27/K12</f>
-        <v>0.98733176270956124</v>
+        <v>0.98688161133317798</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.109375</v>
+        <v>0.1015625</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>1.6630516786295541E-3</v>
+        <v>1.441335686356543E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.111328125</v>
+        <v>0.103515625</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-4.224570607790773E-4</v>
+        <v>-6.1912804997214799E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="2"/>
-        <v>0.1103515625</v>
+        <v>0.1025390625</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="3"/>
-        <v>6.2048547795968967E-4</v>
+        <v>4.1127918758576687E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>1.0318994156861231E-6</v>
+        <v>5.9279137012309262E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>-2.6212847127495144E-7</v>
+        <v>-2.5463448140410507E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -4417,32 +4417,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>1054.6875</v>
+        <v>898.4375</v>
       </c>
       <c r="AC13" s="8">
-        <v>-1.8212616793756524</v>
+        <v>-1.2649524494768798</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>1062.5</v>
+        <v>906.25</v>
       </c>
       <c r="AE13" s="8">
-        <v>0.63736339142235465</v>
+        <v>1.8339274150075084</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>1058.59375</v>
+        <v>902.34375</v>
       </c>
       <c r="AG13" s="8">
-        <v>-0.5896385904085264</v>
+        <v>0.28688315200508896</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>1.0738861693921253</v>
+        <v>-0.36289354584248534</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>-0.37581405169627508</v>
+        <v>0.52612287736589891</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -4450,45 +4450,45 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.1103515625</v>
+        <v>0.1025390625</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>6.2048547795968967E-4</v>
+        <v>4.1127918758576687E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.111328125</v>
+        <v>0.103515625</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-4.224570607790773E-4</v>
+        <v>-6.1912804997214799E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="2"/>
-        <v>0.11083984375</v>
+        <v>0.10302734375</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="3"/>
-        <v>9.9060972372111422E-5</v>
+        <v>-1.0388082536810783E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>6.1465894789461165E-8</v>
+        <v>-4.2724021463134312E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-4.1849007226239574E-8</v>
+        <v>6.4315532839653849E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -4499,32 +4499,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>1058.59375</v>
+        <v>898.4375</v>
       </c>
       <c r="AC14" s="8">
-        <v>-0.5896385904085264</v>
+        <v>-1.2649524494768798</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>1062.5</v>
+        <v>902.34375</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.63736339142235465</v>
+        <v>0.28688315200508896</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>1060.546875</v>
+        <v>900.390625</v>
       </c>
       <c r="AG14" s="8">
-        <v>2.4439627423703314E-2</v>
+        <v>-0.48843517129944303</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>-1.4410547464221988E-2</v>
+        <v>0.61784726634588982</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>1.5576923819870329E-2</v>
+        <v>-0.14012382149252978</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -4537,50 +4537,50 @@
       </c>
       <c r="C15" s="3">
         <f>AF44</f>
-        <v>1060.4690718264465</v>
+        <v>901.62070263431815</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="P15" s="8">
         <v>11</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.1025390625</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>9.9060972372111422E-5</v>
+        <v>4.1127918758576687E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.111328125</v>
+        <v>0.10302734375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-4.224570607790773E-4</v>
+        <v>-1.0388082536810783E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="2"/>
-        <v>0.111083984375</v>
+        <v>0.102783203125</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>-1.6168638806270119E-4</v>
+        <v>1.5371011213899388E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.6016810820825727E-8</v>
+        <v>6.321777004424252E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>6.8305556268954038E-8</v>
+        <v>-1.5967533316423095E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -4591,32 +4591,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>1058.59375</v>
+        <v>900.390625</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.5896385904085264</v>
+        <v>-0.48843517129944303</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>1060.546875</v>
+        <v>902.34375</v>
       </c>
       <c r="AE15" s="8">
-        <v>2.4439627423703314E-2</v>
+        <v>0.28688315200508896</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>1059.5703125</v>
+        <v>901.3671875</v>
       </c>
       <c r="AG15" s="8">
-        <v>-0.28245464672272647</v>
+        <v>-0.10062701246340566</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>0.16654615974792672</v>
+        <v>4.9149772069914735E-2</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>-6.9030863299971773E-3</v>
+        <v>-2.8868194512357188E-2</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -4638,50 +4638,50 @@
       </c>
       <c r="G16">
         <f>C15</f>
-        <v>1060.4690718264465</v>
+        <v>901.62070263431815</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.102783203125</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>9.9060972372111422E-5</v>
+        <v>1.5371011213899388E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.111083984375</v>
+        <v>0.10302734375</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6168638806270119E-4</v>
+        <v>-1.0388082536810783E-4</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="2"/>
-        <v>0.1109619140625</v>
+        <v>0.1029052734375</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="3"/>
-        <v>-3.1309789459768589E-5</v>
+        <v>2.4917372446753294E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-3.1015781886507617E-9</v>
+        <v>3.8300521129995249E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>5.0623667687536159E-9</v>
+        <v>-2.5884372157732806E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -4692,32 +4692,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1059.5703125</v>
+        <v>901.3671875</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.28245464672272647</v>
+        <v>-0.10062701246340566</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1060.546875</v>
+        <v>902.34375</v>
       </c>
       <c r="AE16" s="8">
-        <v>2.4439627423703314E-2</v>
+        <v>0.28688315200508896</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1060.05859375</v>
+        <v>901.85546875</v>
       </c>
       <c r="AG16" s="8">
-        <v>-0.12897079478204887</v>
+        <v>9.3165530779401706E-2</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>3.6428400277712866E-2</v>
+        <v>-9.374969026898659E-3</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>-3.1519981730121736E-3</v>
+        <v>2.6727621128221895E-2</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$10 * $C$11 * $C$12)</f>
-        <v>306.2877307265133</v>
+        <v>240.90385716676786</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="K17">
         <f xml:space="preserve"> ACOS(K13)</f>
-        <v>0.15934287176145334</v>
+        <v>0.16215530486908292</v>
       </c>
       <c r="L17" t="s">
         <v>52</v>
@@ -4759,35 +4759,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.11083984375</v>
+        <v>0.1029052734375</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>9.9060972372111422E-5</v>
+        <v>2.4917372446753294E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109619140625</v>
+        <v>0.10302734375</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1309789459768589E-5</v>
+        <v>-1.0388082536810783E-4</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
-        <v>0.11090087890625</v>
+        <v>0.10296630859375</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="3"/>
-        <v>3.3876321596376657E-5</v>
+        <v>-3.9481044657424524E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>3.3558213577274296E-9</v>
+        <v>-9.8376389431594625E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0606604968539648E-9</v>
+        <v>4.1013235054083835E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -4798,32 +4798,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1060.05859375</v>
+        <v>901.3671875</v>
       </c>
       <c r="AC17" s="8">
-        <v>-0.12897079478204887</v>
+        <v>-0.10062701246340566</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1060.546875</v>
+        <v>901.85546875</v>
       </c>
       <c r="AE17" s="8">
-        <v>2.4439627423703314E-2</v>
+        <v>9.3165530779401706E-2</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1060.302734375</v>
+        <v>901.611328125</v>
       </c>
       <c r="AG17" s="8">
-        <v>-5.2256405156185792E-2</v>
+        <v>-3.7205191376870062E-3</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>6.7395501054460386E-3</v>
+        <v>3.7438472563836966E-4</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>-1.2771270725192695E-3</v>
+        <v>-3.4662414023753184E-4</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -4841,8 +4841,8 @@
         <v>88</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592</f>
-        <v>57.55472336542315</v>
+        <f xml:space="preserve"> $C$28 * ($C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592)</f>
+        <v>38.063156558612476</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$5</f>
-        <v>1505.2403989266779</v>
+        <v>1280.353183961244</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -4862,35 +4862,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.11090087890625</v>
+        <v>0.1029052734375</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>3.3876321596376657E-5</v>
+        <v>2.4917372446753294E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109619140625</v>
+        <v>0.10296630859375</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1309789459768589E-5</v>
+        <v>-3.9481044657424524E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="2"/>
-        <v>0.110931396484375</v>
+        <v>0.102935791015625</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="3"/>
-        <v>1.2834485353663272E-6</v>
+        <v>-7.281665596770015E-6</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>4.34785153364683E-11</v>
+        <v>-1.8143997370742856E-10</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>-4.0184503424768061E-11</v>
+        <v>2.8748776460650876E-10</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -4901,32 +4901,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1060.302734375</v>
+        <v>901.611328125</v>
       </c>
       <c r="AC18" s="8">
-        <v>-5.2256405156185792E-2</v>
+        <v>-3.7205191376870062E-3</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1060.546875</v>
+        <v>901.85546875</v>
       </c>
       <c r="AE18" s="8">
-        <v>2.4439627423703314E-2</v>
+        <v>9.3165530779401706E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4248046875</v>
+        <v>901.7333984375</v>
       </c>
       <c r="AG18" s="8">
-        <v>-1.3905076953847129E-2</v>
+        <v>4.4723990904685706E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>7.266293350281773E-4</v>
+        <v>-1.6639646407462278E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>-3.3983490004994724E-4</v>
+        <v>4.1667343512081781E-3</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -4938,8 +4938,8 @@
         <v>89</v>
       </c>
       <c r="G19">
-        <f xml:space="preserve"> 0.2213 * (G4/1000)</f>
-        <v>42.654383918649849</v>
+        <f xml:space="preserve"> 0.2138 * (G4/1000)</f>
+        <v>32.305670773598919</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="K19">
         <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
-        <v>98.733176270956136</v>
+        <v>98.688161133317806</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -4959,35 +4959,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.110931396484375</v>
+        <v>0.1029052734375</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>1.2834485353663272E-6</v>
+        <v>2.4917372446753294E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109619140625</v>
+        <v>0.102935791015625</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1309789459768589E-5</v>
+        <v>-7.281665596770015E-6</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="2"/>
-        <v>0.1109466552734375</v>
+        <v>0.1029205322265625</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="3"/>
-        <v>-1.5013124853927029E-5</v>
+        <v>8.8178960593598976E-6</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-1.926857310504445E-11</v>
+        <v>2.1971880030782877E-10</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>4.7005777830967437E-10</v>
+        <v>-6.4208970371334848E-11</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -4998,32 +4998,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4248046875</v>
+        <v>901.611328125</v>
       </c>
       <c r="AC19" s="8">
-        <v>-1.3905076953847129E-2</v>
+        <v>-3.7205191376870062E-3</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1060.546875</v>
+        <v>901.7333984375</v>
       </c>
       <c r="AE19" s="8">
-        <v>2.4439627423703314E-2</v>
+        <v>4.4723990904685706E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1060.48583984375</v>
+        <v>901.67236328125</v>
       </c>
       <c r="AG19" s="8">
-        <v>5.2668315468054061E-3</v>
+        <v>2.0503177530997618E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>-7.3235697961278873E-5</v>
+        <v>-7.628246438747086E-5</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>1.2871940070733115E-4</v>
+        <v>9.1698392541349379E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -5031,17 +5031,17 @@
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="F20" s="13" t="s">
         <v>139</v>
       </c>
       <c r="G20">
         <f xml:space="preserve"> 2.20462 * (49.9/398 * (G4/$C$5/1000 - 2) + 0.1) * 0.453592 * $C$5</f>
-        <v>23.110396951192861</v>
+        <v>17.88942278673828</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -5051,42 +5051,42 @@
       </c>
       <c r="K20">
         <f xml:space="preserve"> K18 / ($C$26 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
-        <v>4.0123026734622723E-2</v>
+        <v>3.4159673484224273E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.110931396484375</v>
+        <v>0.1029205322265625</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.2834485353663272E-6</v>
+        <v>8.8178960593598976E-6</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109466552734375</v>
+        <v>0.102935791015625</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5013124853927029E-5</v>
+        <v>-7.281665596770015E-6</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093902587890625</v>
+        <v>0.10292816162109375</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="3"/>
-        <v>-6.8648267561449705E-6</v>
+        <v>7.6812588897801071E-7</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>-8.8106518457178375E-12</v>
+        <v>6.7732542495115192E-12</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>1.0306250119058332E-10</v>
+        <v>-5.5932358597595645E-12</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -5097,32 +5097,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4248046875</v>
+        <v>901.611328125</v>
       </c>
       <c r="AC20" s="8">
-        <v>-1.3905076953847129E-2</v>
+        <v>-3.7205191376870062E-3</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1060.48583984375</v>
+        <v>901.67236328125</v>
       </c>
       <c r="AE20" s="8">
-        <v>5.2668315468054061E-3</v>
+        <v>2.0503177530997618E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1060.455322265625</v>
+        <v>901.641845703125</v>
       </c>
       <c r="AG20" s="8">
-        <v>-4.3189792679640959E-3</v>
+        <v>8.3906192984386507E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>6.0055739083111091E-5</v>
+        <v>-3.1217459676886923E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>-2.274733625851182E-5</v>
+        <v>1.7203435707090233E-4</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -5143,8 +5143,8 @@
         <v>97</v>
       </c>
       <c r="G21">
-        <f xml:space="preserve"> 14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>144.22607158496641</v>
+        <f xml:space="preserve"> $C$28 * (14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
+        <v>112.71597872804246</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -5160,35 +5160,35 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.110931396484375</v>
+        <v>0.10292816162109375</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>1.2834485353663272E-6</v>
+        <v>7.6812588897801071E-7</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093902587890625</v>
+        <v>0.102935791015625</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-6.8648267561449705E-6</v>
+        <v>-7.281665596770015E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093521118164062</v>
+        <v>0.10293197631835938</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="3"/>
-        <v>-2.7906862594684334E-6</v>
+        <v>-3.2567671895827877E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>-3.5817021923816949E-12</v>
+        <v>-2.5016071926926964E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>1.9157577702005027E-11</v>
+        <v>2.3714689601074353E-11</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -5199,32 +5199,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1060.455322265625</v>
+        <v>901.611328125</v>
       </c>
       <c r="AC21" s="8">
-        <v>-4.3189792679640959E-3</v>
+        <v>-3.7205191376870062E-3</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1060.48583984375</v>
+        <v>901.641845703125</v>
       </c>
       <c r="AE21" s="8">
-        <v>5.2668315468054061E-3</v>
+        <v>8.3906192984386507E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4705810546875</v>
+        <v>901.6265869140625</v>
       </c>
       <c r="AG21" s="8">
-        <v>4.7497935031515226E-4</v>
+        <v>2.335086671166664E-3</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>-2.051425966722198E-6</v>
+        <v>-8.6877346482334179E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>2.5016362263209804E-6</v>
+        <v>1.959282328661788E-5</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -5245,8 +5245,8 @@
         <v>98</v>
       </c>
       <c r="G22">
-        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>24.618471949435456</v>
+        <f xml:space="preserve"> $C$28 * (0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592)</f>
+        <v>17.625716236253371</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="K22">
         <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$26 * K19^3 *$C$16^ 5)</f>
-        <v>1024.5643459537839</v>
+        <v>1023.1636046159005</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -5266,35 +5266,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.110931396484375</v>
+        <v>0.10292816162109375</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>1.2834485353663272E-6</v>
+        <v>7.6812588897801071E-7</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093521118164062</v>
+        <v>0.10293197631835938</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-2.7906862594684334E-6</v>
+        <v>-3.2567671895827877E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093330383300781</v>
+        <v>0.10293006896972656</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="3"/>
-        <v>-7.5361814930174909E-7</v>
+        <v>-1.2443199842032682E-6</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>-9.672301099468119E-13</v>
+        <v>-9.557943940392396E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>2.1031118141424214E-12</v>
+        <v>4.0524604978953764E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -5305,32 +5305,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1060.455322265625</v>
+        <v>901.611328125</v>
       </c>
       <c r="AC22" s="8">
-        <v>-4.3189792679640959E-3</v>
+        <v>-3.7205191376870062E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4705810546875</v>
+        <v>901.6265869140625</v>
       </c>
       <c r="AE22" s="8">
-        <v>4.7497935031515226E-4</v>
+        <v>2.335086671166664E-3</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4629516601562</v>
+        <v>901.61895751953125</v>
       </c>
       <c r="AG22" s="8">
-        <v>-1.9230083423735778E-3</v>
+        <v>-6.9356329225911395E-4</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>8.3054331628334837E-6</v>
+        <v>2.5804155020472395E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>-9.1338925311121986E-7</v>
+        <v>-1.6195303993647264E-6</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -5351,6 +5351,7 @@
         <v>99</v>
       </c>
       <c r="G23">
+        <f xml:space="preserve"> $C$28 * 0</f>
         <v>0</v>
       </c>
       <c r="H23" t="s">
@@ -5361,42 +5362,42 @@
       </c>
       <c r="K23" s="5">
         <f>U34</f>
-        <v>0.11093259835615754</v>
+        <v>0.10292888944968581</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.110931396484375</v>
+        <v>0.10292816162109375</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.2834485353663272E-6</v>
+        <v>7.6812588897801071E-7</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093330383300781</v>
+        <v>0.10293006896972656</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-7.5361814930174909E-7</v>
+        <v>-1.2443199842032682E-6</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093235015869141</v>
+        <v>0.10292911529541016</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="3"/>
-        <v>2.6491537122308451E-7</v>
+        <v>-2.3809688108611393E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>3.4000524519229468E-13</v>
+        <v>-1.8288837844716296E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9964503178272678E-13</v>
+        <v>2.962687073119207E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -5407,32 +5408,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4629516601562</v>
+        <v>901.61895751953125</v>
       </c>
       <c r="AC23" s="8">
-        <v>-1.9230083423735778E-3</v>
+        <v>-6.9356329225911395E-4</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4705810546875</v>
+        <v>901.6265869140625</v>
       </c>
       <c r="AE23" s="8">
-        <v>4.7497935031515226E-4</v>
+        <v>2.335086671166664E-3</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4667663574219</v>
+        <v>901.62277221679688</v>
       </c>
       <c r="AG23" s="8">
-        <v>-7.2299490932437038E-4</v>
+        <v>8.2162018497911049E-4</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>1.3903252421243926E-6</v>
+        <v>-5.698456004806541E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>-3.4340765231205184E-7</v>
+        <v>1.9185543427062098E-6</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -5444,6 +5445,7 @@
         <v>100</v>
       </c>
       <c r="G24">
+        <f xml:space="preserve"> $C$28 * 0</f>
         <v>0</v>
       </c>
       <c r="H24" t="s">
@@ -5454,7 +5456,7 @@
       </c>
       <c r="K24">
         <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
-        <v>6.1926446675845828</v>
+        <v>5.3144945064573985</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -5464,35 +5466,35 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093235015869141</v>
+        <v>0.10292816162109375</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>2.6491537122308451E-7</v>
+        <v>7.6812588897801071E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093330383300781</v>
+        <v>0.10292911529541016</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-7.5361814930174909E-7</v>
+        <v>-2.3809688108611393E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093282699584961</v>
+        <v>0.10292863845825195</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="3"/>
-        <v>-2.4435134449163343E-7</v>
+        <v>2.650145455862507E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-6.4732427134860875E-14</v>
+        <v>2.0356453342054236E-13</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>1.8414760801517893E-13</v>
+        <v>-6.3099136746540053E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -5503,32 +5505,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4667663574219</v>
+        <v>901.61895751953125</v>
       </c>
       <c r="AC24" s="8">
-        <v>-7.2299490932437038E-4</v>
+        <v>-6.9356329225911395E-4</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4705810546875</v>
+        <v>901.62277221679688</v>
       </c>
       <c r="AE24" s="8">
-        <v>4.7497935031515226E-4</v>
+        <v>8.2162018497911049E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4686737060547</v>
+        <v>901.62086486816406</v>
       </c>
       <c r="AG24" s="8">
-        <v>-1.2400721914218593E-4</v>
+        <v>6.4029016641597991E-5</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>8.9656588159272046E-8</v>
+        <v>-4.4408175582060298E-8</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-5.890086838254419E-8</v>
+        <v>5.2607532497100284E-8</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -5536,17 +5538,17 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="F25" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G25">
-        <f xml:space="preserve"> 0.0268 * $C$15</f>
-        <v>28.420571124948765</v>
+        <f xml:space="preserve"> $C$28 * (0.0268 * $C$15)</f>
+        <v>19.330747864479783</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -5556,42 +5558,42 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$26*PI()*$C$16^2) / K18^3 )</f>
-        <v>1.2846602993298406</v>
+        <v>1.2713737650457269</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093235015869141</v>
+        <v>0.10292863845825195</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>2.6491537122308451E-7</v>
+        <v>2.650145455862507E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093282699584961</v>
+        <v>0.10292911529541016</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4435134449163343E-7</v>
+        <v>-2.3809688108611393E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093258857727051</v>
+        <v>0.10292887687683105</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="3"/>
-        <v>1.0282024495711362E-8</v>
+        <v>1.3458842651470349E-8</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>2.7238663362062236E-15</v>
+        <v>3.5667890693962641E-15</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>-2.5124265096229804E-15</v>
+        <v>-3.2045084583438539E-15</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -5602,32 +5604,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4686737060547</v>
+        <v>901.61895751953125</v>
       </c>
       <c r="AC25" s="8">
-        <v>-1.2400721914218593E-4</v>
+        <v>-6.9356329225911395E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4705810546875</v>
+        <v>901.62086486816406</v>
       </c>
       <c r="AE25" s="8">
-        <v>4.7497935031515226E-4</v>
+        <v>6.4029016641597991E-5</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4696273803711</v>
+        <v>901.61991119384766</v>
       </c>
       <c r="AG25" s="8">
-        <v>1.744688549933926E-4</v>
+        <v>-3.1391078778142401E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>-2.1635397534651897E-8</v>
+        <v>2.1771699944933649E-7</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>8.2869103394990127E-8</v>
+        <v>-2.0099399054833933E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -5648,8 +5650,8 @@
         <v>102</v>
       </c>
       <c r="G26">
-        <f xml:space="preserve"> 11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592</f>
-        <v>7.3264894174355195</v>
+        <f xml:space="preserve"> $C$28 * (11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592)</f>
+        <v>5.4928313010185237</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -5665,35 +5667,35 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093258857727051</v>
+        <v>0.10292887687683105</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.0282024495711362E-8</v>
+        <v>1.3458842651470349E-8</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093282699584961</v>
+        <v>0.10292911529541016</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4435134449163343E-7</v>
+        <v>-2.3809688108611393E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093270778656006</v>
+        <v>0.10292899608612061</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="3"/>
-        <v>-1.1703465721546458E-7</v>
+        <v>-1.1231901661523658E-7</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>-1.2033532123365892E-15</v>
+        <v>-1.5116839713923527E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>2.8597575842716219E-14</v>
+        <v>2.6742807542747237E-14</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -5704,32 +5706,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4686737060547</v>
+        <v>901.61991119384766</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.2400721914218593E-4</v>
+        <v>-3.1391078778142401E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4696273803711</v>
+        <v>901.62086486816406</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.744688549933926E-4</v>
+        <v>6.4029016641597991E-5</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4691505432129</v>
+        <v>901.62038803100586</v>
       </c>
       <c r="AG26" s="8">
-        <v>2.5230853111679608E-5</v>
+        <v>-1.2494084955960716E-4</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>-3.1288079309643571E-9</v>
+        <v>3.9220280511336664E-8</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>4.4019980529012182E-9</v>
+        <v>-7.9998397356674778E-9</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -5750,8 +5752,8 @@
         <v>103</v>
       </c>
       <c r="G27">
-        <f xml:space="preserve"> 8 * ($C$15/1000)</f>
-        <v>8.4837525746115716</v>
+        <f xml:space="preserve"> $C$28 * (8 * ($C$15/1000))</f>
+        <v>5.7703724968596362</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -5760,43 +5762,43 @@
         <v>62</v>
       </c>
       <c r="K27">
-        <f xml:space="preserve"> 1/$C$30 * LN( EXP($C$30 * K25) + EXP($C$30 * K26) )</f>
-        <v>1.2852418904426068</v>
+        <f xml:space="preserve"> 1/$C$31 * LN( EXP($C$31 * K25) + EXP($C$31 * K26) )</f>
+        <v>1.272236520241377</v>
       </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093258857727051</v>
+        <v>0.10292887687683105</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.0282024495711362E-8</v>
+        <v>1.3458842651470349E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093270778656006</v>
+        <v>0.10292899608612061</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1703465721546458E-7</v>
+        <v>-1.1231901661523658E-7</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093264818191528</v>
+        <v>0.10292893648147583</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="3"/>
-        <v>-5.3376315659048323E-8</v>
+        <v>-4.9430086329627088E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-5.4881658509715683E-16</v>
+        <v>-6.6527175415904651E-16</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>6.2468788065811546E-15</v>
+        <v>5.5519386877499631E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -5807,32 +5809,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4686737060547</v>
+        <v>901.62038803100586</v>
       </c>
       <c r="AC27" s="8">
-        <v>-1.2400721914218593E-4</v>
+        <v>-1.2494084955960716E-4</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4691505432129</v>
+        <v>901.62086486816406</v>
       </c>
       <c r="AE27" s="8">
-        <v>2.5230853111679608E-5</v>
+        <v>6.4029016641597991E-5</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4689121246338</v>
+        <v>901.62062644958496</v>
       </c>
       <c r="AG27" s="8">
-        <v>-4.9388173692932469E-5</v>
+        <v>-3.0455907619852951E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>6.1244900781718185E-9</v>
+        <v>3.8051869721333407E-9</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>-1.2461057559004981E-9</v>
+        <v>-1.9500618158265355E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -5840,12 +5842,18 @@
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.8</v>
+      </c>
       <c r="F28" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G28">
-        <f xml:space="preserve"> 13 * ($C$15*2.20462/1000)^1.3 * 0.453592</f>
-        <v>17.786480213134851</v>
+        <f xml:space="preserve"> $C$28 * (13 * ($C$15*2.20462/1000)^1.3 * 0.453592)</f>
+        <v>11.522948722167886</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -5855,35 +5863,35 @@
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093258857727051</v>
+        <v>0.10292887687683105</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>1.0282024495711362E-8</v>
+        <v>1.3458842651470349E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093264818191528</v>
+        <v>0.10292893648147583</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-5.3376315659048323E-8</v>
+        <v>-4.9430086329627088E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="2"/>
-        <v>0.1109326183795929</v>
+        <v>0.10292890667915344</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>-2.1547145401257239E-8</v>
+        <v>-1.7985621672544916E-8</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>-2.2154827682838136E-16</v>
+        <v>-2.42065652079657E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>1.1501072344889179E-15</v>
+        <v>8.8903083196590707E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -5894,32 +5902,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4689121246338</v>
+        <v>901.62062644958496</v>
       </c>
       <c r="AC28" s="8">
-        <v>-4.9388173692932469E-5</v>
+        <v>-3.0455907619852951E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4691505432129</v>
+        <v>901.62086486816406</v>
       </c>
       <c r="AE28" s="8">
-        <v>2.5230853111679608E-5</v>
+        <v>6.4029016641597991E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690313339233</v>
+        <v>901.62074565887451</v>
       </c>
       <c r="AG28" s="8">
-        <v>-1.3096008615320898E-5</v>
+        <v>1.5930348354231683E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>6.4678794817760858E-10</v>
+        <v>-4.8517321782855666E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>-3.3042346972245219E-10</v>
+        <v>1.0200045398795536E-9</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -5927,17 +5935,12 @@
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
       <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G29" s="3">
         <f>$C$15 - $C$21 - SUM(G17:G28)</f>
-        <v>1.34718902700115E-10</v>
+        <v>-2.2106405594968237E-10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>14</v>
@@ -5947,35 +5950,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093258857727051</v>
+        <v>0.10292887687683105</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>1.0282024495711362E-8</v>
+        <v>1.3458842651470349E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109326183795929</v>
+        <v>0.10292890667915344</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-2.1547145401257239E-8</v>
+        <v>-1.7985621672544916E-8</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="2"/>
-        <v>0.1109326034784317</v>
+        <v>0.10292889177799225</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="3"/>
-        <v>-5.6325604042006816E-9</v>
+        <v>-2.2633894758428141E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>-5.7914124049565292E-17</v>
+        <v>-3.0462602814362383E-17</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>1.2136559801067635E-16</v>
+        <v>4.0708466810128595E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -5986,32 +5989,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690313339233</v>
+        <v>901.62062644958496</v>
       </c>
       <c r="AC29" s="8">
-        <v>-1.3096008615320898E-5</v>
+        <v>-3.0455907619852951E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4691505432129</v>
+        <v>901.62074565887451</v>
       </c>
       <c r="AE29" s="8">
-        <v>2.5230853111679608E-5</v>
+        <v>1.5930348354231683E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690909385681</v>
+        <v>901.62068605422974</v>
       </c>
       <c r="AG29" s="8">
-        <v>6.0674228734569624E-6</v>
+        <v>-6.4065706055771443E-6</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-7.9459022223587456E-11</v>
+        <v>1.9511792252352289E-10</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>1.5308625528663763E-10</v>
+        <v>-1.0205890150282493E-10</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -6019,12 +6022,11 @@
       </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30</v>
-      </c>
+      <c r="B30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="F30" t="s">
         <v>92</v>
       </c>
@@ -6037,35 +6039,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093258857727051</v>
+        <v>0.10292887687683105</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.0282024495711362E-8</v>
+        <v>1.3458842651470349E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109326034784317</v>
+        <v>0.10292889177799225</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-5.6325604042006816E-9</v>
+        <v>-2.2633894758428141E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="2"/>
-        <v>0.1109325960278511</v>
+        <v>0.10292888432741165</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="3"/>
-        <v>2.3247320596331278E-9</v>
+        <v>5.5977266155693428E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>2.3902951983113346E-17</v>
+        <v>7.5338921724895428E-17</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>-1.3094193749465453E-17</v>
+        <v>-1.2669835510324865E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -6076,32 +6078,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690313339233</v>
+        <v>901.62068605422974</v>
       </c>
       <c r="AC30" s="8">
-        <v>-1.3096008615320898E-5</v>
+        <v>-6.4065706055771443E-6</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690909385681</v>
+        <v>901.62074565887451</v>
       </c>
       <c r="AE30" s="8">
-        <v>6.0674228734569624E-6</v>
+        <v>1.5930348354231683E-5</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690611362457</v>
+        <v>901.62071585655212</v>
       </c>
       <c r="AG30" s="8">
-        <v>-2.496942329344165E-6</v>
+        <v>4.7618890448575257E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>3.2699978257050616E-11</v>
+        <v>-3.0507378381804048E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5150005002765695E-11</v>
+        <v>7.5858551308779964E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -6109,40 +6111,46 @@
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
       <c r="P31" s="8">
         <v>27</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.1109325960278511</v>
+        <v>0.10292888432741165</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>2.3247320596331278E-9</v>
+        <v>5.5977266155693428E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109326034784317</v>
+        <v>0.10292889177799225</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-5.6325604042006816E-9</v>
+        <v>-2.2633894758428141E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="2"/>
-        <v>0.1109325997531414</v>
+        <v>0.10292888805270195</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="3"/>
-        <v>-1.6539141722837769E-9</v>
+        <v>1.6671685698632643E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>-3.8449073001896844E-18</v>
+        <v>9.3323538761642721E-18</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>9.315771478751947E-18</v>
+        <v>-3.7734517954844279E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -6153,32 +6161,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690611362457</v>
+        <v>901.62068605422974</v>
       </c>
       <c r="AC31" s="8">
-        <v>-2.496942329344165E-6</v>
+        <v>-6.4065706055771443E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690909385681</v>
+        <v>901.62071585655212</v>
       </c>
       <c r="AE31" s="8">
-        <v>6.0674228734569624E-6</v>
+        <v>4.7618890448575257E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690760374069</v>
+        <v>901.62070095539093</v>
       </c>
       <c r="AG31" s="8">
-        <v>1.7852402152129798E-6</v>
+        <v>-8.2234083720322815E-7</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>-4.4576418614127763E-12</v>
+        <v>5.2683846353919012E-12</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>1.0831807316398464E-11</v>
+        <v>-3.9158958238170181E-12</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -6191,35 +6199,35 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.1109325960278511</v>
+        <v>0.10292888805270195</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>2.3247320596331278E-9</v>
+        <v>1.6671685698632643E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109325997531414</v>
+        <v>0.10292889177799225</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6539141722837769E-9</v>
+        <v>-2.2633894758428141E-9</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093259789049625</v>
+        <v>0.1029288899153471</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="3"/>
-        <v>3.3540893673578154E-10</v>
+        <v>-2.981104529897749E-10</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>7.7973590831713087E-19</v>
+        <v>-4.9700037757225291E-19</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>-5.5473759397794182E-19</v>
+        <v>6.7474006193579049E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -6230,32 +6238,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690611362457</v>
+        <v>901.62070095539093</v>
       </c>
       <c r="AC32" s="8">
-        <v>-2.496942329344165E-6</v>
+        <v>-8.2234083720322815E-7</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690760374069</v>
+        <v>901.62071585655212</v>
       </c>
       <c r="AE32" s="8">
-        <v>1.7852402152129798E-6</v>
+        <v>4.7618890448575257E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690685868263</v>
+        <v>901.62070840597153</v>
       </c>
       <c r="AG32" s="8">
-        <v>-1.3732014849665575E-6</v>
+        <v>1.1135658155581041E-6</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>3.4288049145312625E-12</v>
+        <v>-9.1573064504694685E-13</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>-2.4514945145524805E-12</v>
+        <v>5.3026768578339719E-12</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -6273,35 +6281,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093259789049625</v>
+        <v>0.10292888805270195</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>3.3540893673578154E-10</v>
+        <v>1.6671685698632643E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.1109325997531414</v>
+        <v>0.1029288899153471</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.6539141722837769E-9</v>
+        <v>-2.981104529897749E-10</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093259882181883</v>
+        <v>0.10292888898402452</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="3"/>
-        <v>-6.5925261083510378E-10</v>
+        <v>6.8452907231453253E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>-2.2111921724049013E-19</v>
+        <v>1.1412253545204462E-18</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>1.0903472361752596E-18</v>
+        <v>-2.0406527183235567E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -6312,32 +6320,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690685868263</v>
+        <v>901.62070095539093</v>
       </c>
       <c r="AC33" s="8">
-        <v>-1.3732014849665575E-6</v>
+        <v>-8.2234083720322815E-7</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690760374069</v>
+        <v>901.62070840597153</v>
       </c>
       <c r="AE33" s="8">
-        <v>1.7852402152129798E-6</v>
+        <v>1.1135658155581041E-6</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690723121166</v>
+        <v>901.62070468068123</v>
       </c>
       <c r="AG33" s="8">
-        <v>2.0601942196663003E-7</v>
+        <v>1.0018209195550298E-6</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>-2.8290617617652817E-13</v>
+        <v>-8.2383825371459111E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>3.677941572097603E-13</v>
+        <v>1.1155935293274666E-12</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -6356,7 +6364,7 @@
       </c>
       <c r="G34">
         <f>ROUND($C$21/$C$15 * 100, 2)</f>
-        <v>37.72</v>
+        <v>44.36</v>
       </c>
       <c r="H34" t="s">
         <v>95</v>
@@ -6366,35 +6374,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.11093259789049625</v>
+        <v>0.10292888898402452</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>3.3540893673578154E-10</v>
+        <v>6.8452907231453253E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.11093259882181883</v>
+        <v>0.1029288899153471</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-6.5925261083510378E-10</v>
+        <v>-2.981104529897749E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="2"/>
-        <v>0.11093259835615754</v>
+        <v>0.10292888944968581</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>-1.6192182317187331E-10</v>
+        <v>1.9320930966237881E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>-5.4310026544397261E-20</v>
+        <v>1.3225738950571942E-19</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>1.0674738467723749E-19</v>
+        <v>-5.7597714825293441E-20</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -6405,32 +6413,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690685868263</v>
+        <v>901.62070095539093</v>
       </c>
       <c r="AC34" s="8">
-        <v>-1.3732014849665575E-6</v>
+        <v>-8.2234083720322815E-7</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690723121166</v>
+        <v>901.62070468068123</v>
       </c>
       <c r="AE34" s="8">
-        <v>2.0601942196663003E-7</v>
+        <v>1.0018209195550298E-6</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690704494715</v>
+        <v>901.62070281803608</v>
       </c>
       <c r="AG34" s="8">
-        <v>-5.8359114518680144E-7</v>
+        <v>8.9740012754191412E-8</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>8.0138822718384958E-13</v>
+        <v>-7.3796877218910137E-14</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>-1.202311103962285E-13</v>
+        <v>8.9903422098284145E-14</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -6449,7 +6457,7 @@
       </c>
       <c r="G35">
         <f>ROUND(G17/$C$15 * 100, 2)</f>
-        <v>28.88</v>
+        <v>26.72</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -6459,32 +6467,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690704494715</v>
+        <v>901.62070095539093</v>
       </c>
       <c r="AC35">
-        <v>-5.8359114518680144E-7</v>
+        <v>-8.2234083720322815E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690723121166</v>
+        <v>901.62070281803608</v>
       </c>
       <c r="AE35">
-        <v>2.0601942196663003E-7</v>
+        <v>8.9740012754191412E-8</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1060.469071380794</v>
+        <v>901.6207018867135</v>
       </c>
       <c r="AG35">
-        <v>-1.887858616100857E-7</v>
+        <v>-3.6630041222451837E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>1.1017375717210693E-13</v>
+        <v>3.0122378765659802E-13</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>-3.8893554084382068E-14</v>
+        <v>-3.287180366489385E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -6500,7 +6508,7 @@
       </c>
       <c r="G36">
         <f>ROUND(SUM(G18:G20)/$C$15 * 100, 2)</f>
-        <v>11.63</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -6510,32 +6518,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1060.469071380794</v>
+        <v>901.6207018867135</v>
       </c>
       <c r="AC36">
-        <v>-1.887858616100857E-7</v>
+        <v>-3.6630041222451837E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690723121166</v>
+        <v>901.62070281803608</v>
       </c>
       <c r="AE36">
-        <v>2.0601942196663003E-7</v>
+        <v>8.9740012754191412E-8</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690718464553</v>
+        <v>901.62070235237479</v>
       </c>
       <c r="AG36">
-        <v>8.6166664914344437E-9</v>
+        <v>-1.3828014289174462E-7</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>-1.6267048077922056E-15</v>
+        <v>5.0652073343711357E-14</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>1.7752006498445542E-15</v>
+        <v>-1.2409261786756573E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -6548,7 +6556,7 @@
       </c>
       <c r="G37">
         <f>ROUND(SUM(G21:G24)/$C$15 * 100, 2)</f>
-        <v>15.92</v>
+        <v>14.46</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
@@ -6558,32 +6566,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1060.469071380794</v>
+        <v>901.62070235237479</v>
       </c>
       <c r="AC37">
-        <v>-1.887858616100857E-7</v>
+        <v>-1.3828014289174462E-7</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718464553</v>
+        <v>901.62070281803608</v>
       </c>
       <c r="AE37">
-        <v>8.6166664914344437E-9</v>
+        <v>8.9740012754191412E-8</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690716136247</v>
+        <v>901.62070258520544</v>
       </c>
       <c r="AG37">
-        <v>-9.0084313342231326E-8</v>
+        <v>-2.4270093490486033E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>1.700664471186608E-14</v>
+        <v>3.3560719958604096E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>-7.7622648417988545E-16</v>
+        <v>-2.1779984993816346E-15</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -6596,7 +6604,7 @@
       </c>
       <c r="G38">
         <f>ROUND(SUM(G25:G28)/$C$15*100, 2)</f>
-        <v>5.85</v>
+        <v>4.67</v>
       </c>
       <c r="H38" t="s">
         <v>95</v>
@@ -6606,32 +6614,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690716136247</v>
+        <v>901.62070258520544</v>
       </c>
       <c r="AC38">
-        <v>-9.0084313342231326E-8</v>
+        <v>-2.4270093490486033E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718464553</v>
+        <v>901.62070281803608</v>
       </c>
       <c r="AE38">
-        <v>8.6166664914344437E-9</v>
+        <v>8.9740012754191412E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1060.46907173004</v>
+        <v>901.62070270162076</v>
       </c>
       <c r="AG38">
-        <v>-4.0733880268817302E-8</v>
+        <v>3.2734874366724398E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>3.6694836337810718E-15</v>
+        <v>-7.9447846127971592E-16</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-3.509902611784207E-16</v>
+        <v>2.937628043176701E-15</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -6650,7 +6658,7 @@
       </c>
       <c r="G39" s="3">
         <f>SUM(G34:G38)</f>
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>95</v>
@@ -6660,32 +6668,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1060.46907173004</v>
+        <v>901.62070258520544</v>
       </c>
       <c r="AC39">
-        <v>-4.0733880268817302E-8</v>
+        <v>-2.4270093490486033E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718464553</v>
+        <v>901.62070270162076</v>
       </c>
       <c r="AE39">
-        <v>8.6166664914344437E-9</v>
+        <v>3.2734874366724398E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690717882477</v>
+        <v>901.6207026434131</v>
       </c>
       <c r="AG39">
-        <v>-1.6058606888691429E-8</v>
+        <v>4.2326178117946256E-9</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>6.541293702879614E-16</v>
+        <v>-1.0272603000175198E-16</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3837165987690576E-16</v>
+        <v>1.38554212311457E-16</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -6704,32 +6712,32 @@
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690717882477</v>
+        <v>901.62070258520544</v>
       </c>
       <c r="AC40">
-        <v>-1.6058606888691429E-8</v>
+        <v>-2.4270093490486033E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718464553</v>
+        <v>901.6207026434131</v>
       </c>
       <c r="AE40">
-        <v>8.6166664914344437E-9</v>
+        <v>4.2326178117946256E-9</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690718173515</v>
+        <v>901.62070261430927</v>
       </c>
       <c r="AG40">
-        <v>-3.720856511790771E-9</v>
+        <v>-1.0018709417636273E-8</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>5.9751772012075637E-17</v>
+        <v>2.4315501422004524E-16</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>-3.2061379624583186E-17</v>
+        <v>-4.2405367932281851E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -6745,32 +6753,32 @@
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690718173515</v>
+        <v>901.62070261430927</v>
       </c>
       <c r="AC41">
-        <v>-3.720856511790771E-9</v>
+        <v>-1.0018709417636273E-8</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718464553</v>
+        <v>901.6207026434131</v>
       </c>
       <c r="AE41">
-        <v>8.6166664914344437E-9</v>
+        <v>4.2326178117946256E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690718319034</v>
+        <v>901.62070262886118</v>
       </c>
       <c r="AG41">
-        <v>2.4479049898218364E-9</v>
+        <v>-2.8930458029208239E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>-9.1083032216237009E-18</v>
+        <v>2.8984585231375953E-17</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>2.109278090001299E-17</v>
+        <v>-1.2245157195780363E-17</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -6783,32 +6791,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690718173515</v>
+        <v>901.62070262886118</v>
       </c>
       <c r="AC42">
-        <v>-3.720856511790771E-9</v>
+        <v>-2.8930458029208239E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718319034</v>
+        <v>901.6207026434131</v>
       </c>
       <c r="AE42">
-        <v>2.4479049898218364E-9</v>
+        <v>4.2326178117946256E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690718246275</v>
+        <v>901.62070263613714</v>
       </c>
       <c r="AG42">
-        <v>-6.3630523072788492E-10</v>
+        <v>6.6961547418031842E-10</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>2.3676004612403796E-18</v>
+        <v>-1.9372282371482075E-18</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5576147493485244E-18</v>
+        <v>2.8342263830689199E-18</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -6821,32 +6829,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690718246275</v>
+        <v>901.62070262886118</v>
       </c>
       <c r="AC43">
-        <v>-6.3630523072788492E-10</v>
+        <v>-2.8930458029208239E-9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718319034</v>
+        <v>901.62070263613714</v>
       </c>
       <c r="AE43">
-        <v>2.4479049898218364E-9</v>
+        <v>6.6961547418031842E-10</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1060.4690718282654</v>
+        <v>901.62070263249916</v>
       </c>
       <c r="AG43">
-        <v>9.0562934929039329E-10</v>
+        <v>-1.1117435860796832E-9</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>-5.7625669205416799E-19</v>
+        <v>3.2163251156319731E-18</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>2.2168946030570565E-18</v>
+        <v>-7.4444070855967468E-19</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -6865,32 +6873,32 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1060.4690718246275</v>
+        <v>901.62070263249916</v>
       </c>
       <c r="AC44">
-        <v>-6.3630523072788492E-10</v>
+        <v>-1.1117435860796832E-9</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1060.4690718282654</v>
+        <v>901.62070263613714</v>
       </c>
       <c r="AE44">
-        <v>9.0562934929039329E-10</v>
+        <v>6.6961547418031842E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1060.4690718264465</v>
+        <v>901.62070263431815</v>
       </c>
       <c r="AG44">
-        <v>1.34718902700115E-10</v>
+        <v>-2.2106405594968237E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>-8.5722342466004151E-20</v>
+        <v>2.4576654631481959E-19</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>1.2200539218942095E-19</v>
+        <v>-1.48027912648971E-19</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -6924,7 +6932,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B9:D9"/>
@@ -6933,11 +6946,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -6968,8 +6976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
   <dimension ref="B1:AJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7000,11 +7008,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -7015,21 +7023,21 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="P3" s="7" t="s">
         <v>76</v>
       </c>
@@ -7103,7 +7111,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$20*$C$34)^3 / (2 * $C$33 * PI() * $C$21^2* $C$5) )</f>
-        <v>262298.73684875615</v>
+        <v>183068.95987062171</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -7113,7 +7121,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> $C$20 * $C$34</f>
-        <v>12135.584842569206</v>
+        <v>9548.6004411181239</v>
       </c>
       <c r="L4" t="s">
         <v>37</v>
@@ -7126,14 +7134,14 @@
       </c>
       <c r="R4" s="8">
         <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
-        <v>1.1421448443882893</v>
+        <v>0.84754628634188944</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
-        <v>-0.66002130878058374</v>
+        <v>-0.66819107613805384</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -7141,15 +7149,15 @@
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
-        <v>-0.13719393554739773</v>
+        <v>-0.15351465378201101</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-0.15669534616679959</v>
+        <v>-0.13011077471200433</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>9.0550920896752499E-2</v>
+        <v>0.1025771217135627</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -7161,17 +7169,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G30</f>
-        <v>-6.0435922932811081E-10</v>
+        <v>-5.7104898587567732E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G30</f>
-        <v>-6.0435922932811081E-10</v>
+        <v>-5.7104898587567732E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G30</f>
-        <v>-6.0435922932811081E-10</v>
+        <v>-5.7104898587567732E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -7189,7 +7197,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$20 * $C$34 / $C$5</f>
-        <v>2022.5974737615343</v>
+        <v>1591.4334068530206</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -7213,7 +7221,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>1.1421448443882893</v>
+        <v>0.84754628634188944</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -7221,7 +7229,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13719393554739773</v>
+        <v>-0.15351465378201101</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -7229,15 +7237,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" si="2"/>
-        <v>0.15809554380490631</v>
+        <v>0.12560334943587081</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>0.18056801027753669</v>
+        <v>0.10645465236647496</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-2.1689749847101109E-2</v>
+        <v>-1.9281954702508656E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -7250,15 +7258,15 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>-307.30699016242596</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
+        <v>-239.20135546202488</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20"/>
-        <v>92.303283962681235</v>
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <v>266.79585567538084</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
@@ -7266,15 +7274,15 @@
       </c>
       <c r="AG5" s="8">
         <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
-        <v>71.895809140737811</v>
+        <v>193.34721893618428</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-22094.084712332369</v>
+        <v>-46248.916844348161</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>6636.2192868442553</v>
+        <v>51584.236718534477</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -7293,7 +7301,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> 1.6 * ($C$20*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.29015732511390857</v>
+        <v>0.24729739726292774</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
@@ -7307,7 +7315,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.15809554380490631</v>
+        <v>0.12560334943587081</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -7315,7 +7323,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13719393554739773</v>
+        <v>-0.15351465378201101</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
@@ -7323,15 +7331,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="2"/>
-        <v>2.9692697198202E-3</v>
+        <v>-1.8765761410569071E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>4.6942831105841631E-4</v>
+        <v>-2.357042487881887E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>-4.0736579856385222E-4</v>
+        <v>2.8808193658993336E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -7345,29 +7353,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-307.30699016242596</v>
+        <v>-239.20135546202488</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0,AF5,AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>71.895809140737811</v>
+        <v>193.34721893618428</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>-83.749470438284789</v>
+        <v>11.824403346587928</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>25736.797688086368</v>
+        <v>-2828.4133080335355</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>-6021.2359422687869</v>
+        <v>2286.2155026424862</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -7381,52 +7389,52 @@
       <c r="C7" s="1">
         <v>0.13</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="J7" t="s">
         <v>68</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K6 / $C$24</f>
-        <v>3.6269665639238571E-2</v>
+        <v>3.0912174657865967E-2</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="7"/>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>2.9692697198202E-3</v>
+        <v>0.12560334943587081</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13719393554739773</v>
+        <v>-1.8765761410569071E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="2"/>
-        <v>-6.8188822739930877E-2</v>
+        <v>5.1505224214295986E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>-2.0247100659186385E-4</v>
+        <v>6.4692286747610938E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>9.3550929520350053E-3</v>
+        <v>-9.665347490033433E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -7437,32 +7445,32 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0,AF6,AB6)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC7" s="8">
-        <v>-83.749470438284789</v>
+        <v>-239.20135546202488</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="AE7" s="8">
-        <v>71.895809140737811</v>
+        <v>11.824403346587928</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="AG7" s="8">
-        <v>4.0771172678928451</v>
+        <v>-106.4758699665062</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>-341.45641210081226</v>
+        <v>25469.172419986586</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>293.12764493683039</v>
+        <v>-1259.0136331628169</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -7481,7 +7489,7 @@
       </c>
       <c r="G8">
         <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$23 * SIN(K17))</f>
-        <v>59038.762605515054</v>
+        <v>35669.314211023666</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -7491,7 +7499,7 @@
       </c>
       <c r="K8">
         <f xml:space="preserve"> K5 * $C$24 * K7</f>
-        <v>159.94922546904209</v>
+        <v>136.32269024118892</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -7501,35 +7509,35 @@
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="7"/>
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>2.9692697198202E-3</v>
+        <v>5.1505224214295986E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-6.8188822739930877E-2</v>
+        <v>-1.8765761410569071E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="V8" s="8">
         <f t="shared" si="2"/>
-        <v>-3.294045233945192E-2</v>
+        <v>1.6019952348371835E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>-9.7809087688715052E-5</v>
+        <v>8.251112376052289E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>2.2461706655480282E-3</v>
+        <v>-3.0062660357823158E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -7540,32 +7548,32 @@
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC8" s="8">
-        <v>-83.749470438284789</v>
+        <v>-106.4758699665062</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE8" s="8">
-        <v>4.0771172678928451</v>
+        <v>11.824403346587928</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="AG8" s="8">
-        <v>-37.504441232064551</v>
+        <v>-45.313578440080278</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>3140.9770922691791</v>
+        <v>4824.8026857030663</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>-152.9100049699228</v>
+        <v>-535.80602855275981</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -7584,7 +7592,7 @@
       </c>
       <c r="G9">
         <f xml:space="preserve"> $C$6 * G8</f>
-        <v>59038.762605515054</v>
+        <v>35669.314211023666</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -7601,35 +7609,35 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="7"/>
-        <v>0.375</v>
+        <v>0.34375</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>2.9692697198202E-3</v>
+        <v>1.6019952348371835E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-3.294045233945192E-2</v>
+        <v>-1.8765761410569071E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>0.390625</v>
+        <v>0.359375</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" si="2"/>
-        <v>-1.5078083441782852E-2</v>
+        <v>-1.449084010245294E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-4.4770896596608169E-5</v>
+        <v>-2.3214256792917173E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>4.966788889843272E-4</v>
+        <v>2.7193164800133814E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -7640,32 +7648,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="AC9" s="8">
-        <v>-37.504441232064551</v>
+        <v>-45.313578440080278</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE9" s="8">
-        <v>4.0771172678928451</v>
+        <v>11.824403346587928</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>1187.5</v>
+        <v>937.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>-16.108954945561436</v>
+        <v>-16.218618126327783</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>604.15735406578449</v>
+        <v>734.92362465706185</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>-65.678098376256372</v>
+        <v>-191.77548244998187</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -7678,42 +7686,42 @@
       </c>
       <c r="K10">
         <f xml:space="preserve"> K4 / (K5 * $C$24)</f>
-        <v>2.7518332976347404</v>
+        <v>2.1652155195279192</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>0.375</v>
+        <v>0.34375</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>2.9692697198202E-3</v>
+        <v>1.6019952348371835E-2</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.390625</v>
+        <v>0.359375</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5078083441782852E-2</v>
+        <v>-1.449084010245294E-3</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>0.3828125</v>
+        <v>0.3515625</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="2"/>
-        <v>-6.0789309889376364E-3</v>
+        <v>7.265135137719092E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>-1.8049985714329187E-5</v>
+        <v>1.1638711871074171E-4</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>9.1658628688041238E-5</v>
+        <v>-1.0527791160339977E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -7724,32 +7732,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>1187.5</v>
+        <v>937.5</v>
       </c>
       <c r="AC10" s="8">
-        <v>-16.108954945561436</v>
+        <v>-16.218618126327783</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE10" s="8">
-        <v>4.0771172678928451</v>
+        <v>11.824403346587928</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>1218.75</v>
+        <v>968.75</v>
       </c>
       <c r="AG10" s="8">
-        <v>-5.8620862877063473</v>
+        <v>-2.062872300979393</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>94.43208389565504</v>
+        <v>33.456938092963888</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>-23.900413229485412</v>
+        <v>-24.392234139284273</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -7757,57 +7765,57 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="F11" s="20" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="J11" t="s">
         <v>71</v>
       </c>
       <c r="K11">
         <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
-        <v>0.35484937018358748</v>
+        <v>0.22814360532814099</v>
       </c>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.375</v>
+        <v>0.3515625</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>2.9692697198202E-3</v>
+        <v>7.265135137719092E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.3828125</v>
+        <v>0.359375</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-6.0789309889376364E-3</v>
+        <v>-1.449084010245294E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
-        <v>0.37890625</v>
+        <v>0.35546875</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="2"/>
-        <v>-1.5611492763178969E-3</v>
+        <v>2.9031160593410155E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-4.6354732742899497E-6</v>
+        <v>2.1091530491594997E-5</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>9.4901187141664292E-6</v>
+        <v>-4.2068590614773936E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -7818,32 +7826,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>1218.75</v>
+        <v>968.75</v>
       </c>
       <c r="AC11" s="8">
-        <v>-5.8620862877063473</v>
+        <v>-2.062872300979393</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE11" s="8">
-        <v>4.0771172678928451</v>
+        <v>11.824403346587928</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>1234.375</v>
+        <v>984.375</v>
       </c>
       <c r="AG11" s="8">
-        <v>-0.85369791488346891</v>
+        <v>4.914660778762709</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>5.0044508406818835</v>
+        <v>-10.138317589219405</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>-3.4806265103355076</v>
+        <v>58.112931359746213</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -7862,7 +7870,7 @@
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
-        <v>33886.238735893479</v>
+        <v>22112.740161103578</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -7872,7 +7880,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> K5 * K11 * $C$24</f>
-        <v>1564.8857225096208</v>
+        <v>1006.1132994971017</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -7882,35 +7890,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.375</v>
+        <v>0.35546875</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>2.9692697198202E-3</v>
+        <v>2.9031160593410155E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.37890625</v>
+        <v>0.359375</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5611492763178969E-3</v>
+        <v>-1.449084010245294E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>0.376953125</v>
+        <v>0.357421875</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="2"/>
-        <v>7.0245627091330975E-4</v>
+        <v>7.2580852700215859E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>2.0857821347207058E-6</v>
+        <v>2.1071063907466136E-6</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0966390989812821E-6</v>
+        <v>-1.0517575309785178E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -7921,32 +7929,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>1234.375</v>
+        <v>968.75</v>
       </c>
       <c r="AC12" s="8">
-        <v>-0.85369791488346891</v>
+        <v>-2.062872300979393</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>984.375</v>
       </c>
       <c r="AE12" s="8">
-        <v>4.0771172678928451</v>
+        <v>4.914660778762709</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>1242.1875</v>
+        <v>976.5625</v>
       </c>
       <c r="AG12" s="8">
-        <v>1.621447328228669</v>
+        <v>1.4343263451457915</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>-1.3842262032021864</v>
+        <v>-2.958832087966262</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>6.6108309008998241</v>
+        <v>7.049227432434086</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -7969,42 +7977,42 @@
       </c>
       <c r="K13">
         <f>K10/K11</f>
-        <v>7.754933582694628</v>
+        <v>9.490581672949677</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.376953125</v>
+        <v>0.357421875</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>7.0245627091330975E-4</v>
+        <v>7.2580852700215859E-4</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.37890625</v>
+        <v>0.359375</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5611492763178969E-3</v>
+        <v>-1.449084010245294E-3</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>0.3779296875</v>
+        <v>0.3583984375</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="2"/>
-        <v>-4.2974441541060449E-4</v>
+        <v>-3.6193717787030844E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>-3.018766594951535E-7</v>
+        <v>-2.6269708993736686E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>6.7089518311992282E-7</v>
+        <v>5.244773771651708E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -8015,32 +8023,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>1234.375</v>
+        <v>968.75</v>
       </c>
       <c r="AC13" s="8">
-        <v>-0.85369791488346891</v>
+        <v>-2.062872300979393</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>1242.1875</v>
+        <v>976.5625</v>
       </c>
       <c r="AE13" s="8">
-        <v>1.621447328228669</v>
+        <v>1.4343263451457915</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>1238.28125</v>
+        <v>972.65625</v>
       </c>
       <c r="AG13" s="8">
-        <v>0.38630413243242856</v>
+        <v>-0.31217022269640893</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>-0.32978703236843171</v>
+        <v>0.64396730559099058</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>0.6263718034162552</v>
+        <v>-0.44775397458348803</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -8048,45 +8056,45 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="P14" s="8">
         <v>10</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.376953125</v>
+        <v>0.357421875</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>7.0245627091330975E-4</v>
+        <v>7.2580852700215859E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.3779296875</v>
+        <v>0.3583984375</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-4.2974441541060449E-4</v>
+        <v>-3.6193717787030844E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
-        <v>0.37744140625</v>
+        <v>0.35791015625</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="2"/>
-        <v>1.3625606765182985E-4</v>
+        <v>1.8186051278423765E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>9.5713929172016046E-8</v>
+        <v>1.3199591090378477E-7</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-5.8555284139183397E-8</v>
+        <v>-6.5822080763174122E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -8097,32 +8105,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>1234.375</v>
+        <v>972.65625</v>
       </c>
       <c r="AC14" s="8">
-        <v>-0.85369791488346891</v>
+        <v>-0.31217022269640893</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>1238.28125</v>
+        <v>976.5625</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.38630413243242856</v>
+        <v>1.4343263451457915</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>1236.328125</v>
+        <v>974.609375</v>
       </c>
       <c r="AG14" s="8">
-        <v>-0.23309032396798557</v>
+        <v>0.56160447841637051</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>0.19898872355098154</v>
+        <v>-0.17531619509453897</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>-9.0043755378846374E-2</v>
+        <v>0.80552409894446131</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -8139,45 +8147,45 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="P15" s="8">
         <v>11</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.37744140625</v>
+        <v>0.35791015625</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>1.3625606765182985E-4</v>
+        <v>1.8186051278423765E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.3779296875</v>
+        <v>0.3583984375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-4.2974441541060449E-4</v>
+        <v>-3.6193717787030844E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
-        <v>0.377685546875</v>
+        <v>0.358154296875</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="2"/>
-        <v>-1.4676909101174473E-4</v>
+        <v>-9.0057085021522099E-5</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.9998179194093863E-8</v>
+        <v>-1.6377827661867698E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>6.3073197217188047E-8</v>
+        <v>3.2595007199916134E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -8188,32 +8196,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>1236.328125</v>
+        <v>972.65625</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.23309032396798557</v>
+        <v>-0.31217022269640893</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>1238.28125</v>
+        <v>974.609375</v>
       </c>
       <c r="AE15" s="8">
-        <v>0.38630413243242856</v>
+        <v>0.56160447841637051</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>1237.3046875</v>
+        <v>973.6328125</v>
       </c>
       <c r="AG15" s="8">
-        <v>7.6758632383643999E-2</v>
+        <v>0.12484858414120481</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>-1.789169448964309E-2</v>
+        <v>-3.8974010314691256E-2</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>2.9652176889663311E-2</v>
+        <v>7.0115523977643673E-2</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -8232,50 +8240,50 @@
       </c>
       <c r="G16" s="5">
         <f>C20</f>
-        <v>1237.0626750835072</v>
+        <v>973.35376565933984</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.37744140625</v>
+        <v>0.35791015625</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>1.3625606765182985E-4</v>
+        <v>1.8186051278423765E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.377685546875</v>
+        <v>0.358154296875</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4676909101174473E-4</v>
+        <v>-9.0057085021522099E-5</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>0.3775634765625</v>
+        <v>0.3580322265625</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>-5.2627469400157167E-6</v>
+        <v>4.589702102386628E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>-7.1708120309324204E-10</v>
+        <v>8.3468557786692576E-9</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>7.7240858461094783E-10</v>
+        <v>-4.1333519245809129E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -8286,32 +8294,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>1236.328125</v>
+        <v>972.65625</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.23309032396798557</v>
+        <v>-0.31217022269640893</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>1237.3046875</v>
+        <v>973.6328125</v>
       </c>
       <c r="AE16" s="8">
-        <v>7.6758632383643999E-2</v>
+        <v>0.12484858414120481</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>1236.81640625</v>
+        <v>973.14453125</v>
       </c>
       <c r="AG16" s="8">
-        <v>-7.8127778126145131E-2</v>
+        <v>-9.3627935729728051E-2</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>1.8210829114322064E-2</v>
+        <v>2.9227853547354268E-2</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>-5.9969814001356765E-3</v>
+        <v>-1.1689315211920268E-2</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -8330,7 +8338,7 @@
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
-        <v>199.33081609349105</v>
+        <v>130.07494212413869</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -8350,35 +8358,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.37744140625</v>
+        <v>0.3580322265625</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>1.3625606765182985E-4</v>
+        <v>4.589702102386628E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.3775634765625</v>
+        <v>0.358154296875</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2627469400157167E-6</v>
+        <v>-9.0057085021522099E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>0.37750244140625</v>
+        <v>0.35809326171875</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>6.5495100792900551E-5</v>
+        <v>-2.2081204620494344E-5</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>8.9241048845008717E-9</v>
+        <v>-1.0134615126991222E-9</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>-3.4468414128385832E-10</v>
+        <v>1.9885689218854859E-9</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -8389,32 +8397,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>1236.81640625</v>
+        <v>973.14453125</v>
       </c>
       <c r="AC17" s="8">
-        <v>-7.8127778126145131E-2</v>
+        <v>-9.3627935729728051E-2</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>1237.3046875</v>
+        <v>973.6328125</v>
       </c>
       <c r="AE17" s="8">
-        <v>7.6758632383643999E-2</v>
+        <v>0.12484858414120481</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>1237.060546875</v>
+        <v>973.388671875</v>
       </c>
       <c r="AG17" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>1.561845538549278E-2</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>5.2729069519225449E-5</v>
+        <v>-1.4623237370305429E-3</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>-5.1805021981079286E-5</v>
+        <v>1.9499420413513486E-3</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -8426,8 +8434,8 @@
         <v>88</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> $C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592</f>
-        <v>85.744349307823455</v>
+        <f xml:space="preserve"> $C$36 * ($C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592)</f>
+        <v>50.818046878262777</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -8437,7 +8445,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$6</f>
-        <v>1564.8857225096208</v>
+        <v>1006.1132994971017</v>
       </c>
       <c r="L18" t="s">
         <v>37</v>
@@ -8447,35 +8455,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.37750244140625</v>
+        <v>0.3580322265625</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>6.5495100792900551E-5</v>
+        <v>4.589702102386628E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.3775634765625</v>
+        <v>0.35809326171875</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2627469400157167E-6</v>
+        <v>-2.2081204620494344E-5</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="3"/>
-        <v>0.377532958984375</v>
+        <v>0.358062744140625</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="2"/>
-        <v>3.0115787129192384E-5</v>
+        <v>1.1907614972217484E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>1.9724365134839923E-9</v>
+        <v>5.4652405472397072E-10</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5849176656032192E-10</v>
+        <v>-2.6293448274359632E-10</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -8486,32 +8494,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>1237.060546875</v>
+        <v>973.14453125</v>
       </c>
       <c r="AC18" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>-9.3627935729728051E-2</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>1237.3046875</v>
+        <v>973.388671875</v>
       </c>
       <c r="AE18" s="8">
-        <v>7.6758632383643999E-2</v>
+        <v>1.561845538549278E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>1237.1826171875</v>
+        <v>973.2666015625</v>
       </c>
       <c r="AG18" s="8">
-        <v>3.8044327370243991E-2</v>
+        <v>-3.900276823560489E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>-2.5676424324762071E-5</v>
+        <v>3.6517486776446932E-3</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>2.9202305388955642E-3</v>
+        <v>-6.0916299559850989E-4</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -8519,17 +8527,17 @@
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="F19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G19">
-        <f xml:space="preserve"> 0.2213 * (G4/1000) + 0.2213 * (G9/1000)</f>
-        <v>71.111988629230225</v>
+        <f xml:space="preserve"> 0.2138 * (G4/1000) + 0.2138 * (G9/1000)</f>
+        <v>46.766242998655777</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -8549,35 +8557,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.377532958984375</v>
+        <v>0.358062744140625</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>3.0115787129192384E-5</v>
+        <v>1.1907614972217484E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.3775634765625</v>
+        <v>0.35809326171875</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2627469400157167E-6</v>
+        <v>-2.2081204620494344E-5</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="3"/>
-        <v>0.3775482177734375</v>
+        <v>0.3580780029296875</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="2"/>
-        <v>1.24264226569748E-5</v>
+        <v>-5.0868681222282497E-6</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>3.7423149951482633E-10</v>
+        <v>-6.057246701394094E-11</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>-6.5397117813336102E-11</v>
+        <v>1.1232417588439182E-10</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -8588,32 +8596,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>1237.060546875</v>
+        <v>973.2666015625</v>
       </c>
       <c r="AC19" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>-3.900276823560489E-2</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>1237.1826171875</v>
+        <v>973.388671875</v>
       </c>
       <c r="AE19" s="8">
-        <v>3.8044327370243991E-2</v>
+        <v>1.561845538549278E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>1237.12158203125</v>
+        <v>973.32763671875</v>
       </c>
       <c r="AG19" s="8">
-        <v>1.8685081770968281E-2</v>
+        <v>-1.1691542005905831E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>-1.2610712851490781E-5</v>
+        <v>4.5600250317318422E-4</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>7.1086136783449563E-4</v>
+        <v>-1.8260382720685498E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -8626,7 +8634,7 @@
       </c>
       <c r="C20" s="3">
         <f>AF44</f>
-        <v>1237.0626750835072</v>
+        <v>973.35376565933984</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -8636,7 +8644,7 @@
       </c>
       <c r="G20">
         <f>2.20462 * (49.9/398 * (G4/$C$5/1000 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (G8/1000 -2) + 0.1) * 0.453592 * $C$6</f>
-        <v>39.232939487026556</v>
+        <v>26.36939405663054</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -8653,35 +8661,35 @@
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.3775482177734375</v>
+        <v>0.358062744140625</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.24264226569748E-5</v>
+        <v>1.1907614972217484E-5</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.3775634765625</v>
+        <v>0.3580780029296875</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2627469400157167E-6</v>
+        <v>-5.0868681222282497E-6</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755584716796875</v>
+        <v>0.35807037353515625</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="2"/>
-        <v>3.5818135005194485E-6</v>
+        <v>3.4103550993203058E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>4.4509128435913097E-11</v>
+        <v>4.0609195441244715E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>-1.885017803956571E-11</v>
+        <v>-1.7348026640211019E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -8692,32 +8700,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>1237.060546875</v>
+        <v>973.32763671875</v>
       </c>
       <c r="AC20" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>-1.1691542005905831E-2</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>1237.12158203125</v>
+        <v>973.388671875</v>
       </c>
       <c r="AE20" s="8">
-        <v>1.8685081770968281E-2</v>
+        <v>1.561845538549278E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>1237.091064453125</v>
+        <v>973.358154296875</v>
       </c>
       <c r="AG20" s="8">
-        <v>9.0052287052913016E-3</v>
+        <v>1.9637013726878649E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-6.0777017064424531E-6</v>
+        <v>-2.2958697085835113E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>1.6826343472463879E-4</v>
+        <v>3.0669982279756348E-5</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -8738,8 +8746,8 @@
         <v>97</v>
       </c>
       <c r="G21">
-        <f xml:space="preserve"> 14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592</f>
-        <v>147.46075959523168</v>
+        <f xml:space="preserve"> $C$36 * (14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
+        <v>113.96540314190996</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -8749,42 +8757,42 @@
       </c>
       <c r="K21">
         <f xml:space="preserve"> K18 / ( $C$33 * PI() * $C$22^2 * K19^2 * $C$22^2)</f>
-        <v>4.577774672430051E-2</v>
+        <v>2.9431925371819261E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755584716796875</v>
+        <v>0.35807037353515625</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>3.5818135005194485E-6</v>
+        <v>3.4103550993203058E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.3775634765625</v>
+        <v>0.3580780029296875</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2627469400157167E-6</v>
+        <v>-5.0868681222282497E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755966186523438</v>
+        <v>0.35807418823242188</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="2"/>
-        <v>-8.4047280907162403E-7</v>
+        <v>-8.3826109276152749E-7</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>-3.0104168543522478E-12</v>
+        <v>-2.8587679922610872E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>4.4231957041081028E-12</v>
+        <v>4.264123630872832E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -8795,32 +8803,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>1237.060546875</v>
+        <v>973.32763671875</v>
       </c>
       <c r="AC21" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>-1.1691542005905831E-2</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>1237.091064453125</v>
+        <v>973.358154296875</v>
       </c>
       <c r="AE21" s="8">
-        <v>9.0052287052913016E-3</v>
+        <v>1.9637013726878649E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0758056640625</v>
+        <v>973.3428955078125</v>
       </c>
       <c r="AG21" s="8">
-        <v>4.1650004692428411E-3</v>
+        <v>-4.864010929509277E-3</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>-2.8109925119810699E-6</v>
+        <v>5.6867788099542775E-5</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>3.7506781783177376E-5</v>
+        <v>-9.5514649390461446E-6</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -8841,8 +8849,8 @@
         <v>98</v>
       </c>
       <c r="G22">
-        <f xml:space="preserve"> 0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592</f>
-        <v>27.35371901870186</v>
+        <f xml:space="preserve"> $C$36 * (0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592)</f>
+        <v>18.57323746007469</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -8858,35 +8866,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755584716796875</v>
+        <v>0.35807037353515625</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>3.5818135005194485E-6</v>
+        <v>3.4103550993203058E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755966186523438</v>
+        <v>0.35807418823242188</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-8.4047280907162403E-7</v>
+        <v>-8.3826109276152749E-7</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755775451660156</v>
+        <v>0.35807228088378906</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="2"/>
-        <v>1.3706688233861009E-6</v>
+        <v>1.2860458579178058E-6</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>4.9094800963454436E-12</v>
+        <v>4.3858730495097464E-12</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1520098762982139E-12</v>
+        <v>-1.0780422061996161E-12</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -8897,32 +8905,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>1237.060546875</v>
+        <v>973.3428955078125</v>
       </c>
       <c r="AC22" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>-4.864010929509277E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0758056640625</v>
+        <v>973.358154296875</v>
       </c>
       <c r="AE22" s="8">
-        <v>4.1650004692428411E-3</v>
+        <v>1.9637013726878649E-3</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0681762695312</v>
+        <v>973.35052490234375</v>
       </c>
       <c r="AG22" s="8">
-        <v>1.7450550573130386E-3</v>
+        <v>-1.4501470761842938E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>-1.1777517758583574E-6</v>
+        <v>7.0535312279563275E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>7.2681551325633985E-6</v>
+        <v>-2.8476558041023915E-6</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -8943,8 +8951,8 @@
         <v>90</v>
       </c>
       <c r="G23">
-        <f xml:space="preserve"> 0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592</f>
-        <v>194.25663745723645</v>
+        <f xml:space="preserve"> $C$36 * (0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592)</f>
+        <v>141.29598484699963</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -8964,35 +8972,35 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755775451660156</v>
+        <v>0.35807228088378906</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.3706688233861009E-6</v>
+        <v>1.2860458579178058E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755966186523438</v>
+        <v>0.35807418823242188</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-8.4047280907162403E-7</v>
+        <v>-8.3826109276152749E-7</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755870819091797</v>
+        <v>0.35807323455810547</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="2"/>
-        <v>2.6509762657278557E-7</v>
+        <v>2.238920962516211E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>3.6336105189696797E-13</v>
+        <v>2.87935503004932E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-2.228073468838495E-13</v>
+        <v>-1.87680033264553E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -9003,32 +9011,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>1237.060546875</v>
+        <v>973.35052490234375</v>
       </c>
       <c r="AC23" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>-1.4501470761842938E-3</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0681762695312</v>
+        <v>973.358154296875</v>
       </c>
       <c r="AE23" s="8">
-        <v>1.7450550573130386E-3</v>
+        <v>1.9637013726878649E-3</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0643615722656</v>
+        <v>973.35433959960938</v>
       </c>
       <c r="AG23" s="8">
-        <v>5.3507570066813059E-4</v>
+        <v>2.5665764633231447E-4</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>-3.6112691919926E-7</v>
+        <v>-3.7219133540914838E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>9.3373655749623891E-7</v>
+        <v>5.0399897241360253E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -9049,6 +9057,7 @@
         <v>99</v>
       </c>
       <c r="G24">
+        <f xml:space="preserve"> $C$36 * 0</f>
         <v>0</v>
       </c>
       <c r="H24" t="s">
@@ -9059,42 +9068,42 @@
       </c>
       <c r="K24" s="5">
         <f>U34</f>
-        <v>0.37755893683061004</v>
+        <v>0.3580734352581203</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755870819091797</v>
+        <v>0.35807323455810547</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>2.6509762657278557E-7</v>
+        <v>2.238920962516211E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755966186523438</v>
+        <v>0.35807418823242188</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-8.4047280907162403E-7</v>
+        <v>-8.3826109276152749E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755918502807617</v>
+        <v>0.35807371139526367</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>-2.8768768639553244E-7</v>
+        <v>-3.0718456983658271E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-7.6265322857671496E-14</v>
+        <v>-6.8776197276865005E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>2.4179367792016958E-13</v>
+        <v>2.5750087319069358E-13</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -9105,32 +9114,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>1237.060546875</v>
+        <v>973.35052490234375</v>
       </c>
       <c r="AC24" s="8">
-        <v>-6.7490809010450903E-4</v>
+        <v>-1.4501470761842938E-3</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0643615722656</v>
+        <v>973.35433959960938</v>
       </c>
       <c r="AE24" s="8">
-        <v>5.3507570066813059E-4</v>
+        <v>2.5665764633231447E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0624542236328</v>
+        <v>973.35243225097656</v>
       </c>
       <c r="AG24" s="8">
-        <v>-6.9915640665385581E-5</v>
+        <v>-5.9674423346223193E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>4.7186631509908529E-8</v>
+        <v>8.6536690538509328E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-3.7410160416692432E-8</v>
+        <v>-1.5315897042279763E-7</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -9148,6 +9157,7 @@
         <v>100</v>
       </c>
       <c r="G25">
+        <f xml:space="preserve"> $C$36 * 0</f>
         <v>0</v>
       </c>
       <c r="H25" t="s">
@@ -9158,7 +9168,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> K19 * $C$22 * K24 - $C$23 * SIN(K17)</f>
-        <v>5.6982505245741493</v>
+        <v>3.8617852668247679</v>
       </c>
       <c r="L25" t="s">
         <v>19</v>
@@ -9168,35 +9178,35 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755870819091797</v>
+        <v>0.35807323455810547</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>2.6509762657278557E-7</v>
+        <v>2.238920962516211E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755918502807617</v>
+        <v>0.35807371139526367</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-2.8768768639553244E-7</v>
+        <v>-3.0718456983658271E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755894660949707</v>
+        <v>0.35807347297668457</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="2"/>
-        <v>-1.129505367014616E-8</v>
+        <v>-4.1646254667071503E-8</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>-2.9942919199679778E-15</v>
+        <v>-9.3242672584394975E-15</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>3.2494478580777163E-15</v>
+        <v>1.2793086825209135E-14</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -9207,32 +9217,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0624542236328</v>
+        <v>973.35243225097656</v>
       </c>
       <c r="AC25" s="8">
-        <v>-6.9915640665385581E-5</v>
+        <v>-5.9674423346223193E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0643615722656</v>
+        <v>973.35433959960938</v>
       </c>
       <c r="AE25" s="8">
-        <v>5.3507570066813059E-4</v>
+        <v>2.5665764633231447E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0634078979492</v>
+        <v>973.35338592529297</v>
       </c>
       <c r="AG25" s="8">
-        <v>2.3238486767240829E-4</v>
+        <v>-1.6992174585084285E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>-1.6247336904257277E-8</v>
+        <v>1.0139982197632541E-7</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>1.2434349589448467E-7</v>
+        <v>-4.3611715350755052E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -9244,8 +9254,8 @@
         <v>101</v>
       </c>
       <c r="G26">
-        <f xml:space="preserve"> 0.0268 * $C$20</f>
-        <v>33.153279692237994</v>
+        <f xml:space="preserve"> $C$36 * (0.0268 * $C$20)</f>
+        <v>20.868704735736248</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -9255,42 +9265,42 @@
       </c>
       <c r="K26">
         <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$33*PI()*$C$22^2) / K18^3 )</f>
-        <v>1.305076759765579</v>
+        <v>1.2785216544037776</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755870819091797</v>
+        <v>0.35807323455810547</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>2.6509762657278557E-7</v>
+        <v>2.238920962516211E-7</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755894660949707</v>
+        <v>0.35807347297668457</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.129505367014616E-8</v>
+        <v>-4.1646254667071503E-8</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755882740020752</v>
+        <v>0.35807335376739502</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="2"/>
-        <v>1.2690128048387095E-7</v>
+        <v>9.1122916323627123E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>3.3641228265321541E-14</v>
+        <v>2.0401700752257939E-14</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>-1.4333567738755938E-15</v>
+        <v>-3.7949281792200223E-15</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -9301,32 +9311,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0624542236328</v>
+        <v>973.35338592529297</v>
       </c>
       <c r="AC26" s="8">
-        <v>-6.9915640665385581E-5</v>
+        <v>-1.6992174585084285E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0634078979492</v>
+        <v>973.35433959960938</v>
       </c>
       <c r="AE26" s="8">
-        <v>2.3238486767240829E-4</v>
+        <v>2.5665764633231447E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>1237.062931060791</v>
+        <v>973.35386276245117</v>
       </c>
       <c r="AG26" s="8">
-        <v>8.1039347605837975E-5</v>
+        <v>4.3246553218523331E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>-5.6659179069670432E-9</v>
+        <v>-7.3485298249228716E-9</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>1.8832318069640956E-8</v>
+        <v>1.1099558561051377E-8</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -9334,17 +9344,17 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="F27" s="15" t="s">
         <v>102</v>
       </c>
       <c r="G27">
-        <f xml:space="preserve"> 11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592</f>
-        <v>7.7920800449100396</v>
+        <f xml:space="preserve"> $C$36 * (11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592)</f>
+        <v>5.6636315995749342</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -9360,35 +9370,35 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755882740020752</v>
+        <v>0.35807335376739502</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>1.2690128048387095E-7</v>
+        <v>9.1122916323627123E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755894660949707</v>
+        <v>0.35807347297668457</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.129505367014616E-8</v>
+        <v>-4.1646254667071503E-8</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755888700485229</v>
+        <v>0.35807341337203979</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="2"/>
-        <v>5.7803111908061311E-8</v>
+        <v>2.4738329718054786E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>7.3352889170854693E-15</v>
+        <v>2.2542287488846045E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>-6.5288925130301715E-16</v>
+        <v>-1.0302587794760927E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -9399,32 +9409,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0624542236328</v>
+        <v>973.35338592529297</v>
       </c>
       <c r="AC27" s="8">
-        <v>-6.9915640665385581E-5</v>
+        <v>-1.6992174585084285E-4</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>1237.062931060791</v>
+        <v>973.35386276245117</v>
       </c>
       <c r="AE27" s="8">
-        <v>8.1039347605837975E-5</v>
+        <v>4.3246553218523331E-5</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626926422119</v>
+        <v>973.35362434387207</v>
       </c>
       <c r="AG27" s="8">
-        <v>5.3665618224840728E-6</v>
+        <v>-6.3337588812828471E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>-3.7520660798937321E-10</v>
+        <v>1.0762433669058628E-8</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>4.3490266898050612E-10</v>
+        <v>-2.7391324053269345E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -9445,8 +9455,8 @@
         <v>103</v>
       </c>
       <c r="G28">
-        <f xml:space="preserve"> 8 * ($C$20/1000)</f>
-        <v>9.8965014006680576</v>
+        <f xml:space="preserve"> $C$36 * (8 * ($C$20/1000))</f>
+        <v>6.2294641002197757</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -9455,43 +9465,43 @@
         <v>62</v>
       </c>
       <c r="K28">
-        <f xml:space="preserve"> 1/$C$38 * LN( EXP($C$38 * K26) + EXP($C$38 * K27) )</f>
-        <v>1.3053932395699492</v>
+        <f xml:space="preserve"> 1/$C$39 * LN( EXP($C$39 * K26) + EXP($C$39 * K27) )</f>
+        <v>1.2792196241301033</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755888700485229</v>
+        <v>0.35807341337203979</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>5.7803111908061311E-8</v>
+        <v>2.4738329718054786E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755894660949707</v>
+        <v>0.35807347297668457</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-1.129505367014616E-8</v>
+        <v>-4.1646254667071503E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755891680717468</v>
+        <v>0.35807344317436218</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="2"/>
-        <v>2.3254028702623941E-8</v>
+        <v>-8.4539627520641147E-9</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>1.3441552234110415E-15</v>
+        <v>-2.0913691798471592E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-2.6265550224325667E-16</v>
+        <v>3.5207588571839881E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -9502,32 +9512,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0624542236328</v>
+        <v>973.35362434387207</v>
       </c>
       <c r="AC28" s="8">
-        <v>-6.9915640665385581E-5</v>
+        <v>-6.3337588812828471E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626926422119</v>
+        <v>973.35386276245117</v>
       </c>
       <c r="AE28" s="8">
-        <v>5.3665618224840728E-6</v>
+        <v>4.3246553218523331E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0625734329224</v>
+        <v>973.35374355316162</v>
       </c>
       <c r="AG28" s="8">
-        <v>-3.207923680292879E-5</v>
+        <v>-1.0045515864476329E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>2.242840393133382E-9</v>
+        <v>6.362587532369468E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>-1.7215520752102368E-10</v>
+        <v>-4.3443393644059596E-10</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -9548,8 +9558,8 @@
         <v>104</v>
       </c>
       <c r="G29">
-        <f xml:space="preserve"> 13 * ($C$20*2.20462/1000)^1.3 * 0.453592</f>
-        <v>21.729604357554244</v>
+        <f xml:space="preserve"> $C$36 * (13 * ($C$20*2.20462/1000)^1.3 * 0.453592)</f>
+        <v>12.728713717707878</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -9559,35 +9569,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755891680717468</v>
+        <v>0.35807341337203979</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>2.3254028702623941E-8</v>
+        <v>2.4738329718054786E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755894660949707</v>
+        <v>0.35807344317436218</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.129505367014616E-8</v>
+        <v>-8.4539627520641147E-9</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755893170833588</v>
+        <v>0.35807342827320099</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="2"/>
-        <v>5.9794874052165881E-9</v>
+        <v>8.142183371973033E-9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>1.390471717478849E-16</v>
+        <v>2.0142401688073201E-16</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-6.7538631161884369E-17</v>
+        <v>-6.8833714947135816E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -9598,32 +9608,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0625734329224</v>
+        <v>973.35374355316162</v>
       </c>
       <c r="AC29" s="8">
-        <v>-3.207923680292879E-5</v>
+        <v>-1.0045515864476329E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626926422119</v>
+        <v>973.35386276245117</v>
       </c>
       <c r="AE29" s="8">
-        <v>5.3665618224840728E-6</v>
+        <v>4.3246553218523331E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626330375671</v>
+        <v>973.3538031578064</v>
       </c>
       <c r="AG29" s="8">
-        <v>-1.3161036349629285E-5</v>
+        <v>1.6721946508369001E-5</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>4.2219600163171133E-10</v>
+        <v>-1.6798057893474535E-10</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>-7.0629515218245663E-11</v>
+        <v>7.2316654959148045E-10</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -9645,7 +9655,7 @@
       </c>
       <c r="G30" s="3">
         <f>$C$20 - $C$28 - SUM(G17:G29)</f>
-        <v>-6.0435922932811081E-10</v>
+        <v>-5.7104898587567732E-10</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>14</v>
@@ -9655,35 +9665,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755893170833588</v>
+        <v>0.35807342827320099</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>5.9794874052165881E-9</v>
+        <v>8.142183371973033E-9</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755894660949707</v>
+        <v>0.35807344317436218</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.129505367014616E-8</v>
+        <v>-8.4539627520641147E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755893915891647</v>
+        <v>0.35807343572378159</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="2"/>
-        <v>-2.6577831602203617E-9</v>
+        <v>-1.5588969004554087E-10</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5892180932334394E-17</v>
+        <v>-1.2692824421508329E-18</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>3.0019803438299656E-17</v>
+        <v>1.3178856330758226E-18</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -9694,32 +9704,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626330375671</v>
+        <v>973.35374355316162</v>
       </c>
       <c r="AC30" s="8">
-        <v>-1.3161036349629285E-5</v>
+        <v>-1.0045515864476329E-5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626926422119</v>
+        <v>973.3538031578064</v>
       </c>
       <c r="AE30" s="8">
-        <v>5.3665618224840728E-6</v>
+        <v>1.6721946508369001E-5</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626628398895</v>
+        <v>973.35377335548401</v>
       </c>
       <c r="AG30" s="8">
-        <v>-3.8972370930423494E-6</v>
+        <v>3.3382153787897551E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>5.1291679044653928E-11</v>
+        <v>-3.3534095546671341E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-2.0914763796689881E-11</v>
+        <v>5.5821458997537047E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -9739,35 +9749,35 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755893170833588</v>
+        <v>0.35807342827320099</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>5.9794874052165881E-9</v>
+        <v>8.142183371973033E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755893915891647</v>
+        <v>0.35807343572378159</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6577831602203617E-9</v>
+        <v>-1.5588969004554087E-10</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755893543362617</v>
+        <v>0.35807343199849129</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="2"/>
-        <v>1.6608521224981132E-9</v>
+        <v>3.9931468687193217E-9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>9.9310443484047058E-18</v>
+        <v>3.2512934036332645E-17</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-4.4141848027917305E-18</v>
+        <v>-6.2249042767097715E-19</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -9778,32 +9788,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626628398895</v>
+        <v>973.35374355316162</v>
       </c>
       <c r="AC31" s="8">
-        <v>-3.8972370930423494E-6</v>
+        <v>-1.0045515864476329E-5</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626926422119</v>
+        <v>973.35377335548401</v>
       </c>
       <c r="AE31" s="8">
-        <v>5.3665618224840728E-6</v>
+        <v>3.3382153787897551E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626777410507</v>
+        <v>973.35375845432281</v>
       </c>
       <c r="AG31" s="8">
-        <v>9.2996276634949027E-7</v>
+        <v>-3.3536500723130303E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>-3.6242853881655091E-12</v>
+        <v>3.3689145005322732E-11</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>4.9907026782228504E-12</v>
+        <v>-1.1195206246474732E-11</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -9811,45 +9821,45 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="P32" s="8">
         <v>28</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755893543362617</v>
+        <v>0.35807343199849129</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>1.6608521224981132E-9</v>
+        <v>3.9931468687193217E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755893915891647</v>
+        <v>0.35807343572378159</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-2.6577831602203617E-9</v>
+        <v>-1.5588969004554087E-10</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755893729627132</v>
+        <v>0.35807343386113644</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="2"/>
-        <v>-4.9846549110554861E-10</v>
+        <v>1.9186285893368904E-9</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>-8.2787746889471477E-19</v>
+        <v>7.6613657437459732E-18</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>1.3248131882112996E-18</v>
+        <v>-2.9909441610424117E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -9860,32 +9870,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626628398895</v>
+        <v>973.35375845432281</v>
       </c>
       <c r="AC32" s="8">
-        <v>-3.8972370930423494E-6</v>
+        <v>-3.3536500723130303E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626777410507</v>
+        <v>973.35377335548401</v>
       </c>
       <c r="AE32" s="8">
-        <v>9.2996276634949027E-7</v>
+        <v>3.3382153787897551E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626702904701</v>
+        <v>973.35376590490341</v>
       </c>
       <c r="AG32" s="8">
-        <v>-1.6789376786618959E-6</v>
+        <v>1.137098024628358E-7</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>6.5432181981875574E-12</v>
+        <v>-3.8134288725218965E-13</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5613495281768083E-12</v>
+        <v>3.7958781130058362E-13</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -9907,35 +9917,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755893543362617</v>
+        <v>0.35807343386113644</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.6608521224981132E-9</v>
+        <v>1.9186285893368904E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755893729627132</v>
+        <v>0.35807343572378159</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-4.9846549110554861E-10</v>
+        <v>-1.5588969004554087E-10</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755893636494875</v>
+        <v>0.35807343479245901</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="2"/>
-        <v>5.811933156962823E-10</v>
+        <v>8.8136942189009915E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>9.6527615195588643E-19</v>
+        <v>1.6910205706056715E-18</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>-2.8970481153580951E-19</v>
+        <v>-1.373964059940651E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -9946,32 +9956,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626702904701</v>
+        <v>973.35375845432281</v>
       </c>
       <c r="AC33" s="8">
-        <v>-1.6789376786618959E-6</v>
+        <v>-3.3536500723130303E-6</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626777410507</v>
+        <v>973.35376590490341</v>
       </c>
       <c r="AE33" s="8">
-        <v>9.2996276634949027E-7</v>
+        <v>1.137098024628358E-7</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626740157604</v>
+        <v>973.35376217961311</v>
       </c>
       <c r="AG33" s="8">
-        <v>-3.7448739931278396E-7</v>
+        <v>-1.6199703622987727E-6</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>6.2874100489033598E-13</v>
+        <v>5.4328137226682448E-12</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>-3.4825933782794278E-13</v>
+        <v>-1.8420650989264198E-13</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -9998,35 +10008,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.37755893636494875</v>
+        <v>0.35807343479245901</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>5.811933156962823E-10</v>
+        <v>8.8136942189009915E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.37755893729627132</v>
+        <v>0.35807343572378159</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-4.9846549110554861E-10</v>
+        <v>-1.5588969004554087E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>0.37755893683061004</v>
+        <v>0.3580734352581203</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="2"/>
-        <v>4.1363912295366845E-11</v>
+        <v>3.6273989367785475E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>2.4040429337114476E-20</v>
+        <v>3.1970785038732687E-19</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>-2.0618482856356875E-20</v>
+        <v>-5.6547409592593229E-20</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -10037,32 +10047,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626740157604</v>
+        <v>973.35376217961311</v>
       </c>
       <c r="AC34" s="8">
-        <v>-3.7448739931278396E-7</v>
+        <v>-1.6199703622987727E-6</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626777410507</v>
+        <v>973.35376590490341</v>
       </c>
       <c r="AE34" s="8">
-        <v>9.2996276634949027E-7</v>
+        <v>1.137098024628358E-7</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626758784056</v>
+        <v>973.35376404225826</v>
       </c>
       <c r="AG34" s="8">
-        <v>2.7773751298809657E-7</v>
+        <v>-7.5313027991796844E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0400919893051284E-13</v>
+        <v>1.2200487324168874E-12</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>2.5828554589743777E-13</v>
+        <v>-8.563829535825242E-14</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -10084,7 +10094,7 @@
       </c>
       <c r="G35">
         <f>ROUND($C$28/$C$20 * 100, 2)</f>
-        <v>32.33</v>
+        <v>41.1</v>
       </c>
       <c r="H35" t="s">
         <v>95</v>
@@ -10094,32 +10104,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626740157604</v>
+        <v>973.35376404225826</v>
       </c>
       <c r="AC35">
-        <v>-3.7448739931278396E-7</v>
+        <v>-7.5313027991796844E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626758784056</v>
+        <v>973.35376590490341</v>
       </c>
       <c r="AE35">
-        <v>2.7773751298809657E-7</v>
+        <v>1.137098024628358E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>1237.062674947083</v>
+        <v>973.35376497358084</v>
       </c>
       <c r="AG35">
-        <v>-4.8374886318924837E-8</v>
+        <v>-3.1971035241440404E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>1.8115785369625735E-14</v>
+        <v>2.4078354720653245E-13</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3435520617300082E-14</v>
+        <v>-3.6354201018365501E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -10127,12 +10137,18 @@
       </c>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.8</v>
+      </c>
       <c r="F36" s="16" t="s">
         <v>87</v>
       </c>
       <c r="G36">
         <f>ROUND(G17/$C$20 * 100, 2)</f>
-        <v>16.11</v>
+        <v>13.36</v>
       </c>
       <c r="H36" t="s">
         <v>95</v>
@@ -10142,32 +10158,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>1237.062674947083</v>
+        <v>973.35376497358084</v>
       </c>
       <c r="AC36">
-        <v>-4.8374886318924837E-8</v>
+        <v>-3.1971035241440404E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626758784056</v>
+        <v>973.35376590490341</v>
       </c>
       <c r="AE36">
-        <v>2.7773751298809657E-7</v>
+        <v>1.137098024628358E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626754127443</v>
+        <v>973.35376543924212</v>
       </c>
       <c r="AG36">
-        <v>1.1468137017800473E-7</v>
+        <v>-1.0300038866262184E-7</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>-5.5476982452595156E-15</v>
+        <v>3.2930290558147417E-14</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>3.1851318539306298E-14</v>
+        <v>-1.1712153848422042E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -10175,17 +10191,12 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B37" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
       <c r="F37" s="18" t="s">
         <v>140</v>
       </c>
       <c r="G37">
         <f>ROUND(SUM(G18:G20)/$C$20 * 100, 2)</f>
-        <v>15.85</v>
+        <v>12.73</v>
       </c>
       <c r="H37" t="s">
         <v>95</v>
@@ -10195,32 +10206,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>1237.062674947083</v>
+        <v>973.35376543924212</v>
       </c>
       <c r="AC37">
-        <v>-4.8374886318924837E-8</v>
+        <v>-1.0300038866262184E-7</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626754127443</v>
+        <v>973.35376590490341</v>
       </c>
       <c r="AE37">
-        <v>1.1468137017800473E-7</v>
+        <v>1.137098024628358E-7</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626751799136</v>
+        <v>973.35376567207277</v>
       </c>
       <c r="AG37">
-        <v>3.3153128242702223E-8</v>
+        <v>5.354650056688115E-9</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>-1.6037788098574564E-15</v>
+        <v>-5.5153103699120594E-16</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>3.802046172560197E-15</v>
+        <v>6.0887620020361805E-16</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -10228,18 +10239,17 @@
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1">
-        <v>30</v>
-      </c>
+      <c r="B38" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="F38" s="17" t="s">
         <v>108</v>
       </c>
       <c r="G38">
         <f>ROUND(SUM(G21:G25)/$C$20 * 100, 2)</f>
-        <v>29.83</v>
+        <v>28.13</v>
       </c>
       <c r="H38" t="s">
         <v>95</v>
@@ -10249,32 +10259,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>1237.062674947083</v>
+        <v>973.35376543924212</v>
       </c>
       <c r="AC38">
-        <v>-4.8374886318924837E-8</v>
+        <v>-1.0300038866262184E-7</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626751799136</v>
+        <v>973.35376567207277</v>
       </c>
       <c r="AE38">
-        <v>3.3153128242702223E-8</v>
+        <v>5.354650056688115E-9</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626750634983</v>
+        <v>973.35376555565745</v>
       </c>
       <c r="AG38">
-        <v>-7.6107653512735851E-9</v>
+        <v>-4.8822926146385726E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>3.6816990866787173E-16</v>
+        <v>5.0287803687242119E-15</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-2.523206797158878E-16</v>
+        <v>-2.6142968425742398E-16</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -10282,12 +10292,18 @@
       </c>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30</v>
+      </c>
       <c r="F39" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G39">
         <f>ROUND(SUM(G26:G29)/$C$20*100, 2)</f>
-        <v>5.87</v>
+        <v>4.67</v>
       </c>
       <c r="H39" t="s">
         <v>95</v>
@@ -10297,32 +10313,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626750634983</v>
+        <v>973.35376555565745</v>
       </c>
       <c r="AC39">
-        <v>-7.6107653512735851E-9</v>
+        <v>-4.8822926146385726E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626751799136</v>
+        <v>973.35376567207277</v>
       </c>
       <c r="AE39">
-        <v>3.3153128242702223E-8</v>
+        <v>5.354650056688115E-9</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>1237.062675121706</v>
+        <v>973.35376561386511</v>
       </c>
       <c r="AG39">
-        <v>1.2771124602295458E-8</v>
+        <v>-2.1734081201429944E-8</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>-9.7198032619947919E-17</v>
+        <v>1.0611214413569645E-15</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>4.2340273174343076E-16</v>
+        <v>-1.1637839913730095E-16</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -10345,32 +10361,32 @@
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626750634983</v>
+        <v>973.35376561386511</v>
       </c>
       <c r="AC40">
-        <v>-7.6107653512735851E-9</v>
+        <v>-2.1734081201429944E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>1237.062675121706</v>
+        <v>973.35376567207277</v>
       </c>
       <c r="AE40">
-        <v>1.2771124602295458E-8</v>
+        <v>5.354650056688115E-9</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626750926021</v>
+        <v>973.35376564296894</v>
       </c>
       <c r="AG40">
-        <v>2.5800090952543542E-9</v>
+        <v>-8.1897724157897756E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>-1.9635843828132549E-17</v>
+        <v>1.7799717870600606E-16</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>3.2949617630548929E-17</v>
+        <v>-4.3853365330471482E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -10383,32 +10399,32 @@
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626750634983</v>
+        <v>973.35376564296894</v>
       </c>
       <c r="AC41">
-        <v>-7.6107653512735851E-9</v>
+        <v>-8.1897724157897756E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626750926021</v>
+        <v>973.35376567207277</v>
       </c>
       <c r="AE41">
-        <v>2.5800090952543542E-9</v>
+        <v>5.354650056688115E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626750780502</v>
+        <v>973.35376565752085</v>
       </c>
       <c r="AG41">
-        <v>-2.515207597753033E-9</v>
+        <v>-1.4176748663885519E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>1.9142654836238853E-17</v>
+        <v>1.1610434515307418E-17</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>-6.4892584786556804E-18</v>
+        <v>-7.5911528036727752E-18</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -10427,32 +10443,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626750780502</v>
+        <v>973.35376565752085</v>
       </c>
       <c r="AC42">
-        <v>-2.515207597753033E-9</v>
+        <v>-1.4176748663885519E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626750926021</v>
+        <v>973.35376567207277</v>
       </c>
       <c r="AE42">
-        <v>2.5800090952543542E-9</v>
+        <v>5.354650056688115E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626750853262</v>
+        <v>973.35376566479681</v>
       </c>
       <c r="AG42">
-        <v>3.2400748750660568E-11</v>
+        <v>1.9683739083120599E-9</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>-8.1494609430548555E-20</v>
+        <v>-2.7905142174690113E-18</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>8.359422646975542E-20</v>
+        <v>1.0539953459726578E-17</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -10471,32 +10487,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626750780502</v>
+        <v>973.35376565752085</v>
       </c>
       <c r="AC43">
-        <v>-2.515207597753033E-9</v>
+        <v>-1.4176748663885519E-9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626750853262</v>
+        <v>973.35376566479681</v>
       </c>
       <c r="AE43">
-        <v>3.2400748750660568E-11</v>
+        <v>1.9683739083120599E-9</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>1237.0626750816882</v>
+        <v>973.35376566115883</v>
       </c>
       <c r="AG43">
-        <v>-1.2415739547577687E-9</v>
+        <v>2.7534952096175402E-10</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>3.1228162441790202E-18</v>
+        <v>-3.903560953396064E-19</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>-4.0227925763470474E-20</v>
+        <v>5.4199081272734124E-19</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -10512,32 +10528,32 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>1237.0626750816882</v>
+        <v>973.35376565752085</v>
       </c>
       <c r="AC44">
-        <v>-1.2415739547577687E-9</v>
+        <v>-1.4176748663885519E-9</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>1237.0626750853262</v>
+        <v>973.35376566115883</v>
       </c>
       <c r="AE44">
-        <v>3.2400748750660568E-11</v>
+        <v>2.7534952096175402E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>1237.0626750835072</v>
+        <v>973.35376565933984</v>
       </c>
       <c r="AG44">
-        <v>-6.0435922932811081E-10</v>
+        <v>-5.7104898587567732E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>7.5035667845125979E-19</v>
+        <v>8.095617947526189E-19</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>-1.958169154460297E-20</v>
+        <v>-1.5723806470656319E-19</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -10626,7 +10642,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F11:H11"/>
@@ -10634,12 +10656,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
@@ -10670,8 +10686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04399F6A-8712-2C4A-BDE2-261DEBFAF47B}">
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCDDFB-7B6C-5B47-A84F-E4DC7D7683A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC90A818-E4F4-4441-8166-ADFCF825D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="155">
   <si>
     <t>!!! Press F9 to recalculate !!!</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>hover_FM</t>
-  </si>
-  <si>
-    <t>Wing parameters</t>
   </si>
   <si>
     <t>Cd0</t>
@@ -621,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -654,16 +651,31 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3383,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3423,115 +3435,115 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="F3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="J3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="P3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="AA3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <f xml:space="preserve"> 1/$C$7 * SQRT( ($C$15*$C$27)^3 / (2 * $C$26 * PI() * $C$16^2* $C$5) )</f>
         <v>151102.29547988271</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <f xml:space="preserve"> 0.5 * $C$26 * $C$17^2</f>
         <v>551.25</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="8">
         <v>0</v>
@@ -3594,30 +3606,30 @@
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$15 * $C$27 / $C$5</f>
         <v>1263.5570132632372</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5">
         <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
         <v>2.6248558944624021</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="8">
         <v>1</v>
@@ -3665,14 +3677,14 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15"/>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
         <v>-185.46845484670672</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15"/>
         <v>278.07906506336235</v>
       </c>
       <c r="AF5" s="8">
@@ -3704,7 +3716,7 @@
         <v>0.13</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6">
         <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
@@ -3794,19 +3806,19 @@
         <v>0.75</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> K4 * K5</f>
         <v>1446.9518118223991</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
@@ -3886,24 +3898,24 @@
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
         <v>15881.229952984293</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <f xml:space="preserve"> K7</f>
         <v>1446.9518118223991</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="8">
         <v>4</v>
@@ -3983,19 +3995,19 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <f>$C$5 * G8</f>
         <v>111168.60967089006</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="8">
         <v>5</v>
@@ -4075,13 +4087,13 @@
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
@@ -4161,18 +4173,18 @@
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>0.85</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -4254,30 +4266,30 @@
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>0.8</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <f xml:space="preserve"> (G4*$C$23 + G9*G13)/3600</f>
         <v>40953.655718350536</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12">
         <f xml:space="preserve"> SQRT( ($C$15*$C$27)^2 + K8^2)</f>
         <v>8962.4722877287077</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="8">
         <v>8</v>
@@ -4357,17 +4369,17 @@
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <f xml:space="preserve"> $C$22 / $C$17</f>
         <v>1000</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <f>$C$15*$C$27/K12</f>
@@ -4451,7 +4463,7 @@
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4533,17 +4545,17 @@
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3">
         <f>AF44</f>
         <v>901.62070263431815</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -4625,26 +4637,26 @@
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16">
         <f>C15</f>
         <v>901.62070263431815</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -4726,33 +4738,33 @@
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <f xml:space="preserve"> G12 / ($C$10 * $C$11 * $C$12)</f>
         <v>240.90385716676786</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <f xml:space="preserve"> ACOS(K13)</f>
         <v>0.16215530486908292</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P17" s="8">
         <v>13</v>
@@ -4832,30 +4844,30 @@
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1">
         <v>0.3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18">
         <f xml:space="preserve"> $C$28 * ($C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592)</f>
         <v>38.063156558612476</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$5</f>
         <v>1280.353183961244</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P18" s="8">
         <v>14</v>
@@ -4935,24 +4947,24 @@
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F19" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.2138 * (G4/1000)</f>
         <v>32.305670773598919</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
         <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
         <v>98.688161133317806</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" s="8">
         <v>15</v>
@@ -5032,22 +5044,22 @@
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="F20" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20">
         <f xml:space="preserve"> 2.20462 * (49.9/398 * (G4/$C$5/1000 - 2) + 0.1) * 0.453592 * $C$5</f>
         <v>17.88942278673828</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <f xml:space="preserve"> K18 / ($C$26 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
@@ -5131,26 +5143,26 @@
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1">
         <v>400</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21">
         <f xml:space="preserve"> $C$28 * (14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
         <v>112.71597872804246</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" s="1">
         <v>1.2E-2</v>
@@ -5233,33 +5245,33 @@
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>30000</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22">
         <f xml:space="preserve"> $C$28 * (0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592)</f>
         <v>17.625716236253371</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
         <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$26 * K19^3 *$C$16^ 5)</f>
         <v>1023.1636046159005</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="8">
         <v>18</v>
@@ -5339,26 +5351,26 @@
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <f xml:space="preserve"> $C$28 * 0</f>
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23" s="5">
         <f>U34</f>
@@ -5442,24 +5454,24 @@
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F24" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24">
         <f xml:space="preserve"> $C$28 * 0</f>
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24">
         <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
         <v>5.3144945064573985</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
@@ -5539,22 +5551,22 @@
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="F25" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <f xml:space="preserve"> $C$28 * (0.0268 * $C$15)</f>
         <v>19.330747864479783</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25">
         <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$26*PI()*$C$16^2) / K18^3 )</f>
@@ -5638,26 +5650,26 @@
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>1.2250000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26">
         <f xml:space="preserve"> $C$28 * (11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592)</f>
         <v>5.4928313010185237</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" s="1">
         <v>1.1499999999999999</v>
@@ -5740,26 +5752,26 @@
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>9.81</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27">
         <f xml:space="preserve"> $C$28 * (8 * ($C$15/1000))</f>
         <v>5.7703724968596362</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27">
         <f xml:space="preserve"> 1/$C$31 * LN( EXP($C$31 * K25) + EXP($C$31 * K26) )</f>
@@ -5843,20 +5855,20 @@
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1">
         <v>0.8</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28">
         <f xml:space="preserve"> $C$28 * (13 * ($C$15*2.20462/1000)^1.3 * 0.453592)</f>
         <v>11.522948722167886</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
@@ -5936,14 +5948,14 @@
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F29" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="3">
         <f>$C$15 - $C$21 - SUM(G17:G28)</f>
         <v>-2.2106405594968237E-10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P29" s="8">
         <v>25</v>
@@ -6023,12 +6035,12 @@
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" s="10" t="str">
         <f>IF(ABS(G29)&lt;0.00001, "TRUE", "FALSE")</f>
@@ -6112,7 +6124,7 @@
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -6272,7 +6284,7 @@
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -6354,20 +6366,20 @@
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1">
         <v>1.2</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34">
         <f>ROUND($C$21/$C$15 * 100, 2)</f>
         <v>44.36</v>
       </c>
       <c r="H34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P34" s="8">
         <v>30</v>
@@ -6447,20 +6459,20 @@
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="1">
         <v>50</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35">
         <f>ROUND(G17/$C$15 * 100, 2)</f>
         <v>26.72</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA35" s="8">
         <v>31</v>
@@ -6504,14 +6516,14 @@
         <v>0.3</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36">
         <f>ROUND(SUM(G18:G20)/$C$15 * 100, 2)</f>
         <v>9.7899999999999991</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA36" s="8">
         <v>32</v>
@@ -6552,14 +6564,14 @@
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F37" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37">
         <f>ROUND(SUM(G21:G24)/$C$15 * 100, 2)</f>
         <v>14.46</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA37" s="8">
         <v>33</v>
@@ -6600,14 +6612,14 @@
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.2">
       <c r="F38" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38">
         <f>ROUND(SUM(G25:G28)/$C$15*100, 2)</f>
         <v>4.67</v>
       </c>
       <c r="H38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA38" s="8">
         <v>34</v>
@@ -6648,20 +6660,20 @@
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1">
         <v>1.49999999995335</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39" s="3">
         <f>SUM(G34:G38)</f>
         <v>100.00000000000001</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA39" s="8">
         <v>35</v>
@@ -6702,7 +6714,7 @@
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1">
         <v>26.069459131922201</v>
@@ -6863,7 +6875,7 @@
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -6907,7 +6919,7 @@
     </row>
     <row r="45" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1">
         <v>30</v>
@@ -6915,7 +6927,7 @@
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1">
         <v>0.3</v>
@@ -6974,10 +6986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
-  <dimension ref="B1:AJ60"/>
+  <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7016,115 +7028,115 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="J3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="J3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="AA3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$17*$C$32)^3 / (2 * $C$31 * PI() * $C$18^2* $C$5) )</f>
+        <v>183068.95987062171</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="G4">
-        <f xml:space="preserve"> 1/$C$9 * SQRT( ($C$20*$C$34)^3 / (2 * $C$33 * PI() * $C$21^2* $C$5) )</f>
-        <v>183068.95987062171</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> $C$20 * $C$34</f>
+        <f xml:space="preserve"> $C$17 * $C$32</f>
         <v>9548.6004411181239</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="8">
         <v>0</v>
@@ -7187,30 +7199,30 @@
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
       </c>
       <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f xml:space="preserve"> $C$17 * $C$32 / $C$5</f>
+        <v>1591.4334068530206</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="G5">
-        <f xml:space="preserve"> $C$20 * $C$34 / $C$5</f>
-        <v>1591.4334068530206</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> 0.5 * $C$31 * $C$20^2</f>
+        <v>551.25</v>
+      </c>
+      <c r="L5" t="s">
         <v>47</v>
-      </c>
-      <c r="K5">
-        <f xml:space="preserve"> 0.5 * $C$33 * $C$23^2</f>
-        <v>551.25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
       </c>
       <c r="P5" s="8">
         <v>1</v>
@@ -7258,14 +7270,14 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C20"/>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C17"/>
         <v>-239.20135546202488</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C17" ca="1"/>
         <v>266.79585567538084</v>
       </c>
       <c r="AF5" s="8">
@@ -7273,7 +7285,7 @@
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C20" ca="1"/>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C17" ca="1"/>
         <v>193.34721893618428</v>
       </c>
       <c r="AH5" s="8">
@@ -7291,20 +7303,20 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <f xml:space="preserve"> 1.6 * ($C$20*2.20462/1000)^(2/3) * 0.3048^2</f>
+        <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
         <v>0.24729739726292774</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -7389,16 +7401,16 @@
       <c r="C7" s="1">
         <v>0.13</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <f xml:space="preserve"> K6 / $C$24</f>
+        <f xml:space="preserve"> K6 / $C$21</f>
         <v>3.0912174657865967E-2</v>
       </c>
       <c r="P7" s="8">
@@ -7485,24 +7497,24 @@
         <v>0.13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$23 * SIN(K17))</f>
+        <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$20 * SIN(K17))</f>
         <v>35669.314211023666</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8">
-        <f xml:space="preserve"> K5 * $C$24 * K7</f>
+        <f xml:space="preserve"> K5 * $C$21 * K7</f>
         <v>136.32269024118892</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="8">
         <v>4</v>
@@ -7588,20 +7600,20 @@
         <v>0.75</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <f xml:space="preserve"> $C$6 * G8</f>
         <v>35669.314211023666</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9">
-        <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$12^0.68) - 0.64</f>
+        <f xml:space="preserve"> 1.78 * (1 - 0.045 * $C$22^0.68) - 0.64</f>
         <v>0.75661729604956662</v>
       </c>
       <c r="P9" s="8">
@@ -7682,10 +7694,10 @@
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <f xml:space="preserve"> K4 / (K5 * $C$24)</f>
+        <f xml:space="preserve"> K4 / (K5 * $C$21)</f>
         <v>2.1652155195279192</v>
       </c>
       <c r="P10" s="8">
@@ -7766,20 +7778,20 @@
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
-      <c r="F11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$12 )</f>
+        <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$22 )</f>
         <v>0.22814360532814099</v>
       </c>
       <c r="P11" s="8">
@@ -7860,30 +7872,33 @@
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <f xml:space="preserve"> (G4*$C$28 + G9*G13)/3600</f>
+        <v>22112.740161103578</v>
+      </c>
+      <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="G12">
-        <f xml:space="preserve"> (G4*$C$30 + G9*G13)/3600</f>
-        <v>22112.740161103578</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <f xml:space="preserve"> K5 * K11 * $C$24</f>
+        <f xml:space="preserve"> K5 * K11 * $C$21</f>
         <v>1006.1132994971017</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="8">
         <v>8</v>
@@ -7962,18 +7977,24 @@
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.85</v>
+      </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13">
-        <f xml:space="preserve"> $C$29 / $C$23</f>
+        <f xml:space="preserve"> $C$27 / $C$20</f>
         <v>1000</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13">
         <f>K10/K11</f>
@@ -8056,11 +8077,12 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.8</v>
+      </c>
       <c r="P14" s="8">
         <v>10</v>
       </c>
@@ -8138,20 +8160,11 @@
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>250</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="F15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="P15" s="8">
         <v>11</v>
       </c>
@@ -8229,27 +8242,26 @@
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.85</v>
-      </c>
+      <c r="B16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="5">
-        <f>C20</f>
+        <f>C17</f>
         <v>973.35376565933984</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
@@ -8327,31 +8339,35 @@
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.8</v>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3">
+        <f>AF44</f>
+        <v>973.35376565933984</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17">
-        <f xml:space="preserve"> G12 / ($C$15 * $C$16 * $C$17)</f>
+        <f xml:space="preserve"> G12 / ($C$12 * $C$13 * $C$14)</f>
         <v>130.07494212413869</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <f xml:space="preserve"> (90 - $C$33) / 180 * PI()</f>
+        <v>1.48352986419518</v>
+      </c>
+      <c r="L17" t="s">
         <v>51</v>
-      </c>
-      <c r="K17">
-        <f xml:space="preserve"> (90 - $C$35) / 180 * PI()</f>
-        <v>1.48352986419518</v>
-      </c>
-      <c r="L17" t="s">
-        <v>52</v>
       </c>
       <c r="P17" s="8">
         <v>13</v>
@@ -8430,25 +8446,34 @@
       </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> $C$36 * ($C$5 * 0.144 * (2*$C$21*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$22*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592)</f>
+        <f xml:space="preserve"> $C$34 * ($C$5 * 0.144 * (2*$C$18*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$19*3.28084 * (G9*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592)</f>
         <v>50.818046878262777</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$6</f>
         <v>1006.1132994971017</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P18" s="8">
         <v>14</v>
@@ -8527,30 +8552,34 @@
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19">
         <f xml:space="preserve"> 0.2138 * (G4/1000) + 0.2138 * (G9/1000)</f>
         <v>46.766242998655777</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <f xml:space="preserve"> PI() * $C$20 / ($C$19 * $C$23)</f>
+        <v>94.247779607693786</v>
+      </c>
+      <c r="L19" t="s">
         <v>53</v>
-      </c>
-      <c r="K19">
-        <f xml:space="preserve"> PI() * $C$23 / ($C$22 * $C$25)</f>
-        <v>94.247779607693786</v>
-      </c>
-      <c r="L19" t="s">
-        <v>54</v>
       </c>
       <c r="P19" s="8">
         <v>15</v>
@@ -8629,31 +8658,30 @@
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3">
-        <f>AF44</f>
-        <v>973.35376565933984</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20">
         <f>2.20462 * (49.9/398 * (G4/$C$5/1000 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (G8/1000 -2) + 0.1) * 0.453592 * $C$6</f>
         <v>26.36939405663054</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <f xml:space="preserve"> $C$23 * COS(K17) / (K19 * $C$22)</f>
+        <f xml:space="preserve"> $C$20 * COS(K17) / (K19 * $C$19)</f>
         <v>2.7742534554270875E-2</v>
       </c>
       <c r="P20" s="8">
@@ -8734,29 +8762,29 @@
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21">
-        <f xml:space="preserve"> $C$36 * (14.86 * ($C$20*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
+        <f xml:space="preserve"> $C$34 * (14.86 * ($C$17*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
         <v>113.96540314190996</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <f xml:space="preserve"> K18 / ( $C$33 * PI() * $C$22^2 * K19^2 * $C$22^2)</f>
+        <f xml:space="preserve"> K18 / ( $C$31 * PI() * $C$19^2 * K19^2 * $C$19^2)</f>
         <v>2.9431925371819261E-2</v>
       </c>
       <c r="P21" s="8">
@@ -8837,26 +8865,23 @@
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22">
-        <f xml:space="preserve"> $C$36 * (0.054 * (0.7*3.28084)^0.501 * ($C$20*2.20462*5.7)^0.684 * 0.453592)</f>
+        <f xml:space="preserve"> $C$34 * (0.054 * (0.7*3.28084)^0.501 * ($C$17*2.20462*5.7)^0.684 * 0.453592)</f>
         <v>18.57323746007469</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22" s="1">
         <v>1.2E-2</v>
@@ -8939,33 +8964,30 @@
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23">
-        <f xml:space="preserve"> $C$36 * (0.04674 * ($C$20*2.20462)^0.397 * ($C$24*3.28084^2)^0.36 * 3^0.397 * $C$12^1.712 * 0.453592)</f>
+        <f xml:space="preserve"> $C$34 * (0.04674 * ($C$17*2.20462)^0.397 * ($C$21*3.28084^2)^0.36 * 3^0.397 * $C$22^1.712 * 0.453592)</f>
         <v>141.29598484699963</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$33 * K19^3 * C22^5)</f>
+        <f xml:space="preserve"> ($C$8 * $K$22 / 8) * (1 + 4.65 * K20^2) * ( PI() * $C$31 * K19^3 * C19^5)</f>
         <v>630.50053776545394</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
@@ -9044,27 +9066,18 @@
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24">
-        <f xml:space="preserve"> $C$36 * 0</f>
+        <f xml:space="preserve"> $C$34 * 0</f>
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24" s="5">
         <f>U34</f>
@@ -9147,31 +9160,30 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="F25" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25">
-        <f xml:space="preserve"> $C$36 * 0</f>
+        <f xml:space="preserve"> $C$34 * 0</f>
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <f xml:space="preserve"> K19 * $C$22 * K24 - $C$23 * SIN(K17)</f>
+        <f xml:space="preserve"> K19 * $C$19 * K24 - $C$20 * SIN(K17)</f>
         <v>3.8617852668247679</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
@@ -9250,21 +9262,30 @@
       </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1">
+        <v>400</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <f xml:space="preserve"> $C$36 * (0.0268 * $C$20)</f>
+        <f xml:space="preserve"> $C$34 * (0.0268 * $C$17)</f>
         <v>20.868704735736248</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$33*PI()*$C$22^2) / K18^3 )</f>
+        <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$31*PI()*$C$19^2) / K18^3 )</f>
         <v>1.2785216544037776</v>
       </c>
       <c r="P26" s="8">
@@ -9344,23 +9365,27 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27">
-        <f xml:space="preserve"> $C$36 * (11.5 * ($C$20*2.20462/1000)^0.4 * 0.453592)</f>
+        <f xml:space="preserve"> $C$34 * (11.5 * ($C$17*2.20462/1000)^0.4 * 0.453592)</f>
         <v>5.6636315995749342</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="1">
         <v>1.1499999999999999</v>
@@ -9443,29 +9468,29 @@
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28">
-        <f xml:space="preserve"> $C$36 * (8 * ($C$20/1000))</f>
+        <f xml:space="preserve"> $C$34 * (8 * ($C$17/1000))</f>
         <v>6.2294641002197757</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <f xml:space="preserve"> 1/$C$39 * LN( EXP($C$39 * K26) + EXP($C$39 * K27) )</f>
+        <f xml:space="preserve"> 1/$C$37 * LN( EXP($C$37 * K26) + EXP($C$37 * K27) )</f>
         <v>1.2792196241301033</v>
       </c>
       <c r="P28" s="8">
@@ -9545,24 +9570,15 @@
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
       <c r="F29" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29">
-        <f xml:space="preserve"> $C$36 * (13 * ($C$20*2.20462/1000)^1.3 * 0.453592)</f>
+        <f xml:space="preserve"> $C$34 * (13 * ($C$17*2.20462/1000)^1.3 * 0.453592)</f>
         <v>12.728713717707878</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P29" s="8">
         <v>25</v>
@@ -9641,24 +9657,20 @@
       </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1">
-        <v>240</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
+      <c r="B30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="F30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="3">
-        <f>$C$20 - $C$28 - SUM(G17:G29)</f>
+        <f>$C$17 - $C$26 - SUM(G17:G29)</f>
         <v>-5.7104898587567732E-10</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P30" s="8">
         <v>26</v>
@@ -9737,8 +9749,17 @@
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="10" t="str">
         <f>IF(ABS(G30)&lt;0.00001, "TRUE", "FALSE")</f>
@@ -9821,11 +9842,15 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
       <c r="P32" s="8">
         <v>28</v>
       </c>
@@ -9904,13 +9929,13 @@
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1">
-        <v>1.2250000000000001</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="P33" s="8">
         <v>29</v>
@@ -9990,16 +10015,13 @@
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1">
-        <v>9.81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -10080,24 +10102,15 @@
       </c>
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>74</v>
-      </c>
       <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35">
+        <f>ROUND($C$26/$C$17 * 100, 2)</f>
+        <v>41.1</v>
+      </c>
+      <c r="H35" t="s">
         <v>94</v>
-      </c>
-      <c r="G35">
-        <f>ROUND($C$28/$C$20 * 100, 2)</f>
-        <v>41.1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>95</v>
       </c>
       <c r="AA35" s="8">
         <v>31</v>
@@ -10137,21 +10150,20 @@
       </c>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="B36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="F36" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36">
-        <f>ROUND(G17/$C$20 * 100, 2)</f>
+        <f>ROUND(G17/$C$17 * 100, 2)</f>
         <v>13.36</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA36" s="8">
         <v>32</v>
@@ -10191,15 +10203,21 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30</v>
+      </c>
       <c r="F37" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37">
-        <f>ROUND(SUM(G18:G20)/$C$20 * 100, 2)</f>
+        <f>ROUND(SUM(G18:G20)/$C$17 * 100, 2)</f>
         <v>12.73</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA37" s="8">
         <v>33</v>
@@ -10239,20 +10257,15 @@
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
       <c r="F38" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38">
-        <f>ROUND(SUM(G21:G25)/$C$20 * 100, 2)</f>
+        <f>ROUND(SUM(G21:G25)/$C$17 * 100, 2)</f>
         <v>28.13</v>
       </c>
       <c r="H38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA38" s="8">
         <v>34</v>
@@ -10293,20 +10306,20 @@
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1">
-        <v>30</v>
+        <v>1.2</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G39">
-        <f>ROUND(SUM(G26:G29)/$C$20*100, 2)</f>
+        <f>ROUND(SUM(G26:G29)/$C$17*100, 2)</f>
         <v>4.67</v>
       </c>
       <c r="H39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA39" s="8">
         <v>35</v>
@@ -10346,15 +10359,21 @@
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.9</v>
+      </c>
       <c r="F40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="3">
         <f>SUM(G35:G39)</f>
         <v>99.99</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA40" s="8">
         <v>36</v>
@@ -10394,6 +10413,9 @@
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>50</v>
+      </c>
       <c r="AA41" s="8">
         <v>37</v>
       </c>
@@ -10432,11 +10454,8 @@
       </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
       <c r="C42" s="1">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA42" s="8">
         <v>38</v>
@@ -10476,11 +10495,8 @@
       </c>
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
       <c r="C43" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="8">
         <v>39</v>
@@ -10520,9 +10536,6 @@
       </c>
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="C44" s="1">
-        <v>50</v>
-      </c>
       <c r="AA44" s="8">
         <v>40</v>
       </c>
@@ -10560,102 +10573,89 @@
         <v>3.637978807091713E-9</v>
       </c>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="C45" s="1">
-        <v>6.4</v>
-      </c>
-    </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
       <c r="C46" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.78200689098041498</v>
+      </c>
+    </row>
+    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>9.5011032278081</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>1.2999999999999901</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="1">
-        <v>0.78200689098041498</v>
-      </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C51" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C52" s="1">
-        <v>9.5011032278081</v>
-      </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C53" s="1">
-        <v>1.2999999999999901</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>30</v>
+      </c>
       <c r="AA55" s="8"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>146</v>
-      </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA56" s="8"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>148</v>
-      </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C59" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <conditionalFormatting sqref="G31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
@@ -10697,16 +10697,16 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>3269</v>
@@ -10732,12 +10732,12 @@
         <v>3863</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>6.6</v>
@@ -10775,12 +10775,12 @@
         <v>15.8</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <f>2.5 * (C3/1000) ^ (2/3)</f>
@@ -10805,7 +10805,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <f>C5/((C3/1000)^(2/3))</f>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <f>C3*$C$21*$C$20 / C4</f>
@@ -10849,12 +10849,12 @@
         <v>4297.3340099400002</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <f>(C11/C4)*1000/C12</f>
@@ -10877,12 +10877,12 @@
         <v>574.18899999999996</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10">
         <f>177*$C$19</f>
@@ -10905,12 +10905,12 @@
         <v>76.061400000000006</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <f>252*$C$19</f>
@@ -10933,12 +10933,12 @@
         <v>229.6756</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>23.323513060327823</v>
@@ -10956,12 +10956,12 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14">
         <f xml:space="preserve"> 2.20462/1000 * (7200/500 * (C8 - 300) + 800) * C4 * $C$18</f>
@@ -10984,12 +10984,12 @@
         <v>411.72855063012003</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15">
         <f>2.20462 * (58/990 * (C9 - 10) + 2) * C4 * $C$18</f>
@@ -11012,12 +11012,12 @@
         <v>309.11856195733338</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16">
         <f>2.20462 * (49.9/398 * (C11/C4-2) + 0.1) * C4 * $C$18</f>
@@ -11040,12 +11040,12 @@
         <v>66.277197701519597</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -11053,13 +11053,13 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19">
         <v>0.74570000000000003</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L19">
         <v>84</v>
@@ -11091,13 +11091,13 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20">
         <v>9.81</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L20">
         <v>400</v>
@@ -11129,13 +11129,13 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21">
         <v>0.453592</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L21">
         <f>9550*L19/L20</f>

--- a/sheets/estimate_mtow.xlsx
+++ b/sheets/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553E4CB-CC55-6447-95FD-829C7DA17675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52373BDA-49A0-C54A-8B02-58F7A56D80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_aerofidelity1" sheetId="6" r:id="rId1"/>
@@ -828,27 +828,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -8060,8 +8060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386DB79C-1BC3-3C43-BDF1-7040343899A3}">
   <dimension ref="B1:AV104"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8108,11 +8108,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="32" t="s">
@@ -8123,36 +8123,36 @@
       </c>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="39" t="s">
         <v>110</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="N3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="R3" s="37" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="R3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="V3" s="37" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="V3" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
       <c r="AB3" s="23" t="s">
         <v>63</v>
       </c>
@@ -8581,11 +8581,11 @@
       <c r="H7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="N7" s="20" t="s">
         <v>57</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="40"/>
@@ -8923,11 +8923,11 @@
       <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
       <c r="AB10" s="8">
         <v>6</v>
       </c>
@@ -9021,26 +9021,26 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="N11" s="38" t="s">
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="N11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="R11" s="38" t="s">
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="R11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="V11" s="38" t="s">
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="V11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
       <c r="AB11" s="8">
         <v>7</v>
       </c>
@@ -9373,11 +9373,11 @@
       </c>
     </row>
     <row r="14" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="F14" t="s">
         <v>127</v>
       </c>
@@ -9611,21 +9611,21 @@
       <c r="L16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="R16" s="38" t="s">
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="R16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="V16" s="38" t="s">
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="V16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
       <c r="AB16" s="8">
         <v>12</v>
       </c>
@@ -10099,11 +10099,11 @@
       </c>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="J20" s="30" t="s">
         <v>87</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="D21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="39" t="s">
         <v>118</v>
       </c>
       <c r="G21" s="40"/>
@@ -10585,11 +10585,11 @@
       </c>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
       <c r="F24" s="25" t="s">
         <v>121</v>
       </c>
@@ -10844,11 +10844,11 @@
       <c r="D26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="26" t="s">
         <v>78</v>
       </c>
@@ -11161,11 +11161,11 @@
       </c>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="F29" t="s">
         <v>125</v>
       </c>
@@ -11175,11 +11175,11 @@
       <c r="H29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="J29" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
       <c r="AB29" s="8">
         <v>25</v>
       </c>
@@ -11457,11 +11457,11 @@
       </c>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="F32" t="s">
         <v>152</v>
       </c>
@@ -11834,11 +11834,11 @@
       </c>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="AM36" s="8">
         <v>32</v>
       </c>
@@ -11884,16 +11884,16 @@
         <v>4</v>
       </c>
       <c r="D37"/>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="39" t="s">
         <v>111</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
-      <c r="J37" s="37" t="s">
+      <c r="J37" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
       <c r="AB37" s="32" t="s">
         <v>142</v>
       </c>
@@ -12234,11 +12234,11 @@
       </c>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
       <c r="F41" t="s">
         <v>30</v>
       </c>
@@ -14948,20 +14948,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J29:L29"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="B20:D20"/>
@@ -14977,6 +14963,20 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J29:L29"/>
   </mergeCells>
   <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="FALSE">
@@ -15007,8 +15007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB802F2-2FDE-5A44-A0C0-5755377D5D47}">
   <dimension ref="B1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15058,11 +15058,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="6" t="s">
@@ -15073,36 +15073,36 @@
       </c>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="F3" s="41" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="43" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="N3" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="R3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="V3" s="43" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="V3" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
       <c r="AB3" s="7" t="s">
         <v>63</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17" ca="1"/>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17"/>
         <v>-371.36439259173994</v>
       </c>
       <c r="AP5" s="9">
@@ -15396,7 +15396,7 @@
         <v>1500</v>
       </c>
       <c r="AS5" s="8">
-        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C17"/>
+        <f t="dataTable" ref="AS5:AS44" dt2D="0" dtr="0" r1="C17" ca="1"/>
         <v>183.44935803668727</v>
       </c>
       <c r="AT5" s="8">
@@ -15886,16 +15886,16 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="J10" s="37" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="J10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
       <c r="N10" t="s">
         <v>138</v>
       </c>
@@ -15994,7 +15994,7 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="40"/>
@@ -16473,17 +16473,17 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="43" t="s">
         <v>140</v>
       </c>
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="43" t="s">
         <v>135</v>
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
-      <c r="V15" s="41" t="s">
+      <c r="V15" s="43" t="s">
         <v>149</v>
       </c>
       <c r="W15" s="46"/>
@@ -16565,11 +16565,11 @@
       </c>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="F16" t="s">
         <v>152</v>
       </c>
@@ -17223,11 +17223,11 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="J21" s="14" t="s">
         <v>84</v>
       </c>
@@ -17717,11 +17717,11 @@
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="F25" s="4"/>
       <c r="J25" s="14" t="s">
         <v>87</v>
@@ -17841,11 +17841,11 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="14" t="s">
         <v>192</v>
       </c>
@@ -18775,11 +18775,11 @@
       </c>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="F35" t="s">
         <v>132</v>
       </c>
@@ -18948,11 +18948,11 @@
       </c>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
       <c r="F38" t="s">
         <v>117</v>
       </c>
@@ -19346,11 +19346,11 @@
       <c r="H42" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="37" t="s">
+      <c r="J42" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
       <c r="AB42" s="8">
         <v>3</v>
       </c>
@@ -19428,11 +19428,11 @@
       </c>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
       <c r="J43" t="s">
         <v>81</v>
       </c>
@@ -19799,11 +19799,11 @@
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="G48" s="1">
         <v>7.32</v>
       </c>
@@ -20017,11 +20017,11 @@
       </c>
     </row>
     <row r="52" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
       <c r="G52" s="1">
         <v>0.87</v>
       </c>
@@ -20187,11 +20187,11 @@
       </c>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
       <c r="G55" s="1">
         <v>6</v>
       </c>
@@ -20476,11 +20476,11 @@
       </c>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
       <c r="J60" s="14" t="s">
         <v>87</v>
       </c>
@@ -22410,18 +22410,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="J10:L10"/>
@@ -22430,11 +22423,18 @@
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -22513,11 +22513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="32" t="s">
@@ -22528,36 +22528,36 @@
       </c>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="39" t="s">
         <v>110</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="N3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="R3" s="37" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="R3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="V3" s="37" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="V3" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
       <c r="AB3" s="23" t="s">
         <v>63</v>
       </c>
@@ -23112,11 +23112,11 @@
       <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="N8" s="20" t="s">
         <v>57</v>
       </c>
@@ -23224,7 +23224,7 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="40"/>
@@ -23337,11 +23337,11 @@
       <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
       <c r="J10" s="20" t="s">
         <v>35</v>
       </c>
@@ -23445,16 +23445,16 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="V11" s="38" t="s">
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="V11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
       <c r="AB11" s="8">
         <v>7</v>
       </c>
@@ -23547,16 +23547,16 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="N12" s="38" t="s">
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="N12" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
       <c r="R12" s="20" t="s">
         <v>102</v>
       </c>
@@ -23777,11 +23777,11 @@
       </c>
     </row>
     <row r="14" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="F14" t="s">
         <v>127</v>
       </c>
@@ -24025,16 +24025,16 @@
       <c r="L16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="V16" s="38" t="s">
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="V16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
       <c r="AB16" s="8">
         <v>12</v>
       </c>
@@ -24141,11 +24141,11 @@
       <c r="L17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
       <c r="R17" s="20" t="s">
         <v>41</v>
       </c>
@@ -24503,11 +24503,11 @@
       </c>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="J20" s="30" t="s">
         <v>86</v>
       </c>
@@ -24628,7 +24628,7 @@
       <c r="D21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="39" t="s">
         <v>118</v>
       </c>
       <c r="G21" s="40"/>
@@ -24992,11 +24992,11 @@
       </c>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
       <c r="F24" s="25" t="s">
         <v>121</v>
       </c>
@@ -25251,11 +25251,11 @@
       <c r="D26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="31" t="s">
         <v>91</v>
       </c>
@@ -25585,11 +25585,11 @@
       </c>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="F29" t="s">
         <v>125</v>
       </c>
@@ -25792,11 +25792,11 @@
       <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
       <c r="AB31" s="8">
         <v>27</v>
       </c>
@@ -25874,11 +25874,11 @@
       </c>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="F32" t="s">
         <v>152</v>
       </c>
@@ -26245,11 +26245,11 @@
       </c>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="J36" s="31" t="s">
         <v>96</v>
       </c>
@@ -26305,7 +26305,7 @@
         <v>4</v>
       </c>
       <c r="D37"/>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="39" t="s">
         <v>111</v>
       </c>
       <c r="G37" s="40"/>
@@ -26638,11 +26638,11 @@
       </c>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
       <c r="F41" t="s">
         <v>30</v>
       </c>
@@ -29326,14 +29326,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -29349,11 +29346,14 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -29428,11 +29428,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="AB2" s="6" t="s">
@@ -29443,36 +29443,36 @@
       </c>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="F3" s="41" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="43" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="N3" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="R3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="V3" s="43" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="V3" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
       <c r="AB3" s="7" t="s">
         <v>63</v>
       </c>
@@ -29751,14 +29751,14 @@
         <v>500</v>
       </c>
       <c r="AO5" s="8">
-        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17" ca="1"/>
+        <f t="dataTable" ref="AO5:AO44" dt2D="0" dtr="0" r1="C17"/>
         <v>-299.85215931533929</v>
       </c>
       <c r="AP5" s="9">
         <v>2500</v>
       </c>
       <c r="AQ5" s="8">
-        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C17"/>
+        <f t="dataTable" ref="AQ5:AQ44" dt2D="0" dtr="0" r1="C17" ca="1"/>
         <v>577.07028464771429</v>
       </c>
       <c r="AR5" s="8">
@@ -30267,16 +30267,16 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="J10" s="37" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="J10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
       <c r="N10" t="s">
         <v>58</v>
       </c>
@@ -30375,7 +30375,7 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="40"/>
@@ -30861,12 +30861,12 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="43" t="s">
         <v>135</v>
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
-      <c r="V15" s="41" t="s">
+      <c r="V15" s="43" t="s">
         <v>149</v>
       </c>
       <c r="W15" s="46"/>
@@ -30948,11 +30948,11 @@
       </c>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="F16" t="s">
         <v>152</v>
       </c>
@@ -30973,7 +30973,7 @@
       <c r="L16" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="43" t="s">
         <v>140</v>
       </c>
       <c r="O16" s="46"/>
@@ -31604,11 +31604,11 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="J21" s="14" t="s">
         <v>84</v>
       </c>
@@ -32095,11 +32095,11 @@
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="F25" s="4"/>
       <c r="J25" s="14" t="s">
         <v>87</v>
@@ -32222,11 +32222,11 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="J26" s="14" t="s">
         <v>192</v>
       </c>
@@ -33175,11 +33175,11 @@
       </c>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="F35" t="s">
         <v>132</v>
       </c>
@@ -33348,11 +33348,11 @@
       </c>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
       <c r="F38" t="s">
         <v>117</v>
       </c>
@@ -33746,11 +33746,11 @@
       <c r="H42" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="37" t="s">
+      <c r="J42" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
       <c r="AB42" s="8">
         <v>3</v>
       </c>
@@ -33828,11 +33828,11 @@
       </c>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
       <c r="J43" t="s">
         <v>81</v>
       </c>
@@ -34199,11 +34199,11 @@
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="G48" s="1">
         <v>7.32</v>
       </c>
@@ -34408,11 +34408,11 @@
       </c>
     </row>
     <row r="52" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
       <c r="G52" s="1">
         <v>0.87</v>
       </c>
@@ -34578,11 +34578,11 @@
       </c>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
       <c r="G55" s="1">
         <v>6</v>
       </c>
@@ -34867,11 +34867,11 @@
       </c>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
       <c r="J60" s="14" t="s">
         <v>86</v>
       </c>
@@ -36810,19 +36810,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="R15:T15"/>
@@ -36835,6 +36822,19 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
